--- a/Zaizd3.xlsx
+++ b/Zaizd3.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rozklad\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="20730" windowHeight="8940" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="20730" windowHeight="8940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="1" r:id="rId1"/>
@@ -34,7 +29,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="N15" authorId="0" shapeId="0">
+    <comment ref="N15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="1" shapeId="0">
+    <comment ref="B19" authorId="1">
       <text>
         <r>
           <rPr>
@@ -83,7 +78,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="B24" authorId="0" shapeId="0">
+    <comment ref="B24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +103,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0" shapeId="0">
+    <comment ref="N9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +143,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="N25" authorId="0" shapeId="0">
+    <comment ref="N25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +170,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="1" shapeId="0">
+    <comment ref="B11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -205,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="1" shapeId="0">
+    <comment ref="B12" authorId="1">
       <text>
         <r>
           <rPr>
@@ -220,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N17" authorId="1" shapeId="0">
+    <comment ref="N17" authorId="1">
       <text>
         <r>
           <rPr>
@@ -287,7 +282,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="J18" authorId="0" shapeId="0">
+    <comment ref="J18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0">
+    <comment ref="A21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0">
+    <comment ref="B37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1438,7 +1433,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1581,7 +1576,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1640,6 +1635,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1826,7 +1827,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1969,7 +1970,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2111,18 +2111,6 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2156,16 +2144,813 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Ввід" xfId="3" builtinId="20"/>
-    <cellStyle name="Гарний" xfId="1" builtinId="26"/>
+    <cellStyle name="Добре" xfId="1" builtinId="26"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
-    <cellStyle name="Нейтральний" xfId="2" builtinId="28"/>
     <cellStyle name="Поганий" xfId="4" builtinId="27"/>
     <cellStyle name="Примітка" xfId="5" builtinId="10"/>
+    <cellStyle name="Середній" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="150">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -2193,7 +2978,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2214,7 +2998,202 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2376,6 +3355,30 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2612,483 +3615,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -3119,21 +3645,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3151,494 +3662,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5526,35 +5549,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A1:Q26" totalsRowShown="0" headerRowDxfId="22" dataDxfId="2" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A1:Q26" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <autoFilter ref="A1:Q26"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Групи" dataDxfId="18"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="17"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="16"/>
-    <tableColumn id="17" name="Годин 2 заїзд" dataDxfId="15"/>
-    <tableColumn id="16" name="Годин 3 заїзд" dataDxfId="14"/>
-    <tableColumn id="15" name="Годин 4 заїзд" dataDxfId="13"/>
-    <tableColumn id="14" name="Використано годин" dataDxfId="12"/>
-    <tableColumn id="13" name="Курс робота/проект" dataDxfId="11"/>
-    <tableColumn id="5" name="Іспит" dataDxfId="10"/>
-    <tableColumn id="4" name="Залік" dataDxfId="9"/>
-    <tableColumn id="3" name="Необхідно використати" dataDxfId="1">
+    <tableColumn id="1" name="Групи" dataDxfId="54"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="53"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="52"/>
+    <tableColumn id="17" name="Годин 2 заїзд" dataDxfId="51"/>
+    <tableColumn id="16" name="Годин 3 заїзд" dataDxfId="50"/>
+    <tableColumn id="15" name="Годин 4 заїзд" dataDxfId="49"/>
+    <tableColumn id="14" name="Використано годин" dataDxfId="48"/>
+    <tableColumn id="13" name="Курс робота/проект" dataDxfId="47"/>
+    <tableColumn id="5" name="Іспит" dataDxfId="46"/>
+    <tableColumn id="4" name="Залік" dataDxfId="45"/>
+    <tableColumn id="3" name="Необхідно використати" dataDxfId="44">
       <calculatedColumnFormula>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Прим." dataDxfId="8"/>
-    <tableColumn id="8" name="Шифр спецільності" dataDxfId="7"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="6"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="5"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="4"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="3"/>
+    <tableColumn id="7" name="Прим." dataDxfId="43"/>
+    <tableColumn id="8" name="Шифр спецільності" dataDxfId="42"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="41"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="40"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="39"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:Q48" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:Q48" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
   <autoFilter ref="A1:Q48">
     <filterColumn colId="7">
       <filters>
@@ -5568,47 +5591,47 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="17">
-    <tableColumn id="1" name="Групи" dataDxfId="56"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="55"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="54"/>
-    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="53"/>
-    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="52"/>
-    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="51"/>
-    <tableColumn id="3" name="Використано годин" dataDxfId="50"/>
-    <tableColumn id="14" name="Необхідно використати" dataDxfId="0">
+    <tableColumn id="1" name="Групи" dataDxfId="34"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="33"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="32"/>
+    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="31"/>
+    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="30"/>
+    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="29"/>
+    <tableColumn id="3" name="Використано годин" dataDxfId="28"/>
+    <tableColumn id="14" name="Необхідно використати" dataDxfId="27">
       <calculatedColumnFormula>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Курс робота/проект" dataDxfId="49"/>
-    <tableColumn id="16" name="Іспит" dataDxfId="48"/>
-    <tableColumn id="15" name="Залік" dataDxfId="47"/>
-    <tableColumn id="7" name="Прим." dataDxfId="46"/>
-    <tableColumn id="8" name="Шифр. Спеціальності" dataDxfId="45"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="44"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="43"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="42"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="41"/>
+    <tableColumn id="17" name="Курс робота/проект" dataDxfId="26"/>
+    <tableColumn id="16" name="Іспит" dataDxfId="25"/>
+    <tableColumn id="15" name="Залік" dataDxfId="24"/>
+    <tableColumn id="7" name="Прим." dataDxfId="23"/>
+    <tableColumn id="8" name="Шифр. Спеціальності" dataDxfId="22"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="21"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="20"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="19"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="A1:M4" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="A1:M4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:M4"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Групи" dataDxfId="35"/>
-    <tableColumn id="2" name="Дисципліна" dataDxfId="34"/>
-    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="33"/>
-    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="32"/>
-    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="31"/>
-    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="30"/>
-    <tableColumn id="3" name="Використано годин" dataDxfId="29"/>
-    <tableColumn id="7" name="Прим." dataDxfId="28"/>
-    <tableColumn id="8" name="Шифр спецільності" dataDxfId="27"/>
-    <tableColumn id="9" name="Викладач" dataDxfId="26"/>
-    <tableColumn id="10" name="Лекц.2" dataDxfId="25"/>
-    <tableColumn id="11" name="Практ.3" dataDxfId="24"/>
-    <tableColumn id="12" name="Лаб." dataDxfId="23"/>
+    <tableColumn id="1" name="Групи" dataDxfId="12"/>
+    <tableColumn id="2" name="Дисципліна" dataDxfId="11"/>
+    <tableColumn id="6" name="Годин 1 заїзд" dataDxfId="10"/>
+    <tableColumn id="13" name="Годин 2 заїзд" dataDxfId="9"/>
+    <tableColumn id="5" name="Годин 3 заїзд" dataDxfId="8"/>
+    <tableColumn id="4" name="Годин 4 заїзд" dataDxfId="7"/>
+    <tableColumn id="3" name="Використано годин" dataDxfId="6"/>
+    <tableColumn id="7" name="Прим." dataDxfId="5"/>
+    <tableColumn id="8" name="Шифр спецільності" dataDxfId="4"/>
+    <tableColumn id="9" name="Викладач" dataDxfId="3"/>
+    <tableColumn id="10" name="Лекц.2" dataDxfId="2"/>
+    <tableColumn id="11" name="Практ.3" dataDxfId="1"/>
+    <tableColumn id="12" name="Лаб." dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5617,7 +5640,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Офіс">
+    <a:clrScheme name="Стандартна">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5655,9 +5678,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Офіс">
+    <a:fontScheme name="Стандартна">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5692,7 +5715,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5727,7 +5750,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Офіс">
+    <a:fmtScheme name="Стандартна">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5986,37 +6009,37 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="56">
-        <v>4</v>
-      </c>
-      <c r="D2" s="56">
-        <v>4</v>
-      </c>
-      <c r="E2" s="56">
-        <v>2</v>
-      </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56">
-        <v>4</v>
-      </c>
-      <c r="H2" s="56">
+      <c r="B2" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="55">
+        <v>4</v>
+      </c>
+      <c r="D2" s="55">
+        <v>4</v>
+      </c>
+      <c r="E2" s="55">
+        <v>2</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55">
+        <v>4</v>
+      </c>
+      <c r="H2" s="55">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I2" s="56"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="20"/>
-      <c r="K2" s="56">
+      <c r="K2" s="55">
         <v>3</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="56" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="55" t="s">
         <v>185</v>
       </c>
       <c r="O2" s="3"/>
@@ -6025,37 +6048,37 @@
       <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="56">
-        <v>4</v>
-      </c>
-      <c r="D3" s="56">
-        <v>6</v>
-      </c>
-      <c r="E3" s="56">
-        <v>4</v>
-      </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56">
-        <v>6</v>
-      </c>
-      <c r="H3" s="56">
+      <c r="C3" s="55">
+        <v>4</v>
+      </c>
+      <c r="D3" s="55">
+        <v>6</v>
+      </c>
+      <c r="E3" s="55">
+        <v>4</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55">
+        <v>6</v>
+      </c>
+      <c r="H3" s="55">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56">
+      <c r="I3" s="55"/>
+      <c r="J3" s="55">
         <v>3</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="56" t="s">
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="55" t="s">
         <v>188</v>
       </c>
       <c r="O3" s="3"/>
@@ -6064,38 +6087,38 @@
       <c r="R3" s="12"/>
     </row>
     <row r="4" spans="1:18" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="56">
-        <v>6</v>
-      </c>
-      <c r="D4" s="56">
-        <v>6</v>
-      </c>
-      <c r="E4" s="56">
-        <v>4</v>
-      </c>
-      <c r="F4" s="56">
-        <v>4</v>
-      </c>
-      <c r="G4" s="56">
-        <v>6</v>
-      </c>
-      <c r="H4" s="56">
+      <c r="B4" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="55">
+        <v>6</v>
+      </c>
+      <c r="D4" s="55">
+        <v>6</v>
+      </c>
+      <c r="E4" s="55">
+        <v>4</v>
+      </c>
+      <c r="F4" s="55">
+        <v>4</v>
+      </c>
+      <c r="G4" s="55">
+        <v>6</v>
+      </c>
+      <c r="H4" s="55">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56">
-        <v>4</v>
-      </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55">
+        <v>4</v>
+      </c>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="4" t="s">
         <v>276</v>
       </c>
@@ -6441,51 +6464,51 @@
       </c>
     </row>
     <row r="13" spans="1:18" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="58">
         <v>10</v>
       </c>
-      <c r="D13" s="59">
-        <v>8</v>
-      </c>
-      <c r="E13" s="59">
-        <v>6</v>
-      </c>
-      <c r="F13" s="59">
-        <v>6</v>
-      </c>
-      <c r="G13" s="59">
-        <v>8</v>
-      </c>
-      <c r="H13" s="59">
+      <c r="D13" s="58">
+        <v>8</v>
+      </c>
+      <c r="E13" s="58">
+        <v>6</v>
+      </c>
+      <c r="F13" s="58">
+        <v>6</v>
+      </c>
+      <c r="G13" s="58">
+        <v>8</v>
+      </c>
+      <c r="H13" s="58">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59">
-        <v>4</v>
-      </c>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59" t="s">
+      <c r="I13" s="58"/>
+      <c r="J13" s="58">
+        <v>4</v>
+      </c>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="N13" s="59" t="s">
+      <c r="N13" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="O13" s="60">
+      <c r="O13" s="59">
         <v>14</v>
       </c>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="61" t="s">
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="60" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6535,49 +6558,49 @@
       <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="63">
-        <v>2</v>
-      </c>
-      <c r="D15" s="63">
+      <c r="C15" s="62">
+        <v>2</v>
+      </c>
+      <c r="D15" s="62">
         <v>0</v>
       </c>
-      <c r="E15" s="63">
-        <v>4</v>
-      </c>
-      <c r="F15" s="63">
+      <c r="E15" s="62">
+        <v>4</v>
+      </c>
+      <c r="F15" s="62">
         <v>0</v>
       </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63">
+      <c r="G15" s="62"/>
+      <c r="H15" s="62">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63">
-        <v>4</v>
-      </c>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63" t="s">
+      <c r="I15" s="62"/>
+      <c r="J15" s="62">
+        <v>4</v>
+      </c>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62" t="s">
         <v>322</v>
       </c>
-      <c r="M15" s="64">
+      <c r="M15" s="63">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N15" s="64" t="s">
+      <c r="N15" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="O15" s="64">
-        <v>2</v>
-      </c>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="65"/>
+      <c r="O15" s="63">
+        <v>2</v>
+      </c>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="64"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -6626,8 +6649,8 @@
       </c>
       <c r="R16" s="12"/>
     </row>
-    <row r="17" spans="1:18" s="71" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+    <row r="17" spans="1:18" s="70" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="66" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="53" t="s">
@@ -6656,22 +6679,22 @@
       </c>
       <c r="K17" s="53"/>
       <c r="L17" s="53"/>
-      <c r="M17" s="68">
+      <c r="M17" s="67">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N17" s="69" t="s">
+      <c r="N17" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="O17" s="69">
-        <v>2</v>
-      </c>
-      <c r="P17" s="69">
+      <c r="O17" s="68">
+        <v>2</v>
+      </c>
+      <c r="P17" s="68">
         <v>0</v>
       </c>
-      <c r="Q17" s="69">
+      <c r="Q17" s="68">
         <v>0</v>
       </c>
-      <c r="R17" s="70"/>
+      <c r="R17" s="69"/>
     </row>
     <row r="18" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -6770,10 +6793,10 @@
       <c r="D20" s="3">
         <v>4</v>
       </c>
-      <c r="E20" s="68">
-        <v>2</v>
-      </c>
-      <c r="F20" s="68"/>
+      <c r="E20" s="67">
+        <v>2</v>
+      </c>
+      <c r="F20" s="67"/>
       <c r="G20" s="3">
         <v>4</v>
       </c>
@@ -6979,49 +7002,49 @@
       </c>
     </row>
     <row r="25" spans="1:18" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="59">
-        <v>4</v>
-      </c>
-      <c r="D25" s="59">
-        <v>8</v>
-      </c>
-      <c r="E25" s="59">
-        <v>4</v>
-      </c>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59">
-        <v>8</v>
-      </c>
-      <c r="H25" s="59">
+      <c r="C25" s="58">
+        <v>4</v>
+      </c>
+      <c r="D25" s="58">
+        <v>8</v>
+      </c>
+      <c r="E25" s="58">
+        <v>4</v>
+      </c>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58">
+        <v>8</v>
+      </c>
+      <c r="H25" s="58">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59">
+      <c r="I25" s="58"/>
+      <c r="J25" s="58">
         <v>3</v>
       </c>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59" t="s">
+      <c r="K25" s="58"/>
+      <c r="L25" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="M25" s="60">
+      <c r="M25" s="59">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N25" s="59" t="s">
+      <c r="N25" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="O25" s="60">
-        <v>6</v>
-      </c>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="61" t="s">
+      <c r="O25" s="59">
+        <v>6</v>
+      </c>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="60" t="s">
         <v>233</v>
       </c>
     </row>
@@ -7113,7 +7136,7 @@
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
-      <c r="R27" s="66"/>
+      <c r="R27" s="65"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -7307,36 +7330,36 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="56">
-        <v>6</v>
-      </c>
-      <c r="D2" s="56">
-        <v>4</v>
-      </c>
-      <c r="E2" s="56">
-        <v>2</v>
-      </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56">
-        <v>6</v>
-      </c>
-      <c r="H2" s="56">
+      <c r="C2" s="55">
+        <v>6</v>
+      </c>
+      <c r="D2" s="55">
+        <v>4</v>
+      </c>
+      <c r="E2" s="55">
+        <v>2</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55">
+        <v>6</v>
+      </c>
+      <c r="H2" s="55">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56">
+      <c r="I2" s="55"/>
+      <c r="J2" s="55">
         <v>3</v>
       </c>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="4" t="s">
         <v>276</v>
       </c>
@@ -7346,36 +7369,36 @@
       <c r="R2" s="25"/>
     </row>
     <row r="3" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="56">
-        <v>4</v>
-      </c>
-      <c r="D3" s="56">
-        <v>6</v>
-      </c>
-      <c r="E3" s="56">
-        <v>4</v>
-      </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56">
-        <v>6</v>
-      </c>
-      <c r="H3" s="56">
+      <c r="C3" s="55">
+        <v>4</v>
+      </c>
+      <c r="D3" s="55">
+        <v>6</v>
+      </c>
+      <c r="E3" s="55">
+        <v>4</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55">
+        <v>6</v>
+      </c>
+      <c r="H3" s="55">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56">
+      <c r="I3" s="55"/>
+      <c r="J3" s="55">
         <v>3</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="4" t="s">
         <v>289</v>
       </c>
@@ -7851,40 +7874,40 @@
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="72">
+      <c r="C15" s="71">
         <v>10</v>
       </c>
-      <c r="D15" s="72">
-        <v>8</v>
-      </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72">
-        <v>8</v>
-      </c>
-      <c r="H15" s="72">
+      <c r="D15" s="71">
+        <v>8</v>
+      </c>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71">
+        <v>8</v>
+      </c>
+      <c r="H15" s="71">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72">
-        <v>2</v>
-      </c>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72">
+      <c r="I15" s="71"/>
+      <c r="J15" s="71">
+        <v>2</v>
+      </c>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71">
         <v>6.080101</v>
       </c>
-      <c r="N15" s="72" t="s">
+      <c r="N15" s="71" t="s">
         <v>279</v>
       </c>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72" t="s">
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71" t="s">
         <v>233</v>
       </c>
     </row>
@@ -8248,8 +8271,8 @@
       </c>
       <c r="R23" s="25"/>
     </row>
-    <row r="24" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
+    <row r="24" spans="1:18" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="66" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="53" t="s">
@@ -8287,7 +8310,7 @@
       <c r="O24" s="53"/>
       <c r="P24" s="53"/>
       <c r="Q24" s="53"/>
-      <c r="R24" s="79"/>
+      <c r="R24" s="78"/>
     </row>
     <row r="25" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
@@ -8420,7 +8443,7 @@
       <c r="Q27" s="26">
         <v>4</v>
       </c>
-      <c r="R27" s="73"/>
+      <c r="R27" s="72"/>
     </row>
     <row r="28" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
@@ -8455,15 +8478,15 @@
       <c r="M28" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N28" s="74" t="s">
+      <c r="N28" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="O28" s="74">
-        <v>4</v>
-      </c>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="73"/>
+      <c r="O28" s="73">
+        <v>4</v>
+      </c>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="72"/>
     </row>
     <row r="29" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -8602,7 +8625,7 @@
       <c r="Q31" s="26">
         <v>2</v>
       </c>
-      <c r="R31" s="75"/>
+      <c r="R31" s="74"/>
     </row>
     <row r="32" spans="1:18" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
@@ -8637,17 +8660,17 @@
       <c r="M32" s="18">
         <v>6.090103</v>
       </c>
-      <c r="N32" s="76" t="s">
+      <c r="N32" s="75" t="s">
         <v>200</v>
       </c>
-      <c r="O32" s="76">
-        <v>6</v>
-      </c>
-      <c r="P32" s="76">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="78"/>
+      <c r="O32" s="75">
+        <v>6</v>
+      </c>
+      <c r="P32" s="75">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="77"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8759,15 +8782,15 @@
       <c r="G2" s="4">
         <v>16</v>
       </c>
-      <c r="H2" s="56">
+      <c r="H2" s="55">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56">
-        <v>2</v>
-      </c>
-      <c r="K2" s="56"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55">
+        <v>2</v>
+      </c>
+      <c r="K2" s="55"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4">
         <v>6.0401040000000004</v>
@@ -8779,7 +8802,7 @@
         <v>12</v>
       </c>
       <c r="P2" s="15"/>
-      <c r="Q2" s="81">
+      <c r="Q2" s="80">
         <v>12</v>
       </c>
     </row>
@@ -8910,46 +8933,46 @@
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="72">
-        <v>6</v>
-      </c>
-      <c r="D6" s="72">
-        <v>4</v>
-      </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72">
-        <v>4</v>
-      </c>
-      <c r="H6" s="72">
+      <c r="C6" s="71">
+        <v>6</v>
+      </c>
+      <c r="D6" s="71">
+        <v>4</v>
+      </c>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71">
+        <v>4</v>
+      </c>
+      <c r="H6" s="71">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72">
-        <v>2</v>
-      </c>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72">
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71">
+        <v>2</v>
+      </c>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="82" t="s">
+      <c r="N6" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="O6" s="82">
-        <v>8</v>
-      </c>
-      <c r="P6" s="82">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="82"/>
+      <c r="O6" s="81">
+        <v>8</v>
+      </c>
+      <c r="P6" s="81">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="81"/>
     </row>
     <row r="7" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -9116,48 +9139,48 @@
       <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85">
-        <v>6</v>
-      </c>
-      <c r="E11" s="85">
-        <v>6</v>
-      </c>
-      <c r="F11" s="85">
-        <v>2</v>
-      </c>
-      <c r="G11" s="85">
-        <v>6</v>
-      </c>
-      <c r="H11" s="85">
+      <c r="C11" s="84"/>
+      <c r="D11" s="84">
+        <v>6</v>
+      </c>
+      <c r="E11" s="84">
+        <v>6</v>
+      </c>
+      <c r="F11" s="84">
+        <v>2</v>
+      </c>
+      <c r="G11" s="84">
+        <v>6</v>
+      </c>
+      <c r="H11" s="84">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I11" s="85">
-        <v>4</v>
-      </c>
-      <c r="J11" s="85">
-        <v>4</v>
-      </c>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85">
+      <c r="I11" s="84">
+        <v>4</v>
+      </c>
+      <c r="J11" s="84">
+        <v>4</v>
+      </c>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N11" s="86" t="s">
+      <c r="N11" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="O11" s="86">
-        <v>6</v>
-      </c>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="88"/>
+      <c r="O11" s="85">
+        <v>6</v>
+      </c>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="87"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -9236,7 +9259,7 @@
       <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="88" t="s">
         <v>194</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -9273,12 +9296,12 @@
         <v>12</v>
       </c>
       <c r="P14" s="15"/>
-      <c r="Q14" s="81">
+      <c r="Q14" s="80">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="88" t="s">
         <v>194</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -9315,7 +9338,7 @@
         <v>8</v>
       </c>
       <c r="P15" s="15"/>
-      <c r="Q15" s="81">
+      <c r="Q15" s="80">
         <v>8</v>
       </c>
     </row>
@@ -9364,48 +9387,48 @@
       <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="91">
-        <v>4</v>
-      </c>
-      <c r="D17" s="91">
-        <v>4</v>
-      </c>
-      <c r="E17" s="91">
-        <v>6</v>
-      </c>
-      <c r="F17" s="91">
-        <v>6</v>
-      </c>
-      <c r="G17" s="91">
-        <v>4</v>
-      </c>
-      <c r="H17" s="91">
+      <c r="C17" s="90">
+        <v>4</v>
+      </c>
+      <c r="D17" s="90">
+        <v>4</v>
+      </c>
+      <c r="E17" s="90">
+        <v>6</v>
+      </c>
+      <c r="F17" s="90">
+        <v>6</v>
+      </c>
+      <c r="G17" s="90">
+        <v>4</v>
+      </c>
+      <c r="H17" s="90">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91">
-        <v>4</v>
-      </c>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91">
+      <c r="I17" s="90"/>
+      <c r="J17" s="90">
+        <v>4</v>
+      </c>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90">
         <v>6.080101</v>
       </c>
-      <c r="N17" s="90" t="s">
+      <c r="N17" s="89" t="s">
         <v>334</v>
       </c>
-      <c r="O17" s="90">
-        <v>8</v>
-      </c>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90">
+      <c r="O17" s="89">
+        <v>8</v>
+      </c>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89">
         <v>0</v>
       </c>
     </row>
@@ -9697,7 +9720,7 @@
         <v>8</v>
       </c>
       <c r="P24" s="10"/>
-      <c r="Q24" s="83">
+      <c r="Q24" s="82">
         <v>0</v>
       </c>
     </row>
@@ -9907,7 +9930,7 @@
         <v>8</v>
       </c>
       <c r="P29" s="15"/>
-      <c r="Q29" s="81"/>
+      <c r="Q29" s="80"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
@@ -9951,7 +9974,7 @@
         <v>6</v>
       </c>
       <c r="P30" s="10"/>
-      <c r="Q30" s="83">
+      <c r="Q30" s="82">
         <v>0</v>
       </c>
     </row>
@@ -10081,7 +10104,7 @@
       <c r="P33" s="10">
         <v>0</v>
       </c>
-      <c r="Q33" s="83"/>
+      <c r="Q33" s="82"/>
     </row>
     <row r="34" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
@@ -10209,7 +10232,7 @@
         <v>6</v>
       </c>
       <c r="P36" s="10"/>
-      <c r="Q36" s="83">
+      <c r="Q36" s="82">
         <v>4</v>
       </c>
     </row>
@@ -10340,44 +10363,44 @@
       <c r="Q39" s="12"/>
     </row>
     <row r="40" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="92" t="s">
+      <c r="A40" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="93">
-        <v>4</v>
-      </c>
-      <c r="D40" s="93">
-        <v>6</v>
-      </c>
-      <c r="E40" s="93" t="s">
+      <c r="C40" s="92">
+        <v>4</v>
+      </c>
+      <c r="D40" s="92">
+        <v>6</v>
+      </c>
+      <c r="E40" s="92" t="s">
         <v>336</v>
       </c>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93">
-        <v>4</v>
-      </c>
-      <c r="H40" s="93" t="e">
+      <c r="F40" s="92"/>
+      <c r="G40" s="92">
+        <v>4</v>
+      </c>
+      <c r="H40" s="92" t="e">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93">
+      <c r="I40" s="92"/>
+      <c r="J40" s="92">
         <v>3</v>
       </c>
-      <c r="K40" s="93"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="93">
+      <c r="K40" s="92"/>
+      <c r="L40" s="92"/>
+      <c r="M40" s="92">
         <v>6.090103</v>
       </c>
-      <c r="N40" s="94" t="s">
+      <c r="N40" s="93" t="s">
         <v>243</v>
       </c>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="96"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="95"/>
     </row>
     <row r="41" spans="1:17" s="51" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
@@ -10549,7 +10572,7 @@
         <v>12</v>
       </c>
       <c r="P44" s="17"/>
-      <c r="Q44" s="66"/>
+      <c r="Q44" s="65"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -11063,7 +11086,7 @@
       <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="88" t="s">
         <v>194</v>
       </c>
       <c r="B8" s="27" t="s">
@@ -11096,50 +11119,50 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
-      <c r="Q8" s="81"/>
+      <c r="Q8" s="80"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85">
-        <v>6</v>
-      </c>
-      <c r="F9" s="85">
-        <v>6</v>
-      </c>
-      <c r="G9" s="85">
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84">
+        <v>6</v>
+      </c>
+      <c r="F9" s="84">
+        <v>6</v>
+      </c>
+      <c r="G9" s="84">
         <v>0</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="84">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85">
+      <c r="I9" s="84"/>
+      <c r="J9" s="84">
         <v>3</v>
       </c>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85">
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N9" s="86" t="s">
+      <c r="N9" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="O9" s="86">
-        <v>6</v>
-      </c>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="88"/>
+      <c r="O9" s="85">
+        <v>6</v>
+      </c>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="87"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="66" t="s">
         <v>194</v>
       </c>
       <c r="B10" s="53" t="s">
@@ -11169,14 +11192,14 @@
       <c r="M10" s="53">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N10" s="97" t="s">
+      <c r="N10" s="96" t="s">
         <v>223</v>
       </c>
-      <c r="O10" s="97">
+      <c r="O10" s="96">
         <v>10</v>
       </c>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="70"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="69"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -11418,7 +11441,7 @@
         <v>12</v>
       </c>
       <c r="P16" s="10"/>
-      <c r="Q16" s="83">
+      <c r="Q16" s="82">
         <v>2</v>
       </c>
     </row>
@@ -11540,7 +11563,7 @@
         <v>8</v>
       </c>
       <c r="P19" s="10"/>
-      <c r="Q19" s="83">
+      <c r="Q19" s="82">
         <v>0</v>
       </c>
     </row>
@@ -11751,40 +11774,40 @@
       </c>
     </row>
     <row r="25" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99">
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98">
         <v>10</v>
       </c>
-      <c r="G25" s="99">
+      <c r="G25" s="98">
         <v>0</v>
       </c>
-      <c r="H25" s="99">
+      <c r="H25" s="98">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99">
-        <v>4</v>
-      </c>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99">
+      <c r="I25" s="98"/>
+      <c r="J25" s="98">
+        <v>4</v>
+      </c>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98">
         <v>6.080101</v>
       </c>
-      <c r="N25" s="100" t="s">
+      <c r="N25" s="99" t="s">
         <v>272</v>
       </c>
-      <c r="O25" s="100"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="101"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="100"/>
       <c r="R25" s="29"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -11829,7 +11852,7 @@
       <c r="P26" s="10">
         <v>8</v>
       </c>
-      <c r="Q26" s="83">
+      <c r="Q26" s="82">
         <v>2</v>
       </c>
     </row>
@@ -12109,7 +12132,7 @@
         <v>10</v>
       </c>
       <c r="P33" s="15"/>
-      <c r="Q33" s="81">
+      <c r="Q33" s="80">
         <v>0</v>
       </c>
     </row>
@@ -12160,7 +12183,7 @@
       <c r="Q34" s="12"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="88" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -12201,7 +12224,7 @@
       <c r="P35" s="15">
         <v>2</v>
       </c>
-      <c r="Q35" s="81"/>
+      <c r="Q35" s="80"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
@@ -12332,7 +12355,7 @@
       <c r="Q38" s="12"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="88" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="27" t="s">
@@ -12373,7 +12396,7 @@
       <c r="P39" s="15">
         <v>0</v>
       </c>
-      <c r="Q39" s="81"/>
+      <c r="Q39" s="80"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
@@ -12505,7 +12528,7 @@
       <c r="P42" s="28">
         <v>2</v>
       </c>
-      <c r="Q42" s="66"/>
+      <c r="Q42" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12520,8 +12543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12599,357 +12622,357 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="4">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="C2" s="115">
+        <v>4</v>
+      </c>
+      <c r="D2" s="115">
+        <v>4</v>
+      </c>
+      <c r="E2" s="115">
+        <v>2</v>
+      </c>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115">
+        <v>4</v>
+      </c>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115">
         <v>3</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4">
+      <c r="J2" s="115"/>
+      <c r="K2" s="115">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4">
+      <c r="L2" s="115"/>
+      <c r="M2" s="115">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="116" t="s">
         <v>216</v>
       </c>
-      <c r="O2" s="10">
-        <v>8</v>
-      </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="81"/>
-    </row>
-    <row r="3" spans="1:17" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="O2" s="116">
+        <v>8</v>
+      </c>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="118"/>
+    </row>
+    <row r="3" spans="1:17" s="124" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="120" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="103">
-        <v>8</v>
-      </c>
-      <c r="D3" s="103">
-        <v>6</v>
-      </c>
-      <c r="E3" s="103">
-        <v>2</v>
-      </c>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103">
-        <v>6</v>
-      </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103">
+      <c r="C3" s="121">
+        <v>8</v>
+      </c>
+      <c r="D3" s="121">
+        <v>6</v>
+      </c>
+      <c r="E3" s="121">
+        <v>2</v>
+      </c>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121">
+        <v>6</v>
+      </c>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121">
         <v>3</v>
       </c>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103">
+      <c r="J3" s="121"/>
+      <c r="K3" s="121">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103">
+      <c r="L3" s="121"/>
+      <c r="M3" s="121">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N3" s="104" t="s">
+      <c r="N3" s="122" t="s">
         <v>215</v>
       </c>
-      <c r="O3" s="104">
+      <c r="O3" s="122">
         <v>12</v>
       </c>
-      <c r="P3" s="104">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="105"/>
-    </row>
-    <row r="4" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="P3" s="122">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="123"/>
+    </row>
+    <row r="4" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="4">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
+      <c r="C4" s="115">
+        <v>6</v>
+      </c>
+      <c r="D4" s="115">
+        <v>8</v>
+      </c>
+      <c r="E4" s="115">
+        <v>2</v>
+      </c>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115">
+        <v>8</v>
+      </c>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115">
         <v>3</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
+      <c r="J4" s="115"/>
+      <c r="K4" s="115">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
+      <c r="L4" s="115"/>
+      <c r="M4" s="115">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="116" t="s">
         <v>210</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="116">
         <v>12</v>
       </c>
-      <c r="P4" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="P4" s="116">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="125"/>
+    </row>
+    <row r="5" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="4">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
-        <v>6</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
+      <c r="C5" s="115">
+        <v>8</v>
+      </c>
+      <c r="D5" s="115">
+        <v>6</v>
+      </c>
+      <c r="E5" s="115">
+        <v>2</v>
+      </c>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115">
+        <v>6</v>
+      </c>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115">
         <v>3</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4">
+      <c r="J5" s="115"/>
+      <c r="K5" s="115">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4">
+      <c r="L5" s="115"/>
+      <c r="M5" s="115">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="116">
         <v>12</v>
       </c>
-      <c r="P5" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="12"/>
-    </row>
-    <row r="6" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="P5" s="116">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="125"/>
+    </row>
+    <row r="6" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="85">
-        <v>8</v>
-      </c>
-      <c r="D6" s="85">
-        <v>8</v>
-      </c>
-      <c r="E6" s="85">
-        <v>2</v>
-      </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85">
-        <v>8</v>
-      </c>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85">
+      <c r="C6" s="115">
+        <v>8</v>
+      </c>
+      <c r="D6" s="115">
+        <v>8</v>
+      </c>
+      <c r="E6" s="115">
+        <v>2</v>
+      </c>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115">
+        <v>8</v>
+      </c>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115">
         <v>3</v>
       </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85">
+      <c r="J6" s="115"/>
+      <c r="K6" s="115">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85">
+      <c r="L6" s="115"/>
+      <c r="M6" s="115">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="86" t="s">
+      <c r="N6" s="116" t="s">
         <v>219</v>
       </c>
-      <c r="O6" s="86">
+      <c r="O6" s="116">
         <v>12</v>
       </c>
-      <c r="P6" s="86">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="88"/>
-    </row>
-    <row r="7" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="P6" s="116">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="125"/>
+    </row>
+    <row r="7" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="4">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
-        <v>4</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4">
+      <c r="C7" s="115">
+        <v>4</v>
+      </c>
+      <c r="D7" s="115">
+        <v>4</v>
+      </c>
+      <c r="E7" s="115">
+        <v>2</v>
+      </c>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115">
+        <v>4</v>
+      </c>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115">
         <v>3</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="115">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
+      <c r="L7" s="115"/>
+      <c r="M7" s="115">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="116" t="s">
         <v>254</v>
       </c>
-      <c r="O7" s="10">
-        <v>8</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="12"/>
-    </row>
-    <row r="8" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="O7" s="116">
+        <v>8</v>
+      </c>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="125"/>
+    </row>
+    <row r="8" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>4</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4">
+      <c r="C8" s="115">
+        <v>4</v>
+      </c>
+      <c r="D8" s="115">
+        <v>4</v>
+      </c>
+      <c r="E8" s="115">
+        <v>2</v>
+      </c>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115">
+        <v>4</v>
+      </c>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115">
         <v>3</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="115">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4">
+      <c r="L8" s="115"/>
+      <c r="M8" s="115">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="116" t="s">
         <v>207</v>
       </c>
-      <c r="O8" s="10">
-        <v>8</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="12"/>
-    </row>
-    <row r="9" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="O8" s="116">
+        <v>8</v>
+      </c>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="125"/>
+    </row>
+    <row r="9" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="85">
-        <v>6</v>
-      </c>
-      <c r="D9" s="85">
-        <v>8</v>
-      </c>
-      <c r="E9" s="85">
-        <v>2</v>
-      </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85">
-        <v>8</v>
-      </c>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85">
+      <c r="C9" s="115">
+        <v>6</v>
+      </c>
+      <c r="D9" s="115">
+        <v>8</v>
+      </c>
+      <c r="E9" s="115">
+        <v>2</v>
+      </c>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115">
+        <v>8</v>
+      </c>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115">
         <v>3</v>
       </c>
-      <c r="K9" s="85">
+      <c r="K9" s="115">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85">
+      <c r="L9" s="115"/>
+      <c r="M9" s="115">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N9" s="86" t="s">
+      <c r="N9" s="116" t="s">
         <v>223</v>
       </c>
-      <c r="O9" s="86">
+      <c r="O9" s="116">
         <v>12</v>
       </c>
-      <c r="P9" s="86">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="88"/>
+      <c r="P9" s="116">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="125"/>
     </row>
     <row r="10" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="104" t="s">
         <v>148</v>
       </c>
       <c r="C10" s="27">
@@ -12985,12 +13008,12 @@
         <v>18</v>
       </c>
       <c r="P10" s="15"/>
-      <c r="Q10" s="81">
+      <c r="Q10" s="80">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="88" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -13029,12 +13052,12 @@
         <v>12</v>
       </c>
       <c r="P11" s="15"/>
-      <c r="Q11" s="81">
+      <c r="Q11" s="80">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -13073,7 +13096,7 @@
         <v>16</v>
       </c>
       <c r="P12" s="15"/>
-      <c r="Q12" s="81">
+      <c r="Q12" s="80">
         <v>8</v>
       </c>
     </row>
@@ -13240,44 +13263,44 @@
       <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="106">
-        <v>6</v>
-      </c>
-      <c r="D17" s="106">
-        <v>6</v>
-      </c>
-      <c r="E17" s="106">
-        <v>6</v>
-      </c>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106">
-        <v>6</v>
-      </c>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106">
+      <c r="C17" s="101">
+        <v>6</v>
+      </c>
+      <c r="D17" s="101">
+        <v>6</v>
+      </c>
+      <c r="E17" s="101">
+        <v>6</v>
+      </c>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101">
+        <v>6</v>
+      </c>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101">
         <v>3</v>
       </c>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106">
+      <c r="J17" s="101"/>
+      <c r="K17" s="101">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106">
+      <c r="L17" s="101"/>
+      <c r="M17" s="101">
         <v>6.090103</v>
       </c>
-      <c r="N17" s="107" t="s">
+      <c r="N17" s="102" t="s">
         <v>243</v>
       </c>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="82"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="81"/>
     </row>
     <row r="18" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -13407,7 +13430,7 @@
         <v>6</v>
       </c>
       <c r="P20" s="15"/>
-      <c r="Q20" s="81">
+      <c r="Q20" s="80">
         <v>2</v>
       </c>
     </row>
@@ -13533,7 +13556,7 @@
         <v>8</v>
       </c>
       <c r="P23" s="10"/>
-      <c r="Q23" s="81"/>
+      <c r="Q23" s="80"/>
     </row>
     <row r="24" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
@@ -13644,16 +13667,16 @@
       <c r="M26" s="18">
         <v>6.090103</v>
       </c>
-      <c r="N26" s="108" t="s">
+      <c r="N26" s="103" t="s">
         <v>241</v>
       </c>
-      <c r="O26" s="108">
-        <v>4</v>
-      </c>
-      <c r="P26" s="108">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="66"/>
+      <c r="O26" s="103">
+        <v>4</v>
+      </c>
+      <c r="P26" s="103">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13669,8 +13692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13694,7 +13717,7 @@
     <col min="18" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -13866,44 +13889,44 @@
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="72">
-        <v>4</v>
-      </c>
-      <c r="D5" s="72">
-        <v>6</v>
-      </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72">
-        <v>6</v>
-      </c>
-      <c r="H5" s="72">
+      <c r="C5" s="71">
+        <v>4</v>
+      </c>
+      <c r="D5" s="71">
+        <v>6</v>
+      </c>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71">
+        <v>6</v>
+      </c>
+      <c r="H5" s="71">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72">
-        <v>2</v>
-      </c>
-      <c r="L5" s="72"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71">
+        <v>2</v>
+      </c>
+      <c r="L5" s="71"/>
       <c r="M5" s="45">
         <v>7.0140000000000002</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="N5" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82">
+      <c r="O5" s="81"/>
+      <c r="P5" s="81">
         <v>10</v>
       </c>
-      <c r="Q5" s="110"/>
+      <c r="Q5" s="105"/>
     </row>
     <row r="6" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -14141,7 +14164,7 @@
       <c r="P11" s="15">
         <v>8</v>
       </c>
-      <c r="Q11" s="118"/>
+      <c r="Q11" s="113"/>
     </row>
     <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -14537,7 +14560,7 @@
       <c r="A22" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="106" t="s">
         <v>260</v>
       </c>
       <c r="C22" s="4">
@@ -14731,7 +14754,7 @@
       <c r="A27" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="106" t="s">
         <v>261</v>
       </c>
       <c r="C27" s="4"/>
@@ -15046,42 +15069,42 @@
       <c r="Q34" s="38"/>
     </row>
     <row r="35" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="107" t="s">
         <v>301</v>
       </c>
-      <c r="B35" s="112" t="s">
+      <c r="B35" s="107" t="s">
         <v>302</v>
       </c>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112">
-        <v>4</v>
-      </c>
-      <c r="E35" s="112">
-        <v>4</v>
-      </c>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112">
-        <v>4</v>
-      </c>
-      <c r="H35" s="112">
+      <c r="C35" s="107"/>
+      <c r="D35" s="107">
+        <v>4</v>
+      </c>
+      <c r="E35" s="107">
+        <v>4</v>
+      </c>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107">
+        <v>4</v>
+      </c>
+      <c r="H35" s="107">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112">
+      <c r="I35" s="107"/>
+      <c r="J35" s="107">
         <v>3</v>
       </c>
-      <c r="K35" s="112"/>
-      <c r="L35" s="112"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="107"/>
       <c r="M35" s="44">
         <v>20.204999999999998</v>
       </c>
-      <c r="N35" s="113" t="s">
+      <c r="N35" s="108" t="s">
         <v>326</v>
       </c>
-      <c r="O35" s="114"/>
-      <c r="P35" s="113"/>
-      <c r="Q35" s="114"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="109"/>
     </row>
     <row r="36" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -15116,14 +15139,14 @@
       <c r="M36" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N36" s="115" t="s">
+      <c r="N36" s="110" t="s">
         <v>315</v>
       </c>
       <c r="O36" s="3">
         <v>6</v>
       </c>
       <c r="P36" s="3"/>
-      <c r="Q36" s="116"/>
+      <c r="Q36" s="111"/>
     </row>
     <row r="37" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -15160,14 +15183,14 @@
       <c r="M37" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N37" s="115" t="s">
+      <c r="N37" s="110" t="s">
         <v>316</v>
       </c>
-      <c r="O37" s="116">
+      <c r="O37" s="111">
         <v>6</v>
       </c>
       <c r="P37" s="3"/>
-      <c r="Q37" s="116"/>
+      <c r="Q37" s="111"/>
     </row>
     <row r="38" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -15200,14 +15223,14 @@
       <c r="M38" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N38" s="115" t="s">
+      <c r="N38" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="O38" s="116">
+      <c r="O38" s="111">
         <v>4</v>
       </c>
       <c r="P38" s="3"/>
-      <c r="Q38" s="116">
+      <c r="Q38" s="111">
         <v>2</v>
       </c>
     </row>
@@ -15242,54 +15265,54 @@
       <c r="M39" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N39" s="115" t="s">
+      <c r="N39" s="110" t="s">
         <v>259</v>
       </c>
-      <c r="O39" s="116">
+      <c r="O39" s="111">
         <v>4</v>
       </c>
       <c r="P39" s="3">
         <v>2</v>
       </c>
-      <c r="Q39" s="116"/>
+      <c r="Q39" s="111"/>
     </row>
     <row r="40" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="112" t="s">
+      <c r="A40" s="107" t="s">
         <v>301</v>
       </c>
-      <c r="B40" s="112" t="s">
+      <c r="B40" s="107" t="s">
         <v>306</v>
       </c>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112">
-        <v>6</v>
-      </c>
-      <c r="E40" s="112">
-        <v>4</v>
-      </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112">
-        <v>6</v>
-      </c>
-      <c r="H40" s="112">
+      <c r="C40" s="107"/>
+      <c r="D40" s="107">
+        <v>6</v>
+      </c>
+      <c r="E40" s="107">
+        <v>4</v>
+      </c>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107">
+        <v>6</v>
+      </c>
+      <c r="H40" s="107">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
-      <c r="K40" s="112">
-        <v>2</v>
-      </c>
-      <c r="L40" s="112"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107">
+        <v>2</v>
+      </c>
+      <c r="L40" s="107"/>
       <c r="M40" s="44">
         <v>20.204999999999998</v>
       </c>
-      <c r="N40" s="113" t="s">
+      <c r="N40" s="108" t="s">
         <v>329</v>
       </c>
-      <c r="O40" s="117"/>
-      <c r="P40" s="113"/>
-      <c r="Q40" s="117"/>
+      <c r="O40" s="112"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="112"/>
     </row>
     <row r="41" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -15326,14 +15349,14 @@
       <c r="M41" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N41" s="115" t="s">
+      <c r="N41" s="110" t="s">
         <v>317</v>
       </c>
-      <c r="O41" s="116">
+      <c r="O41" s="111">
         <v>6</v>
       </c>
       <c r="P41" s="3"/>
-      <c r="Q41" s="116"/>
+      <c r="Q41" s="111"/>
     </row>
     <row r="42" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -15366,134 +15389,134 @@
       <c r="M42" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N42" s="115" t="s">
+      <c r="N42" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="O42" s="116">
+      <c r="O42" s="111">
         <v>6</v>
       </c>
       <c r="P42" s="3">
         <v>2</v>
       </c>
-      <c r="Q42" s="116"/>
+      <c r="Q42" s="111"/>
     </row>
     <row r="43" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="112" t="s">
+      <c r="A43" s="107" t="s">
         <v>301</v>
       </c>
-      <c r="B43" s="112" t="s">
+      <c r="B43" s="107" t="s">
         <v>309</v>
       </c>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112">
-        <v>6</v>
-      </c>
-      <c r="E43" s="112">
-        <v>4</v>
-      </c>
-      <c r="F43" s="112">
-        <v>4</v>
-      </c>
-      <c r="G43" s="112">
-        <v>6</v>
-      </c>
-      <c r="H43" s="112">
+      <c r="C43" s="107"/>
+      <c r="D43" s="107">
+        <v>6</v>
+      </c>
+      <c r="E43" s="107">
+        <v>4</v>
+      </c>
+      <c r="F43" s="107">
+        <v>4</v>
+      </c>
+      <c r="G43" s="107">
+        <v>6</v>
+      </c>
+      <c r="H43" s="107">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I43" s="112"/>
-      <c r="J43" s="112">
-        <v>4</v>
-      </c>
-      <c r="K43" s="112"/>
-      <c r="L43" s="112"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107">
+        <v>4</v>
+      </c>
+      <c r="K43" s="107"/>
+      <c r="L43" s="107"/>
       <c r="M43" s="44">
         <v>20.204999999999998</v>
       </c>
-      <c r="N43" s="113" t="s">
+      <c r="N43" s="108" t="s">
         <v>328</v>
       </c>
-      <c r="O43" s="117"/>
-      <c r="P43" s="113"/>
-      <c r="Q43" s="117"/>
+      <c r="O43" s="112"/>
+      <c r="P43" s="108"/>
+      <c r="Q43" s="112"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="112" t="s">
+      <c r="A44" s="107" t="s">
         <v>301</v>
       </c>
-      <c r="B44" s="112" t="s">
+      <c r="B44" s="107" t="s">
         <v>310</v>
       </c>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112">
-        <v>4</v>
-      </c>
-      <c r="E44" s="112">
-        <v>4</v>
-      </c>
-      <c r="F44" s="112">
-        <v>4</v>
-      </c>
-      <c r="G44" s="112">
-        <v>4</v>
-      </c>
-      <c r="H44" s="112">
+      <c r="C44" s="107"/>
+      <c r="D44" s="107">
+        <v>4</v>
+      </c>
+      <c r="E44" s="107">
+        <v>4</v>
+      </c>
+      <c r="F44" s="107">
+        <v>4</v>
+      </c>
+      <c r="G44" s="107">
+        <v>4</v>
+      </c>
+      <c r="H44" s="107">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I44" s="112"/>
-      <c r="J44" s="112"/>
-      <c r="K44" s="112">
-        <v>4</v>
-      </c>
-      <c r="L44" s="112"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107">
+        <v>4</v>
+      </c>
+      <c r="L44" s="107"/>
       <c r="M44" s="44">
         <v>20.204999999999998</v>
       </c>
-      <c r="N44" s="113" t="s">
+      <c r="N44" s="108" t="s">
         <v>331</v>
       </c>
-      <c r="O44" s="117"/>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="117"/>
+      <c r="O44" s="112"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="112"/>
     </row>
     <row r="45" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="112" t="s">
+      <c r="A45" s="107" t="s">
         <v>301</v>
       </c>
-      <c r="B45" s="112" t="s">
+      <c r="B45" s="107" t="s">
         <v>311</v>
       </c>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112">
-        <v>6</v>
-      </c>
-      <c r="E45" s="112">
-        <v>2</v>
-      </c>
-      <c r="F45" s="112">
-        <v>4</v>
-      </c>
-      <c r="G45" s="112">
-        <v>6</v>
-      </c>
-      <c r="H45" s="112">
+      <c r="C45" s="107"/>
+      <c r="D45" s="107">
+        <v>6</v>
+      </c>
+      <c r="E45" s="107">
+        <v>2</v>
+      </c>
+      <c r="F45" s="107">
+        <v>4</v>
+      </c>
+      <c r="G45" s="107">
+        <v>6</v>
+      </c>
+      <c r="H45" s="107">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I45" s="112"/>
-      <c r="J45" s="112"/>
-      <c r="K45" s="112">
-        <v>4</v>
-      </c>
-      <c r="L45" s="112"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="107"/>
+      <c r="K45" s="107">
+        <v>4</v>
+      </c>
+      <c r="L45" s="107"/>
       <c r="M45" s="49">
         <v>20.204999999999998</v>
       </c>
-      <c r="N45" s="113"/>
-      <c r="O45" s="117"/>
-      <c r="P45" s="113"/>
-      <c r="Q45" s="117"/>
+      <c r="N45" s="108"/>
+      <c r="O45" s="112"/>
+      <c r="P45" s="108"/>
+      <c r="Q45" s="112"/>
     </row>
     <row r="46" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -15530,14 +15553,14 @@
       <c r="M46" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N46" s="115" t="s">
+      <c r="N46" s="110" t="s">
         <v>318</v>
       </c>
-      <c r="O46" s="116">
+      <c r="O46" s="111">
         <v>6</v>
       </c>
       <c r="P46" s="3"/>
-      <c r="Q46" s="116"/>
+      <c r="Q46" s="111"/>
     </row>
     <row r="47" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -15572,14 +15595,14 @@
       <c r="M47" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N47" s="115" t="s">
+      <c r="N47" s="110" t="s">
         <v>319</v>
       </c>
-      <c r="O47" s="116">
+      <c r="O47" s="111">
         <v>6</v>
       </c>
       <c r="P47" s="3"/>
-      <c r="Q47" s="116"/>
+      <c r="Q47" s="111"/>
     </row>
     <row r="48" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -15612,14 +15635,14 @@
       <c r="M48" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N48" s="115" t="s">
+      <c r="N48" s="110" t="s">
         <v>315</v>
       </c>
-      <c r="O48" s="116">
+      <c r="O48" s="111">
         <v>6</v>
       </c>
       <c r="P48" s="3"/>
-      <c r="Q48" s="116"/>
+      <c r="Q48" s="111"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zaizd3.xlsx
+++ b/Zaizd3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="20730" windowHeight="8940" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20730" windowHeight="8880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,67 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1 курс'!$A$1:$R$15</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Admin</author>
     <author>xgresx@gmail.com</author>
-    <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="N15" authorId="0">
+    <comment ref="B12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+На наступний заїзд 8 годин</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+На наступний заїзд
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N15" authorId="1">
       <text>
         <r>
           <rPr>
@@ -44,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="1">
+    <comment ref="B19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,21 +231,6 @@
             <charset val="204"/>
           </rPr>
           <t>У Розподілі на на друге півріччя 20 годин, а на 1 -ше 22</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Всього 20 годин, однак на 2-ге півріччя 0</t>
         </r>
       </text>
     </comment>
@@ -1576,7 +1610,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1641,6 +1675,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1827,7 +1873,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1969,27 +2015,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2133,7 +2158,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2177,6 +2201,147 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5927,23 +6092,23 @@
   <dimension ref="A1:R238"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
     <col min="7" max="8" width="14.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="5" customWidth="1"/>
     <col min="14" max="14" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="1" customWidth="1"/>
@@ -6008,286 +6173,286 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="55">
-        <v>4</v>
-      </c>
-      <c r="D2" s="55">
-        <v>4</v>
-      </c>
-      <c r="E2" s="55">
-        <v>2</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55">
-        <v>4</v>
-      </c>
-      <c r="H2" s="55">
+      <c r="B2" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="125">
+        <v>4</v>
+      </c>
+      <c r="D2" s="125">
+        <v>4</v>
+      </c>
+      <c r="E2" s="125">
+        <v>2</v>
+      </c>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125">
+        <v>4</v>
+      </c>
+      <c r="H2" s="125">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="55">
+      <c r="I2" s="125"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="125">
         <v>3</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="55" t="s">
+      <c r="L2" s="125"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="125" t="s">
         <v>185</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="12"/>
-    </row>
-    <row r="3" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="122"/>
+    </row>
+    <row r="3" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="55">
-        <v>4</v>
-      </c>
-      <c r="D3" s="55">
-        <v>6</v>
-      </c>
-      <c r="E3" s="55">
-        <v>4</v>
-      </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55">
-        <v>6</v>
-      </c>
-      <c r="H3" s="55">
+      <c r="C3" s="125">
+        <v>4</v>
+      </c>
+      <c r="D3" s="125">
+        <v>6</v>
+      </c>
+      <c r="E3" s="125">
+        <v>4</v>
+      </c>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125">
+        <v>6</v>
+      </c>
+      <c r="H3" s="125">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55">
+      <c r="I3" s="125"/>
+      <c r="J3" s="125">
         <v>3</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="55" t="s">
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="12"/>
-    </row>
-    <row r="4" spans="1:18" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="122"/>
+    </row>
+    <row r="4" spans="1:18" s="149" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="55">
-        <v>6</v>
-      </c>
-      <c r="D4" s="55">
-        <v>6</v>
-      </c>
-      <c r="E4" s="55">
-        <v>4</v>
-      </c>
-      <c r="F4" s="55">
-        <v>4</v>
-      </c>
-      <c r="G4" s="55">
-        <v>6</v>
-      </c>
-      <c r="H4" s="55">
+      <c r="B4" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="144">
+        <v>6</v>
+      </c>
+      <c r="D4" s="144">
+        <v>6</v>
+      </c>
+      <c r="E4" s="144">
+        <v>4</v>
+      </c>
+      <c r="F4" s="144">
+        <v>4</v>
+      </c>
+      <c r="G4" s="144">
+        <v>6</v>
+      </c>
+      <c r="H4" s="144">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55">
-        <v>4</v>
-      </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="4" t="s">
+      <c r="I4" s="144"/>
+      <c r="J4" s="144">
+        <v>4</v>
+      </c>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="146" t="s">
         <v>276</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="12"/>
-    </row>
-    <row r="5" spans="1:18" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="147"/>
+      <c r="R4" s="148"/>
+    </row>
+    <row r="5" spans="1:18" s="123" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="120">
         <v>12</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="120">
         <v>10</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120">
         <v>10</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="120">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4">
-        <v>2</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
+      <c r="I5" s="120"/>
+      <c r="J5" s="120">
+        <v>2</v>
+      </c>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120" t="s">
         <v>192</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="120" t="s">
         <v>275</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="122"/>
+    </row>
+    <row r="6" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="120">
         <v>14</v>
       </c>
-      <c r="D6" s="4">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
-        <v>6</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="D6" s="120">
+        <v>6</v>
+      </c>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120">
+        <v>6</v>
+      </c>
+      <c r="H6" s="120">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4">
-        <v>2</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
+      <c r="I6" s="120"/>
+      <c r="J6" s="120">
+        <v>2</v>
+      </c>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120" t="s">
         <v>192</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="121" t="s">
         <v>200</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="121">
         <v>12</v>
       </c>
-      <c r="P6" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="12"/>
-    </row>
-    <row r="7" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="P6" s="121">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="122"/>
+    </row>
+    <row r="7" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="120">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="120">
         <v>10</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120">
         <v>10</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="120">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4">
-        <v>2</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
+      <c r="I7" s="120"/>
+      <c r="J7" s="120">
+        <v>2</v>
+      </c>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120" t="s">
         <v>192</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="121" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="121">
         <v>12</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3">
-        <v>8</v>
-      </c>
-      <c r="R7" s="12"/>
-    </row>
-    <row r="8" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121">
+        <v>8</v>
+      </c>
+      <c r="R7" s="122"/>
+    </row>
+    <row r="8" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>6</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="C8" s="120">
+        <v>8</v>
+      </c>
+      <c r="D8" s="120">
+        <v>6</v>
+      </c>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120">
+        <v>6</v>
+      </c>
+      <c r="H8" s="120">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
-        <v>2</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120">
+        <v>2</v>
+      </c>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120" t="s">
         <v>192</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="12"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="122"/>
     </row>
     <row r="9" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -6418,97 +6583,97 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="12"/>
     </row>
-    <row r="12" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="120">
         <v>10</v>
       </c>
-      <c r="D12" s="4">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4">
-        <v>6</v>
-      </c>
-      <c r="F12" s="4">
-        <v>6</v>
-      </c>
-      <c r="G12" s="4">
-        <v>8</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="D12" s="120">
+        <v>8</v>
+      </c>
+      <c r="E12" s="120">
+        <v>6</v>
+      </c>
+      <c r="F12" s="120">
+        <v>6</v>
+      </c>
+      <c r="G12" s="120">
+        <v>8</v>
+      </c>
+      <c r="H12" s="120">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4">
-        <v>4</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="3" t="s">
+      <c r="I12" s="120"/>
+      <c r="J12" s="120">
+        <v>4</v>
+      </c>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="121" t="s">
         <v>190</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="120" t="s">
         <v>187</v>
       </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="12" t="s">
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="122" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+    <row r="13" spans="1:18" s="123" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="128" t="s">
         <v>186</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="129">
         <v>10</v>
       </c>
-      <c r="D13" s="58">
-        <v>8</v>
-      </c>
-      <c r="E13" s="58">
-        <v>6</v>
-      </c>
-      <c r="F13" s="58">
-        <v>6</v>
-      </c>
-      <c r="G13" s="58">
-        <v>8</v>
-      </c>
-      <c r="H13" s="58">
+      <c r="D13" s="129">
+        <v>8</v>
+      </c>
+      <c r="E13" s="129">
+        <v>6</v>
+      </c>
+      <c r="F13" s="129">
+        <v>6</v>
+      </c>
+      <c r="G13" s="129">
+        <v>8</v>
+      </c>
+      <c r="H13" s="129">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58">
-        <v>4</v>
-      </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58" t="s">
+      <c r="I13" s="129"/>
+      <c r="J13" s="129">
+        <v>4</v>
+      </c>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129" t="s">
         <v>321</v>
       </c>
-      <c r="M13" s="59" t="s">
+      <c r="M13" s="130" t="s">
         <v>191</v>
       </c>
-      <c r="N13" s="58" t="s">
+      <c r="N13" s="129" t="s">
         <v>187</v>
       </c>
-      <c r="O13" s="59">
+      <c r="O13" s="130">
         <v>14</v>
       </c>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="60" t="s">
+      <c r="P13" s="130"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="131" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6558,49 +6723,49 @@
       <c r="R14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="62">
-        <v>2</v>
-      </c>
-      <c r="D15" s="62">
+      <c r="C15" s="55">
+        <v>2</v>
+      </c>
+      <c r="D15" s="55">
         <v>0</v>
       </c>
-      <c r="E15" s="62">
-        <v>4</v>
-      </c>
-      <c r="F15" s="62">
+      <c r="E15" s="55">
+        <v>4</v>
+      </c>
+      <c r="F15" s="55">
         <v>0</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62">
+      <c r="G15" s="55"/>
+      <c r="H15" s="55">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62">
-        <v>4</v>
-      </c>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62" t="s">
+      <c r="I15" s="55"/>
+      <c r="J15" s="55">
+        <v>4</v>
+      </c>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="M15" s="63">
+      <c r="M15" s="56">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N15" s="63" t="s">
+      <c r="N15" s="56" t="s">
         <v>218</v>
       </c>
-      <c r="O15" s="63">
-        <v>2</v>
-      </c>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="64"/>
+      <c r="O15" s="56">
+        <v>2</v>
+      </c>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="57"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -6649,8 +6814,8 @@
       </c>
       <c r="R16" s="12"/>
     </row>
-    <row r="17" spans="1:18" s="70" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
+    <row r="17" spans="1:18" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="53" t="s">
@@ -6679,22 +6844,22 @@
       </c>
       <c r="K17" s="53"/>
       <c r="L17" s="53"/>
-      <c r="M17" s="67">
+      <c r="M17" s="60">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N17" s="68" t="s">
+      <c r="N17" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="O17" s="68">
-        <v>2</v>
-      </c>
-      <c r="P17" s="68">
+      <c r="O17" s="61">
+        <v>2</v>
+      </c>
+      <c r="P17" s="61">
         <v>0</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="Q17" s="61">
         <v>0</v>
       </c>
-      <c r="R17" s="69"/>
+      <c r="R17" s="62"/>
     </row>
     <row r="18" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -6780,52 +6945,52 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="12"/>
     </row>
-    <row r="20" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="4">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3">
-        <v>4</v>
-      </c>
-      <c r="E20" s="67">
-        <v>2</v>
-      </c>
-      <c r="F20" s="67"/>
-      <c r="G20" s="3">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="C20" s="120">
+        <v>6</v>
+      </c>
+      <c r="D20" s="121">
+        <v>4</v>
+      </c>
+      <c r="E20" s="121">
+        <v>2</v>
+      </c>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121">
+        <v>4</v>
+      </c>
+      <c r="H20" s="121">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="3">
+      <c r="I20" s="121"/>
+      <c r="J20" s="121">
+        <v>4</v>
+      </c>
+      <c r="K20" s="121"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="121">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="137" t="s">
         <v>205</v>
       </c>
-      <c r="O20" s="15">
-        <v>6</v>
-      </c>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15">
-        <v>4</v>
-      </c>
-      <c r="R20" s="12"/>
-    </row>
-    <row r="21" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="137">
+        <v>6</v>
+      </c>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="137">
+        <v>4</v>
+      </c>
+      <c r="R20" s="122"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>26</v>
       </c>
@@ -6870,185 +7035,185 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="12"/>
     </row>
-    <row r="22" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:18" s="123" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="4">
-        <v>6</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="C22" s="120">
+        <v>6</v>
+      </c>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121">
+        <v>2</v>
+      </c>
+      <c r="F22" s="121">
+        <v>6</v>
+      </c>
+      <c r="G22" s="121">
         <v>0</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="121">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="3">
+      <c r="I22" s="121"/>
+      <c r="J22" s="121">
+        <v>4</v>
+      </c>
+      <c r="K22" s="121"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="121">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="137" t="s">
         <v>207</v>
       </c>
-      <c r="O22" s="15">
-        <v>6</v>
-      </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="12"/>
-    </row>
-    <row r="23" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="O22" s="137">
+        <v>6</v>
+      </c>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="121"/>
+      <c r="R22" s="122"/>
+    </row>
+    <row r="23" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="4">
-        <v>6</v>
-      </c>
-      <c r="D23" s="3">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3">
-        <v>4</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="C23" s="120">
+        <v>6</v>
+      </c>
+      <c r="D23" s="121">
+        <v>4</v>
+      </c>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121">
+        <v>4</v>
+      </c>
+      <c r="H23" s="121">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3">
-        <v>2</v>
-      </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="3">
+      <c r="I23" s="121"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121">
+        <v>2</v>
+      </c>
+      <c r="L23" s="120"/>
+      <c r="M23" s="121">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="121" t="s">
         <v>207</v>
       </c>
-      <c r="O23" s="3">
-        <v>6</v>
-      </c>
-      <c r="P23" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="12"/>
-    </row>
-    <row r="24" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="O23" s="121">
+        <v>6</v>
+      </c>
+      <c r="P23" s="121">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="122"/>
+    </row>
+    <row r="24" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="4">
-        <v>4</v>
-      </c>
-      <c r="D24" s="4">
-        <v>6</v>
-      </c>
-      <c r="E24" s="4">
-        <v>4</v>
-      </c>
-      <c r="F24" s="4">
-        <v>6</v>
-      </c>
-      <c r="G24" s="4">
-        <v>6</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="C24" s="120">
+        <v>4</v>
+      </c>
+      <c r="D24" s="120">
+        <v>6</v>
+      </c>
+      <c r="E24" s="120">
+        <v>4</v>
+      </c>
+      <c r="F24" s="120">
+        <v>6</v>
+      </c>
+      <c r="G24" s="120">
+        <v>6</v>
+      </c>
+      <c r="H24" s="120">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4">
-        <v>4</v>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="3">
+      <c r="I24" s="120"/>
+      <c r="J24" s="120">
+        <v>4</v>
+      </c>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="121">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="N24" s="136" t="s">
         <v>277</v>
       </c>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="12" t="s">
+      <c r="O24" s="137"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="137"/>
+      <c r="R24" s="122" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+    <row r="25" spans="1:18" s="123" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="58">
-        <v>4</v>
-      </c>
-      <c r="D25" s="58">
-        <v>8</v>
-      </c>
-      <c r="E25" s="58">
-        <v>4</v>
-      </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58">
-        <v>8</v>
-      </c>
-      <c r="H25" s="58">
+      <c r="C25" s="129">
+        <v>4</v>
+      </c>
+      <c r="D25" s="129">
+        <v>8</v>
+      </c>
+      <c r="E25" s="129">
+        <v>4</v>
+      </c>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129">
+        <v>8</v>
+      </c>
+      <c r="H25" s="129">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58">
+      <c r="I25" s="129"/>
+      <c r="J25" s="129">
         <v>3</v>
       </c>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58" t="s">
+      <c r="K25" s="129"/>
+      <c r="L25" s="129" t="s">
         <v>321</v>
       </c>
-      <c r="M25" s="59">
+      <c r="M25" s="130">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N25" s="58" t="s">
+      <c r="N25" s="129" t="s">
         <v>187</v>
       </c>
-      <c r="O25" s="59">
-        <v>6</v>
-      </c>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="60" t="s">
+      <c r="O25" s="130">
+        <v>6</v>
+      </c>
+      <c r="P25" s="130"/>
+      <c r="Q25" s="130"/>
+      <c r="R25" s="131" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>26</v>
       </c>
@@ -7095,48 +7260,48 @@
       </c>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="17">
-        <v>4</v>
-      </c>
-      <c r="D27" s="18">
-        <v>6</v>
-      </c>
-      <c r="E27" s="18">
-        <v>4</v>
-      </c>
-      <c r="F27" s="18">
-        <v>2</v>
-      </c>
-      <c r="G27" s="18">
-        <v>6</v>
-      </c>
-      <c r="H27" s="18">
+      <c r="C27" s="139">
+        <v>4</v>
+      </c>
+      <c r="D27" s="140">
+        <v>6</v>
+      </c>
+      <c r="E27" s="140">
+        <v>4</v>
+      </c>
+      <c r="F27" s="140">
+        <v>2</v>
+      </c>
+      <c r="G27" s="140">
+        <v>6</v>
+      </c>
+      <c r="H27" s="140">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18">
-        <v>3</v>
-      </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17">
+      <c r="I27" s="140"/>
+      <c r="J27" s="141">
+        <v>4</v>
+      </c>
+      <c r="K27" s="140"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="139">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N27" s="17" t="s">
+      <c r="N27" s="139" t="s">
         <v>288</v>
       </c>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="65"/>
+      <c r="O27" s="139"/>
+      <c r="P27" s="139"/>
+      <c r="Q27" s="139"/>
+      <c r="R27" s="142"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -7247,15 +7412,15 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="24" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="24" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="24" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="24" customWidth="1"/>
@@ -7329,83 +7494,83 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:18" s="151" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="55">
-        <v>6</v>
-      </c>
-      <c r="D2" s="55">
-        <v>4</v>
-      </c>
-      <c r="E2" s="55">
-        <v>2</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55">
-        <v>6</v>
-      </c>
-      <c r="H2" s="55">
+      <c r="C2" s="144">
+        <v>6</v>
+      </c>
+      <c r="D2" s="144">
+        <v>4</v>
+      </c>
+      <c r="E2" s="144">
+        <v>2</v>
+      </c>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144">
+        <v>4</v>
+      </c>
+      <c r="H2" s="144">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55">
+        <v>2</v>
+      </c>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144">
         <v>3</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="4" t="s">
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="146" t="s">
         <v>276</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="25"/>
-    </row>
-    <row r="3" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="150"/>
+    </row>
+    <row r="3" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="55">
-        <v>4</v>
-      </c>
-      <c r="D3" s="55">
-        <v>6</v>
-      </c>
-      <c r="E3" s="55">
-        <v>4</v>
-      </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55">
-        <v>6</v>
-      </c>
-      <c r="H3" s="55">
+      <c r="C3" s="125">
+        <v>4</v>
+      </c>
+      <c r="D3" s="125">
+        <v>6</v>
+      </c>
+      <c r="E3" s="125">
+        <v>4</v>
+      </c>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125">
+        <v>6</v>
+      </c>
+      <c r="H3" s="125">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55">
+      <c r="I3" s="125"/>
+      <c r="J3" s="125">
         <v>3</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="4" t="s">
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="120" t="s">
         <v>289</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="25"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="135"/>
     </row>
     <row r="4" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -7870,44 +8035,44 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="25"/>
     </row>
-    <row r="15" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="71">
+      <c r="C15" s="132">
         <v>10</v>
       </c>
-      <c r="D15" s="71">
-        <v>8</v>
-      </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71">
-        <v>8</v>
-      </c>
-      <c r="H15" s="71">
+      <c r="D15" s="132">
+        <v>8</v>
+      </c>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132">
+        <v>8</v>
+      </c>
+      <c r="H15" s="132">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71">
-        <v>2</v>
-      </c>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71">
+      <c r="I15" s="132"/>
+      <c r="J15" s="132">
+        <v>2</v>
+      </c>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132">
         <v>6.080101</v>
       </c>
-      <c r="N15" s="71" t="s">
+      <c r="N15" s="132" t="s">
         <v>279</v>
       </c>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71" t="s">
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132" t="s">
         <v>233</v>
       </c>
     </row>
@@ -8271,8 +8436,8 @@
       </c>
       <c r="R23" s="25"/>
     </row>
-    <row r="24" spans="1:18" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66" t="s">
+    <row r="24" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="59" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="53" t="s">
@@ -8310,7 +8475,7 @@
       <c r="O24" s="53"/>
       <c r="P24" s="53"/>
       <c r="Q24" s="53"/>
-      <c r="R24" s="78"/>
+      <c r="R24" s="71"/>
     </row>
     <row r="25" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
@@ -8443,7 +8608,7 @@
       <c r="Q27" s="26">
         <v>4</v>
       </c>
-      <c r="R27" s="72"/>
+      <c r="R27" s="65"/>
     </row>
     <row r="28" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
@@ -8478,15 +8643,15 @@
       <c r="M28" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N28" s="73" t="s">
+      <c r="N28" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="O28" s="73">
-        <v>4</v>
-      </c>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="72"/>
+      <c r="O28" s="66">
+        <v>4</v>
+      </c>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="65"/>
     </row>
     <row r="29" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -8625,7 +8790,7 @@
       <c r="Q31" s="26">
         <v>2</v>
       </c>
-      <c r="R31" s="74"/>
+      <c r="R31" s="67"/>
     </row>
     <row r="32" spans="1:18" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
@@ -8660,17 +8825,17 @@
       <c r="M32" s="18">
         <v>6.090103</v>
       </c>
-      <c r="N32" s="75" t="s">
+      <c r="N32" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="O32" s="75">
-        <v>6</v>
-      </c>
-      <c r="P32" s="75">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="77"/>
+      <c r="O32" s="68">
+        <v>6</v>
+      </c>
+      <c r="P32" s="68">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8686,15 +8851,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="7" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="7" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" style="7" customWidth="1"/>
@@ -8764,255 +8929,255 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="4">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="120">
+        <v>8</v>
+      </c>
+      <c r="D2" s="120">
         <v>16</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4">
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120">
         <v>16</v>
       </c>
-      <c r="H2" s="55">
+      <c r="H2" s="125">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55">
-        <v>2</v>
-      </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4">
+      <c r="I2" s="125"/>
+      <c r="J2" s="125">
+        <v>2</v>
+      </c>
+      <c r="K2" s="125"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="137" t="s">
         <v>201</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="137">
         <v>12</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="80">
+      <c r="P2" s="137"/>
+      <c r="Q2" s="168">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="4">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="C3" s="120">
+        <v>8</v>
+      </c>
+      <c r="D3" s="120">
+        <v>8</v>
+      </c>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120">
+        <v>8</v>
+      </c>
+      <c r="H3" s="120">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4">
-        <v>2</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4">
+      <c r="I3" s="120"/>
+      <c r="J3" s="120">
+        <v>2</v>
+      </c>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="121" t="s">
         <v>210</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="121">
         <v>12</v>
       </c>
-      <c r="P3" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="12"/>
-    </row>
-    <row r="4" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="P3" s="121">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="122"/>
+    </row>
+    <row r="4" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="4">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>6</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="C4" s="120">
+        <v>8</v>
+      </c>
+      <c r="D4" s="120">
+        <v>6</v>
+      </c>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120">
+        <v>6</v>
+      </c>
+      <c r="H4" s="120">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
+      <c r="I4" s="120"/>
+      <c r="J4" s="120">
+        <v>2</v>
+      </c>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="121" t="s">
         <v>203</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="121">
         <v>10</v>
       </c>
-      <c r="P4" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="P4" s="120">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="122"/>
+    </row>
+    <row r="5" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="4">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="C5" s="120">
+        <v>6</v>
+      </c>
+      <c r="D5" s="120">
+        <v>4</v>
+      </c>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120">
+        <v>4</v>
+      </c>
+      <c r="H5" s="120">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4">
-        <v>2</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4">
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120">
+        <v>2</v>
+      </c>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="121" t="s">
         <v>217</v>
       </c>
-      <c r="O5" s="3">
-        <v>6</v>
-      </c>
-      <c r="P5" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="12"/>
-    </row>
-    <row r="6" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="O5" s="121">
+        <v>6</v>
+      </c>
+      <c r="P5" s="120">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="122"/>
+    </row>
+    <row r="6" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="132" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="71">
-        <v>6</v>
-      </c>
-      <c r="D6" s="71">
-        <v>4</v>
-      </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71">
-        <v>4</v>
-      </c>
-      <c r="H6" s="71">
+      <c r="C6" s="132">
+        <v>6</v>
+      </c>
+      <c r="D6" s="132">
+        <v>4</v>
+      </c>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132">
+        <v>4</v>
+      </c>
+      <c r="H6" s="132">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71">
-        <v>2</v>
-      </c>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71">
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132">
+        <v>2</v>
+      </c>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="81" t="s">
+      <c r="N6" s="169" t="s">
         <v>201</v>
       </c>
-      <c r="O6" s="81">
-        <v>8</v>
-      </c>
-      <c r="P6" s="81">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="81"/>
-    </row>
-    <row r="7" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="O6" s="169">
+        <v>8</v>
+      </c>
+      <c r="P6" s="169">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="169"/>
+    </row>
+    <row r="7" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="4">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
-        <v>8</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="C7" s="120">
+        <v>6</v>
+      </c>
+      <c r="D7" s="120">
+        <v>8</v>
+      </c>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120">
+        <v>8</v>
+      </c>
+      <c r="H7" s="120">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
-        <v>2</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120">
+        <v>2</v>
+      </c>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="121" t="s">
         <v>244</v>
       </c>
-      <c r="O7" s="3">
-        <v>6</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="12">
+      <c r="O7" s="121">
+        <v>6</v>
+      </c>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="122">
         <v>16</v>
       </c>
     </row>
@@ -9139,48 +9304,48 @@
       <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84">
-        <v>6</v>
-      </c>
-      <c r="E11" s="84">
-        <v>6</v>
-      </c>
-      <c r="F11" s="84">
-        <v>2</v>
-      </c>
-      <c r="G11" s="84">
-        <v>6</v>
-      </c>
-      <c r="H11" s="84">
+      <c r="C11" s="77"/>
+      <c r="D11" s="77">
+        <v>6</v>
+      </c>
+      <c r="E11" s="77">
+        <v>6</v>
+      </c>
+      <c r="F11" s="77">
+        <v>2</v>
+      </c>
+      <c r="G11" s="77">
+        <v>6</v>
+      </c>
+      <c r="H11" s="77">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I11" s="84">
-        <v>4</v>
-      </c>
-      <c r="J11" s="84">
-        <v>4</v>
-      </c>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84">
+      <c r="I11" s="77">
+        <v>4</v>
+      </c>
+      <c r="J11" s="77">
+        <v>4</v>
+      </c>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N11" s="85" t="s">
+      <c r="N11" s="78" t="s">
         <v>201</v>
       </c>
-      <c r="O11" s="85">
-        <v>6</v>
-      </c>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="87"/>
+      <c r="O11" s="78">
+        <v>6</v>
+      </c>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="80"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -9259,7 +9424,7 @@
       <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="81" t="s">
         <v>194</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -9296,49 +9461,49 @@
         <v>12</v>
       </c>
       <c r="P14" s="15"/>
-      <c r="Q14" s="80">
+      <c r="Q14" s="73">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+    <row r="15" spans="1:17" s="156" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="152" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27">
-        <v>4</v>
-      </c>
-      <c r="F15" s="27">
-        <v>8</v>
-      </c>
-      <c r="G15" s="27">
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153">
+        <v>4</v>
+      </c>
+      <c r="F15" s="153">
+        <v>8</v>
+      </c>
+      <c r="G15" s="153">
         <v>0</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="153">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27">
-        <v>4</v>
-      </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27">
+      <c r="I15" s="153"/>
+      <c r="J15" s="153">
+        <v>4</v>
+      </c>
+      <c r="K15" s="153"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N15" s="27" t="s">
+      <c r="N15" s="153" t="s">
         <v>246</v>
       </c>
-      <c r="O15" s="15">
-        <v>8</v>
-      </c>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="80">
+      <c r="O15" s="154">
+        <v>8</v>
+      </c>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="155">
         <v>8</v>
       </c>
     </row>
@@ -9387,48 +9552,48 @@
       <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="90">
-        <v>4</v>
-      </c>
-      <c r="D17" s="90">
-        <v>4</v>
-      </c>
-      <c r="E17" s="90">
-        <v>6</v>
-      </c>
-      <c r="F17" s="90">
-        <v>6</v>
-      </c>
-      <c r="G17" s="90">
-        <v>4</v>
-      </c>
-      <c r="H17" s="90">
+      <c r="C17" s="83">
+        <v>4</v>
+      </c>
+      <c r="D17" s="83">
+        <v>4</v>
+      </c>
+      <c r="E17" s="83">
+        <v>6</v>
+      </c>
+      <c r="F17" s="83">
+        <v>6</v>
+      </c>
+      <c r="G17" s="83">
+        <v>4</v>
+      </c>
+      <c r="H17" s="83">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90">
-        <v>4</v>
-      </c>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90">
+      <c r="I17" s="83"/>
+      <c r="J17" s="83">
+        <v>4</v>
+      </c>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83">
         <v>6.080101</v>
       </c>
-      <c r="N17" s="89" t="s">
+      <c r="N17" s="82" t="s">
         <v>334</v>
       </c>
-      <c r="O17" s="89">
-        <v>8</v>
-      </c>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89">
+      <c r="O17" s="82">
+        <v>8</v>
+      </c>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82">
         <v>0</v>
       </c>
     </row>
@@ -9720,7 +9885,7 @@
         <v>8</v>
       </c>
       <c r="P24" s="10"/>
-      <c r="Q24" s="82">
+      <c r="Q24" s="75">
         <v>0</v>
       </c>
     </row>
@@ -9930,7 +10095,7 @@
         <v>8</v>
       </c>
       <c r="P29" s="15"/>
-      <c r="Q29" s="80"/>
+      <c r="Q29" s="73"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
@@ -9974,47 +10139,47 @@
         <v>6</v>
       </c>
       <c r="P30" s="10"/>
-      <c r="Q30" s="82">
+      <c r="Q30" s="75">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="51" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:17" s="127" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="4">
-        <v>6</v>
-      </c>
-      <c r="D31" s="4">
-        <v>2</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4">
-        <v>2</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="C31" s="120">
+        <v>6</v>
+      </c>
+      <c r="D31" s="120">
+        <v>2</v>
+      </c>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120">
+        <v>2</v>
+      </c>
+      <c r="H31" s="120">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4">
-        <v>2</v>
-      </c>
-      <c r="L31" s="4" t="s">
+      <c r="I31" s="120"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="120">
+        <v>2</v>
+      </c>
+      <c r="L31" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="3" t="s">
+      <c r="M31" s="120"/>
+      <c r="N31" s="121" t="s">
         <v>280</v>
       </c>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="12"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="122"/>
     </row>
     <row r="32" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
@@ -10104,45 +10269,45 @@
       <c r="P33" s="10">
         <v>0</v>
       </c>
-      <c r="Q33" s="82"/>
-    </row>
-    <row r="34" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="Q33" s="75"/>
+    </row>
+    <row r="34" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="4">
-        <v>6</v>
-      </c>
-      <c r="D34" s="4">
-        <v>2</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4">
-        <v>2</v>
-      </c>
-      <c r="H34" s="4">
+      <c r="C34" s="120">
+        <v>6</v>
+      </c>
+      <c r="D34" s="120">
+        <v>2</v>
+      </c>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120">
+        <v>2</v>
+      </c>
+      <c r="H34" s="120">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4">
-        <v>2</v>
-      </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4">
+      <c r="I34" s="120"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120">
+        <v>2</v>
+      </c>
+      <c r="L34" s="120"/>
+      <c r="M34" s="120">
         <v>6.090103</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="N34" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="12"/>
+      <c r="O34" s="121"/>
+      <c r="P34" s="121"/>
+      <c r="Q34" s="122"/>
     </row>
     <row r="35" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
@@ -10232,7 +10397,7 @@
         <v>6</v>
       </c>
       <c r="P36" s="10"/>
-      <c r="Q36" s="82">
+      <c r="Q36" s="75">
         <v>4</v>
       </c>
     </row>
@@ -10278,45 +10443,45 @@
       </c>
       <c r="Q37" s="12"/>
     </row>
-    <row r="38" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:17" s="156" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="146" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="4">
-        <v>4</v>
-      </c>
-      <c r="D38" s="4">
-        <v>4</v>
-      </c>
-      <c r="E38" s="4">
-        <v>2</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4">
-        <v>4</v>
-      </c>
-      <c r="H38" s="4">
+      <c r="C38" s="146">
+        <v>4</v>
+      </c>
+      <c r="D38" s="146">
+        <v>4</v>
+      </c>
+      <c r="E38" s="146">
+        <v>2</v>
+      </c>
+      <c r="F38" s="146"/>
+      <c r="G38" s="146">
+        <v>4</v>
+      </c>
+      <c r="H38" s="146">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4">
+      <c r="I38" s="146"/>
+      <c r="J38" s="146"/>
+      <c r="K38" s="146">
         <v>3</v>
       </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4">
+      <c r="L38" s="146"/>
+      <c r="M38" s="146">
         <v>6.090103</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N38" s="147" t="s">
         <v>283</v>
       </c>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="12"/>
+      <c r="O38" s="147"/>
+      <c r="P38" s="147"/>
+      <c r="Q38" s="148"/>
     </row>
     <row r="39" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -10363,82 +10528,82 @@
       <c r="Q39" s="12"/>
     </row>
     <row r="40" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="91" t="s">
+      <c r="A40" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="92" t="s">
+      <c r="B40" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="92">
-        <v>4</v>
-      </c>
-      <c r="D40" s="92">
-        <v>6</v>
-      </c>
-      <c r="E40" s="92" t="s">
+      <c r="C40" s="85">
+        <v>4</v>
+      </c>
+      <c r="D40" s="85">
+        <v>6</v>
+      </c>
+      <c r="E40" s="85" t="s">
         <v>336</v>
       </c>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92">
-        <v>4</v>
-      </c>
-      <c r="H40" s="92" t="e">
+      <c r="F40" s="85"/>
+      <c r="G40" s="85">
+        <v>4</v>
+      </c>
+      <c r="H40" s="85" t="e">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92">
+      <c r="I40" s="85"/>
+      <c r="J40" s="85">
         <v>3</v>
       </c>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92">
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85">
         <v>6.090103</v>
       </c>
-      <c r="N40" s="93" t="s">
+      <c r="N40" s="86" t="s">
         <v>243</v>
       </c>
-      <c r="O40" s="94"/>
-      <c r="P40" s="94"/>
-      <c r="Q40" s="95"/>
-    </row>
-    <row r="41" spans="1:17" s="51" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="88"/>
+    </row>
+    <row r="41" spans="1:17" s="156" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="157" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4">
-        <v>4</v>
-      </c>
-      <c r="E41" s="4">
-        <v>4</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4">
-        <v>4</v>
-      </c>
-      <c r="H41" s="4">
+      <c r="C41" s="146"/>
+      <c r="D41" s="146">
+        <v>4</v>
+      </c>
+      <c r="E41" s="146">
+        <v>4</v>
+      </c>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146">
+        <v>4</v>
+      </c>
+      <c r="H41" s="146">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4">
+      <c r="I41" s="146"/>
+      <c r="J41" s="146">
         <v>3</v>
       </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4" t="s">
+      <c r="K41" s="146"/>
+      <c r="L41" s="146" t="s">
         <v>199</v>
       </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="3" t="s">
+      <c r="M41" s="146"/>
+      <c r="N41" s="147" t="s">
         <v>281</v>
       </c>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="12"/>
+      <c r="O41" s="147"/>
+      <c r="P41" s="147"/>
+      <c r="Q41" s="148"/>
     </row>
     <row r="42" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -10572,7 +10737,7 @@
         <v>12</v>
       </c>
       <c r="P44" s="17"/>
-      <c r="Q44" s="65"/>
+      <c r="Q44" s="58"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -10754,15 +10919,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="7.140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="5.85546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="6" customWidth="1"/>
@@ -11085,84 +11251,84 @@
       </c>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+    <row r="8" spans="1:17" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="152" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="153" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27">
-        <v>6</v>
-      </c>
-      <c r="E8" s="27">
-        <v>4</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27">
+      <c r="C8" s="153"/>
+      <c r="D8" s="153">
+        <v>6</v>
+      </c>
+      <c r="E8" s="153">
+        <v>4</v>
+      </c>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153">
         <v>0</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="153">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>10</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27">
+      <c r="I8" s="153"/>
+      <c r="J8" s="153">
         <v>3</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27">
+      <c r="K8" s="153"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="80"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="154"/>
+      <c r="P8" s="154"/>
+      <c r="Q8" s="155"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84">
-        <v>6</v>
-      </c>
-      <c r="F9" s="84">
-        <v>6</v>
-      </c>
-      <c r="G9" s="84">
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77">
+        <v>6</v>
+      </c>
+      <c r="F9" s="77">
+        <v>6</v>
+      </c>
+      <c r="G9" s="77">
         <v>0</v>
       </c>
-      <c r="H9" s="84">
+      <c r="H9" s="77">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84">
+      <c r="I9" s="77"/>
+      <c r="J9" s="77">
         <v>3</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84">
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N9" s="85" t="s">
+      <c r="N9" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="O9" s="85">
-        <v>6</v>
-      </c>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="87"/>
+      <c r="O9" s="78">
+        <v>6</v>
+      </c>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="80"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="59" t="s">
         <v>194</v>
       </c>
       <c r="B10" s="53" t="s">
@@ -11192,54 +11358,54 @@
       <c r="M10" s="53">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N10" s="96" t="s">
+      <c r="N10" s="89" t="s">
         <v>223</v>
       </c>
-      <c r="O10" s="96">
+      <c r="O10" s="89">
         <v>10</v>
       </c>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="69"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="P10" s="60"/>
+      <c r="Q10" s="62"/>
+    </row>
+    <row r="11" spans="1:17" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="157" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="146" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4">
-        <v>6</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4">
-        <v>6</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="C11" s="146"/>
+      <c r="D11" s="146">
+        <v>6</v>
+      </c>
+      <c r="E11" s="146">
+        <v>6</v>
+      </c>
+      <c r="F11" s="146">
+        <v>2</v>
+      </c>
+      <c r="G11" s="146">
+        <v>6</v>
+      </c>
+      <c r="H11" s="146">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4">
-        <v>4</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
+      <c r="I11" s="146"/>
+      <c r="J11" s="146">
+        <v>4</v>
+      </c>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="146">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="147" t="s">
         <v>284</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="12"/>
+      <c r="O11" s="147"/>
+      <c r="P11" s="147"/>
+      <c r="Q11" s="148"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -11441,7 +11607,7 @@
         <v>12</v>
       </c>
       <c r="P16" s="10"/>
-      <c r="Q16" s="82">
+      <c r="Q16" s="75">
         <v>2</v>
       </c>
     </row>
@@ -11483,45 +11649,45 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:18" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="146" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="4">
-        <v>4</v>
-      </c>
-      <c r="D18" s="4">
-        <v>4</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4">
-        <v>4</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="C18" s="146">
+        <v>4</v>
+      </c>
+      <c r="D18" s="146">
+        <v>4</v>
+      </c>
+      <c r="E18" s="146">
+        <v>2</v>
+      </c>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146">
+        <v>4</v>
+      </c>
+      <c r="H18" s="146">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4">
+      <c r="I18" s="146"/>
+      <c r="J18" s="146">
         <v>3</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4">
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="146">
         <v>6.080101</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="147" t="s">
         <v>285</v>
       </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="12"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="147"/>
+      <c r="Q18" s="148"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -11563,7 +11729,7 @@
         <v>8</v>
       </c>
       <c r="P19" s="10"/>
-      <c r="Q19" s="82">
+      <c r="Q19" s="75">
         <v>0</v>
       </c>
     </row>
@@ -11774,40 +11940,40 @@
       </c>
     </row>
     <row r="25" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="97" t="s">
+      <c r="A25" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98">
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91">
         <v>10</v>
       </c>
-      <c r="G25" s="98">
+      <c r="G25" s="91">
         <v>0</v>
       </c>
-      <c r="H25" s="98">
+      <c r="H25" s="91">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98">
-        <v>4</v>
-      </c>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98">
+      <c r="I25" s="91"/>
+      <c r="J25" s="91">
+        <v>4</v>
+      </c>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91">
         <v>6.080101</v>
       </c>
-      <c r="N25" s="99" t="s">
+      <c r="N25" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="100"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="93"/>
       <c r="R25" s="29"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -11852,7 +12018,7 @@
       <c r="P26" s="10">
         <v>8</v>
       </c>
-      <c r="Q26" s="82">
+      <c r="Q26" s="75">
         <v>2</v>
       </c>
     </row>
@@ -11934,117 +12100,117 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="12"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:18" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4">
-        <v>4</v>
-      </c>
-      <c r="E29" s="4">
-        <v>4</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4">
-        <v>4</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="C29" s="146"/>
+      <c r="D29" s="146">
+        <v>4</v>
+      </c>
+      <c r="E29" s="146">
+        <v>4</v>
+      </c>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146">
+        <v>4</v>
+      </c>
+      <c r="H29" s="146">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4">
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146">
         <v>3</v>
       </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4">
+      <c r="L29" s="146"/>
+      <c r="M29" s="146">
         <v>6.080101</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="147" t="s">
         <v>330</v>
       </c>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="12"/>
-    </row>
-    <row r="30" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="O29" s="147"/>
+      <c r="P29" s="147"/>
+      <c r="Q29" s="148"/>
+    </row>
+    <row r="30" spans="1:18" s="158" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4">
-        <v>4</v>
-      </c>
-      <c r="E30" s="4">
-        <v>4</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4">
-        <v>4</v>
-      </c>
-      <c r="H30" s="4">
+      <c r="C30" s="146"/>
+      <c r="D30" s="146">
+        <v>4</v>
+      </c>
+      <c r="E30" s="146">
+        <v>4</v>
+      </c>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146">
+        <v>4</v>
+      </c>
+      <c r="H30" s="146">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4">
+      <c r="I30" s="146"/>
+      <c r="J30" s="146">
         <v>3</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4" t="s">
+      <c r="K30" s="146"/>
+      <c r="L30" s="146" t="s">
         <v>199</v>
       </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="3" t="s">
+      <c r="M30" s="146"/>
+      <c r="N30" s="147" t="s">
         <v>281</v>
       </c>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="12"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="O30" s="147"/>
+      <c r="P30" s="147"/>
+      <c r="Q30" s="148"/>
+    </row>
+    <row r="31" spans="1:18" s="158" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="4">
-        <v>4</v>
-      </c>
-      <c r="D31" s="4">
-        <v>4</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4">
-        <v>4</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="C31" s="146">
+        <v>4</v>
+      </c>
+      <c r="D31" s="146">
+        <v>4</v>
+      </c>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146">
+        <v>4</v>
+      </c>
+      <c r="H31" s="146">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4">
-        <v>2</v>
-      </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="3" t="s">
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="146">
+        <v>2</v>
+      </c>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="147" t="s">
         <v>327</v>
       </c>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="12"/>
+      <c r="O31" s="147"/>
+      <c r="P31" s="147"/>
+      <c r="Q31" s="148"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
@@ -12132,7 +12298,7 @@
         <v>10</v>
       </c>
       <c r="P33" s="15"/>
-      <c r="Q33" s="80">
+      <c r="Q33" s="73">
         <v>0</v>
       </c>
     </row>
@@ -12183,7 +12349,7 @@
       <c r="Q34" s="12"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="81" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -12224,7 +12390,7 @@
       <c r="P35" s="15">
         <v>2</v>
       </c>
-      <c r="Q35" s="80"/>
+      <c r="Q35" s="73"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
@@ -12355,7 +12521,7 @@
       <c r="Q38" s="12"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="81" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="27" t="s">
@@ -12396,7 +12562,7 @@
       <c r="P39" s="15">
         <v>0</v>
       </c>
-      <c r="Q39" s="80"/>
+      <c r="Q39" s="73"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
@@ -12528,7 +12694,7 @@
       <c r="P42" s="28">
         <v>2</v>
       </c>
-      <c r="Q42" s="65"/>
+      <c r="Q42" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12543,16 +12709,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="7" customWidth="1"/>
     <col min="2" max="2" width="51.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="7" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" style="7" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" style="7" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="7" customWidth="1"/>
@@ -12622,357 +12788,357 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+    <row r="2" spans="1:17" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="115">
-        <v>4</v>
-      </c>
-      <c r="D2" s="115">
-        <v>4</v>
-      </c>
-      <c r="E2" s="115">
-        <v>2</v>
-      </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115">
-        <v>4</v>
-      </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115">
+      <c r="C2" s="107">
+        <v>4</v>
+      </c>
+      <c r="D2" s="107">
+        <v>4</v>
+      </c>
+      <c r="E2" s="107">
+        <v>2</v>
+      </c>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107">
+        <v>4</v>
+      </c>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107">
         <v>3</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115">
+      <c r="J2" s="107"/>
+      <c r="K2" s="107">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115">
+      <c r="L2" s="107"/>
+      <c r="M2" s="107">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N2" s="116" t="s">
+      <c r="N2" s="108" t="s">
         <v>216</v>
       </c>
-      <c r="O2" s="116">
-        <v>8</v>
-      </c>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="118"/>
-    </row>
-    <row r="3" spans="1:17" s="124" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="O2" s="108">
+        <v>8</v>
+      </c>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="110"/>
+    </row>
+    <row r="3" spans="1:17" s="116" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="121">
-        <v>8</v>
-      </c>
-      <c r="D3" s="121">
-        <v>6</v>
-      </c>
-      <c r="E3" s="121">
-        <v>2</v>
-      </c>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121">
-        <v>6</v>
-      </c>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121">
+      <c r="C3" s="113">
+        <v>8</v>
+      </c>
+      <c r="D3" s="113">
+        <v>6</v>
+      </c>
+      <c r="E3" s="113">
+        <v>2</v>
+      </c>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113">
+        <v>6</v>
+      </c>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113">
         <v>3</v>
       </c>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121">
+      <c r="J3" s="113"/>
+      <c r="K3" s="113">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121">
+      <c r="L3" s="113"/>
+      <c r="M3" s="113">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N3" s="122" t="s">
+      <c r="N3" s="114" t="s">
         <v>215</v>
       </c>
-      <c r="O3" s="122">
+      <c r="O3" s="114">
         <v>12</v>
       </c>
-      <c r="P3" s="122">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="123"/>
-    </row>
-    <row r="4" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="P3" s="114">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="115"/>
+    </row>
+    <row r="4" spans="1:17" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="115">
-        <v>6</v>
-      </c>
-      <c r="D4" s="115">
-        <v>8</v>
-      </c>
-      <c r="E4" s="115">
-        <v>2</v>
-      </c>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115">
-        <v>8</v>
-      </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115">
+      <c r="C4" s="107">
+        <v>6</v>
+      </c>
+      <c r="D4" s="107">
+        <v>8</v>
+      </c>
+      <c r="E4" s="107">
+        <v>2</v>
+      </c>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107">
+        <v>8</v>
+      </c>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107">
         <v>3</v>
       </c>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115">
+      <c r="J4" s="107"/>
+      <c r="K4" s="107">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115">
+      <c r="L4" s="107"/>
+      <c r="M4" s="107">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N4" s="116" t="s">
+      <c r="N4" s="108" t="s">
         <v>210</v>
       </c>
-      <c r="O4" s="116">
+      <c r="O4" s="108">
         <v>12</v>
       </c>
-      <c r="P4" s="116">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="125"/>
-    </row>
-    <row r="5" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="P4" s="108">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="117"/>
+    </row>
+    <row r="5" spans="1:17" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="115">
-        <v>8</v>
-      </c>
-      <c r="D5" s="115">
-        <v>6</v>
-      </c>
-      <c r="E5" s="115">
-        <v>2</v>
-      </c>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115">
-        <v>6</v>
-      </c>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115">
+      <c r="C5" s="107">
+        <v>8</v>
+      </c>
+      <c r="D5" s="107">
+        <v>6</v>
+      </c>
+      <c r="E5" s="107">
+        <v>2</v>
+      </c>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107">
+        <v>6</v>
+      </c>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107">
         <v>3</v>
       </c>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115">
+      <c r="J5" s="107"/>
+      <c r="K5" s="107">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115">
+      <c r="L5" s="107"/>
+      <c r="M5" s="107">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="116" t="s">
+      <c r="N5" s="108" t="s">
         <v>228</v>
       </c>
-      <c r="O5" s="116">
+      <c r="O5" s="108">
         <v>12</v>
       </c>
-      <c r="P5" s="116">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="125"/>
-    </row>
-    <row r="6" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="114" t="s">
+      <c r="P5" s="108">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="117"/>
+    </row>
+    <row r="6" spans="1:17" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="115">
-        <v>8</v>
-      </c>
-      <c r="D6" s="115">
-        <v>8</v>
-      </c>
-      <c r="E6" s="115">
-        <v>2</v>
-      </c>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115">
-        <v>8</v>
-      </c>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115">
+      <c r="C6" s="107">
+        <v>8</v>
+      </c>
+      <c r="D6" s="107">
+        <v>8</v>
+      </c>
+      <c r="E6" s="107">
+        <v>2</v>
+      </c>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107">
+        <v>8</v>
+      </c>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107">
         <v>3</v>
       </c>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115">
+      <c r="J6" s="107"/>
+      <c r="K6" s="107">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115">
+      <c r="L6" s="107"/>
+      <c r="M6" s="107">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="116" t="s">
+      <c r="N6" s="108" t="s">
         <v>219</v>
       </c>
-      <c r="O6" s="116">
+      <c r="O6" s="108">
         <v>12</v>
       </c>
-      <c r="P6" s="116">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="125"/>
-    </row>
-    <row r="7" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="114" t="s">
+      <c r="P6" s="108">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="117"/>
+    </row>
+    <row r="7" spans="1:17" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="107" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="115">
-        <v>4</v>
-      </c>
-      <c r="D7" s="115">
-        <v>4</v>
-      </c>
-      <c r="E7" s="115">
-        <v>2</v>
-      </c>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115">
-        <v>4</v>
-      </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115">
+      <c r="C7" s="107">
+        <v>4</v>
+      </c>
+      <c r="D7" s="107">
+        <v>4</v>
+      </c>
+      <c r="E7" s="107">
+        <v>2</v>
+      </c>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107">
+        <v>4</v>
+      </c>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107">
         <v>3</v>
       </c>
-      <c r="K7" s="115">
+      <c r="K7" s="107">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115">
+      <c r="L7" s="107"/>
+      <c r="M7" s="107">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="116" t="s">
+      <c r="N7" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="O7" s="116">
-        <v>8</v>
-      </c>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="125"/>
-    </row>
-    <row r="8" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="114" t="s">
+      <c r="O7" s="108">
+        <v>8</v>
+      </c>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="117"/>
+    </row>
+    <row r="8" spans="1:17" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="115">
-        <v>4</v>
-      </c>
-      <c r="D8" s="115">
-        <v>4</v>
-      </c>
-      <c r="E8" s="115">
-        <v>2</v>
-      </c>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115">
-        <v>4</v>
-      </c>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115">
+      <c r="C8" s="107">
+        <v>4</v>
+      </c>
+      <c r="D8" s="107">
+        <v>4</v>
+      </c>
+      <c r="E8" s="107">
+        <v>2</v>
+      </c>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107">
+        <v>4</v>
+      </c>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107">
         <v>3</v>
       </c>
-      <c r="K8" s="115">
+      <c r="K8" s="107">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115">
+      <c r="L8" s="107"/>
+      <c r="M8" s="107">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N8" s="116" t="s">
+      <c r="N8" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="O8" s="116">
-        <v>8</v>
-      </c>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="125"/>
-    </row>
-    <row r="9" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114" t="s">
+      <c r="O8" s="108">
+        <v>8</v>
+      </c>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="117"/>
+    </row>
+    <row r="9" spans="1:17" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="115">
-        <v>6</v>
-      </c>
-      <c r="D9" s="115">
-        <v>8</v>
-      </c>
-      <c r="E9" s="115">
-        <v>2</v>
-      </c>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115">
-        <v>8</v>
-      </c>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115">
+      <c r="C9" s="107">
+        <v>6</v>
+      </c>
+      <c r="D9" s="107">
+        <v>8</v>
+      </c>
+      <c r="E9" s="107">
+        <v>2</v>
+      </c>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107">
+        <v>8</v>
+      </c>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107">
         <v>3</v>
       </c>
-      <c r="K9" s="115">
+      <c r="K9" s="107">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115">
+      <c r="L9" s="107"/>
+      <c r="M9" s="107">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N9" s="116" t="s">
+      <c r="N9" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="O9" s="116">
+      <c r="O9" s="108">
         <v>12</v>
       </c>
-      <c r="P9" s="116">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="125"/>
+      <c r="P9" s="108">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="117"/>
     </row>
     <row r="10" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="97" t="s">
         <v>148</v>
       </c>
       <c r="C10" s="27">
@@ -13008,12 +13174,12 @@
         <v>18</v>
       </c>
       <c r="P10" s="15"/>
-      <c r="Q10" s="80">
+      <c r="Q10" s="73">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="81" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -13052,12 +13218,12 @@
         <v>12</v>
       </c>
       <c r="P11" s="15"/>
-      <c r="Q11" s="80">
+      <c r="Q11" s="73">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="81" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -13096,7 +13262,7 @@
         <v>16</v>
       </c>
       <c r="P12" s="15"/>
-      <c r="Q12" s="80">
+      <c r="Q12" s="73">
         <v>8</v>
       </c>
     </row>
@@ -13140,43 +13306,43 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:17" s="156" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="146" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="4">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
-        <v>6</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
-        <v>2</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="C14" s="146">
+        <v>6</v>
+      </c>
+      <c r="D14" s="146">
+        <v>6</v>
+      </c>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146">
+        <v>6</v>
+      </c>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146">
+        <v>2</v>
+      </c>
+      <c r="K14" s="146">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4">
+      <c r="L14" s="146"/>
+      <c r="M14" s="146">
         <v>6.080101</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="146" t="s">
         <v>276</v>
       </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="12"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="147"/>
+      <c r="Q14" s="148"/>
     </row>
     <row r="15" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -13263,44 +13429,44 @@
       <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="101">
-        <v>6</v>
-      </c>
-      <c r="D17" s="101">
-        <v>6</v>
-      </c>
-      <c r="E17" s="101">
-        <v>6</v>
-      </c>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101">
-        <v>6</v>
-      </c>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101">
+      <c r="C17" s="94">
+        <v>6</v>
+      </c>
+      <c r="D17" s="94">
+        <v>6</v>
+      </c>
+      <c r="E17" s="94">
+        <v>6</v>
+      </c>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94">
+        <v>6</v>
+      </c>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94">
         <v>3</v>
       </c>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101">
+      <c r="J17" s="94"/>
+      <c r="K17" s="94">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101">
+      <c r="L17" s="94"/>
+      <c r="M17" s="94">
         <v>6.090103</v>
       </c>
-      <c r="N17" s="102" t="s">
+      <c r="N17" s="95" t="s">
         <v>243</v>
       </c>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="81"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="74"/>
     </row>
     <row r="18" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -13430,47 +13596,47 @@
         <v>6</v>
       </c>
       <c r="P20" s="15"/>
-      <c r="Q20" s="80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="Q20" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="156" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="4">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4">
-        <v>6</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4">
-        <v>6</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4">
-        <v>2</v>
-      </c>
-      <c r="K21" s="4">
+      <c r="C21" s="146">
+        <v>6</v>
+      </c>
+      <c r="D21" s="146">
+        <v>6</v>
+      </c>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146">
+        <v>6</v>
+      </c>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146">
+        <v>2</v>
+      </c>
+      <c r="K21" s="146">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4">
+      <c r="L21" s="146"/>
+      <c r="M21" s="146">
         <v>6.090103</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="147" t="s">
         <v>285</v>
       </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="12"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="147"/>
+      <c r="Q21" s="148"/>
     </row>
     <row r="22" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -13556,7 +13722,7 @@
         <v>8</v>
       </c>
       <c r="P23" s="10"/>
-      <c r="Q23" s="80"/>
+      <c r="Q23" s="73"/>
     </row>
     <row r="24" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
@@ -13598,43 +13764,43 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="12"/>
     </row>
-    <row r="25" spans="1:17" s="51" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:17" s="127" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="4">
-        <v>6</v>
-      </c>
-      <c r="D25" s="4">
-        <v>2</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4">
-        <v>2</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4">
-        <v>2</v>
-      </c>
-      <c r="K25" s="4">
+      <c r="C25" s="120">
+        <v>6</v>
+      </c>
+      <c r="D25" s="120">
+        <v>2</v>
+      </c>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120">
+        <v>2</v>
+      </c>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120">
+        <v>2</v>
+      </c>
+      <c r="K25" s="120">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="3" t="s">
+      <c r="M25" s="120"/>
+      <c r="N25" s="121" t="s">
         <v>280</v>
       </c>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="12"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="122"/>
     </row>
     <row r="26" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
@@ -13667,16 +13833,16 @@
       <c r="M26" s="18">
         <v>6.090103</v>
       </c>
-      <c r="N26" s="103" t="s">
+      <c r="N26" s="96" t="s">
         <v>241</v>
       </c>
-      <c r="O26" s="103">
-        <v>4</v>
-      </c>
-      <c r="P26" s="103">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="65"/>
+      <c r="O26" s="96">
+        <v>4</v>
+      </c>
+      <c r="P26" s="96">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13692,19 +13858,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52" style="32" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="24" style="31" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="31" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="31" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="31" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" style="31" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" style="31" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" style="31" customWidth="1"/>
@@ -13852,81 +14019,81 @@
       </c>
       <c r="Q3" s="38"/>
     </row>
-    <row r="4" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:17" s="160" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="146" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="146" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4">
         <v>8</v>
       </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="D4" s="146">
+        <v>2</v>
+      </c>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146">
+        <v>2</v>
+      </c>
+      <c r="H4" s="146">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146">
+        <v>2</v>
+      </c>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
       <c r="M4" s="47"/>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="147" t="s">
         <v>286</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="38"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="159"/>
     </row>
     <row r="5" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="71">
-        <v>4</v>
-      </c>
-      <c r="D5" s="71">
-        <v>6</v>
-      </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71">
-        <v>6</v>
-      </c>
-      <c r="H5" s="71">
+      <c r="C5" s="64">
+        <v>4</v>
+      </c>
+      <c r="D5" s="64">
+        <v>6</v>
+      </c>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64">
+        <v>6</v>
+      </c>
+      <c r="H5" s="64">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71">
-        <v>2</v>
-      </c>
-      <c r="L5" s="71"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64">
+        <v>2</v>
+      </c>
+      <c r="L5" s="64"/>
       <c r="M5" s="45">
         <v>7.0140000000000002</v>
       </c>
-      <c r="N5" s="81" t="s">
+      <c r="N5" s="74" t="s">
         <v>210</v>
       </c>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81">
+      <c r="O5" s="74"/>
+      <c r="P5" s="74">
         <v>10</v>
       </c>
-      <c r="Q5" s="105"/>
+      <c r="Q5" s="98"/>
     </row>
     <row r="6" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -14164,7 +14331,7 @@
       <c r="P11" s="15">
         <v>8</v>
       </c>
-      <c r="Q11" s="113"/>
+      <c r="Q11" s="105"/>
     </row>
     <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -14560,7 +14727,7 @@
       <c r="A22" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="99" t="s">
         <v>260</v>
       </c>
       <c r="C22" s="4">
@@ -14754,7 +14921,7 @@
       <c r="A27" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="99" t="s">
         <v>261</v>
       </c>
       <c r="C27" s="4"/>
@@ -15068,43 +15235,43 @@
       </c>
       <c r="Q34" s="38"/>
     </row>
-    <row r="35" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="107" t="s">
+    <row r="35" spans="1:17" s="160" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="161" t="s">
         <v>301</v>
       </c>
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="161" t="s">
         <v>302</v>
       </c>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107">
-        <v>4</v>
-      </c>
-      <c r="E35" s="107">
-        <v>4</v>
-      </c>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107">
-        <v>4</v>
-      </c>
-      <c r="H35" s="107">
+      <c r="C35" s="100"/>
+      <c r="D35" s="161">
+        <v>4</v>
+      </c>
+      <c r="E35" s="161">
+        <v>4</v>
+      </c>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161">
+        <v>4</v>
+      </c>
+      <c r="H35" s="161">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107">
+      <c r="I35" s="161"/>
+      <c r="J35" s="161">
         <v>3</v>
       </c>
-      <c r="K35" s="107"/>
-      <c r="L35" s="107"/>
+      <c r="K35" s="161"/>
+      <c r="L35" s="161"/>
       <c r="M35" s="44">
         <v>20.204999999999998</v>
       </c>
-      <c r="N35" s="108" t="s">
+      <c r="N35" s="162" t="s">
         <v>326</v>
       </c>
-      <c r="O35" s="109"/>
-      <c r="P35" s="108"/>
-      <c r="Q35" s="109"/>
+      <c r="O35" s="163"/>
+      <c r="P35" s="162"/>
+      <c r="Q35" s="163"/>
     </row>
     <row r="36" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -15139,58 +15306,58 @@
       <c r="M36" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N36" s="110" t="s">
+      <c r="N36" s="102" t="s">
         <v>315</v>
       </c>
       <c r="O36" s="3">
         <v>6</v>
       </c>
       <c r="P36" s="3"/>
-      <c r="Q36" s="111"/>
-    </row>
-    <row r="37" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="Q36" s="103"/>
+    </row>
+    <row r="37" spans="1:17" s="160" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="146" t="s">
         <v>301</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="146" t="s">
         <v>304</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="37">
-        <v>6</v>
-      </c>
-      <c r="E37" s="37">
-        <v>4</v>
-      </c>
-      <c r="F37" s="37">
-        <v>4</v>
-      </c>
-      <c r="G37" s="4">
-        <v>8</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="D37" s="164">
+        <v>6</v>
+      </c>
+      <c r="E37" s="164">
+        <v>4</v>
+      </c>
+      <c r="F37" s="164">
+        <v>4</v>
+      </c>
+      <c r="G37" s="146">
+        <v>8</v>
+      </c>
+      <c r="H37" s="146">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="146">
         <v>3</v>
       </c>
-      <c r="J37" s="4">
-        <v>4</v>
-      </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
+      <c r="J37" s="146">
+        <v>4</v>
+      </c>
+      <c r="K37" s="146"/>
+      <c r="L37" s="146"/>
       <c r="M37" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N37" s="110" t="s">
+      <c r="N37" s="165" t="s">
         <v>316</v>
       </c>
-      <c r="O37" s="111">
-        <v>6</v>
-      </c>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="111"/>
+      <c r="O37" s="166">
+        <v>6</v>
+      </c>
+      <c r="P37" s="147"/>
+      <c r="Q37" s="166"/>
     </row>
     <row r="38" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -15223,14 +15390,14 @@
       <c r="M38" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N38" s="110" t="s">
+      <c r="N38" s="102" t="s">
         <v>218</v>
       </c>
-      <c r="O38" s="111">
+      <c r="O38" s="103">
         <v>4</v>
       </c>
       <c r="P38" s="3"/>
-      <c r="Q38" s="111">
+      <c r="Q38" s="103">
         <v>2</v>
       </c>
     </row>
@@ -15265,54 +15432,54 @@
       <c r="M39" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N39" s="110" t="s">
+      <c r="N39" s="102" t="s">
         <v>259</v>
       </c>
-      <c r="O39" s="111">
+      <c r="O39" s="103">
         <v>4</v>
       </c>
       <c r="P39" s="3">
         <v>2</v>
       </c>
-      <c r="Q39" s="111"/>
+      <c r="Q39" s="103"/>
     </row>
     <row r="40" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="107" t="s">
+      <c r="A40" s="100" t="s">
         <v>301</v>
       </c>
-      <c r="B40" s="107" t="s">
+      <c r="B40" s="100" t="s">
         <v>306</v>
       </c>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107">
-        <v>6</v>
-      </c>
-      <c r="E40" s="107">
-        <v>4</v>
-      </c>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107">
-        <v>6</v>
-      </c>
-      <c r="H40" s="107">
+      <c r="C40" s="100"/>
+      <c r="D40" s="100">
+        <v>6</v>
+      </c>
+      <c r="E40" s="100">
+        <v>4</v>
+      </c>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100">
+        <v>6</v>
+      </c>
+      <c r="H40" s="100">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107">
-        <v>2</v>
-      </c>
-      <c r="L40" s="107"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100">
+        <v>2</v>
+      </c>
+      <c r="L40" s="100"/>
       <c r="M40" s="44">
         <v>20.204999999999998</v>
       </c>
-      <c r="N40" s="108" t="s">
+      <c r="N40" s="101" t="s">
         <v>329</v>
       </c>
-      <c r="O40" s="112"/>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="112"/>
+      <c r="O40" s="104"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="104"/>
     </row>
     <row r="41" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -15349,14 +15516,14 @@
       <c r="M41" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N41" s="110" t="s">
+      <c r="N41" s="102" t="s">
         <v>317</v>
       </c>
-      <c r="O41" s="111">
+      <c r="O41" s="103">
         <v>6</v>
       </c>
       <c r="P41" s="3"/>
-      <c r="Q41" s="111"/>
+      <c r="Q41" s="103"/>
     </row>
     <row r="42" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -15389,134 +15556,134 @@
       <c r="M42" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N42" s="110" t="s">
+      <c r="N42" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="O42" s="111">
+      <c r="O42" s="103">
         <v>6</v>
       </c>
       <c r="P42" s="3">
         <v>2</v>
       </c>
-      <c r="Q42" s="111"/>
-    </row>
-    <row r="43" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="107" t="s">
+      <c r="Q42" s="103"/>
+    </row>
+    <row r="43" spans="1:17" s="160" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="161" t="s">
         <v>301</v>
       </c>
-      <c r="B43" s="107" t="s">
+      <c r="B43" s="161" t="s">
         <v>309</v>
       </c>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107">
-        <v>6</v>
-      </c>
-      <c r="E43" s="107">
-        <v>4</v>
-      </c>
-      <c r="F43" s="107">
-        <v>4</v>
-      </c>
-      <c r="G43" s="107">
-        <v>6</v>
-      </c>
-      <c r="H43" s="107">
+      <c r="C43" s="100"/>
+      <c r="D43" s="161">
+        <v>6</v>
+      </c>
+      <c r="E43" s="161">
+        <v>4</v>
+      </c>
+      <c r="F43" s="161">
+        <v>4</v>
+      </c>
+      <c r="G43" s="161">
+        <v>6</v>
+      </c>
+      <c r="H43" s="161">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107">
-        <v>4</v>
-      </c>
-      <c r="K43" s="107"/>
-      <c r="L43" s="107"/>
+      <c r="I43" s="161"/>
+      <c r="J43" s="161">
+        <v>4</v>
+      </c>
+      <c r="K43" s="161"/>
+      <c r="L43" s="161"/>
       <c r="M43" s="44">
         <v>20.204999999999998</v>
       </c>
-      <c r="N43" s="108" t="s">
+      <c r="N43" s="162" t="s">
         <v>328</v>
       </c>
-      <c r="O43" s="112"/>
-      <c r="P43" s="108"/>
-      <c r="Q43" s="112"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="107" t="s">
+      <c r="O43" s="167"/>
+      <c r="P43" s="162"/>
+      <c r="Q43" s="167"/>
+    </row>
+    <row r="44" spans="1:17" s="160" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="161" t="s">
         <v>301</v>
       </c>
-      <c r="B44" s="107" t="s">
+      <c r="B44" s="161" t="s">
         <v>310</v>
       </c>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107">
-        <v>4</v>
-      </c>
-      <c r="E44" s="107">
-        <v>4</v>
-      </c>
-      <c r="F44" s="107">
-        <v>4</v>
-      </c>
-      <c r="G44" s="107">
-        <v>4</v>
-      </c>
-      <c r="H44" s="107">
+      <c r="C44" s="100"/>
+      <c r="D44" s="161">
+        <v>4</v>
+      </c>
+      <c r="E44" s="161">
+        <v>4</v>
+      </c>
+      <c r="F44" s="161">
+        <v>4</v>
+      </c>
+      <c r="G44" s="161">
+        <v>4</v>
+      </c>
+      <c r="H44" s="161">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="107">
-        <v>4</v>
-      </c>
-      <c r="L44" s="107"/>
+      <c r="I44" s="161"/>
+      <c r="J44" s="161"/>
+      <c r="K44" s="161">
+        <v>4</v>
+      </c>
+      <c r="L44" s="161"/>
       <c r="M44" s="44">
         <v>20.204999999999998</v>
       </c>
-      <c r="N44" s="108" t="s">
+      <c r="N44" s="162" t="s">
         <v>331</v>
       </c>
-      <c r="O44" s="112"/>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="112"/>
-    </row>
-    <row r="45" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="107" t="s">
+      <c r="O44" s="167"/>
+      <c r="P44" s="162"/>
+      <c r="Q44" s="167"/>
+    </row>
+    <row r="45" spans="1:17" s="160" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="161" t="s">
         <v>301</v>
       </c>
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="161" t="s">
         <v>311</v>
       </c>
-      <c r="C45" s="107"/>
-      <c r="D45" s="107">
-        <v>6</v>
-      </c>
-      <c r="E45" s="107">
-        <v>2</v>
-      </c>
-      <c r="F45" s="107">
-        <v>4</v>
-      </c>
-      <c r="G45" s="107">
-        <v>6</v>
-      </c>
-      <c r="H45" s="107">
+      <c r="C45" s="100"/>
+      <c r="D45" s="161">
+        <v>6</v>
+      </c>
+      <c r="E45" s="161">
+        <v>2</v>
+      </c>
+      <c r="F45" s="161">
+        <v>4</v>
+      </c>
+      <c r="G45" s="161">
+        <v>6</v>
+      </c>
+      <c r="H45" s="161">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I45" s="107"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107">
-        <v>4</v>
-      </c>
-      <c r="L45" s="107"/>
+      <c r="I45" s="161"/>
+      <c r="J45" s="161"/>
+      <c r="K45" s="161">
+        <v>4</v>
+      </c>
+      <c r="L45" s="161"/>
       <c r="M45" s="49">
         <v>20.204999999999998</v>
       </c>
-      <c r="N45" s="108"/>
-      <c r="O45" s="112"/>
-      <c r="P45" s="108"/>
-      <c r="Q45" s="112"/>
+      <c r="N45" s="162"/>
+      <c r="O45" s="167"/>
+      <c r="P45" s="162"/>
+      <c r="Q45" s="167"/>
     </row>
     <row r="46" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -15553,14 +15720,14 @@
       <c r="M46" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N46" s="110" t="s">
+      <c r="N46" s="102" t="s">
         <v>318</v>
       </c>
-      <c r="O46" s="111">
+      <c r="O46" s="103">
         <v>6</v>
       </c>
       <c r="P46" s="3"/>
-      <c r="Q46" s="111"/>
+      <c r="Q46" s="103"/>
     </row>
     <row r="47" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -15595,14 +15762,14 @@
       <c r="M47" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N47" s="110" t="s">
+      <c r="N47" s="102" t="s">
         <v>319</v>
       </c>
-      <c r="O47" s="111">
+      <c r="O47" s="103">
         <v>6</v>
       </c>
       <c r="P47" s="3"/>
-      <c r="Q47" s="111"/>
+      <c r="Q47" s="103"/>
     </row>
     <row r="48" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -15635,14 +15802,14 @@
       <c r="M48" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N48" s="110" t="s">
+      <c r="N48" s="102" t="s">
         <v>315</v>
       </c>
-      <c r="O48" s="111">
+      <c r="O48" s="103">
         <v>6</v>
       </c>
       <c r="P48" s="3"/>
-      <c r="Q48" s="111"/>
+      <c r="Q48" s="103"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zaizd3.xlsx
+++ b/Zaizd3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20730" windowHeight="8880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="960" windowWidth="20730" windowHeight="8820" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="341">
   <si>
     <t>Групи</t>
   </si>
@@ -1462,6 +1462,12 @@
       </rPr>
       <t>6</t>
     </r>
+  </si>
+  <si>
+    <t>п</t>
+  </si>
+  <si>
+    <t>викл. Ляшин Я.Є.</t>
   </si>
 </sst>
 </file>
@@ -1873,7 +1879,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2273,15 +2279,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2290,15 +2287,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2317,7 +2305,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2343,6 +2330,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6091,8 +6096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R238"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A22" zoomScale="95" zoomScaleNormal="95" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6251,46 +6256,46 @@
       <c r="Q3" s="121"/>
       <c r="R3" s="122"/>
     </row>
-    <row r="4" spans="1:18" s="149" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="143" t="s">
+    <row r="4" spans="1:18" s="123" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="144" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="144">
-        <v>6</v>
-      </c>
-      <c r="D4" s="144">
-        <v>6</v>
-      </c>
-      <c r="E4" s="144">
-        <v>4</v>
-      </c>
-      <c r="F4" s="144">
-        <v>4</v>
-      </c>
-      <c r="G4" s="144">
-        <v>6</v>
-      </c>
-      <c r="H4" s="144">
+      <c r="B4" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="125">
+        <v>6</v>
+      </c>
+      <c r="D4" s="125">
+        <v>6</v>
+      </c>
+      <c r="E4" s="125">
+        <v>4</v>
+      </c>
+      <c r="F4" s="125">
+        <v>4</v>
+      </c>
+      <c r="G4" s="125">
+        <v>6</v>
+      </c>
+      <c r="H4" s="125">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144">
-        <v>4</v>
-      </c>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="146" t="s">
+      <c r="I4" s="125"/>
+      <c r="J4" s="125">
+        <v>4</v>
+      </c>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="120" t="s">
         <v>276</v>
       </c>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="148"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="122"/>
     </row>
     <row r="5" spans="1:18" s="123" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="119" t="s">
@@ -6331,7 +6336,7 @@
       <c r="Q5" s="121"/>
       <c r="R5" s="122"/>
     </row>
-    <row r="6" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="123" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="119" t="s">
         <v>7</v>
       </c>
@@ -6374,7 +6379,7 @@
       <c r="Q6" s="121"/>
       <c r="R6" s="122"/>
     </row>
-    <row r="7" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="123" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="119" t="s">
         <v>7</v>
       </c>
@@ -6417,7 +6422,7 @@
       </c>
       <c r="R7" s="122"/>
     </row>
-    <row r="8" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="123" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="119" t="s">
         <v>7</v>
       </c>
@@ -6454,7 +6459,7 @@
       <c r="Q8" s="121"/>
       <c r="R8" s="122"/>
     </row>
-    <row r="9" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -6499,7 +6504,7 @@
       </c>
       <c r="R9" s="12"/>
     </row>
-    <row r="10" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -6540,7 +6545,7 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -6628,7 +6633,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="123" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="123" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="128" t="s">
         <v>186</v>
       </c>
@@ -6722,7 +6727,7 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="12"/>
     </row>
-    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
         <v>19</v>
       </c>
@@ -7166,7 +7171,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="123" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="123" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="128" t="s">
         <v>26</v>
       </c>
@@ -7411,7 +7416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -7494,44 +7499,44 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="151" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+    <row r="2" spans="1:18" s="133" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="144">
-        <v>6</v>
-      </c>
-      <c r="D2" s="144">
-        <v>4</v>
-      </c>
-      <c r="E2" s="144">
-        <v>2</v>
-      </c>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144">
-        <v>4</v>
-      </c>
-      <c r="H2" s="144">
+      <c r="C2" s="125">
+        <v>6</v>
+      </c>
+      <c r="D2" s="125">
+        <v>4</v>
+      </c>
+      <c r="E2" s="125">
+        <v>2</v>
+      </c>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125">
+        <v>4</v>
+      </c>
+      <c r="H2" s="125">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144">
+      <c r="I2" s="125"/>
+      <c r="J2" s="125">
         <v>3</v>
       </c>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="146" t="s">
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="120" t="s">
         <v>276</v>
       </c>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="150"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="135"/>
     </row>
     <row r="3" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="124" t="s">
@@ -7572,91 +7577,91 @@
       <c r="Q3" s="120"/>
       <c r="R3" s="135"/>
     </row>
-    <row r="4" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="4">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="C4" s="120">
+        <v>8</v>
+      </c>
+      <c r="D4" s="120">
+        <v>8</v>
+      </c>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120">
+        <v>8</v>
+      </c>
+      <c r="H4" s="120">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
+      <c r="I4" s="120"/>
+      <c r="J4" s="120">
+        <v>2</v>
+      </c>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="120">
         <v>12</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4">
-        <v>4</v>
-      </c>
-      <c r="R4" s="25"/>
-    </row>
-    <row r="5" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120">
+        <v>4</v>
+      </c>
+      <c r="R4" s="135"/>
+    </row>
+    <row r="5" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="120">
+        <v>8</v>
+      </c>
+      <c r="D5" s="120">
         <v>10</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120">
         <v>10</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="120">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4">
-        <v>2</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4">
+      <c r="I5" s="120"/>
+      <c r="J5" s="120">
+        <v>2</v>
+      </c>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="120" t="s">
         <v>236</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="120">
         <v>12</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4">
-        <v>6</v>
-      </c>
-      <c r="R5" s="25"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120">
+        <v>6</v>
+      </c>
+      <c r="R5" s="135"/>
     </row>
     <row r="6" spans="1:18" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -7705,130 +7710,130 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="25"/>
     </row>
-    <row r="7" spans="1:18" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:18" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="120">
         <v>12</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="120">
         <v>10</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120">
         <v>10</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="120">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4">
-        <v>2</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
+      <c r="I7" s="120"/>
+      <c r="J7" s="120">
+        <v>2</v>
+      </c>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="120" t="s">
         <v>278</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="25"/>
-    </row>
-    <row r="8" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="135"/>
+    </row>
+    <row r="8" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="4">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>6</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="C8" s="120">
+        <v>6</v>
+      </c>
+      <c r="D8" s="120">
+        <v>6</v>
+      </c>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120">
+        <v>6</v>
+      </c>
+      <c r="H8" s="120">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
-        <v>2</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4">
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120">
+        <v>2</v>
+      </c>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="120" t="s">
         <v>203</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="120">
         <v>10</v>
       </c>
-      <c r="P8" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="25"/>
-    </row>
-    <row r="9" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="P8" s="120">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="135"/>
+    </row>
+    <row r="9" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="4">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <v>8</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="C9" s="120">
+        <v>6</v>
+      </c>
+      <c r="D9" s="120">
+        <v>8</v>
+      </c>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120">
+        <v>8</v>
+      </c>
+      <c r="H9" s="120">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4">
-        <v>2</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120">
+        <v>2</v>
+      </c>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="120" t="s">
         <v>255</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="120">
         <v>10</v>
       </c>
-      <c r="P9" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="25"/>
+      <c r="P9" s="120">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="135"/>
     </row>
     <row r="10" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -8851,8 +8856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8967,7 +8972,7 @@
         <v>12</v>
       </c>
       <c r="P2" s="137"/>
-      <c r="Q2" s="168">
+      <c r="Q2" s="161">
         <v>12</v>
       </c>
     </row>
@@ -9128,16 +9133,16 @@
       <c r="M6" s="132">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="169" t="s">
+      <c r="N6" s="162" t="s">
         <v>201</v>
       </c>
-      <c r="O6" s="169">
-        <v>8</v>
-      </c>
-      <c r="P6" s="169">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="169"/>
+      <c r="O6" s="162">
+        <v>8</v>
+      </c>
+      <c r="P6" s="162">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="162"/>
     </row>
     <row r="7" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="119" t="s">
@@ -9465,45 +9470,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="156" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="152" t="s">
+    <row r="15" spans="1:17" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="164" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="153"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153">
-        <v>4</v>
-      </c>
-      <c r="F15" s="153">
-        <v>8</v>
-      </c>
-      <c r="G15" s="153">
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165">
+        <v>4</v>
+      </c>
+      <c r="F15" s="165">
+        <v>8</v>
+      </c>
+      <c r="G15" s="165">
         <v>0</v>
       </c>
-      <c r="H15" s="153">
+      <c r="H15" s="165">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153">
-        <v>4</v>
-      </c>
-      <c r="K15" s="153"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153">
+      <c r="I15" s="165"/>
+      <c r="J15" s="165">
+        <v>4</v>
+      </c>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N15" s="153" t="s">
+      <c r="N15" s="165" t="s">
         <v>246</v>
       </c>
-      <c r="O15" s="154">
-        <v>8</v>
-      </c>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="155">
+      <c r="O15" s="137">
+        <v>8</v>
+      </c>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="161">
         <v>8</v>
       </c>
     </row>
@@ -10443,45 +10448,45 @@
       </c>
       <c r="Q37" s="12"/>
     </row>
-    <row r="38" spans="1:17" s="156" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="157" t="s">
+    <row r="38" spans="1:17" s="150" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="146" t="s">
+      <c r="B38" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="146">
-        <v>4</v>
-      </c>
-      <c r="D38" s="146">
-        <v>4</v>
-      </c>
-      <c r="E38" s="146">
-        <v>2</v>
-      </c>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146">
-        <v>4</v>
-      </c>
-      <c r="H38" s="146">
+      <c r="C38" s="143">
+        <v>4</v>
+      </c>
+      <c r="D38" s="143">
+        <v>4</v>
+      </c>
+      <c r="E38" s="143">
+        <v>2</v>
+      </c>
+      <c r="F38" s="143"/>
+      <c r="G38" s="143">
+        <v>4</v>
+      </c>
+      <c r="H38" s="143">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I38" s="146"/>
-      <c r="J38" s="146"/>
-      <c r="K38" s="146">
+      <c r="I38" s="143"/>
+      <c r="J38" s="143"/>
+      <c r="K38" s="143">
         <v>3</v>
       </c>
-      <c r="L38" s="146"/>
-      <c r="M38" s="146">
+      <c r="L38" s="143"/>
+      <c r="M38" s="143">
         <v>6.090103</v>
       </c>
-      <c r="N38" s="147" t="s">
+      <c r="N38" s="144" t="s">
         <v>283</v>
       </c>
-      <c r="O38" s="147"/>
-      <c r="P38" s="147"/>
-      <c r="Q38" s="148"/>
+      <c r="O38" s="144"/>
+      <c r="P38" s="144"/>
+      <c r="Q38" s="145"/>
     </row>
     <row r="39" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -10567,43 +10572,43 @@
       <c r="P40" s="87"/>
       <c r="Q40" s="88"/>
     </row>
-    <row r="41" spans="1:17" s="156" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="157" t="s">
+    <row r="41" spans="1:17" s="127" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="146" t="s">
+      <c r="B41" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="146"/>
-      <c r="D41" s="146">
-        <v>4</v>
-      </c>
-      <c r="E41" s="146">
-        <v>4</v>
-      </c>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146">
-        <v>4</v>
-      </c>
-      <c r="H41" s="146">
+      <c r="C41" s="120"/>
+      <c r="D41" s="120">
+        <v>4</v>
+      </c>
+      <c r="E41" s="120">
+        <v>4</v>
+      </c>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120">
+        <v>4</v>
+      </c>
+      <c r="H41" s="120">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146">
+      <c r="I41" s="120"/>
+      <c r="J41" s="120">
         <v>3</v>
       </c>
-      <c r="K41" s="146"/>
-      <c r="L41" s="146" t="s">
+      <c r="K41" s="120"/>
+      <c r="L41" s="120" t="s">
         <v>199</v>
       </c>
-      <c r="M41" s="146"/>
-      <c r="N41" s="147" t="s">
+      <c r="M41" s="120"/>
+      <c r="N41" s="121" t="s">
         <v>281</v>
       </c>
-      <c r="O41" s="147"/>
-      <c r="P41" s="147"/>
-      <c r="Q41" s="148"/>
+      <c r="O41" s="121"/>
+      <c r="P41" s="121"/>
+      <c r="Q41" s="122"/>
     </row>
     <row r="42" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -10783,6 +10788,9 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
+      <c r="N47" s="7" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
@@ -10919,8 +10927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11251,41 +11259,43 @@
       </c>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" s="158" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="152" t="s">
+    <row r="8" spans="1:17" s="163" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="164" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="165" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153">
-        <v>6</v>
-      </c>
-      <c r="E8" s="153">
-        <v>4</v>
-      </c>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153">
-        <v>0</v>
-      </c>
-      <c r="H8" s="153">
+      <c r="C8" s="165"/>
+      <c r="D8" s="165">
+        <v>6</v>
+      </c>
+      <c r="E8" s="165">
+        <v>4</v>
+      </c>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165">
+        <v>6</v>
+      </c>
+      <c r="H8" s="165">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
-        <v>10</v>
-      </c>
-      <c r="I8" s="153"/>
-      <c r="J8" s="153">
+        <v>4</v>
+      </c>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165">
         <v>3</v>
       </c>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153">
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N8" s="154"/>
-      <c r="O8" s="154"/>
-      <c r="P8" s="154"/>
-      <c r="Q8" s="155"/>
+      <c r="N8" s="137" t="s">
+        <v>340</v>
+      </c>
+      <c r="O8" s="137"/>
+      <c r="P8" s="137"/>
+      <c r="Q8" s="161"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="76" t="s">
@@ -11367,45 +11377,45 @@
       <c r="P10" s="60"/>
       <c r="Q10" s="62"/>
     </row>
-    <row r="11" spans="1:17" s="158" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="157" t="s">
+    <row r="11" spans="1:17" s="163" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="120" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146">
-        <v>6</v>
-      </c>
-      <c r="E11" s="146">
-        <v>6</v>
-      </c>
-      <c r="F11" s="146">
-        <v>2</v>
-      </c>
-      <c r="G11" s="146">
-        <v>6</v>
-      </c>
-      <c r="H11" s="146">
+      <c r="C11" s="120"/>
+      <c r="D11" s="120">
+        <v>6</v>
+      </c>
+      <c r="E11" s="120">
+        <v>6</v>
+      </c>
+      <c r="F11" s="120">
+        <v>2</v>
+      </c>
+      <c r="G11" s="120">
+        <v>6</v>
+      </c>
+      <c r="H11" s="120">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146">
-        <v>4</v>
-      </c>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="146">
+      <c r="I11" s="120"/>
+      <c r="J11" s="120">
+        <v>4</v>
+      </c>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N11" s="147" t="s">
+      <c r="N11" s="121" t="s">
         <v>284</v>
       </c>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="148"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="122"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -11649,45 +11659,45 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:18" s="158" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="157" t="s">
+    <row r="18" spans="1:18" s="152" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="146" t="s">
+      <c r="B18" s="143" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="146">
-        <v>4</v>
-      </c>
-      <c r="D18" s="146">
-        <v>4</v>
-      </c>
-      <c r="E18" s="146">
-        <v>2</v>
-      </c>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146">
-        <v>4</v>
-      </c>
-      <c r="H18" s="146">
+      <c r="C18" s="143">
+        <v>4</v>
+      </c>
+      <c r="D18" s="143">
+        <v>4</v>
+      </c>
+      <c r="E18" s="143">
+        <v>2</v>
+      </c>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143">
+        <v>4</v>
+      </c>
+      <c r="H18" s="143">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146">
+      <c r="I18" s="143"/>
+      <c r="J18" s="143">
         <v>3</v>
       </c>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146">
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143">
         <v>6.080101</v>
       </c>
-      <c r="N18" s="147" t="s">
+      <c r="N18" s="144" t="s">
         <v>285</v>
       </c>
-      <c r="O18" s="147"/>
-      <c r="P18" s="147"/>
-      <c r="Q18" s="148"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="145"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -12060,157 +12070,157 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="12"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:18" s="163" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4">
-        <v>6</v>
-      </c>
-      <c r="E28" s="4">
-        <v>6</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4">
-        <v>6</v>
-      </c>
-      <c r="H28" s="4">
+      <c r="C28" s="120"/>
+      <c r="D28" s="120">
+        <v>6</v>
+      </c>
+      <c r="E28" s="120">
+        <v>6</v>
+      </c>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120">
+        <v>6</v>
+      </c>
+      <c r="H28" s="120">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4">
+      <c r="I28" s="120"/>
+      <c r="J28" s="120">
         <v>3</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4">
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="120">
         <v>6.080101</v>
       </c>
-      <c r="N28" s="10" t="s">
+      <c r="N28" s="136" t="s">
         <v>274</v>
       </c>
-      <c r="O28" s="10">
-        <v>6</v>
-      </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="12"/>
-    </row>
-    <row r="29" spans="1:18" s="158" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="157" t="s">
+      <c r="O28" s="136">
+        <v>6</v>
+      </c>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="122"/>
+    </row>
+    <row r="29" spans="1:18" s="152" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="146" t="s">
+      <c r="B29" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146">
-        <v>4</v>
-      </c>
-      <c r="E29" s="146">
-        <v>4</v>
-      </c>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146">
-        <v>4</v>
-      </c>
-      <c r="H29" s="146">
+      <c r="C29" s="143"/>
+      <c r="D29" s="143">
+        <v>4</v>
+      </c>
+      <c r="E29" s="143">
+        <v>4</v>
+      </c>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143">
+        <v>4</v>
+      </c>
+      <c r="H29" s="143">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146">
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="143">
         <v>3</v>
       </c>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146">
+      <c r="L29" s="143"/>
+      <c r="M29" s="143">
         <v>6.080101</v>
       </c>
-      <c r="N29" s="147" t="s">
+      <c r="N29" s="144" t="s">
         <v>330</v>
       </c>
-      <c r="O29" s="147"/>
-      <c r="P29" s="147"/>
-      <c r="Q29" s="148"/>
-    </row>
-    <row r="30" spans="1:18" s="158" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="157" t="s">
+      <c r="O29" s="144"/>
+      <c r="P29" s="144"/>
+      <c r="Q29" s="145"/>
+    </row>
+    <row r="30" spans="1:18" s="163" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="146" t="s">
+      <c r="B30" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146">
-        <v>4</v>
-      </c>
-      <c r="E30" s="146">
-        <v>4</v>
-      </c>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146">
-        <v>4</v>
-      </c>
-      <c r="H30" s="146">
+      <c r="C30" s="120"/>
+      <c r="D30" s="120">
+        <v>4</v>
+      </c>
+      <c r="E30" s="120">
+        <v>4</v>
+      </c>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120">
+        <v>4</v>
+      </c>
+      <c r="H30" s="120">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146">
+      <c r="I30" s="120"/>
+      <c r="J30" s="120">
         <v>3</v>
       </c>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146" t="s">
+      <c r="K30" s="120"/>
+      <c r="L30" s="120" t="s">
         <v>199</v>
       </c>
-      <c r="M30" s="146"/>
-      <c r="N30" s="147" t="s">
+      <c r="M30" s="120"/>
+      <c r="N30" s="121" t="s">
         <v>281</v>
       </c>
-      <c r="O30" s="147"/>
-      <c r="P30" s="147"/>
-      <c r="Q30" s="148"/>
-    </row>
-    <row r="31" spans="1:18" s="158" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="157" t="s">
+      <c r="O30" s="121"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="122"/>
+    </row>
+    <row r="31" spans="1:18" s="163" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="146" t="s">
+      <c r="B31" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="146">
-        <v>4</v>
-      </c>
-      <c r="D31" s="146">
-        <v>4</v>
-      </c>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146">
-        <v>4</v>
-      </c>
-      <c r="H31" s="146">
+      <c r="C31" s="120">
+        <v>4</v>
+      </c>
+      <c r="D31" s="120">
+        <v>4</v>
+      </c>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120">
+        <v>4</v>
+      </c>
+      <c r="H31" s="120">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146">
-        <v>2</v>
-      </c>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="147" t="s">
+      <c r="I31" s="120"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="120">
+        <v>2</v>
+      </c>
+      <c r="L31" s="120"/>
+      <c r="M31" s="120"/>
+      <c r="N31" s="121" t="s">
         <v>327</v>
       </c>
-      <c r="O31" s="147"/>
-      <c r="P31" s="147"/>
-      <c r="Q31" s="148"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="122"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
@@ -12481,44 +12491,44 @@
       <c r="Q37" s="12"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="4">
-        <v>4</v>
-      </c>
-      <c r="D38" s="4">
-        <v>6</v>
-      </c>
-      <c r="E38" s="4">
-        <v>2</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4">
-        <v>6</v>
-      </c>
-      <c r="H38" s="4">
+      <c r="C38" s="147">
+        <v>4</v>
+      </c>
+      <c r="D38" s="147">
+        <v>6</v>
+      </c>
+      <c r="E38" s="147">
+        <v>2</v>
+      </c>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147">
+        <v>6</v>
+      </c>
+      <c r="H38" s="147">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4">
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="147">
         <v>3</v>
       </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4">
+      <c r="L38" s="147"/>
+      <c r="M38" s="147">
         <v>6.090103</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N38" s="148" t="s">
         <v>283</v>
       </c>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="12"/>
+      <c r="O38" s="148"/>
+      <c r="P38" s="148"/>
+      <c r="Q38" s="149"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="81" t="s">
@@ -12698,9 +12708,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -12709,8 +12720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13306,43 +13317,43 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" s="156" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="157" t="s">
+    <row r="14" spans="1:17" s="150" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="146">
-        <v>6</v>
-      </c>
-      <c r="D14" s="146">
-        <v>6</v>
-      </c>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146">
-        <v>6</v>
-      </c>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146">
-        <v>2</v>
-      </c>
-      <c r="K14" s="146">
+      <c r="C14" s="143">
+        <v>6</v>
+      </c>
+      <c r="D14" s="143">
+        <v>6</v>
+      </c>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143">
+        <v>6</v>
+      </c>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143">
+        <v>2</v>
+      </c>
+      <c r="K14" s="143">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146">
+      <c r="L14" s="143"/>
+      <c r="M14" s="143">
         <v>6.080101</v>
       </c>
-      <c r="N14" s="146" t="s">
+      <c r="N14" s="143" t="s">
         <v>276</v>
       </c>
-      <c r="O14" s="147"/>
-      <c r="P14" s="147"/>
-      <c r="Q14" s="148"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="144"/>
+      <c r="Q14" s="145"/>
     </row>
     <row r="15" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -13600,43 +13611,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="156" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="157" t="s">
+    <row r="21" spans="1:17" s="150" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="146" t="s">
+      <c r="B21" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="146">
-        <v>6</v>
-      </c>
-      <c r="D21" s="146">
-        <v>6</v>
-      </c>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146">
-        <v>6</v>
-      </c>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146">
-        <v>2</v>
-      </c>
-      <c r="K21" s="146">
+      <c r="C21" s="143">
+        <v>6</v>
+      </c>
+      <c r="D21" s="143">
+        <v>6</v>
+      </c>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143">
+        <v>6</v>
+      </c>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143">
+        <v>2</v>
+      </c>
+      <c r="K21" s="143">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="L21" s="146"/>
-      <c r="M21" s="146">
+      <c r="L21" s="143"/>
+      <c r="M21" s="143">
         <v>6.090103</v>
       </c>
-      <c r="N21" s="147" t="s">
+      <c r="N21" s="144" t="s">
         <v>285</v>
       </c>
-      <c r="O21" s="147"/>
-      <c r="P21" s="147"/>
-      <c r="Q21" s="148"/>
+      <c r="O21" s="144"/>
+      <c r="P21" s="144"/>
+      <c r="Q21" s="145"/>
     </row>
     <row r="22" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -13858,8 +13869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14019,41 +14030,41 @@
       </c>
       <c r="Q3" s="38"/>
     </row>
-    <row r="4" spans="1:17" s="160" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+    <row r="4" spans="1:17" s="167" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="120" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4">
         <v>8</v>
       </c>
-      <c r="D4" s="146">
-        <v>2</v>
-      </c>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146">
-        <v>2</v>
-      </c>
-      <c r="H4" s="146">
+      <c r="D4" s="120">
+        <v>2</v>
+      </c>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120">
+        <v>2</v>
+      </c>
+      <c r="H4" s="120">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146">
-        <v>2</v>
-      </c>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120">
+        <v>2</v>
+      </c>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
       <c r="M4" s="47"/>
-      <c r="N4" s="147" t="s">
+      <c r="N4" s="121" t="s">
         <v>286</v>
       </c>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="159"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="166"/>
     </row>
     <row r="5" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
@@ -15235,43 +15246,43 @@
       </c>
       <c r="Q34" s="38"/>
     </row>
-    <row r="35" spans="1:17" s="160" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="161" t="s">
+    <row r="35" spans="1:17" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="154" t="s">
         <v>301</v>
       </c>
-      <c r="B35" s="161" t="s">
+      <c r="B35" s="154" t="s">
         <v>302</v>
       </c>
       <c r="C35" s="100"/>
-      <c r="D35" s="161">
-        <v>4</v>
-      </c>
-      <c r="E35" s="161">
-        <v>4</v>
-      </c>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161">
-        <v>4</v>
-      </c>
-      <c r="H35" s="161">
+      <c r="D35" s="154">
+        <v>4</v>
+      </c>
+      <c r="E35" s="154">
+        <v>4</v>
+      </c>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154">
+        <v>4</v>
+      </c>
+      <c r="H35" s="154">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I35" s="161"/>
-      <c r="J35" s="161">
+      <c r="I35" s="154"/>
+      <c r="J35" s="154">
         <v>3</v>
       </c>
-      <c r="K35" s="161"/>
-      <c r="L35" s="161"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="154"/>
       <c r="M35" s="44">
         <v>20.204999999999998</v>
       </c>
-      <c r="N35" s="162" t="s">
+      <c r="N35" s="155" t="s">
         <v>326</v>
       </c>
-      <c r="O35" s="163"/>
-      <c r="P35" s="162"/>
-      <c r="Q35" s="163"/>
+      <c r="O35" s="156"/>
+      <c r="P35" s="155"/>
+      <c r="Q35" s="156"/>
     </row>
     <row r="36" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -15315,49 +15326,49 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="103"/>
     </row>
-    <row r="37" spans="1:17" s="160" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="146" t="s">
+    <row r="37" spans="1:17" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="143" t="s">
         <v>301</v>
       </c>
-      <c r="B37" s="146" t="s">
+      <c r="B37" s="143" t="s">
         <v>304</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="164">
-        <v>6</v>
-      </c>
-      <c r="E37" s="164">
-        <v>4</v>
-      </c>
-      <c r="F37" s="164">
-        <v>4</v>
-      </c>
-      <c r="G37" s="146">
-        <v>8</v>
-      </c>
-      <c r="H37" s="146">
+      <c r="D37" s="157">
+        <v>6</v>
+      </c>
+      <c r="E37" s="157">
+        <v>4</v>
+      </c>
+      <c r="F37" s="157">
+        <v>4</v>
+      </c>
+      <c r="G37" s="143">
+        <v>8</v>
+      </c>
+      <c r="H37" s="143">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I37" s="146">
+      <c r="I37" s="143">
         <v>3</v>
       </c>
-      <c r="J37" s="146">
-        <v>4</v>
-      </c>
-      <c r="K37" s="146"/>
-      <c r="L37" s="146"/>
+      <c r="J37" s="143">
+        <v>4</v>
+      </c>
+      <c r="K37" s="143"/>
+      <c r="L37" s="143"/>
       <c r="M37" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N37" s="165" t="s">
+      <c r="N37" s="158" t="s">
         <v>316</v>
       </c>
-      <c r="O37" s="166">
-        <v>6</v>
-      </c>
-      <c r="P37" s="147"/>
-      <c r="Q37" s="166"/>
+      <c r="O37" s="159">
+        <v>6</v>
+      </c>
+      <c r="P37" s="144"/>
+      <c r="Q37" s="159"/>
     </row>
     <row r="38" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -15567,123 +15578,123 @@
       </c>
       <c r="Q42" s="103"/>
     </row>
-    <row r="43" spans="1:17" s="160" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="161" t="s">
+    <row r="43" spans="1:17" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="154" t="s">
         <v>301</v>
       </c>
-      <c r="B43" s="161" t="s">
+      <c r="B43" s="154" t="s">
         <v>309</v>
       </c>
       <c r="C43" s="100"/>
-      <c r="D43" s="161">
-        <v>6</v>
-      </c>
-      <c r="E43" s="161">
-        <v>4</v>
-      </c>
-      <c r="F43" s="161">
-        <v>4</v>
-      </c>
-      <c r="G43" s="161">
-        <v>6</v>
-      </c>
-      <c r="H43" s="161">
+      <c r="D43" s="154">
+        <v>6</v>
+      </c>
+      <c r="E43" s="154">
+        <v>4</v>
+      </c>
+      <c r="F43" s="154">
+        <v>4</v>
+      </c>
+      <c r="G43" s="154">
+        <v>6</v>
+      </c>
+      <c r="H43" s="154">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I43" s="161"/>
-      <c r="J43" s="161">
-        <v>4</v>
-      </c>
-      <c r="K43" s="161"/>
-      <c r="L43" s="161"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="154">
+        <v>4</v>
+      </c>
+      <c r="K43" s="154"/>
+      <c r="L43" s="154"/>
       <c r="M43" s="44">
         <v>20.204999999999998</v>
       </c>
-      <c r="N43" s="162" t="s">
+      <c r="N43" s="155" t="s">
         <v>328</v>
       </c>
-      <c r="O43" s="167"/>
-      <c r="P43" s="162"/>
-      <c r="Q43" s="167"/>
-    </row>
-    <row r="44" spans="1:17" s="160" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="161" t="s">
+      <c r="O43" s="160"/>
+      <c r="P43" s="155"/>
+      <c r="Q43" s="160"/>
+    </row>
+    <row r="44" spans="1:17" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="154" t="s">
         <v>301</v>
       </c>
-      <c r="B44" s="161" t="s">
+      <c r="B44" s="154" t="s">
         <v>310</v>
       </c>
       <c r="C44" s="100"/>
-      <c r="D44" s="161">
-        <v>4</v>
-      </c>
-      <c r="E44" s="161">
-        <v>4</v>
-      </c>
-      <c r="F44" s="161">
-        <v>4</v>
-      </c>
-      <c r="G44" s="161">
-        <v>4</v>
-      </c>
-      <c r="H44" s="161">
+      <c r="D44" s="154">
+        <v>4</v>
+      </c>
+      <c r="E44" s="154">
+        <v>4</v>
+      </c>
+      <c r="F44" s="154">
+        <v>4</v>
+      </c>
+      <c r="G44" s="154">
+        <v>4</v>
+      </c>
+      <c r="H44" s="154">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I44" s="161"/>
-      <c r="J44" s="161"/>
-      <c r="K44" s="161">
-        <v>4</v>
-      </c>
-      <c r="L44" s="161"/>
+      <c r="I44" s="154"/>
+      <c r="J44" s="154"/>
+      <c r="K44" s="154">
+        <v>4</v>
+      </c>
+      <c r="L44" s="154"/>
       <c r="M44" s="44">
         <v>20.204999999999998</v>
       </c>
-      <c r="N44" s="162" t="s">
+      <c r="N44" s="155" t="s">
         <v>331</v>
       </c>
-      <c r="O44" s="167"/>
-      <c r="P44" s="162"/>
-      <c r="Q44" s="167"/>
-    </row>
-    <row r="45" spans="1:17" s="160" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="161" t="s">
+      <c r="O44" s="160"/>
+      <c r="P44" s="155"/>
+      <c r="Q44" s="160"/>
+    </row>
+    <row r="45" spans="1:17" s="167" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="168" t="s">
         <v>301</v>
       </c>
-      <c r="B45" s="161" t="s">
+      <c r="B45" s="168" t="s">
         <v>311</v>
       </c>
       <c r="C45" s="100"/>
-      <c r="D45" s="161">
-        <v>6</v>
-      </c>
-      <c r="E45" s="161">
-        <v>2</v>
-      </c>
-      <c r="F45" s="161">
-        <v>4</v>
-      </c>
-      <c r="G45" s="161">
-        <v>6</v>
-      </c>
-      <c r="H45" s="161">
+      <c r="D45" s="168">
+        <v>6</v>
+      </c>
+      <c r="E45" s="168">
+        <v>2</v>
+      </c>
+      <c r="F45" s="168">
+        <v>4</v>
+      </c>
+      <c r="G45" s="168">
+        <v>6</v>
+      </c>
+      <c r="H45" s="168">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I45" s="161"/>
-      <c r="J45" s="161"/>
-      <c r="K45" s="161">
-        <v>4</v>
-      </c>
-      <c r="L45" s="161"/>
+      <c r="I45" s="168"/>
+      <c r="J45" s="168"/>
+      <c r="K45" s="168">
+        <v>4</v>
+      </c>
+      <c r="L45" s="168"/>
       <c r="M45" s="49">
         <v>20.204999999999998</v>
       </c>
-      <c r="N45" s="162"/>
-      <c r="O45" s="167"/>
-      <c r="P45" s="162"/>
-      <c r="Q45" s="167"/>
+      <c r="N45" s="169"/>
+      <c r="O45" s="170"/>
+      <c r="P45" s="169"/>
+      <c r="Q45" s="170"/>
     </row>
     <row r="46" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">

--- a/Zaizd3.xlsx
+++ b/Zaizd3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="960" windowWidth="20730" windowHeight="8820" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="1020" windowWidth="20730" windowHeight="8760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="1" r:id="rId1"/>
@@ -124,10 +124,36 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Admin</author>
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="B24" authorId="0">
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+на 4 заїзд 1 пара
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1879,7 +1905,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2022,18 +2048,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2043,14 +2057,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2061,9 +2069,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2072,12 +2077,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2154,7 +2153,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2288,18 +2286,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2348,6 +2334,63 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6096,7 +6139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R238"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="95" zoomScaleNormal="95" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="95" zoomScaleNormal="95" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -6178,736 +6221,736 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
+    <row r="2" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="125">
-        <v>4</v>
-      </c>
-      <c r="D2" s="125">
-        <v>4</v>
-      </c>
-      <c r="E2" s="125">
-        <v>2</v>
-      </c>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125">
-        <v>4</v>
-      </c>
-      <c r="H2" s="125">
+      <c r="B2" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="115">
+        <v>4</v>
+      </c>
+      <c r="D2" s="115">
+        <v>4</v>
+      </c>
+      <c r="E2" s="115">
+        <v>2</v>
+      </c>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115">
+        <v>4</v>
+      </c>
+      <c r="H2" s="115">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="125">
+      <c r="I2" s="115"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="115">
         <v>3</v>
       </c>
-      <c r="L2" s="125"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="125" t="s">
+      <c r="L2" s="115"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="115" t="s">
         <v>185</v>
       </c>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="122"/>
-    </row>
-    <row r="3" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124" t="s">
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="112"/>
+    </row>
+    <row r="3" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="125">
-        <v>4</v>
-      </c>
-      <c r="D3" s="125">
-        <v>6</v>
-      </c>
-      <c r="E3" s="125">
-        <v>4</v>
-      </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125">
-        <v>6</v>
-      </c>
-      <c r="H3" s="125">
+      <c r="C3" s="115">
+        <v>4</v>
+      </c>
+      <c r="D3" s="115">
+        <v>6</v>
+      </c>
+      <c r="E3" s="115">
+        <v>4</v>
+      </c>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115">
+        <v>6</v>
+      </c>
+      <c r="H3" s="115">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125">
+      <c r="I3" s="115"/>
+      <c r="J3" s="115">
         <v>3</v>
       </c>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="125" t="s">
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="115" t="s">
         <v>188</v>
       </c>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="122"/>
-    </row>
-    <row r="4" spans="1:18" s="123" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="124" t="s">
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="112"/>
+    </row>
+    <row r="4" spans="1:18" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="125" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="125">
-        <v>6</v>
-      </c>
-      <c r="D4" s="125">
-        <v>6</v>
-      </c>
-      <c r="E4" s="125">
-        <v>4</v>
-      </c>
-      <c r="F4" s="125">
-        <v>4</v>
-      </c>
-      <c r="G4" s="125">
-        <v>6</v>
-      </c>
-      <c r="H4" s="125">
+      <c r="B4" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="115">
+        <v>6</v>
+      </c>
+      <c r="D4" s="115">
+        <v>6</v>
+      </c>
+      <c r="E4" s="115">
+        <v>4</v>
+      </c>
+      <c r="F4" s="115">
+        <v>4</v>
+      </c>
+      <c r="G4" s="115">
+        <v>6</v>
+      </c>
+      <c r="H4" s="115">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125">
-        <v>4</v>
-      </c>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="120" t="s">
+      <c r="I4" s="115"/>
+      <c r="J4" s="115">
+        <v>4</v>
+      </c>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="110" t="s">
         <v>276</v>
       </c>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="122"/>
-    </row>
-    <row r="5" spans="1:18" s="123" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="112"/>
+    </row>
+    <row r="5" spans="1:18" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="120">
+      <c r="B5" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="110">
         <v>12</v>
       </c>
-      <c r="D5" s="120">
+      <c r="D5" s="110">
         <v>10</v>
       </c>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120">
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110">
         <v>10</v>
       </c>
-      <c r="H5" s="120">
+      <c r="H5" s="110">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120">
-        <v>2</v>
-      </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120" t="s">
+      <c r="I5" s="110"/>
+      <c r="J5" s="110">
+        <v>2</v>
+      </c>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110" t="s">
         <v>192</v>
       </c>
-      <c r="N5" s="120" t="s">
+      <c r="N5" s="110" t="s">
         <v>275</v>
       </c>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="122"/>
-    </row>
-    <row r="6" spans="1:18" s="123" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="112"/>
+    </row>
+    <row r="6" spans="1:18" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="120">
+      <c r="C6" s="110">
         <v>14</v>
       </c>
-      <c r="D6" s="120">
-        <v>6</v>
-      </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120">
-        <v>6</v>
-      </c>
-      <c r="H6" s="120">
+      <c r="D6" s="110">
+        <v>6</v>
+      </c>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110">
+        <v>6</v>
+      </c>
+      <c r="H6" s="110">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120">
-        <v>2</v>
-      </c>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120" t="s">
+      <c r="I6" s="110"/>
+      <c r="J6" s="110">
+        <v>2</v>
+      </c>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110" t="s">
         <v>192</v>
       </c>
-      <c r="N6" s="121" t="s">
+      <c r="N6" s="111" t="s">
         <v>200</v>
       </c>
-      <c r="O6" s="121">
+      <c r="O6" s="111">
         <v>12</v>
       </c>
-      <c r="P6" s="121">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="122"/>
-    </row>
-    <row r="7" spans="1:18" s="123" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="P6" s="111">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="112"/>
+    </row>
+    <row r="7" spans="1:18" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="120">
+      <c r="C7" s="110">
         <v>10</v>
       </c>
-      <c r="D7" s="120">
+      <c r="D7" s="110">
         <v>10</v>
       </c>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120">
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110">
         <v>10</v>
       </c>
-      <c r="H7" s="120">
+      <c r="H7" s="110">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120">
-        <v>2</v>
-      </c>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120" t="s">
+      <c r="I7" s="110"/>
+      <c r="J7" s="110">
+        <v>2</v>
+      </c>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110" t="s">
         <v>192</v>
       </c>
-      <c r="N7" s="121" t="s">
+      <c r="N7" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="121">
+      <c r="O7" s="111">
         <v>12</v>
       </c>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121">
-        <v>8</v>
-      </c>
-      <c r="R7" s="122"/>
-    </row>
-    <row r="8" spans="1:18" s="123" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="119" t="s">
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111">
+        <v>8</v>
+      </c>
+      <c r="R7" s="112"/>
+    </row>
+    <row r="8" spans="1:18" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="120">
-        <v>8</v>
-      </c>
-      <c r="D8" s="120">
-        <v>6</v>
-      </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120">
-        <v>6</v>
-      </c>
-      <c r="H8" s="120">
+      <c r="C8" s="110">
+        <v>8</v>
+      </c>
+      <c r="D8" s="110">
+        <v>6</v>
+      </c>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110">
+        <v>6</v>
+      </c>
+      <c r="H8" s="110">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120">
-        <v>2</v>
-      </c>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120" t="s">
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110">
+        <v>2</v>
+      </c>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110" t="s">
         <v>192</v>
       </c>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="122"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="112"/>
     </row>
     <row r="9" spans="1:18" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="47">
+        <v>4</v>
+      </c>
+      <c r="D9" s="47">
         <v>10</v>
       </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
+      <c r="E9" s="47">
+        <v>2</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47">
         <v>10</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="47">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
+      <c r="I9" s="47"/>
+      <c r="J9" s="47">
         <v>3</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="158" t="s">
         <v>202</v>
       </c>
-      <c r="O9" s="3">
-        <v>8</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3">
-        <v>6</v>
-      </c>
-      <c r="R9" s="12"/>
+      <c r="O9" s="158">
+        <v>8</v>
+      </c>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="158">
+        <v>6</v>
+      </c>
+      <c r="R9" s="159"/>
     </row>
     <row r="10" spans="1:18" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4">
-        <v>6</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
-        <v>4</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="C10" s="47"/>
+      <c r="D10" s="47">
+        <v>4</v>
+      </c>
+      <c r="E10" s="47">
+        <v>6</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47">
+        <v>4</v>
+      </c>
+      <c r="H10" s="47">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47">
         <v>3</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
+      <c r="L10" s="47"/>
+      <c r="M10" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="165" t="s">
         <v>203</v>
       </c>
-      <c r="O10" s="10">
-        <v>4</v>
-      </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="12"/>
-    </row>
-    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="O10" s="165">
+        <v>4</v>
+      </c>
+      <c r="P10" s="164"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="159"/>
+    </row>
+    <row r="11" spans="1:18" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="47">
         <v>0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="47">
         <v>0</v>
       </c>
-      <c r="E11" s="4">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E11" s="47">
+        <v>8</v>
+      </c>
+      <c r="F11" s="47">
         <v>12</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="47">
         <v>0</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="47">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4">
-        <v>4</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
+      <c r="I11" s="47"/>
+      <c r="J11" s="47">
+        <v>4</v>
+      </c>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="158" t="s">
         <v>210</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="12"/>
-    </row>
-    <row r="12" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="119" t="s">
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="159"/>
+    </row>
+    <row r="12" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="120">
+      <c r="C12" s="110">
         <v>10</v>
       </c>
-      <c r="D12" s="120">
-        <v>8</v>
-      </c>
-      <c r="E12" s="120">
-        <v>6</v>
-      </c>
-      <c r="F12" s="120">
-        <v>6</v>
-      </c>
-      <c r="G12" s="120">
-        <v>8</v>
-      </c>
-      <c r="H12" s="120">
+      <c r="D12" s="110">
+        <v>8</v>
+      </c>
+      <c r="E12" s="110">
+        <v>6</v>
+      </c>
+      <c r="F12" s="110">
+        <v>6</v>
+      </c>
+      <c r="G12" s="110">
+        <v>8</v>
+      </c>
+      <c r="H12" s="110">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120">
-        <v>4</v>
-      </c>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="121" t="s">
+      <c r="I12" s="110"/>
+      <c r="J12" s="110">
+        <v>4</v>
+      </c>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="N12" s="120" t="s">
+      <c r="N12" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="122" t="s">
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="112" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="123" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="128" t="s">
+    <row r="13" spans="1:18" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="129">
+      <c r="C13" s="119">
         <v>10</v>
       </c>
-      <c r="D13" s="129">
-        <v>8</v>
-      </c>
-      <c r="E13" s="129">
-        <v>6</v>
-      </c>
-      <c r="F13" s="129">
-        <v>6</v>
-      </c>
-      <c r="G13" s="129">
-        <v>8</v>
-      </c>
-      <c r="H13" s="129">
+      <c r="D13" s="119">
+        <v>8</v>
+      </c>
+      <c r="E13" s="119">
+        <v>6</v>
+      </c>
+      <c r="F13" s="119">
+        <v>6</v>
+      </c>
+      <c r="G13" s="119">
+        <v>8</v>
+      </c>
+      <c r="H13" s="119">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129">
-        <v>4</v>
-      </c>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129" t="s">
+      <c r="I13" s="119"/>
+      <c r="J13" s="119">
+        <v>4</v>
+      </c>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119" t="s">
         <v>321</v>
       </c>
-      <c r="M13" s="130" t="s">
+      <c r="M13" s="120" t="s">
         <v>191</v>
       </c>
-      <c r="N13" s="129" t="s">
+      <c r="N13" s="119" t="s">
         <v>187</v>
       </c>
-      <c r="O13" s="130">
+      <c r="O13" s="120">
         <v>14</v>
       </c>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="131" t="s">
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="121" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="4">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
-        <v>4</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="C14" s="47">
+        <v>4</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47">
+        <v>4</v>
+      </c>
+      <c r="F14" s="47">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="47">
         <v>0</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="47">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
-        <v>4</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="3">
+      <c r="I14" s="47"/>
+      <c r="J14" s="47">
+        <v>4</v>
+      </c>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="158">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="164" t="s">
         <v>204</v>
       </c>
-      <c r="O14" s="15">
-        <v>4</v>
-      </c>
-      <c r="P14" s="15">
+      <c r="O14" s="164">
+        <v>4</v>
+      </c>
+      <c r="P14" s="164">
         <v>0</v>
       </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="12"/>
-    </row>
-    <row r="15" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="Q14" s="158"/>
+      <c r="R14" s="159"/>
+    </row>
+    <row r="15" spans="1:18" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="55">
-        <v>2</v>
-      </c>
-      <c r="D15" s="55">
+      <c r="C15" s="172">
+        <v>2</v>
+      </c>
+      <c r="D15" s="172">
         <v>0</v>
       </c>
-      <c r="E15" s="55">
-        <v>4</v>
-      </c>
-      <c r="F15" s="55">
+      <c r="E15" s="172">
+        <v>4</v>
+      </c>
+      <c r="F15" s="172">
         <v>0</v>
       </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55">
+      <c r="G15" s="172"/>
+      <c r="H15" s="172">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55">
-        <v>4</v>
-      </c>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55" t="s">
+      <c r="I15" s="172"/>
+      <c r="J15" s="172">
+        <v>4</v>
+      </c>
+      <c r="K15" s="172"/>
+      <c r="L15" s="172" t="s">
         <v>322</v>
       </c>
-      <c r="M15" s="56">
+      <c r="M15" s="173">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N15" s="56" t="s">
+      <c r="N15" s="173" t="s">
         <v>218</v>
       </c>
-      <c r="O15" s="56">
-        <v>2</v>
-      </c>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="57"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="O15" s="173">
+        <v>2</v>
+      </c>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="174"/>
+    </row>
+    <row r="16" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4">
-        <v>6</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="C16" s="47">
+        <v>6</v>
+      </c>
+      <c r="D16" s="47">
         <v>0</v>
       </c>
-      <c r="E16" s="4">
-        <v>6</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="E16" s="47">
+        <v>6</v>
+      </c>
+      <c r="F16" s="47">
         <v>0</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="47">
+        <v>4</v>
+      </c>
+      <c r="H16" s="47">
+        <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
+        <v>2</v>
+      </c>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47">
+        <v>4</v>
+      </c>
+      <c r="L16" s="47"/>
+      <c r="M16" s="158">
+        <v>6.1929999999999996</v>
+      </c>
+      <c r="N16" s="164" t="s">
+        <v>202</v>
+      </c>
+      <c r="O16" s="164">
+        <v>4</v>
+      </c>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="164">
+        <v>2</v>
+      </c>
+      <c r="R16" s="159"/>
+    </row>
+    <row r="17" spans="1:18" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="157" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="47">
+        <v>2</v>
+      </c>
+      <c r="D17" s="47">
         <v>0</v>
       </c>
-      <c r="H16" s="4">
-        <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
-        <v>6</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4">
-        <v>4</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="3">
-        <v>6.1929999999999996</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="O16" s="15">
-        <v>4</v>
-      </c>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15">
-        <v>2</v>
-      </c>
-      <c r="R16" s="12"/>
-    </row>
-    <row r="17" spans="1:18" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="53">
-        <v>2</v>
-      </c>
-      <c r="D17" s="53">
+      <c r="E17" s="47">
         <v>0</v>
       </c>
-      <c r="E17" s="53">
+      <c r="F17" s="47"/>
+      <c r="G17" s="47">
         <v>0</v>
       </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53">
-        <v>0</v>
-      </c>
-      <c r="H17" s="53">
+      <c r="H17" s="47">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53">
+      <c r="I17" s="47"/>
+      <c r="J17" s="47">
         <v>3</v>
       </c>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="60">
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="158">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N17" s="61" t="s">
+      <c r="N17" s="164" t="s">
         <v>204</v>
       </c>
-      <c r="O17" s="61">
-        <v>2</v>
-      </c>
-      <c r="P17" s="61">
+      <c r="O17" s="164">
+        <v>2</v>
+      </c>
+      <c r="P17" s="164">
         <v>0</v>
       </c>
-      <c r="Q17" s="61">
+      <c r="Q17" s="164">
         <v>0</v>
       </c>
-      <c r="R17" s="62"/>
+      <c r="R17" s="159"/>
     </row>
     <row r="18" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4">
-        <v>2</v>
-      </c>
-      <c r="E18" s="53">
-        <v>2</v>
-      </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="4">
-        <v>2</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="C18" s="47"/>
+      <c r="D18" s="47">
+        <v>2</v>
+      </c>
+      <c r="E18" s="47">
+        <v>2</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47">
+        <v>2</v>
+      </c>
+      <c r="H18" s="47">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4">
-        <v>4</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="3">
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47">
+        <v>4</v>
+      </c>
+      <c r="L18" s="47"/>
+      <c r="M18" s="158">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="N18" s="164" t="s">
         <v>235</v>
       </c>
-      <c r="O18" s="15">
-        <v>2</v>
-      </c>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15">
+      <c r="O18" s="164">
+        <v>2</v>
+      </c>
+      <c r="P18" s="164"/>
+      <c r="Q18" s="164">
         <v>0</v>
       </c>
-      <c r="R18" s="12"/>
+      <c r="R18" s="159"/>
     </row>
     <row r="19" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -6950,363 +6993,363 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="12"/>
     </row>
-    <row r="20" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="119" t="s">
+    <row r="20" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="120">
-        <v>6</v>
-      </c>
-      <c r="D20" s="121">
-        <v>4</v>
-      </c>
-      <c r="E20" s="121">
-        <v>2</v>
-      </c>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121">
-        <v>4</v>
-      </c>
-      <c r="H20" s="121">
+      <c r="C20" s="110">
+        <v>6</v>
+      </c>
+      <c r="D20" s="111">
+        <v>4</v>
+      </c>
+      <c r="E20" s="111">
+        <v>2</v>
+      </c>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111">
+        <v>4</v>
+      </c>
+      <c r="H20" s="111">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121">
-        <v>4</v>
-      </c>
-      <c r="K20" s="121"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="121">
+      <c r="I20" s="111"/>
+      <c r="J20" s="111">
+        <v>4</v>
+      </c>
+      <c r="K20" s="111"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="111">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N20" s="137" t="s">
+      <c r="N20" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="O20" s="137">
-        <v>6</v>
-      </c>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="137">
-        <v>4</v>
-      </c>
-      <c r="R20" s="122"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="O20" s="127">
+        <v>6</v>
+      </c>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="127">
+        <v>4</v>
+      </c>
+      <c r="R20" s="112"/>
+    </row>
+    <row r="21" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="4">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="C21" s="47">
+        <v>6</v>
+      </c>
+      <c r="D21" s="158">
+        <v>4</v>
+      </c>
+      <c r="E21" s="158">
+        <v>4</v>
+      </c>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158">
+        <v>4</v>
+      </c>
+      <c r="H21" s="158">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3">
+      <c r="I21" s="158"/>
+      <c r="J21" s="158">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="3">
+      <c r="K21" s="158"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="158">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="N21" s="164" t="s">
         <v>206</v>
       </c>
-      <c r="O21" s="15">
-        <v>6</v>
-      </c>
-      <c r="P21" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="12"/>
-    </row>
-    <row r="22" spans="1:18" s="123" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="119" t="s">
+      <c r="O21" s="164">
+        <v>6</v>
+      </c>
+      <c r="P21" s="164">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="164"/>
+      <c r="R21" s="159"/>
+    </row>
+    <row r="22" spans="1:18" s="113" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="120" t="s">
+      <c r="B22" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="120">
-        <v>6</v>
-      </c>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121">
-        <v>2</v>
-      </c>
-      <c r="F22" s="121">
-        <v>6</v>
-      </c>
-      <c r="G22" s="121">
+      <c r="C22" s="110">
+        <v>6</v>
+      </c>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111">
+        <v>2</v>
+      </c>
+      <c r="F22" s="111">
+        <v>6</v>
+      </c>
+      <c r="G22" s="111">
         <v>0</v>
       </c>
-      <c r="H22" s="121">
+      <c r="H22" s="111">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121">
-        <v>4</v>
-      </c>
-      <c r="K22" s="121"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="121">
+      <c r="I22" s="111"/>
+      <c r="J22" s="111">
+        <v>4</v>
+      </c>
+      <c r="K22" s="111"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="111">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N22" s="137" t="s">
+      <c r="N22" s="127" t="s">
         <v>207</v>
       </c>
-      <c r="O22" s="137">
-        <v>6</v>
-      </c>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="121"/>
-      <c r="R22" s="122"/>
-    </row>
-    <row r="23" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="119" t="s">
+      <c r="O22" s="127">
+        <v>6</v>
+      </c>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="112"/>
+    </row>
+    <row r="23" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="120">
-        <v>6</v>
-      </c>
-      <c r="D23" s="121">
-        <v>4</v>
-      </c>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121">
-        <v>4</v>
-      </c>
-      <c r="H23" s="121">
+      <c r="C23" s="110">
+        <v>6</v>
+      </c>
+      <c r="D23" s="111">
+        <v>4</v>
+      </c>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111">
+        <v>4</v>
+      </c>
+      <c r="H23" s="111">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="121"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="121">
-        <v>2</v>
-      </c>
-      <c r="L23" s="120"/>
-      <c r="M23" s="121">
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111">
+        <v>2</v>
+      </c>
+      <c r="L23" s="110"/>
+      <c r="M23" s="111">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N23" s="121" t="s">
+      <c r="N23" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="O23" s="121">
-        <v>6</v>
-      </c>
-      <c r="P23" s="121">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="121"/>
-      <c r="R23" s="122"/>
-    </row>
-    <row r="24" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="119" t="s">
+      <c r="O23" s="111">
+        <v>6</v>
+      </c>
+      <c r="P23" s="111">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="112"/>
+    </row>
+    <row r="24" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="120" t="s">
+      <c r="B24" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="120">
-        <v>4</v>
-      </c>
-      <c r="D24" s="120">
-        <v>6</v>
-      </c>
-      <c r="E24" s="120">
-        <v>4</v>
-      </c>
-      <c r="F24" s="120">
-        <v>6</v>
-      </c>
-      <c r="G24" s="120">
-        <v>6</v>
-      </c>
-      <c r="H24" s="120">
+      <c r="C24" s="110">
+        <v>4</v>
+      </c>
+      <c r="D24" s="110">
+        <v>6</v>
+      </c>
+      <c r="E24" s="110">
+        <v>4</v>
+      </c>
+      <c r="F24" s="110">
+        <v>6</v>
+      </c>
+      <c r="G24" s="110">
+        <v>6</v>
+      </c>
+      <c r="H24" s="110">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I24" s="120"/>
-      <c r="J24" s="120">
-        <v>4</v>
-      </c>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="121">
+      <c r="I24" s="110"/>
+      <c r="J24" s="110">
+        <v>4</v>
+      </c>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="111">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N24" s="136" t="s">
+      <c r="N24" s="126" t="s">
         <v>277</v>
       </c>
-      <c r="O24" s="137"/>
-      <c r="P24" s="137"/>
-      <c r="Q24" s="137"/>
-      <c r="R24" s="122" t="s">
+      <c r="O24" s="127"/>
+      <c r="P24" s="127"/>
+      <c r="Q24" s="127"/>
+      <c r="R24" s="112" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="123" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="128" t="s">
+    <row r="25" spans="1:18" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="129">
-        <v>4</v>
-      </c>
-      <c r="D25" s="129">
-        <v>8</v>
-      </c>
-      <c r="E25" s="129">
-        <v>4</v>
-      </c>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129">
-        <v>8</v>
-      </c>
-      <c r="H25" s="129">
+      <c r="C25" s="119">
+        <v>4</v>
+      </c>
+      <c r="D25" s="119">
+        <v>8</v>
+      </c>
+      <c r="E25" s="119">
+        <v>4</v>
+      </c>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119">
+        <v>8</v>
+      </c>
+      <c r="H25" s="119">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I25" s="129"/>
-      <c r="J25" s="129">
+      <c r="I25" s="119"/>
+      <c r="J25" s="119">
         <v>3</v>
       </c>
-      <c r="K25" s="129"/>
-      <c r="L25" s="129" t="s">
+      <c r="K25" s="119"/>
+      <c r="L25" s="119" t="s">
         <v>321</v>
       </c>
-      <c r="M25" s="130">
+      <c r="M25" s="120">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N25" s="129" t="s">
+      <c r="N25" s="119" t="s">
         <v>187</v>
       </c>
-      <c r="O25" s="130">
-        <v>6</v>
-      </c>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="130"/>
-      <c r="R25" s="131" t="s">
+      <c r="O25" s="120">
+        <v>6</v>
+      </c>
+      <c r="P25" s="120"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="121" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="4">
-        <v>8</v>
-      </c>
-      <c r="D26" s="4">
-        <v>8</v>
-      </c>
-      <c r="E26" s="4">
-        <v>6</v>
-      </c>
-      <c r="F26" s="4">
-        <v>8</v>
-      </c>
-      <c r="G26" s="4">
-        <v>8</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="C26" s="47">
+        <v>8</v>
+      </c>
+      <c r="D26" s="47">
+        <v>8</v>
+      </c>
+      <c r="E26" s="47">
+        <v>6</v>
+      </c>
+      <c r="F26" s="47">
+        <v>8</v>
+      </c>
+      <c r="G26" s="47">
+        <v>8</v>
+      </c>
+      <c r="H26" s="47">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4">
-        <v>4</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="3">
+      <c r="I26" s="47"/>
+      <c r="J26" s="47">
+        <v>4</v>
+      </c>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="158">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="158" t="s">
         <v>232</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="158">
         <v>16</v>
       </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3">
+      <c r="P26" s="158"/>
+      <c r="Q26" s="158">
         <v>0</v>
       </c>
-      <c r="R26" s="12"/>
-    </row>
-    <row r="27" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="138" t="s">
+      <c r="R26" s="159"/>
+    </row>
+    <row r="27" spans="1:18" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="139" t="s">
+      <c r="B27" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="139">
-        <v>4</v>
-      </c>
-      <c r="D27" s="140">
-        <v>6</v>
-      </c>
-      <c r="E27" s="140">
-        <v>4</v>
-      </c>
-      <c r="F27" s="140">
-        <v>2</v>
-      </c>
-      <c r="G27" s="140">
-        <v>6</v>
-      </c>
-      <c r="H27" s="140">
+      <c r="C27" s="129">
+        <v>4</v>
+      </c>
+      <c r="D27" s="130">
+        <v>6</v>
+      </c>
+      <c r="E27" s="130">
+        <v>4</v>
+      </c>
+      <c r="F27" s="130">
+        <v>2</v>
+      </c>
+      <c r="G27" s="130">
+        <v>6</v>
+      </c>
+      <c r="H27" s="130">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I27" s="140"/>
-      <c r="J27" s="141">
-        <v>4</v>
-      </c>
-      <c r="K27" s="140"/>
-      <c r="L27" s="139"/>
-      <c r="M27" s="139">
+      <c r="I27" s="130"/>
+      <c r="J27" s="131">
+        <v>4</v>
+      </c>
+      <c r="K27" s="130"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N27" s="139" t="s">
+      <c r="N27" s="129" t="s">
         <v>288</v>
       </c>
-      <c r="O27" s="139"/>
-      <c r="P27" s="139"/>
-      <c r="Q27" s="139"/>
-      <c r="R27" s="142"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="129"/>
+      <c r="Q27" s="129"/>
+      <c r="R27" s="132"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -7416,8 +7459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7499,857 +7542,857 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="133" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
+    <row r="2" spans="1:18" s="123" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="125">
-        <v>6</v>
-      </c>
-      <c r="D2" s="125">
-        <v>4</v>
-      </c>
-      <c r="E2" s="125">
-        <v>2</v>
-      </c>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125">
-        <v>4</v>
-      </c>
-      <c r="H2" s="125">
+      <c r="C2" s="115">
+        <v>6</v>
+      </c>
+      <c r="D2" s="115">
+        <v>4</v>
+      </c>
+      <c r="E2" s="115">
+        <v>2</v>
+      </c>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115">
+        <v>4</v>
+      </c>
+      <c r="H2" s="115">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125">
+      <c r="I2" s="115"/>
+      <c r="J2" s="115">
         <v>3</v>
       </c>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="120" t="s">
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="110" t="s">
         <v>276</v>
       </c>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="135"/>
-    </row>
-    <row r="3" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124" t="s">
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="125"/>
+    </row>
+    <row r="3" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="125">
-        <v>4</v>
-      </c>
-      <c r="D3" s="125">
-        <v>6</v>
-      </c>
-      <c r="E3" s="125">
-        <v>4</v>
-      </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125">
-        <v>6</v>
-      </c>
-      <c r="H3" s="125">
+      <c r="C3" s="115">
+        <v>4</v>
+      </c>
+      <c r="D3" s="115">
+        <v>6</v>
+      </c>
+      <c r="E3" s="115">
+        <v>4</v>
+      </c>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115">
+        <v>6</v>
+      </c>
+      <c r="H3" s="115">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125">
+      <c r="I3" s="115"/>
+      <c r="J3" s="115">
         <v>3</v>
       </c>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="120" t="s">
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="135"/>
-    </row>
-    <row r="4" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="125"/>
+    </row>
+    <row r="4" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="120">
-        <v>8</v>
-      </c>
-      <c r="D4" s="120">
-        <v>8</v>
-      </c>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120">
-        <v>8</v>
-      </c>
-      <c r="H4" s="120">
+      <c r="C4" s="110">
+        <v>8</v>
+      </c>
+      <c r="D4" s="110">
+        <v>8</v>
+      </c>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110">
+        <v>8</v>
+      </c>
+      <c r="H4" s="110">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120">
-        <v>2</v>
-      </c>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120">
+      <c r="I4" s="110"/>
+      <c r="J4" s="110">
+        <v>2</v>
+      </c>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N4" s="120" t="s">
+      <c r="N4" s="110" t="s">
         <v>210</v>
       </c>
-      <c r="O4" s="120">
+      <c r="O4" s="110">
         <v>12</v>
       </c>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120">
-        <v>4</v>
-      </c>
-      <c r="R4" s="135"/>
-    </row>
-    <row r="5" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110">
+        <v>4</v>
+      </c>
+      <c r="R4" s="125"/>
+    </row>
+    <row r="5" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="120">
-        <v>8</v>
-      </c>
-      <c r="D5" s="120">
+      <c r="C5" s="110">
+        <v>8</v>
+      </c>
+      <c r="D5" s="110">
         <v>10</v>
       </c>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120">
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110">
         <v>10</v>
       </c>
-      <c r="H5" s="120">
+      <c r="H5" s="110">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120">
-        <v>2</v>
-      </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120">
+      <c r="I5" s="110"/>
+      <c r="J5" s="110">
+        <v>2</v>
+      </c>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="120" t="s">
+      <c r="N5" s="110" t="s">
         <v>236</v>
       </c>
-      <c r="O5" s="120">
+      <c r="O5" s="110">
         <v>12</v>
       </c>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120">
-        <v>6</v>
-      </c>
-      <c r="R5" s="135"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110">
+        <v>6</v>
+      </c>
+      <c r="R5" s="125"/>
     </row>
     <row r="6" spans="1:18" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="157" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="47">
         <v>10</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="47">
         <v>10</v>
       </c>
-      <c r="E6" s="4">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="47">
+        <v>8</v>
+      </c>
+      <c r="F6" s="47">
         <v>10</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="47">
         <v>10</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="47">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I6" s="4">
-        <v>4</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
+      <c r="I6" s="47">
+        <v>4</v>
+      </c>
+      <c r="J6" s="47">
+        <v>2</v>
+      </c>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="47">
         <v>20</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="25"/>
-    </row>
-    <row r="7" spans="1:18" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="176"/>
+    </row>
+    <row r="7" spans="1:18" s="123" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="120">
+      <c r="B7" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="110">
         <v>12</v>
       </c>
-      <c r="D7" s="120">
+      <c r="D7" s="110">
         <v>10</v>
       </c>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120">
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110">
         <v>10</v>
       </c>
-      <c r="H7" s="120">
+      <c r="H7" s="110">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120">
-        <v>2</v>
-      </c>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120">
+      <c r="I7" s="110"/>
+      <c r="J7" s="110">
+        <v>2</v>
+      </c>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="120" t="s">
+      <c r="N7" s="110" t="s">
         <v>278</v>
       </c>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="135"/>
-    </row>
-    <row r="8" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="119" t="s">
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="125"/>
+    </row>
+    <row r="8" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="120">
-        <v>6</v>
-      </c>
-      <c r="D8" s="120">
-        <v>6</v>
-      </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120">
-        <v>6</v>
-      </c>
-      <c r="H8" s="120">
+      <c r="C8" s="110">
+        <v>6</v>
+      </c>
+      <c r="D8" s="110">
+        <v>6</v>
+      </c>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110">
+        <v>6</v>
+      </c>
+      <c r="H8" s="110">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120">
-        <v>2</v>
-      </c>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120">
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110">
+        <v>2</v>
+      </c>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N8" s="120" t="s">
+      <c r="N8" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="O8" s="120">
+      <c r="O8" s="110">
         <v>10</v>
       </c>
-      <c r="P8" s="120">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="135"/>
-    </row>
-    <row r="9" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="119" t="s">
+      <c r="P8" s="110">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="125"/>
+    </row>
+    <row r="9" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="120">
-        <v>6</v>
-      </c>
-      <c r="D9" s="120">
-        <v>8</v>
-      </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120">
-        <v>8</v>
-      </c>
-      <c r="H9" s="120">
+      <c r="C9" s="110">
+        <v>6</v>
+      </c>
+      <c r="D9" s="110">
+        <v>8</v>
+      </c>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110">
+        <v>8</v>
+      </c>
+      <c r="H9" s="110">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120">
-        <v>2</v>
-      </c>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120">
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110">
+        <v>2</v>
+      </c>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N9" s="120" t="s">
+      <c r="N9" s="110" t="s">
         <v>255</v>
       </c>
-      <c r="O9" s="120">
+      <c r="O9" s="110">
         <v>10</v>
       </c>
-      <c r="P9" s="120">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="135"/>
+      <c r="P9" s="110">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="125"/>
     </row>
     <row r="10" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="157" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="4">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4">
-        <v>4</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
-        <v>8</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="C10" s="47">
+        <v>4</v>
+      </c>
+      <c r="D10" s="47">
+        <v>8</v>
+      </c>
+      <c r="E10" s="47">
+        <v>4</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47">
+        <v>8</v>
+      </c>
+      <c r="H10" s="47">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47">
         <v>3</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4">
+      <c r="L10" s="47"/>
+      <c r="M10" s="47">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="175" t="s">
         <v>203</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="175">
         <v>12</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="25"/>
-    </row>
-    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="176"/>
+    </row>
+    <row r="11" spans="1:18" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="157" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47">
         <v>12</v>
       </c>
-      <c r="F11" s="4">
-        <v>8</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="F11" s="47">
+        <v>8</v>
+      </c>
+      <c r="G11" s="47">
         <v>0</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="47">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>12</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4">
-        <v>4</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
+      <c r="I11" s="47"/>
+      <c r="J11" s="47">
+        <v>4</v>
+      </c>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N11" s="26" t="s">
+      <c r="N11" s="175" t="s">
         <v>200</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="25"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="176"/>
+    </row>
+    <row r="12" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="157" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
-        <v>6</v>
-      </c>
-      <c r="F12" s="4">
-        <v>4</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47">
+        <v>6</v>
+      </c>
+      <c r="F12" s="47">
+        <v>4</v>
+      </c>
+      <c r="G12" s="47">
         <v>0</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="47">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4">
-        <v>4</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4">
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47">
+        <v>4</v>
+      </c>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N12" s="26" t="s">
+      <c r="N12" s="175" t="s">
         <v>211</v>
       </c>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="25"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="O12" s="168"/>
+      <c r="P12" s="168"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="176"/>
+    </row>
+    <row r="13" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="157" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47">
         <v>10</v>
       </c>
-      <c r="F13" s="4">
-        <v>8</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F13" s="47">
+        <v>8</v>
+      </c>
+      <c r="G13" s="47">
         <v>0</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="47">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>10</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4">
-        <v>4</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4">
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47">
+        <v>4</v>
+      </c>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="25"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="176"/>
     </row>
     <row r="14" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="47">
         <v>12</v>
       </c>
-      <c r="D14" s="4">
-        <v>2</v>
-      </c>
-      <c r="E14" s="53">
+      <c r="D14" s="47">
+        <v>2</v>
+      </c>
+      <c r="E14" s="47">
         <v>14</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="4">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="F14" s="47"/>
+      <c r="G14" s="47">
+        <v>2</v>
+      </c>
+      <c r="H14" s="47">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>14</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4">
-        <v>4</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4">
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47">
+        <v>4</v>
+      </c>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47">
         <v>6.080101</v>
       </c>
-      <c r="N14" s="27" t="s">
+      <c r="N14" s="168" t="s">
         <v>204</v>
       </c>
-      <c r="O14" s="27">
+      <c r="O14" s="168">
         <v>12</v>
       </c>
-      <c r="P14" s="27">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="25"/>
-    </row>
-    <row r="15" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="119" t="s">
+      <c r="P14" s="168">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="176"/>
+    </row>
+    <row r="15" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="132">
+      <c r="C15" s="122">
         <v>10</v>
       </c>
-      <c r="D15" s="132">
-        <v>8</v>
-      </c>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132">
-        <v>8</v>
-      </c>
-      <c r="H15" s="132">
+      <c r="D15" s="122">
+        <v>8</v>
+      </c>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122">
+        <v>8</v>
+      </c>
+      <c r="H15" s="122">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132">
-        <v>2</v>
-      </c>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132">
+      <c r="I15" s="122"/>
+      <c r="J15" s="122">
+        <v>2</v>
+      </c>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122">
         <v>6.080101</v>
       </c>
-      <c r="N15" s="132" t="s">
+      <c r="N15" s="122" t="s">
         <v>279</v>
       </c>
-      <c r="O15" s="132"/>
-      <c r="P15" s="132"/>
-      <c r="Q15" s="132"/>
-      <c r="R15" s="132" t="s">
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="4">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4">
-        <v>6</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
-        <v>6</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="C16" s="47">
+        <v>4</v>
+      </c>
+      <c r="D16" s="47">
+        <v>6</v>
+      </c>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47">
+        <v>6</v>
+      </c>
+      <c r="H16" s="47">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4">
-        <v>2</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4">
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47">
+        <v>2</v>
+      </c>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47">
         <v>6.080101</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="O16" s="4">
-        <v>6</v>
-      </c>
-      <c r="P16" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="25"/>
+      <c r="O16" s="47">
+        <v>6</v>
+      </c>
+      <c r="P16" s="47">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="176"/>
     </row>
     <row r="17" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="4">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4">
-        <v>8</v>
-      </c>
-      <c r="F17" s="4">
-        <v>8</v>
-      </c>
-      <c r="G17" s="4">
-        <v>6</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="C17" s="47">
+        <v>4</v>
+      </c>
+      <c r="D17" s="47">
+        <v>6</v>
+      </c>
+      <c r="E17" s="47">
+        <v>8</v>
+      </c>
+      <c r="F17" s="47">
+        <v>8</v>
+      </c>
+      <c r="G17" s="47">
+        <v>6</v>
+      </c>
+      <c r="H17" s="47">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4">
-        <v>4</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4">
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47">
+        <v>4</v>
+      </c>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47">
         <v>6.080101</v>
       </c>
-      <c r="N17" s="26" t="s">
+      <c r="N17" s="175" t="s">
         <v>211</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="175">
         <v>10</v>
       </c>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26">
+      <c r="P17" s="175"/>
+      <c r="Q17" s="175">
         <v>0</v>
       </c>
-      <c r="R17" s="25"/>
+      <c r="R17" s="176"/>
     </row>
     <row r="18" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="47">
         <v>10</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="47">
         <v>10</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="47">
         <v>10</v>
       </c>
-      <c r="F18" s="4">
-        <v>6</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="F18" s="47">
+        <v>6</v>
+      </c>
+      <c r="G18" s="47">
         <v>10</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="47">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>10</v>
       </c>
-      <c r="I18" s="4">
-        <v>4</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4">
-        <v>4</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4">
+      <c r="I18" s="47">
+        <v>4</v>
+      </c>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47">
+        <v>4</v>
+      </c>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47">
         <v>6.080101</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="47">
         <v>18</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4">
-        <v>2</v>
-      </c>
-      <c r="R18" s="25"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47">
+        <v>2</v>
+      </c>
+      <c r="R18" s="176"/>
     </row>
     <row r="19" spans="1:18" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="4">
-        <v>6</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
-        <v>4</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="C19" s="47">
+        <v>6</v>
+      </c>
+      <c r="D19" s="47">
+        <v>2</v>
+      </c>
+      <c r="E19" s="47">
+        <v>4</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47">
+        <v>4</v>
+      </c>
+      <c r="H19" s="47">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4">
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47">
         <v>3</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4">
+      <c r="L19" s="47"/>
+      <c r="M19" s="47">
         <v>6.080101</v>
       </c>
-      <c r="N19" s="27" t="s">
+      <c r="N19" s="168" t="s">
         <v>207</v>
       </c>
-      <c r="O19" s="27">
-        <v>6</v>
-      </c>
-      <c r="P19" s="27">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="25"/>
+      <c r="O19" s="168">
+        <v>6</v>
+      </c>
+      <c r="P19" s="168">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="176"/>
     </row>
     <row r="20" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="4">
-        <v>6</v>
-      </c>
-      <c r="D20" s="4">
-        <v>4</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
-        <v>4</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="C20" s="47">
+        <v>6</v>
+      </c>
+      <c r="D20" s="47">
+        <v>4</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47">
+        <v>4</v>
+      </c>
+      <c r="H20" s="47">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4">
-        <v>2</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4">
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47">
+        <v>2</v>
+      </c>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47">
         <v>6.080101</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="O20" s="4">
-        <v>8</v>
-      </c>
-      <c r="P20" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="25"/>
+      <c r="O20" s="47">
+        <v>8</v>
+      </c>
+      <c r="P20" s="47">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="176"/>
     </row>
     <row r="21" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="4">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4">
-        <v>2</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="C21" s="47">
+        <v>6</v>
+      </c>
+      <c r="D21" s="47">
+        <v>2</v>
+      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47">
+        <v>2</v>
+      </c>
+      <c r="H21" s="47">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4">
-        <v>2</v>
-      </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4">
+      <c r="I21" s="47"/>
+      <c r="J21" s="47">
+        <v>2</v>
+      </c>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47">
         <v>6.080101</v>
       </c>
-      <c r="N21" s="27" t="s">
+      <c r="N21" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="O21" s="27">
-        <v>4</v>
-      </c>
-      <c r="P21" s="27">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="25"/>
+      <c r="O21" s="168">
+        <v>4</v>
+      </c>
+      <c r="P21" s="168">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="176"/>
     </row>
     <row r="22" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -8399,88 +8442,88 @@
       <c r="R22" s="25"/>
     </row>
     <row r="23" spans="1:18" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="4">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4">
-        <v>6</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
-        <v>6</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="C23" s="47">
+        <v>6</v>
+      </c>
+      <c r="D23" s="47">
+        <v>6</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47">
+        <v>6</v>
+      </c>
+      <c r="H23" s="47">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4">
-        <v>2</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4">
+      <c r="I23" s="47"/>
+      <c r="J23" s="47">
+        <v>2</v>
+      </c>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47">
         <v>6.090103</v>
       </c>
-      <c r="N23" s="26" t="s">
+      <c r="N23" s="175" t="s">
         <v>240</v>
       </c>
-      <c r="O23" s="26">
-        <v>8</v>
-      </c>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26">
-        <v>4</v>
-      </c>
-      <c r="R23" s="25"/>
-    </row>
-    <row r="24" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="O23" s="175">
+        <v>8</v>
+      </c>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="175">
+        <v>4</v>
+      </c>
+      <c r="R23" s="176"/>
+    </row>
+    <row r="24" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="53">
-        <v>6</v>
-      </c>
-      <c r="D24" s="53">
-        <v>4</v>
-      </c>
-      <c r="E24" s="53">
-        <v>2</v>
-      </c>
-      <c r="F24" s="53">
-        <v>4</v>
-      </c>
-      <c r="G24" s="53">
-        <v>4</v>
-      </c>
-      <c r="H24" s="53">
+      <c r="C24" s="47">
+        <v>6</v>
+      </c>
+      <c r="D24" s="47">
+        <v>4</v>
+      </c>
+      <c r="E24" s="47">
+        <v>2</v>
+      </c>
+      <c r="F24" s="47">
+        <v>4</v>
+      </c>
+      <c r="G24" s="47">
+        <v>4</v>
+      </c>
+      <c r="H24" s="47">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53">
-        <v>4</v>
-      </c>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53">
+      <c r="I24" s="47"/>
+      <c r="J24" s="47">
+        <v>4</v>
+      </c>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47">
         <v>6.090103</v>
       </c>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="71"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="176"/>
     </row>
     <row r="25" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
@@ -8528,45 +8571,45 @@
       <c r="R25" s="25"/>
     </row>
     <row r="26" spans="1:18" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="4">
-        <v>6</v>
-      </c>
-      <c r="D26" s="4">
-        <v>6</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4">
-        <v>6</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="C26" s="47">
+        <v>6</v>
+      </c>
+      <c r="D26" s="47">
+        <v>6</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47">
+        <v>6</v>
+      </c>
+      <c r="H26" s="47">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4">
-        <v>2</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4">
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47">
+        <v>2</v>
+      </c>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47">
         <v>6.090103</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4">
+      <c r="O26" s="47"/>
+      <c r="P26" s="47">
         <v>12</v>
       </c>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="25"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="176"/>
     </row>
     <row r="27" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
@@ -8613,7 +8656,7 @@
       <c r="Q27" s="26">
         <v>4</v>
       </c>
-      <c r="R27" s="65"/>
+      <c r="R27" s="59"/>
     </row>
     <row r="28" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
@@ -8648,15 +8691,15 @@
       <c r="M28" s="4">
         <v>6.090103</v>
       </c>
-      <c r="N28" s="66" t="s">
+      <c r="N28" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="O28" s="66">
-        <v>4</v>
-      </c>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="65"/>
+      <c r="O28" s="60">
+        <v>4</v>
+      </c>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="59"/>
     </row>
     <row r="29" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -8703,7 +8746,7 @@
       </c>
       <c r="R29" s="25"/>
     </row>
-    <row r="30" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>193</v>
       </c>
@@ -8751,51 +8794,51 @@
       <c r="R30" s="25"/>
     </row>
     <row r="31" spans="1:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="4">
-        <v>4</v>
-      </c>
-      <c r="D31" s="4">
-        <v>6</v>
-      </c>
-      <c r="E31" s="4">
-        <v>4</v>
-      </c>
-      <c r="F31" s="4">
-        <v>4</v>
-      </c>
-      <c r="G31" s="4">
-        <v>6</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="C31" s="47">
+        <v>4</v>
+      </c>
+      <c r="D31" s="47">
+        <v>6</v>
+      </c>
+      <c r="E31" s="47">
+        <v>4</v>
+      </c>
+      <c r="F31" s="47">
+        <v>4</v>
+      </c>
+      <c r="G31" s="47">
+        <v>6</v>
+      </c>
+      <c r="H31" s="47">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4">
+      <c r="I31" s="47"/>
+      <c r="J31" s="47">
         <v>3</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4">
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47">
         <v>6.090103</v>
       </c>
-      <c r="N31" s="26" t="s">
+      <c r="N31" s="175" t="s">
         <v>212</v>
       </c>
-      <c r="O31" s="26">
-        <v>8</v>
-      </c>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26">
-        <v>2</v>
-      </c>
-      <c r="R31" s="67"/>
+      <c r="O31" s="175">
+        <v>8</v>
+      </c>
+      <c r="P31" s="175"/>
+      <c r="Q31" s="175">
+        <v>2</v>
+      </c>
+      <c r="R31" s="177"/>
     </row>
     <row r="32" spans="1:18" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
@@ -8830,17 +8873,17 @@
       <c r="M32" s="18">
         <v>6.090103</v>
       </c>
-      <c r="N32" s="68" t="s">
+      <c r="N32" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="O32" s="68">
-        <v>6</v>
-      </c>
-      <c r="P32" s="68">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="70"/>
+      <c r="O32" s="61">
+        <v>6</v>
+      </c>
+      <c r="P32" s="61">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8856,8 +8899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8934,255 +8977,255 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+    <row r="2" spans="1:17" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="120">
-        <v>8</v>
-      </c>
-      <c r="D2" s="120">
+      <c r="C2" s="110">
+        <v>8</v>
+      </c>
+      <c r="D2" s="110">
         <v>16</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120">
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110">
         <v>16</v>
       </c>
-      <c r="H2" s="125">
+      <c r="H2" s="115">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125">
-        <v>2</v>
-      </c>
-      <c r="K2" s="125"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120">
+      <c r="I2" s="115"/>
+      <c r="J2" s="115">
+        <v>2</v>
+      </c>
+      <c r="K2" s="115"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N2" s="137" t="s">
+      <c r="N2" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="O2" s="137">
+      <c r="O2" s="127">
         <v>12</v>
       </c>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="161">
+      <c r="P2" s="127"/>
+      <c r="Q2" s="147">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+    <row r="3" spans="1:17" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="120">
-        <v>8</v>
-      </c>
-      <c r="D3" s="120">
-        <v>8</v>
-      </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120">
-        <v>8</v>
-      </c>
-      <c r="H3" s="120">
+      <c r="C3" s="110">
+        <v>8</v>
+      </c>
+      <c r="D3" s="110">
+        <v>8</v>
+      </c>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110">
+        <v>8</v>
+      </c>
+      <c r="H3" s="110">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120">
-        <v>2</v>
-      </c>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120">
+      <c r="I3" s="110"/>
+      <c r="J3" s="110">
+        <v>2</v>
+      </c>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N3" s="121" t="s">
+      <c r="N3" s="111" t="s">
         <v>210</v>
       </c>
-      <c r="O3" s="121">
+      <c r="O3" s="111">
         <v>12</v>
       </c>
-      <c r="P3" s="121">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="122"/>
-    </row>
-    <row r="4" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="P3" s="111">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="112"/>
+    </row>
+    <row r="4" spans="1:17" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="120">
-        <v>8</v>
-      </c>
-      <c r="D4" s="120">
-        <v>6</v>
-      </c>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120">
-        <v>6</v>
-      </c>
-      <c r="H4" s="120">
+      <c r="C4" s="110">
+        <v>8</v>
+      </c>
+      <c r="D4" s="110">
+        <v>6</v>
+      </c>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110">
+        <v>6</v>
+      </c>
+      <c r="H4" s="110">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120">
-        <v>2</v>
-      </c>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120">
+      <c r="I4" s="110"/>
+      <c r="J4" s="110">
+        <v>2</v>
+      </c>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N4" s="121" t="s">
+      <c r="N4" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="O4" s="121">
+      <c r="O4" s="111">
         <v>10</v>
       </c>
-      <c r="P4" s="120">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="122"/>
-    </row>
-    <row r="5" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
+      <c r="P4" s="110">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="112"/>
+    </row>
+    <row r="5" spans="1:17" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="120">
-        <v>6</v>
-      </c>
-      <c r="D5" s="120">
-        <v>4</v>
-      </c>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120">
-        <v>4</v>
-      </c>
-      <c r="H5" s="120">
+      <c r="C5" s="110">
+        <v>6</v>
+      </c>
+      <c r="D5" s="110">
+        <v>4</v>
+      </c>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110">
+        <v>4</v>
+      </c>
+      <c r="H5" s="110">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120">
-        <v>2</v>
-      </c>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120">
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110">
+        <v>2</v>
+      </c>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="121" t="s">
+      <c r="N5" s="111" t="s">
         <v>217</v>
       </c>
-      <c r="O5" s="121">
-        <v>6</v>
-      </c>
-      <c r="P5" s="120">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="122"/>
-    </row>
-    <row r="6" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="132" t="s">
+      <c r="O5" s="111">
+        <v>6</v>
+      </c>
+      <c r="P5" s="110">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="112"/>
+    </row>
+    <row r="6" spans="1:17" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="122" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="132">
-        <v>6</v>
-      </c>
-      <c r="D6" s="132">
-        <v>4</v>
-      </c>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132">
-        <v>4</v>
-      </c>
-      <c r="H6" s="132">
+      <c r="C6" s="122">
+        <v>6</v>
+      </c>
+      <c r="D6" s="122">
+        <v>4</v>
+      </c>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122">
+        <v>4</v>
+      </c>
+      <c r="H6" s="122">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132">
-        <v>2</v>
-      </c>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132">
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122">
+        <v>2</v>
+      </c>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="162" t="s">
+      <c r="N6" s="148" t="s">
         <v>201</v>
       </c>
-      <c r="O6" s="162">
-        <v>8</v>
-      </c>
-      <c r="P6" s="162">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="162"/>
-    </row>
-    <row r="7" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="O6" s="148">
+        <v>8</v>
+      </c>
+      <c r="P6" s="148">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="148"/>
+    </row>
+    <row r="7" spans="1:17" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="120">
-        <v>6</v>
-      </c>
-      <c r="D7" s="120">
-        <v>8</v>
-      </c>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120">
-        <v>8</v>
-      </c>
-      <c r="H7" s="120">
+      <c r="C7" s="110">
+        <v>6</v>
+      </c>
+      <c r="D7" s="110">
+        <v>8</v>
+      </c>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110">
+        <v>8</v>
+      </c>
+      <c r="H7" s="110">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120">
-        <v>2</v>
-      </c>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120">
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110">
+        <v>2</v>
+      </c>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="121" t="s">
+      <c r="N7" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="O7" s="121">
-        <v>6</v>
-      </c>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="122">
+      <c r="O7" s="111">
+        <v>6</v>
+      </c>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="112">
         <v>16</v>
       </c>
     </row>
@@ -9309,48 +9352,48 @@
       <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77">
-        <v>6</v>
-      </c>
-      <c r="E11" s="77">
-        <v>6</v>
-      </c>
-      <c r="F11" s="77">
-        <v>2</v>
-      </c>
-      <c r="G11" s="77">
-        <v>6</v>
-      </c>
-      <c r="H11" s="77">
+      <c r="C11" s="68"/>
+      <c r="D11" s="68">
+        <v>6</v>
+      </c>
+      <c r="E11" s="68">
+        <v>6</v>
+      </c>
+      <c r="F11" s="68">
+        <v>2</v>
+      </c>
+      <c r="G11" s="68">
+        <v>6</v>
+      </c>
+      <c r="H11" s="68">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I11" s="77">
-        <v>4</v>
-      </c>
-      <c r="J11" s="77">
-        <v>4</v>
-      </c>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77">
+      <c r="I11" s="68">
+        <v>4</v>
+      </c>
+      <c r="J11" s="68">
+        <v>4</v>
+      </c>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N11" s="78" t="s">
+      <c r="N11" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="O11" s="78">
-        <v>6</v>
-      </c>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="80"/>
+      <c r="O11" s="69">
+        <v>6</v>
+      </c>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="71"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -9429,7 +9472,7 @@
       <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="72" t="s">
         <v>194</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -9466,49 +9509,49 @@
         <v>12</v>
       </c>
       <c r="P14" s="15"/>
-      <c r="Q14" s="73">
+      <c r="Q14" s="64">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="164" t="s">
+    <row r="15" spans="1:17" s="117" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="150" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165">
-        <v>4</v>
-      </c>
-      <c r="F15" s="165">
-        <v>8</v>
-      </c>
-      <c r="G15" s="165">
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151">
+        <v>4</v>
+      </c>
+      <c r="F15" s="151">
+        <v>8</v>
+      </c>
+      <c r="G15" s="151">
         <v>0</v>
       </c>
-      <c r="H15" s="165">
+      <c r="H15" s="151">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165">
-        <v>4</v>
-      </c>
-      <c r="K15" s="165"/>
-      <c r="L15" s="165"/>
-      <c r="M15" s="165">
+      <c r="I15" s="151"/>
+      <c r="J15" s="151">
+        <v>4</v>
+      </c>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N15" s="165" t="s">
+      <c r="N15" s="151" t="s">
         <v>246</v>
       </c>
-      <c r="O15" s="137">
-        <v>8</v>
-      </c>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="161">
+      <c r="O15" s="127">
+        <v>8</v>
+      </c>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="147">
         <v>8</v>
       </c>
     </row>
@@ -9557,48 +9600,48 @@
       <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="83">
-        <v>4</v>
-      </c>
-      <c r="D17" s="83">
-        <v>4</v>
-      </c>
-      <c r="E17" s="83">
-        <v>6</v>
-      </c>
-      <c r="F17" s="83">
-        <v>6</v>
-      </c>
-      <c r="G17" s="83">
-        <v>4</v>
-      </c>
-      <c r="H17" s="83">
+      <c r="C17" s="74">
+        <v>4</v>
+      </c>
+      <c r="D17" s="74">
+        <v>4</v>
+      </c>
+      <c r="E17" s="74">
+        <v>6</v>
+      </c>
+      <c r="F17" s="74">
+        <v>6</v>
+      </c>
+      <c r="G17" s="74">
+        <v>4</v>
+      </c>
+      <c r="H17" s="74">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83">
-        <v>4</v>
-      </c>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83">
+      <c r="I17" s="74"/>
+      <c r="J17" s="74">
+        <v>4</v>
+      </c>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74">
         <v>6.080101</v>
       </c>
-      <c r="N17" s="82" t="s">
+      <c r="N17" s="73" t="s">
         <v>334</v>
       </c>
-      <c r="O17" s="82">
-        <v>8</v>
-      </c>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82">
+      <c r="O17" s="73">
+        <v>8</v>
+      </c>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73">
         <v>0</v>
       </c>
     </row>
@@ -9689,42 +9732,42 @@
       <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
-        <v>8</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="C20" s="47"/>
+      <c r="D20" s="47">
+        <v>8</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47">
+        <v>8</v>
+      </c>
+      <c r="H20" s="47">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4">
-        <v>2</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4">
+      <c r="I20" s="47"/>
+      <c r="J20" s="47">
+        <v>2</v>
+      </c>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47">
         <v>6.080101</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="158" t="s">
         <v>219</v>
       </c>
-      <c r="O20" s="3">
-        <v>8</v>
-      </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="12"/>
+      <c r="O20" s="158">
+        <v>8</v>
+      </c>
+      <c r="P20" s="158"/>
+      <c r="Q20" s="159"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -9765,46 +9808,46 @@
       <c r="Q21" s="12"/>
     </row>
     <row r="22" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="4">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4">
-        <v>2</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="C22" s="47">
+        <v>8</v>
+      </c>
+      <c r="D22" s="47">
+        <v>2</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47">
+        <v>2</v>
+      </c>
+      <c r="H22" s="47">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4">
-        <v>2</v>
-      </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4">
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47">
+        <v>2</v>
+      </c>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47">
         <v>6.080101</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="N22" s="165" t="s">
         <v>248</v>
       </c>
-      <c r="O22" s="10">
-        <v>8</v>
-      </c>
-      <c r="P22" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="12"/>
+      <c r="O22" s="165">
+        <v>8</v>
+      </c>
+      <c r="P22" s="165">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="159"/>
     </row>
     <row r="23" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -9890,7 +9933,7 @@
         <v>8</v>
       </c>
       <c r="P24" s="10"/>
-      <c r="Q24" s="75">
+      <c r="Q24" s="66">
         <v>0</v>
       </c>
     </row>
@@ -9937,46 +9980,46 @@
       <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="4">
-        <v>4</v>
-      </c>
-      <c r="D26" s="4">
-        <v>6</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4">
-        <v>6</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="C26" s="47">
+        <v>4</v>
+      </c>
+      <c r="D26" s="47">
+        <v>6</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47">
+        <v>6</v>
+      </c>
+      <c r="H26" s="47">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4">
-        <v>2</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4">
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47">
+        <v>2</v>
+      </c>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47">
         <v>6.080101</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="158" t="s">
         <v>216</v>
       </c>
-      <c r="O26" s="3">
-        <v>8</v>
-      </c>
-      <c r="P26" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="12"/>
+      <c r="O26" s="158">
+        <v>8</v>
+      </c>
+      <c r="P26" s="158">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="159"/>
     </row>
     <row r="27" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
@@ -10021,44 +10064,44 @@
       </c>
     </row>
     <row r="28" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="4">
-        <v>4</v>
-      </c>
-      <c r="D28" s="4">
-        <v>6</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4">
-        <v>6</v>
-      </c>
-      <c r="H28" s="4">
+      <c r="C28" s="47">
+        <v>4</v>
+      </c>
+      <c r="D28" s="47">
+        <v>6</v>
+      </c>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47">
+        <v>6</v>
+      </c>
+      <c r="H28" s="47">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4">
-        <v>2</v>
-      </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4">
+      <c r="I28" s="47"/>
+      <c r="J28" s="47">
+        <v>2</v>
+      </c>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47">
         <v>6.080101</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N28" s="158" t="s">
         <v>242</v>
       </c>
-      <c r="O28" s="3">
-        <v>6</v>
-      </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="12">
+      <c r="O28" s="158">
+        <v>6</v>
+      </c>
+      <c r="P28" s="158"/>
+      <c r="Q28" s="159">
         <v>4</v>
       </c>
     </row>
@@ -10100,7 +10143,7 @@
         <v>8</v>
       </c>
       <c r="P29" s="15"/>
-      <c r="Q29" s="73"/>
+      <c r="Q29" s="64"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
@@ -10144,47 +10187,47 @@
         <v>6</v>
       </c>
       <c r="P30" s="10"/>
-      <c r="Q30" s="75">
+      <c r="Q30" s="66">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="127" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="119" t="s">
+    <row r="31" spans="1:17" s="117" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="120" t="s">
+      <c r="B31" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="120">
-        <v>6</v>
-      </c>
-      <c r="D31" s="120">
-        <v>2</v>
-      </c>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120">
-        <v>2</v>
-      </c>
-      <c r="H31" s="120">
+      <c r="C31" s="110">
+        <v>6</v>
+      </c>
+      <c r="D31" s="110">
+        <v>2</v>
+      </c>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110">
+        <v>2</v>
+      </c>
+      <c r="H31" s="110">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I31" s="120"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="120">
-        <v>2</v>
-      </c>
-      <c r="L31" s="120" t="s">
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110">
+        <v>2</v>
+      </c>
+      <c r="L31" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="M31" s="120"/>
-      <c r="N31" s="121" t="s">
+      <c r="M31" s="110"/>
+      <c r="N31" s="111" t="s">
         <v>280</v>
       </c>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="122"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="112"/>
     </row>
     <row r="32" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
@@ -10274,45 +10317,45 @@
       <c r="P33" s="10">
         <v>0</v>
       </c>
-      <c r="Q33" s="75"/>
-    </row>
-    <row r="34" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="119" t="s">
+      <c r="Q33" s="66"/>
+    </row>
+    <row r="34" spans="1:17" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="120" t="s">
+      <c r="B34" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="120">
-        <v>6</v>
-      </c>
-      <c r="D34" s="120">
-        <v>2</v>
-      </c>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120">
-        <v>2</v>
-      </c>
-      <c r="H34" s="120">
+      <c r="C34" s="110">
+        <v>6</v>
+      </c>
+      <c r="D34" s="110">
+        <v>2</v>
+      </c>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110">
+        <v>2</v>
+      </c>
+      <c r="H34" s="110">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I34" s="120"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="120">
-        <v>2</v>
-      </c>
-      <c r="L34" s="120"/>
-      <c r="M34" s="120">
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110">
+        <v>2</v>
+      </c>
+      <c r="L34" s="110"/>
+      <c r="M34" s="110">
         <v>6.090103</v>
       </c>
-      <c r="N34" s="127" t="s">
+      <c r="N34" s="117" t="s">
         <v>282</v>
       </c>
-      <c r="O34" s="121"/>
-      <c r="P34" s="121"/>
-      <c r="Q34" s="122"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="112"/>
     </row>
     <row r="35" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
@@ -10402,91 +10445,91 @@
         <v>6</v>
       </c>
       <c r="P36" s="10"/>
-      <c r="Q36" s="75">
+      <c r="Q36" s="66">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="4">
-        <v>4</v>
-      </c>
-      <c r="D37" s="4">
-        <v>6</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4">
-        <v>6</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="C37" s="47">
+        <v>4</v>
+      </c>
+      <c r="D37" s="47">
+        <v>6</v>
+      </c>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47">
+        <v>6</v>
+      </c>
+      <c r="H37" s="47">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4">
-        <v>2</v>
-      </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4">
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47">
+        <v>2</v>
+      </c>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47">
         <v>6.090103</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N37" s="158" t="s">
         <v>207</v>
       </c>
-      <c r="O37" s="3">
-        <v>4</v>
-      </c>
-      <c r="P37" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q37" s="12"/>
-    </row>
-    <row r="38" spans="1:17" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="151" t="s">
+      <c r="O37" s="158">
+        <v>4</v>
+      </c>
+      <c r="P37" s="158">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="159"/>
+    </row>
+    <row r="38" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="143" t="s">
+      <c r="B38" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="143">
-        <v>4</v>
-      </c>
-      <c r="D38" s="143">
-        <v>4</v>
-      </c>
-      <c r="E38" s="143">
-        <v>2</v>
-      </c>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143">
-        <v>4</v>
-      </c>
-      <c r="H38" s="143">
+      <c r="C38" s="47">
+        <v>4</v>
+      </c>
+      <c r="D38" s="47">
+        <v>4</v>
+      </c>
+      <c r="E38" s="47">
+        <v>2</v>
+      </c>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47">
+        <v>4</v>
+      </c>
+      <c r="H38" s="47">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I38" s="143"/>
-      <c r="J38" s="143"/>
-      <c r="K38" s="143">
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47">
         <v>3</v>
       </c>
-      <c r="L38" s="143"/>
-      <c r="M38" s="143">
+      <c r="L38" s="47"/>
+      <c r="M38" s="47">
         <v>6.090103</v>
       </c>
-      <c r="N38" s="144" t="s">
+      <c r="N38" s="158" t="s">
         <v>283</v>
       </c>
-      <c r="O38" s="144"/>
-      <c r="P38" s="144"/>
-      <c r="Q38" s="145"/>
+      <c r="O38" s="158"/>
+      <c r="P38" s="158"/>
+      <c r="Q38" s="159"/>
     </row>
     <row r="39" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -10533,82 +10576,82 @@
       <c r="Q39" s="12"/>
     </row>
     <row r="40" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="85" t="s">
+      <c r="B40" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="85">
-        <v>4</v>
-      </c>
-      <c r="D40" s="85">
-        <v>6</v>
-      </c>
-      <c r="E40" s="85" t="s">
+      <c r="C40" s="76">
+        <v>4</v>
+      </c>
+      <c r="D40" s="76">
+        <v>6</v>
+      </c>
+      <c r="E40" s="76" t="s">
         <v>336</v>
       </c>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85">
-        <v>4</v>
-      </c>
-      <c r="H40" s="85" t="e">
+      <c r="F40" s="76"/>
+      <c r="G40" s="76">
+        <v>4</v>
+      </c>
+      <c r="H40" s="76" t="e">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85">
+      <c r="I40" s="76"/>
+      <c r="J40" s="76">
         <v>3</v>
       </c>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85">
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76">
         <v>6.090103</v>
       </c>
-      <c r="N40" s="86" t="s">
+      <c r="N40" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="88"/>
-    </row>
-    <row r="41" spans="1:17" s="127" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="119" t="s">
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="79"/>
+    </row>
+    <row r="41" spans="1:17" s="117" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="120" t="s">
+      <c r="B41" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120">
-        <v>4</v>
-      </c>
-      <c r="E41" s="120">
-        <v>4</v>
-      </c>
-      <c r="F41" s="120"/>
-      <c r="G41" s="120">
-        <v>4</v>
-      </c>
-      <c r="H41" s="120">
+      <c r="C41" s="110"/>
+      <c r="D41" s="110">
+        <v>4</v>
+      </c>
+      <c r="E41" s="110">
+        <v>4</v>
+      </c>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110">
+        <v>4</v>
+      </c>
+      <c r="H41" s="110">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I41" s="120"/>
-      <c r="J41" s="120">
+      <c r="I41" s="110"/>
+      <c r="J41" s="110">
         <v>3</v>
       </c>
-      <c r="K41" s="120"/>
-      <c r="L41" s="120" t="s">
+      <c r="K41" s="110"/>
+      <c r="L41" s="110" t="s">
         <v>199</v>
       </c>
-      <c r="M41" s="120"/>
-      <c r="N41" s="121" t="s">
+      <c r="M41" s="110"/>
+      <c r="N41" s="111" t="s">
         <v>281</v>
       </c>
-      <c r="O41" s="121"/>
-      <c r="P41" s="121"/>
-      <c r="Q41" s="122"/>
+      <c r="O41" s="111"/>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="112"/>
     </row>
     <row r="42" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -10742,7 +10785,7 @@
         <v>12</v>
       </c>
       <c r="P44" s="17"/>
-      <c r="Q44" s="58"/>
+      <c r="Q44" s="54"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -10927,8 +10970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11005,213 +11048,213 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:17" s="170" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="157" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="47">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="D2" s="47">
+        <v>6</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47">
+        <v>6</v>
+      </c>
+      <c r="H2" s="47">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4">
-        <v>2</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
+        <v>2</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="158" t="s">
         <v>223</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="158">
         <v>12</v>
       </c>
-      <c r="P2" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="12"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="P2" s="158">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="159"/>
+    </row>
+    <row r="3" spans="1:17" s="170" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="157" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="4">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
-        <v>6</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="C3" s="47">
+        <v>8</v>
+      </c>
+      <c r="D3" s="47">
+        <v>6</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47">
+        <v>6</v>
+      </c>
+      <c r="H3" s="47">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4">
-        <v>2</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47">
+        <v>2</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="158" t="s">
         <v>215</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="158">
         <v>10</v>
       </c>
-      <c r="P3" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="12"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="P3" s="158">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="159"/>
+    </row>
+    <row r="4" spans="1:17" s="170" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="157" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="4">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="C4" s="47">
+        <v>8</v>
+      </c>
+      <c r="D4" s="47">
+        <v>2</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47">
+        <v>2</v>
+      </c>
+      <c r="H4" s="47">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
+      <c r="I4" s="47"/>
+      <c r="J4" s="47">
+        <v>2</v>
+      </c>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="158" t="s">
         <v>203</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="158">
         <v>10</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="P4" s="158"/>
+      <c r="Q4" s="159"/>
+    </row>
+    <row r="5" spans="1:17" s="170" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="157" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="47">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="D5" s="47">
+        <v>4</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47">
+        <v>4</v>
+      </c>
+      <c r="H5" s="47">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4">
-        <v>2</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4">
+      <c r="I5" s="47"/>
+      <c r="J5" s="47">
+        <v>2</v>
+      </c>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="165" t="s">
         <v>216</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="165">
         <v>10</v>
       </c>
-      <c r="P5" s="26">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="12"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="P5" s="175">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="159"/>
+    </row>
+    <row r="6" spans="1:17" s="170" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="157" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="4">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
-        <v>2</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="C6" s="47">
+        <v>8</v>
+      </c>
+      <c r="D6" s="47">
+        <v>2</v>
+      </c>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47">
+        <v>2</v>
+      </c>
+      <c r="H6" s="47">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
-        <v>2</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47">
+        <v>2</v>
+      </c>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="158" t="s">
         <v>254</v>
       </c>
-      <c r="O6" s="3">
-        <v>8</v>
-      </c>
-      <c r="P6" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="12"/>
+      <c r="O6" s="158">
+        <v>8</v>
+      </c>
+      <c r="P6" s="47">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="159"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -11259,86 +11302,86 @@
       </c>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="164" t="s">
+    <row r="8" spans="1:17" s="149" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="150" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="165" t="s">
+      <c r="B8" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165">
-        <v>6</v>
-      </c>
-      <c r="E8" s="165">
-        <v>4</v>
-      </c>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165">
-        <v>6</v>
-      </c>
-      <c r="H8" s="165">
+      <c r="C8" s="151"/>
+      <c r="D8" s="151">
+        <v>6</v>
+      </c>
+      <c r="E8" s="151">
+        <v>4</v>
+      </c>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151">
+        <v>6</v>
+      </c>
+      <c r="H8" s="151">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I8" s="165"/>
-      <c r="J8" s="165">
+      <c r="I8" s="151"/>
+      <c r="J8" s="151">
         <v>3</v>
       </c>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165">
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N8" s="137" t="s">
+      <c r="N8" s="127" t="s">
         <v>340</v>
       </c>
-      <c r="O8" s="137"/>
-      <c r="P8" s="137"/>
-      <c r="Q8" s="161"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="147"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77">
-        <v>6</v>
-      </c>
-      <c r="F9" s="77">
-        <v>6</v>
-      </c>
-      <c r="G9" s="77">
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68">
+        <v>6</v>
+      </c>
+      <c r="F9" s="68">
+        <v>6</v>
+      </c>
+      <c r="G9" s="68">
         <v>0</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="68">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77">
+      <c r="I9" s="68"/>
+      <c r="J9" s="68">
         <v>3</v>
       </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77">
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N9" s="78" t="s">
+      <c r="N9" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="O9" s="78">
-        <v>6</v>
-      </c>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="80"/>
+      <c r="O9" s="69">
+        <v>6</v>
+      </c>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="71"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="55" t="s">
         <v>194</v>
       </c>
       <c r="B10" s="53" t="s">
@@ -11368,54 +11411,54 @@
       <c r="M10" s="53">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N10" s="89" t="s">
+      <c r="N10" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="O10" s="89">
+      <c r="O10" s="80">
         <v>10</v>
       </c>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="62"/>
-    </row>
-    <row r="11" spans="1:17" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="119" t="s">
+      <c r="P10" s="56"/>
+      <c r="Q10" s="57"/>
+    </row>
+    <row r="11" spans="1:17" s="149" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120">
-        <v>6</v>
-      </c>
-      <c r="E11" s="120">
-        <v>6</v>
-      </c>
-      <c r="F11" s="120">
-        <v>2</v>
-      </c>
-      <c r="G11" s="120">
-        <v>6</v>
-      </c>
-      <c r="H11" s="120">
+      <c r="C11" s="110"/>
+      <c r="D11" s="110">
+        <v>6</v>
+      </c>
+      <c r="E11" s="110">
+        <v>6</v>
+      </c>
+      <c r="F11" s="110">
+        <v>2</v>
+      </c>
+      <c r="G11" s="110">
+        <v>6</v>
+      </c>
+      <c r="H11" s="110">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120">
-        <v>4</v>
-      </c>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120">
+      <c r="I11" s="110"/>
+      <c r="J11" s="110">
+        <v>4</v>
+      </c>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N11" s="121" t="s">
+      <c r="N11" s="111" t="s">
         <v>284</v>
       </c>
-      <c r="O11" s="121"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="122"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="112"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -11617,7 +11660,7 @@
         <v>12</v>
       </c>
       <c r="P16" s="10"/>
-      <c r="Q16" s="75">
+      <c r="Q16" s="66">
         <v>2</v>
       </c>
     </row>
@@ -11659,45 +11702,45 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:18" s="152" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="151" t="s">
+    <row r="18" spans="1:18" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="143">
-        <v>4</v>
-      </c>
-      <c r="D18" s="143">
-        <v>4</v>
-      </c>
-      <c r="E18" s="143">
-        <v>2</v>
-      </c>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143">
-        <v>4</v>
-      </c>
-      <c r="H18" s="143">
+      <c r="C18" s="133">
+        <v>4</v>
+      </c>
+      <c r="D18" s="133">
+        <v>4</v>
+      </c>
+      <c r="E18" s="133">
+        <v>2</v>
+      </c>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133">
+        <v>4</v>
+      </c>
+      <c r="H18" s="133">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143">
+      <c r="I18" s="133"/>
+      <c r="J18" s="133">
         <v>3</v>
       </c>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="143">
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133">
         <v>6.080101</v>
       </c>
-      <c r="N18" s="144" t="s">
+      <c r="N18" s="134" t="s">
         <v>285</v>
       </c>
-      <c r="O18" s="144"/>
-      <c r="P18" s="144"/>
-      <c r="Q18" s="145"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="135"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -11739,7 +11782,7 @@
         <v>8</v>
       </c>
       <c r="P19" s="10"/>
-      <c r="Q19" s="75">
+      <c r="Q19" s="66">
         <v>0</v>
       </c>
     </row>
@@ -11823,167 +11866,167 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:18" s="170" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="4">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4">
-        <v>2</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="C22" s="47">
+        <v>8</v>
+      </c>
+      <c r="D22" s="47">
+        <v>2</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47">
+        <v>2</v>
+      </c>
+      <c r="H22" s="47">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4">
-        <v>2</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4">
+      <c r="I22" s="47"/>
+      <c r="J22" s="47">
+        <v>2</v>
+      </c>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47">
         <v>6.080101</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="N22" s="165" t="s">
         <v>272</v>
       </c>
-      <c r="O22" s="3">
-        <v>8</v>
-      </c>
-      <c r="P22" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="12"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="O22" s="158">
+        <v>8</v>
+      </c>
+      <c r="P22" s="47">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="159"/>
+    </row>
+    <row r="23" spans="1:18" s="170" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="4">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4">
-        <v>4</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
-        <v>4</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="C23" s="47">
+        <v>6</v>
+      </c>
+      <c r="D23" s="47">
+        <v>4</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47">
+        <v>4</v>
+      </c>
+      <c r="H23" s="47">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4">
-        <v>2</v>
-      </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4">
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47">
+        <v>2</v>
+      </c>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47">
         <v>6.080101</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" s="165" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="10">
-        <v>8</v>
-      </c>
-      <c r="P23" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="12"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="O23" s="165">
+        <v>8</v>
+      </c>
+      <c r="P23" s="165">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="159"/>
+    </row>
+    <row r="24" spans="1:18" s="170" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="4">
-        <v>6</v>
-      </c>
-      <c r="D24" s="4">
-        <v>4</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4">
-        <v>4</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="C24" s="47">
+        <v>6</v>
+      </c>
+      <c r="D24" s="47">
+        <v>4</v>
+      </c>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47">
+        <v>4</v>
+      </c>
+      <c r="H24" s="47">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4">
-        <v>2</v>
-      </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4">
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47">
+        <v>2</v>
+      </c>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47">
         <v>6.080101</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="158" t="s">
         <v>216</v>
       </c>
-      <c r="O24" s="3">
-        <v>8</v>
-      </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="12">
+      <c r="O24" s="158">
+        <v>8</v>
+      </c>
+      <c r="P24" s="158"/>
+      <c r="Q24" s="159">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91">
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82">
         <v>10</v>
       </c>
-      <c r="G25" s="91">
+      <c r="G25" s="82">
         <v>0</v>
       </c>
-      <c r="H25" s="91">
+      <c r="H25" s="82">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91">
-        <v>4</v>
-      </c>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91">
+      <c r="I25" s="82"/>
+      <c r="J25" s="82">
+        <v>4</v>
+      </c>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82">
         <v>6.080101</v>
       </c>
-      <c r="N25" s="92" t="s">
+      <c r="N25" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="93"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="84"/>
       <c r="R25" s="29"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -12028,7 +12071,7 @@
       <c r="P26" s="10">
         <v>8</v>
       </c>
-      <c r="Q26" s="75">
+      <c r="Q26" s="66">
         <v>2</v>
       </c>
     </row>
@@ -12070,157 +12113,157 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="12"/>
     </row>
-    <row r="28" spans="1:18" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="119" t="s">
+    <row r="28" spans="1:18" s="149" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120">
-        <v>6</v>
-      </c>
-      <c r="E28" s="120">
-        <v>6</v>
-      </c>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120">
-        <v>6</v>
-      </c>
-      <c r="H28" s="120">
+      <c r="C28" s="110"/>
+      <c r="D28" s="110">
+        <v>6</v>
+      </c>
+      <c r="E28" s="110">
+        <v>6</v>
+      </c>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110">
+        <v>6</v>
+      </c>
+      <c r="H28" s="110">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120">
+      <c r="I28" s="110"/>
+      <c r="J28" s="110">
         <v>3</v>
       </c>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="120">
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110">
         <v>6.080101</v>
       </c>
-      <c r="N28" s="136" t="s">
+      <c r="N28" s="126" t="s">
         <v>274</v>
       </c>
-      <c r="O28" s="136">
-        <v>6</v>
-      </c>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="122"/>
-    </row>
-    <row r="29" spans="1:18" s="152" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="151" t="s">
+      <c r="O28" s="126">
+        <v>6</v>
+      </c>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="112"/>
+    </row>
+    <row r="29" spans="1:18" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="143" t="s">
+      <c r="B29" s="133" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="143"/>
-      <c r="D29" s="143">
-        <v>4</v>
-      </c>
-      <c r="E29" s="143">
-        <v>4</v>
-      </c>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143">
-        <v>4</v>
-      </c>
-      <c r="H29" s="143">
+      <c r="C29" s="133"/>
+      <c r="D29" s="133">
+        <v>4</v>
+      </c>
+      <c r="E29" s="133">
+        <v>4</v>
+      </c>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133">
+        <v>4</v>
+      </c>
+      <c r="H29" s="133">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I29" s="143"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="143">
+      <c r="I29" s="133"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="133">
         <v>3</v>
       </c>
-      <c r="L29" s="143"/>
-      <c r="M29" s="143">
+      <c r="L29" s="133"/>
+      <c r="M29" s="133">
         <v>6.080101</v>
       </c>
-      <c r="N29" s="144" t="s">
+      <c r="N29" s="134" t="s">
         <v>330</v>
       </c>
-      <c r="O29" s="144"/>
-      <c r="P29" s="144"/>
-      <c r="Q29" s="145"/>
-    </row>
-    <row r="30" spans="1:18" s="163" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="119" t="s">
+      <c r="O29" s="134"/>
+      <c r="P29" s="134"/>
+      <c r="Q29" s="135"/>
+    </row>
+    <row r="30" spans="1:18" s="149" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="120" t="s">
+      <c r="B30" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120">
-        <v>4</v>
-      </c>
-      <c r="E30" s="120">
-        <v>4</v>
-      </c>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120">
-        <v>4</v>
-      </c>
-      <c r="H30" s="120">
+      <c r="C30" s="110"/>
+      <c r="D30" s="110">
+        <v>4</v>
+      </c>
+      <c r="E30" s="110">
+        <v>4</v>
+      </c>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110">
+        <v>4</v>
+      </c>
+      <c r="H30" s="110">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120">
+      <c r="I30" s="110"/>
+      <c r="J30" s="110">
         <v>3</v>
       </c>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120" t="s">
+      <c r="K30" s="110"/>
+      <c r="L30" s="110" t="s">
         <v>199</v>
       </c>
-      <c r="M30" s="120"/>
-      <c r="N30" s="121" t="s">
+      <c r="M30" s="110"/>
+      <c r="N30" s="111" t="s">
         <v>281</v>
       </c>
-      <c r="O30" s="121"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="122"/>
-    </row>
-    <row r="31" spans="1:18" s="163" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="119" t="s">
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="112"/>
+    </row>
+    <row r="31" spans="1:18" s="149" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="120" t="s">
+      <c r="B31" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="120">
-        <v>4</v>
-      </c>
-      <c r="D31" s="120">
-        <v>4</v>
-      </c>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120">
-        <v>4</v>
-      </c>
-      <c r="H31" s="120">
+      <c r="C31" s="110">
+        <v>4</v>
+      </c>
+      <c r="D31" s="110">
+        <v>4</v>
+      </c>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110">
+        <v>4</v>
+      </c>
+      <c r="H31" s="110">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I31" s="120"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="120">
-        <v>2</v>
-      </c>
-      <c r="L31" s="120"/>
-      <c r="M31" s="120"/>
-      <c r="N31" s="121" t="s">
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110">
+        <v>2</v>
+      </c>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="111" t="s">
         <v>327</v>
       </c>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="122"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="112"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
@@ -12308,7 +12351,7 @@
         <v>10</v>
       </c>
       <c r="P33" s="15"/>
-      <c r="Q33" s="73">
+      <c r="Q33" s="64">
         <v>0</v>
       </c>
     </row>
@@ -12359,7 +12402,7 @@
       <c r="Q34" s="12"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="72" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -12400,7 +12443,7 @@
       <c r="P35" s="15">
         <v>2</v>
       </c>
-      <c r="Q35" s="73"/>
+      <c r="Q35" s="64"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
@@ -12490,48 +12533,48 @@
       </c>
       <c r="Q37" s="12"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="146" t="s">
+    <row r="38" spans="1:17" s="170" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="147" t="s">
+      <c r="B38" s="168" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="147">
-        <v>4</v>
-      </c>
-      <c r="D38" s="147">
-        <v>6</v>
-      </c>
-      <c r="E38" s="147">
-        <v>2</v>
-      </c>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147">
-        <v>6</v>
-      </c>
-      <c r="H38" s="147">
+      <c r="C38" s="168">
+        <v>4</v>
+      </c>
+      <c r="D38" s="168">
+        <v>6</v>
+      </c>
+      <c r="E38" s="168">
+        <v>2</v>
+      </c>
+      <c r="F38" s="168"/>
+      <c r="G38" s="168">
+        <v>6</v>
+      </c>
+      <c r="H38" s="168">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="147">
+      <c r="I38" s="168"/>
+      <c r="J38" s="168"/>
+      <c r="K38" s="168">
         <v>3</v>
       </c>
-      <c r="L38" s="147"/>
-      <c r="M38" s="147">
+      <c r="L38" s="168"/>
+      <c r="M38" s="168">
         <v>6.090103</v>
       </c>
-      <c r="N38" s="148" t="s">
+      <c r="N38" s="164" t="s">
         <v>283</v>
       </c>
-      <c r="O38" s="148"/>
-      <c r="P38" s="148"/>
-      <c r="Q38" s="149"/>
+      <c r="O38" s="164"/>
+      <c r="P38" s="164"/>
+      <c r="Q38" s="169"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="72" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="27" t="s">
@@ -12572,7 +12615,7 @@
       <c r="P39" s="15">
         <v>0</v>
       </c>
-      <c r="Q39" s="73"/>
+      <c r="Q39" s="64"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
@@ -12704,7 +12747,7 @@
       <c r="P42" s="28">
         <v>2</v>
       </c>
-      <c r="Q42" s="58"/>
+      <c r="Q42" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12720,8 +12763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12799,357 +12842,357 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
+    <row r="2" spans="1:17" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="107">
-        <v>4</v>
-      </c>
-      <c r="D2" s="107">
-        <v>4</v>
-      </c>
-      <c r="E2" s="107">
-        <v>2</v>
-      </c>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107">
-        <v>4</v>
-      </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107">
+      <c r="C2" s="97">
+        <v>4</v>
+      </c>
+      <c r="D2" s="97">
+        <v>4</v>
+      </c>
+      <c r="E2" s="97">
+        <v>2</v>
+      </c>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97">
+        <v>4</v>
+      </c>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97">
         <v>3</v>
       </c>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107">
+      <c r="L2" s="97"/>
+      <c r="M2" s="97">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N2" s="108" t="s">
+      <c r="N2" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="O2" s="108">
-        <v>8</v>
-      </c>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="110"/>
-    </row>
-    <row r="3" spans="1:17" s="116" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="O2" s="98">
+        <v>8</v>
+      </c>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="100"/>
+    </row>
+    <row r="3" spans="1:17" s="106" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="113">
-        <v>8</v>
-      </c>
-      <c r="D3" s="113">
-        <v>6</v>
-      </c>
-      <c r="E3" s="113">
-        <v>2</v>
-      </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113">
-        <v>6</v>
-      </c>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113">
+      <c r="C3" s="103">
+        <v>8</v>
+      </c>
+      <c r="D3" s="103">
+        <v>6</v>
+      </c>
+      <c r="E3" s="103">
+        <v>2</v>
+      </c>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103">
+        <v>6</v>
+      </c>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103">
         <v>3</v>
       </c>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113">
+      <c r="J3" s="103"/>
+      <c r="K3" s="103">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113">
+      <c r="L3" s="103"/>
+      <c r="M3" s="103">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N3" s="114" t="s">
+      <c r="N3" s="104" t="s">
         <v>215</v>
       </c>
-      <c r="O3" s="114">
+      <c r="O3" s="104">
         <v>12</v>
       </c>
-      <c r="P3" s="114">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="115"/>
-    </row>
-    <row r="4" spans="1:17" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="P3" s="104">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="105"/>
+    </row>
+    <row r="4" spans="1:17" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="107">
-        <v>6</v>
-      </c>
-      <c r="D4" s="107">
-        <v>8</v>
-      </c>
-      <c r="E4" s="107">
-        <v>2</v>
-      </c>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107">
-        <v>8</v>
-      </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107">
+      <c r="C4" s="97">
+        <v>6</v>
+      </c>
+      <c r="D4" s="97">
+        <v>8</v>
+      </c>
+      <c r="E4" s="97">
+        <v>2</v>
+      </c>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97">
+        <v>8</v>
+      </c>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97">
         <v>3</v>
       </c>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107">
+      <c r="J4" s="97"/>
+      <c r="K4" s="97">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107">
+      <c r="L4" s="97"/>
+      <c r="M4" s="97">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N4" s="108" t="s">
+      <c r="N4" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="O4" s="108">
+      <c r="O4" s="98">
         <v>12</v>
       </c>
-      <c r="P4" s="108">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="117"/>
-    </row>
-    <row r="5" spans="1:17" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="P4" s="98">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="107"/>
+    </row>
+    <row r="5" spans="1:17" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="107">
-        <v>8</v>
-      </c>
-      <c r="D5" s="107">
-        <v>6</v>
-      </c>
-      <c r="E5" s="107">
-        <v>2</v>
-      </c>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107">
-        <v>6</v>
-      </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107">
+      <c r="C5" s="97">
+        <v>8</v>
+      </c>
+      <c r="D5" s="97">
+        <v>6</v>
+      </c>
+      <c r="E5" s="97">
+        <v>2</v>
+      </c>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97">
+        <v>6</v>
+      </c>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97">
         <v>3</v>
       </c>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107">
+      <c r="J5" s="97"/>
+      <c r="K5" s="97">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107">
+      <c r="L5" s="97"/>
+      <c r="M5" s="97">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="108" t="s">
+      <c r="N5" s="98" t="s">
         <v>228</v>
       </c>
-      <c r="O5" s="108">
+      <c r="O5" s="98">
         <v>12</v>
       </c>
-      <c r="P5" s="108">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="117"/>
-    </row>
-    <row r="6" spans="1:17" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="P5" s="98">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="107"/>
+    </row>
+    <row r="6" spans="1:17" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="107">
-        <v>8</v>
-      </c>
-      <c r="D6" s="107">
-        <v>8</v>
-      </c>
-      <c r="E6" s="107">
-        <v>2</v>
-      </c>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107">
-        <v>8</v>
-      </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107">
+      <c r="C6" s="97">
+        <v>8</v>
+      </c>
+      <c r="D6" s="97">
+        <v>8</v>
+      </c>
+      <c r="E6" s="97">
+        <v>2</v>
+      </c>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97">
+        <v>8</v>
+      </c>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97">
         <v>3</v>
       </c>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107">
+      <c r="J6" s="97"/>
+      <c r="K6" s="97">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107">
+      <c r="L6" s="97"/>
+      <c r="M6" s="97">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="108" t="s">
+      <c r="N6" s="98" t="s">
         <v>219</v>
       </c>
-      <c r="O6" s="108">
+      <c r="O6" s="98">
         <v>12</v>
       </c>
-      <c r="P6" s="108">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="117"/>
-    </row>
-    <row r="7" spans="1:17" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106" t="s">
+      <c r="P6" s="98">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="107"/>
+    </row>
+    <row r="7" spans="1:17" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="107">
-        <v>4</v>
-      </c>
-      <c r="D7" s="107">
-        <v>4</v>
-      </c>
-      <c r="E7" s="107">
-        <v>2</v>
-      </c>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107">
-        <v>4</v>
-      </c>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107">
+      <c r="C7" s="97">
+        <v>4</v>
+      </c>
+      <c r="D7" s="97">
+        <v>4</v>
+      </c>
+      <c r="E7" s="97">
+        <v>2</v>
+      </c>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97">
+        <v>4</v>
+      </c>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97">
         <v>3</v>
       </c>
-      <c r="K7" s="107">
+      <c r="K7" s="97">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107">
+      <c r="L7" s="97"/>
+      <c r="M7" s="97">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="108" t="s">
+      <c r="N7" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="O7" s="108">
-        <v>8</v>
-      </c>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="117"/>
-    </row>
-    <row r="8" spans="1:17" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="O7" s="98">
+        <v>8</v>
+      </c>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="107"/>
+    </row>
+    <row r="8" spans="1:17" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="107">
-        <v>4</v>
-      </c>
-      <c r="D8" s="107">
-        <v>4</v>
-      </c>
-      <c r="E8" s="107">
-        <v>2</v>
-      </c>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107">
-        <v>4</v>
-      </c>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107">
+      <c r="C8" s="97">
+        <v>4</v>
+      </c>
+      <c r="D8" s="97">
+        <v>4</v>
+      </c>
+      <c r="E8" s="97">
+        <v>2</v>
+      </c>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97">
+        <v>4</v>
+      </c>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97">
         <v>3</v>
       </c>
-      <c r="K8" s="107">
+      <c r="K8" s="97">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107">
+      <c r="L8" s="97"/>
+      <c r="M8" s="97">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N8" s="108" t="s">
+      <c r="N8" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="O8" s="108">
-        <v>8</v>
-      </c>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="117"/>
-    </row>
-    <row r="9" spans="1:17" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="106" t="s">
+      <c r="O8" s="98">
+        <v>8</v>
+      </c>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="107"/>
+    </row>
+    <row r="9" spans="1:17" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="107">
-        <v>6</v>
-      </c>
-      <c r="D9" s="107">
-        <v>8</v>
-      </c>
-      <c r="E9" s="107">
-        <v>2</v>
-      </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107">
-        <v>8</v>
-      </c>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107">
+      <c r="C9" s="97">
+        <v>6</v>
+      </c>
+      <c r="D9" s="97">
+        <v>8</v>
+      </c>
+      <c r="E9" s="97">
+        <v>2</v>
+      </c>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97">
+        <v>8</v>
+      </c>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97">
         <v>3</v>
       </c>
-      <c r="K9" s="107">
+      <c r="K9" s="97">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107">
+      <c r="L9" s="97"/>
+      <c r="M9" s="97">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N9" s="108" t="s">
+      <c r="N9" s="98" t="s">
         <v>223</v>
       </c>
-      <c r="O9" s="108">
+      <c r="O9" s="98">
         <v>12</v>
       </c>
-      <c r="P9" s="108">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="117"/>
+      <c r="P9" s="98">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="107"/>
     </row>
     <row r="10" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="88" t="s">
         <v>148</v>
       </c>
       <c r="C10" s="27">
@@ -13185,12 +13228,12 @@
         <v>18</v>
       </c>
       <c r="P10" s="15"/>
-      <c r="Q10" s="73">
+      <c r="Q10" s="64">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="72" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -13229,12 +13272,12 @@
         <v>12</v>
       </c>
       <c r="P11" s="15"/>
-      <c r="Q11" s="73">
+      <c r="Q11" s="64">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -13273,7 +13316,7 @@
         <v>16</v>
       </c>
       <c r="P12" s="15"/>
-      <c r="Q12" s="73">
+      <c r="Q12" s="64">
         <v>8</v>
       </c>
     </row>
@@ -13317,43 +13360,43 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:17" s="150" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="151" t="s">
+    <row r="14" spans="1:17" s="136" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="133" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="143">
-        <v>6</v>
-      </c>
-      <c r="D14" s="143">
-        <v>6</v>
-      </c>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143">
-        <v>6</v>
-      </c>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143">
-        <v>2</v>
-      </c>
-      <c r="K14" s="143">
+      <c r="C14" s="133">
+        <v>6</v>
+      </c>
+      <c r="D14" s="133">
+        <v>6</v>
+      </c>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133">
+        <v>6</v>
+      </c>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133">
+        <v>2</v>
+      </c>
+      <c r="K14" s="133">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="L14" s="143"/>
-      <c r="M14" s="143">
+      <c r="L14" s="133"/>
+      <c r="M14" s="133">
         <v>6.080101</v>
       </c>
-      <c r="N14" s="143" t="s">
+      <c r="N14" s="133" t="s">
         <v>276</v>
       </c>
-      <c r="O14" s="144"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="145"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="134"/>
+      <c r="Q14" s="135"/>
     </row>
     <row r="15" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -13440,44 +13483,44 @@
       <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="94">
-        <v>6</v>
-      </c>
-      <c r="D17" s="94">
-        <v>6</v>
-      </c>
-      <c r="E17" s="94">
-        <v>6</v>
-      </c>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94">
-        <v>6</v>
-      </c>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94">
+      <c r="C17" s="85">
+        <v>6</v>
+      </c>
+      <c r="D17" s="85">
+        <v>6</v>
+      </c>
+      <c r="E17" s="85">
+        <v>6</v>
+      </c>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85">
+        <v>6</v>
+      </c>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85">
         <v>3</v>
       </c>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94">
+      <c r="J17" s="85"/>
+      <c r="K17" s="85">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94">
+      <c r="L17" s="85"/>
+      <c r="M17" s="85">
         <v>6.090103</v>
       </c>
-      <c r="N17" s="95" t="s">
+      <c r="N17" s="86" t="s">
         <v>243</v>
       </c>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="74"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="65"/>
     </row>
     <row r="18" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -13607,47 +13650,47 @@
         <v>6</v>
       </c>
       <c r="P20" s="15"/>
-      <c r="Q20" s="73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="151" t="s">
+      <c r="Q20" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="143" t="s">
+      <c r="B21" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="143">
-        <v>6</v>
-      </c>
-      <c r="D21" s="143">
-        <v>6</v>
-      </c>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143">
-        <v>6</v>
-      </c>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143">
-        <v>2</v>
-      </c>
-      <c r="K21" s="143">
+      <c r="C21" s="47">
+        <v>6</v>
+      </c>
+      <c r="D21" s="47">
+        <v>6</v>
+      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47">
+        <v>6</v>
+      </c>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47">
+        <v>2</v>
+      </c>
+      <c r="K21" s="47">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="L21" s="143"/>
-      <c r="M21" s="143">
+      <c r="L21" s="47"/>
+      <c r="M21" s="47">
         <v>6.090103</v>
       </c>
-      <c r="N21" s="144" t="s">
+      <c r="N21" s="158" t="s">
         <v>285</v>
       </c>
-      <c r="O21" s="144"/>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="145"/>
+      <c r="O21" s="158"/>
+      <c r="P21" s="158"/>
+      <c r="Q21" s="159"/>
     </row>
     <row r="22" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -13733,7 +13776,7 @@
         <v>8</v>
       </c>
       <c r="P23" s="10"/>
-      <c r="Q23" s="73"/>
+      <c r="Q23" s="64"/>
     </row>
     <row r="24" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
@@ -13775,43 +13818,43 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="12"/>
     </row>
-    <row r="25" spans="1:17" s="127" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="119" t="s">
+    <row r="25" spans="1:17" s="117" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="120">
-        <v>6</v>
-      </c>
-      <c r="D25" s="120">
-        <v>2</v>
-      </c>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120">
-        <v>2</v>
-      </c>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="120">
-        <v>2</v>
-      </c>
-      <c r="K25" s="120">
+      <c r="C25" s="110">
+        <v>6</v>
+      </c>
+      <c r="D25" s="110">
+        <v>2</v>
+      </c>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110">
+        <v>2</v>
+      </c>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110">
+        <v>2</v>
+      </c>
+      <c r="K25" s="110">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="L25" s="120" t="s">
+      <c r="L25" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="M25" s="120"/>
-      <c r="N25" s="121" t="s">
+      <c r="M25" s="110"/>
+      <c r="N25" s="111" t="s">
         <v>280</v>
       </c>
-      <c r="O25" s="121"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="122"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="112"/>
     </row>
     <row r="26" spans="1:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
@@ -13844,16 +13887,16 @@
       <c r="M26" s="18">
         <v>6.090103</v>
       </c>
-      <c r="N26" s="96" t="s">
+      <c r="N26" s="87" t="s">
         <v>241</v>
       </c>
-      <c r="O26" s="96">
-        <v>4</v>
-      </c>
-      <c r="P26" s="96">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="58"/>
+      <c r="O26" s="87">
+        <v>4</v>
+      </c>
+      <c r="P26" s="87">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13869,8 +13912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13949,204 +13992,204 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="47" t="s">
         <v>156</v>
       </c>
       <c r="C2" s="4">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="47">
         <v>10</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47">
         <v>10</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="47">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4">
-        <v>2</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47">
+        <v>2</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="158" t="s">
         <v>253</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="158">
         <v>16</v>
       </c>
-      <c r="P2" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="38"/>
+      <c r="P2" s="158">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="160"/>
     </row>
     <row r="3" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="47" t="s">
         <v>157</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="47">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47">
         <v>10</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="47">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I3" s="4">
-        <v>2</v>
-      </c>
-      <c r="J3" s="4">
-        <v>2</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="I3" s="47">
+        <v>2</v>
+      </c>
+      <c r="J3" s="47">
+        <v>2</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="158" t="s">
         <v>231</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="158">
         <v>16</v>
       </c>
-      <c r="P3" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="38"/>
-    </row>
-    <row r="4" spans="1:17" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="P3" s="158">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="160"/>
+    </row>
+    <row r="4" spans="1:17" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="110" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4">
         <v>8</v>
       </c>
-      <c r="D4" s="120">
-        <v>2</v>
-      </c>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120">
-        <v>2</v>
-      </c>
-      <c r="H4" s="120">
+      <c r="D4" s="110">
+        <v>2</v>
+      </c>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110">
+        <v>2</v>
+      </c>
+      <c r="H4" s="110">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120">
-        <v>2</v>
-      </c>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110">
+        <v>2</v>
+      </c>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
       <c r="M4" s="47"/>
-      <c r="N4" s="121" t="s">
+      <c r="N4" s="111" t="s">
         <v>286</v>
       </c>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="166"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="152"/>
     </row>
     <row r="5" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="161" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="161" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="64">
-        <v>4</v>
-      </c>
-      <c r="D5" s="64">
-        <v>6</v>
-      </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64">
-        <v>6</v>
-      </c>
-      <c r="H5" s="64">
+      <c r="C5" s="58">
+        <v>4</v>
+      </c>
+      <c r="D5" s="161">
+        <v>6</v>
+      </c>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161">
+        <v>6</v>
+      </c>
+      <c r="H5" s="161">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64">
-        <v>2</v>
-      </c>
-      <c r="L5" s="64"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161">
+        <v>2</v>
+      </c>
+      <c r="L5" s="161"/>
       <c r="M5" s="45">
         <v>7.0140000000000002</v>
       </c>
-      <c r="N5" s="74" t="s">
+      <c r="N5" s="162" t="s">
         <v>210</v>
       </c>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74">
+      <c r="O5" s="162"/>
+      <c r="P5" s="162">
         <v>10</v>
       </c>
-      <c r="Q5" s="98"/>
+      <c r="Q5" s="163"/>
     </row>
     <row r="6" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="47" t="s">
         <v>159</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="D6" s="4">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
-        <v>6</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="D6" s="47">
+        <v>6</v>
+      </c>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47">
+        <v>6</v>
+      </c>
+      <c r="H6" s="47">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
-        <v>2</v>
-      </c>
-      <c r="L6" s="4"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47">
+        <v>2</v>
+      </c>
+      <c r="L6" s="47"/>
       <c r="M6" s="4">
         <v>7.0140000000000002</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="164">
         <v>12</v>
       </c>
-      <c r="P6" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="38"/>
+      <c r="P6" s="164">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="160"/>
     </row>
     <row r="7" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -14342,7 +14385,7 @@
       <c r="P11" s="15">
         <v>8</v>
       </c>
-      <c r="Q11" s="105"/>
+      <c r="Q11" s="95"/>
     </row>
     <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -14489,84 +14532,84 @@
       <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="47" t="s">
         <v>171</v>
       </c>
       <c r="C16" s="4">
         <v>8</v>
       </c>
-      <c r="D16" s="4">
-        <v>4</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
-        <v>4</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="D16" s="47">
+        <v>4</v>
+      </c>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47">
+        <v>4</v>
+      </c>
+      <c r="H16" s="47">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4">
-        <v>2</v>
-      </c>
-      <c r="L16" s="4"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47">
+        <v>2</v>
+      </c>
+      <c r="L16" s="47"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="165" t="s">
         <v>272</v>
       </c>
-      <c r="O16" s="10">
-        <v>8</v>
-      </c>
-      <c r="P16" s="10">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="38"/>
+      <c r="O16" s="165">
+        <v>8</v>
+      </c>
+      <c r="P16" s="165">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="160"/>
     </row>
     <row r="17" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="47" t="s">
         <v>172</v>
       </c>
       <c r="C17" s="4">
         <v>8</v>
       </c>
-      <c r="D17" s="4">
-        <v>4</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4">
-        <v>4</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="D17" s="47">
+        <v>4</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47">
+        <v>4</v>
+      </c>
+      <c r="H17" s="47">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4">
-        <v>2</v>
-      </c>
-      <c r="L17" s="4"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47">
+        <v>2</v>
+      </c>
+      <c r="L17" s="47"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="10" t="s">
+      <c r="N17" s="165" t="s">
         <v>257</v>
       </c>
-      <c r="O17" s="10">
-        <v>8</v>
-      </c>
-      <c r="P17" s="10">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="38"/>
+      <c r="O17" s="165">
+        <v>8</v>
+      </c>
+      <c r="P17" s="165">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="160"/>
     </row>
     <row r="18" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -14609,46 +14652,46 @@
       <c r="Q18" s="38"/>
     </row>
     <row r="19" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="47" t="s">
         <v>173</v>
       </c>
       <c r="C19" s="4">
         <v>8</v>
       </c>
-      <c r="D19" s="4">
-        <v>4</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
-        <v>4</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="D19" s="47">
+        <v>4</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47">
+        <v>4</v>
+      </c>
+      <c r="H19" s="47">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I19" s="4">
-        <v>2</v>
-      </c>
-      <c r="J19" s="4">
-        <v>2</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="I19" s="47">
+        <v>2</v>
+      </c>
+      <c r="J19" s="47">
+        <v>2</v>
+      </c>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="158" t="s">
         <v>229</v>
       </c>
-      <c r="O19" s="3">
-        <v>8</v>
-      </c>
-      <c r="P19" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="38"/>
+      <c r="O19" s="158">
+        <v>8</v>
+      </c>
+      <c r="P19" s="158">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="160"/>
     </row>
     <row r="20" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -14735,44 +14778,44 @@
       <c r="Q21" s="38"/>
     </row>
     <row r="22" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="166" t="s">
         <v>260</v>
       </c>
       <c r="C22" s="4">
         <v>6</v>
       </c>
-      <c r="D22" s="4">
-        <v>6</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4">
-        <v>6</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="D22" s="47">
+        <v>6</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47">
+        <v>6</v>
+      </c>
+      <c r="H22" s="47">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4">
-        <v>2</v>
-      </c>
-      <c r="L22" s="4"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47">
+        <v>2</v>
+      </c>
+      <c r="L22" s="47"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="10" t="s">
+      <c r="N22" s="165" t="s">
         <v>258</v>
       </c>
-      <c r="O22" s="10">
-        <v>8</v>
-      </c>
-      <c r="P22" s="10">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="38"/>
+      <c r="O22" s="165">
+        <v>8</v>
+      </c>
+      <c r="P22" s="165">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="160"/>
     </row>
     <row r="23" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -14853,86 +14896,86 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="47" t="s">
         <v>175</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4">
-        <v>6</v>
-      </c>
-      <c r="E25" s="4">
-        <v>4</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4">
-        <v>6</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="D25" s="47">
+        <v>6</v>
+      </c>
+      <c r="E25" s="47">
+        <v>4</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47">
+        <v>6</v>
+      </c>
+      <c r="H25" s="47">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4">
-        <v>2</v>
-      </c>
-      <c r="L25" s="4"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47">
+        <v>2</v>
+      </c>
+      <c r="L25" s="47"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="10" t="s">
+      <c r="N25" s="165" t="s">
         <v>259</v>
       </c>
-      <c r="O25" s="10">
-        <v>6</v>
-      </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="38"/>
+      <c r="O25" s="165">
+        <v>6</v>
+      </c>
+      <c r="P25" s="158"/>
+      <c r="Q25" s="160"/>
     </row>
     <row r="26" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="47" t="s">
         <v>306</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4">
-        <v>8</v>
-      </c>
-      <c r="E26" s="4">
-        <v>4</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4">
-        <v>8</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="D26" s="47">
+        <v>8</v>
+      </c>
+      <c r="E26" s="47">
+        <v>4</v>
+      </c>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47">
+        <v>8</v>
+      </c>
+      <c r="H26" s="47">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4">
-        <v>2</v>
-      </c>
-      <c r="L26" s="4"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47">
+        <v>2</v>
+      </c>
+      <c r="L26" s="47"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="10" t="s">
+      <c r="N26" s="165" t="s">
         <v>258</v>
       </c>
-      <c r="O26" s="10">
-        <v>8</v>
-      </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="38"/>
+      <c r="O26" s="165">
+        <v>8</v>
+      </c>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="160"/>
     </row>
     <row r="27" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="89" t="s">
         <v>261</v>
       </c>
       <c r="C27" s="4"/>
@@ -14967,120 +15010,120 @@
       <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="47" t="s">
         <v>271</v>
       </c>
       <c r="C28" s="4">
         <v>8</v>
       </c>
-      <c r="D28" s="4">
-        <v>4</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4">
-        <v>4</v>
-      </c>
-      <c r="H28" s="4">
+      <c r="D28" s="47">
+        <v>4</v>
+      </c>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47">
+        <v>4</v>
+      </c>
+      <c r="H28" s="47">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4">
-        <v>2</v>
-      </c>
-      <c r="L28" s="4"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47">
+        <v>2</v>
+      </c>
+      <c r="L28" s="47"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="10" t="s">
+      <c r="N28" s="165" t="s">
         <v>252</v>
       </c>
-      <c r="O28" s="15">
-        <v>8</v>
-      </c>
-      <c r="P28" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q28" s="38"/>
+      <c r="O28" s="164">
+        <v>8</v>
+      </c>
+      <c r="P28" s="164">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="160"/>
     </row>
     <row r="29" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="47" t="s">
         <v>176</v>
       </c>
       <c r="C29" s="4">
         <v>8</v>
       </c>
-      <c r="D29" s="4">
-        <v>4</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4">
-        <v>4</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="D29" s="47">
+        <v>4</v>
+      </c>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47">
+        <v>4</v>
+      </c>
+      <c r="H29" s="47">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4">
-        <v>2</v>
-      </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47">
+        <v>2</v>
+      </c>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
       <c r="M29" s="47"/>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="158" t="s">
         <v>287</v>
       </c>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="38"/>
+      <c r="O29" s="158"/>
+      <c r="P29" s="158"/>
+      <c r="Q29" s="160"/>
     </row>
     <row r="30" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="47" t="s">
         <v>179</v>
       </c>
       <c r="C30" s="4">
         <v>4</v>
       </c>
-      <c r="D30" s="4">
-        <v>6</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4">
-        <v>6</v>
-      </c>
-      <c r="H30" s="4">
+      <c r="D30" s="47">
+        <v>6</v>
+      </c>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47">
+        <v>6</v>
+      </c>
+      <c r="H30" s="47">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4">
-        <v>2</v>
-      </c>
-      <c r="L30" s="4"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47">
+        <v>2</v>
+      </c>
+      <c r="L30" s="47"/>
       <c r="M30" s="4">
         <v>8.0139999999999993</v>
       </c>
-      <c r="N30" s="10" t="s">
+      <c r="N30" s="165" t="s">
         <v>215</v>
       </c>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10">
+      <c r="O30" s="165"/>
+      <c r="P30" s="165">
         <v>10</v>
       </c>
-      <c r="Q30" s="38"/>
+      <c r="Q30" s="160"/>
     </row>
     <row r="31" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -15246,43 +15289,43 @@
       </c>
       <c r="Q34" s="38"/>
     </row>
-    <row r="35" spans="1:17" s="153" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="154" t="s">
+    <row r="35" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="140" t="s">
         <v>301</v>
       </c>
-      <c r="B35" s="154" t="s">
+      <c r="B35" s="140" t="s">
         <v>302</v>
       </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="154">
-        <v>4</v>
-      </c>
-      <c r="E35" s="154">
-        <v>4</v>
-      </c>
-      <c r="F35" s="154"/>
-      <c r="G35" s="154">
-        <v>4</v>
-      </c>
-      <c r="H35" s="154">
+      <c r="C35" s="90"/>
+      <c r="D35" s="140">
+        <v>4</v>
+      </c>
+      <c r="E35" s="140">
+        <v>4</v>
+      </c>
+      <c r="F35" s="140"/>
+      <c r="G35" s="140">
+        <v>4</v>
+      </c>
+      <c r="H35" s="140">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I35" s="154"/>
-      <c r="J35" s="154">
+      <c r="I35" s="140"/>
+      <c r="J35" s="140">
         <v>3</v>
       </c>
-      <c r="K35" s="154"/>
-      <c r="L35" s="154"/>
+      <c r="K35" s="140"/>
+      <c r="L35" s="140"/>
       <c r="M35" s="44">
         <v>20.204999999999998</v>
       </c>
-      <c r="N35" s="155" t="s">
+      <c r="N35" s="141" t="s">
         <v>326</v>
       </c>
-      <c r="O35" s="156"/>
-      <c r="P35" s="155"/>
-      <c r="Q35" s="156"/>
+      <c r="O35" s="142"/>
+      <c r="P35" s="141"/>
+      <c r="Q35" s="142"/>
     </row>
     <row r="36" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -15317,58 +15360,58 @@
       <c r="M36" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N36" s="102" t="s">
+      <c r="N36" s="92" t="s">
         <v>315</v>
       </c>
       <c r="O36" s="3">
         <v>6</v>
       </c>
       <c r="P36" s="3"/>
-      <c r="Q36" s="103"/>
-    </row>
-    <row r="37" spans="1:17" s="153" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="143" t="s">
+      <c r="Q36" s="93"/>
+    </row>
+    <row r="37" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="133" t="s">
         <v>301</v>
       </c>
-      <c r="B37" s="143" t="s">
+      <c r="B37" s="133" t="s">
         <v>304</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="157">
-        <v>6</v>
-      </c>
-      <c r="E37" s="157">
-        <v>4</v>
-      </c>
-      <c r="F37" s="157">
-        <v>4</v>
-      </c>
-      <c r="G37" s="143">
-        <v>8</v>
-      </c>
-      <c r="H37" s="143">
+      <c r="D37" s="143">
+        <v>6</v>
+      </c>
+      <c r="E37" s="143">
+        <v>4</v>
+      </c>
+      <c r="F37" s="143">
+        <v>4</v>
+      </c>
+      <c r="G37" s="133">
+        <v>8</v>
+      </c>
+      <c r="H37" s="133">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I37" s="143">
+      <c r="I37" s="133">
         <v>3</v>
       </c>
-      <c r="J37" s="143">
-        <v>4</v>
-      </c>
-      <c r="K37" s="143"/>
-      <c r="L37" s="143"/>
+      <c r="J37" s="133">
+        <v>4</v>
+      </c>
+      <c r="K37" s="133"/>
+      <c r="L37" s="133"/>
       <c r="M37" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N37" s="158" t="s">
+      <c r="N37" s="144" t="s">
         <v>316</v>
       </c>
-      <c r="O37" s="159">
-        <v>6</v>
-      </c>
-      <c r="P37" s="144"/>
-      <c r="Q37" s="159"/>
+      <c r="O37" s="145">
+        <v>6</v>
+      </c>
+      <c r="P37" s="134"/>
+      <c r="Q37" s="145"/>
     </row>
     <row r="38" spans="1:17" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -15401,14 +15444,14 @@
       <c r="M38" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N38" s="102" t="s">
+      <c r="N38" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="O38" s="103">
+      <c r="O38" s="93">
         <v>4</v>
       </c>
       <c r="P38" s="3"/>
-      <c r="Q38" s="103">
+      <c r="Q38" s="93">
         <v>2</v>
       </c>
     </row>
@@ -15443,54 +15486,54 @@
       <c r="M39" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N39" s="102" t="s">
+      <c r="N39" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="O39" s="103">
+      <c r="O39" s="93">
         <v>4</v>
       </c>
       <c r="P39" s="3">
         <v>2</v>
       </c>
-      <c r="Q39" s="103"/>
+      <c r="Q39" s="93"/>
     </row>
     <row r="40" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="100" t="s">
+      <c r="A40" s="90" t="s">
         <v>301</v>
       </c>
-      <c r="B40" s="100" t="s">
+      <c r="B40" s="90" t="s">
         <v>306</v>
       </c>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100">
-        <v>6</v>
-      </c>
-      <c r="E40" s="100">
-        <v>4</v>
-      </c>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100">
-        <v>6</v>
-      </c>
-      <c r="H40" s="100">
+      <c r="C40" s="90"/>
+      <c r="D40" s="90">
+        <v>6</v>
+      </c>
+      <c r="E40" s="90">
+        <v>4</v>
+      </c>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90">
+        <v>6</v>
+      </c>
+      <c r="H40" s="90">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100">
-        <v>2</v>
-      </c>
-      <c r="L40" s="100"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90">
+        <v>2</v>
+      </c>
+      <c r="L40" s="90"/>
       <c r="M40" s="44">
         <v>20.204999999999998</v>
       </c>
-      <c r="N40" s="101" t="s">
+      <c r="N40" s="91" t="s">
         <v>329</v>
       </c>
-      <c r="O40" s="104"/>
-      <c r="P40" s="101"/>
-      <c r="Q40" s="104"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="91"/>
+      <c r="Q40" s="94"/>
     </row>
     <row r="41" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -15527,14 +15570,14 @@
       <c r="M41" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N41" s="102" t="s">
+      <c r="N41" s="92" t="s">
         <v>317</v>
       </c>
-      <c r="O41" s="103">
+      <c r="O41" s="93">
         <v>6</v>
       </c>
       <c r="P41" s="3"/>
-      <c r="Q41" s="103"/>
+      <c r="Q41" s="93"/>
     </row>
     <row r="42" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -15567,134 +15610,134 @@
       <c r="M42" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N42" s="102" t="s">
+      <c r="N42" s="92" t="s">
         <v>205</v>
       </c>
-      <c r="O42" s="103">
+      <c r="O42" s="93">
         <v>6</v>
       </c>
       <c r="P42" s="3">
         <v>2</v>
       </c>
-      <c r="Q42" s="103"/>
-    </row>
-    <row r="43" spans="1:17" s="153" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="154" t="s">
+      <c r="Q42" s="93"/>
+    </row>
+    <row r="43" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="140" t="s">
         <v>301</v>
       </c>
-      <c r="B43" s="154" t="s">
+      <c r="B43" s="140" t="s">
         <v>309</v>
       </c>
-      <c r="C43" s="100"/>
-      <c r="D43" s="154">
-        <v>6</v>
-      </c>
-      <c r="E43" s="154">
-        <v>4</v>
-      </c>
-      <c r="F43" s="154">
-        <v>4</v>
-      </c>
-      <c r="G43" s="154">
-        <v>6</v>
-      </c>
-      <c r="H43" s="154">
+      <c r="C43" s="90"/>
+      <c r="D43" s="140">
+        <v>6</v>
+      </c>
+      <c r="E43" s="140">
+        <v>4</v>
+      </c>
+      <c r="F43" s="140">
+        <v>4</v>
+      </c>
+      <c r="G43" s="140">
+        <v>6</v>
+      </c>
+      <c r="H43" s="140">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I43" s="154"/>
-      <c r="J43" s="154">
-        <v>4</v>
-      </c>
-      <c r="K43" s="154"/>
-      <c r="L43" s="154"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="140">
+        <v>4</v>
+      </c>
+      <c r="K43" s="140"/>
+      <c r="L43" s="140"/>
       <c r="M43" s="44">
         <v>20.204999999999998</v>
       </c>
-      <c r="N43" s="155" t="s">
+      <c r="N43" s="141" t="s">
         <v>328</v>
       </c>
-      <c r="O43" s="160"/>
-      <c r="P43" s="155"/>
-      <c r="Q43" s="160"/>
-    </row>
-    <row r="44" spans="1:17" s="153" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="154" t="s">
+      <c r="O43" s="146"/>
+      <c r="P43" s="141"/>
+      <c r="Q43" s="146"/>
+    </row>
+    <row r="44" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="140" t="s">
         <v>301</v>
       </c>
-      <c r="B44" s="154" t="s">
+      <c r="B44" s="140" t="s">
         <v>310</v>
       </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="154">
-        <v>4</v>
-      </c>
-      <c r="E44" s="154">
-        <v>4</v>
-      </c>
-      <c r="F44" s="154">
-        <v>4</v>
-      </c>
-      <c r="G44" s="154">
-        <v>4</v>
-      </c>
-      <c r="H44" s="154">
+      <c r="C44" s="90"/>
+      <c r="D44" s="140">
+        <v>4</v>
+      </c>
+      <c r="E44" s="140">
+        <v>4</v>
+      </c>
+      <c r="F44" s="140">
+        <v>4</v>
+      </c>
+      <c r="G44" s="140">
+        <v>4</v>
+      </c>
+      <c r="H44" s="140">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I44" s="154"/>
-      <c r="J44" s="154"/>
-      <c r="K44" s="154">
-        <v>4</v>
-      </c>
-      <c r="L44" s="154"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="140"/>
+      <c r="K44" s="140">
+        <v>4</v>
+      </c>
+      <c r="L44" s="140"/>
       <c r="M44" s="44">
         <v>20.204999999999998</v>
       </c>
-      <c r="N44" s="155" t="s">
+      <c r="N44" s="141" t="s">
         <v>331</v>
       </c>
-      <c r="O44" s="160"/>
-      <c r="P44" s="155"/>
-      <c r="Q44" s="160"/>
-    </row>
-    <row r="45" spans="1:17" s="167" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="168" t="s">
+      <c r="O44" s="146"/>
+      <c r="P44" s="141"/>
+      <c r="Q44" s="146"/>
+    </row>
+    <row r="45" spans="1:17" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="154" t="s">
         <v>301</v>
       </c>
-      <c r="B45" s="168" t="s">
+      <c r="B45" s="154" t="s">
         <v>311</v>
       </c>
-      <c r="C45" s="100"/>
-      <c r="D45" s="168">
-        <v>6</v>
-      </c>
-      <c r="E45" s="168">
-        <v>2</v>
-      </c>
-      <c r="F45" s="168">
-        <v>4</v>
-      </c>
-      <c r="G45" s="168">
-        <v>6</v>
-      </c>
-      <c r="H45" s="168">
+      <c r="C45" s="90"/>
+      <c r="D45" s="154">
+        <v>6</v>
+      </c>
+      <c r="E45" s="154">
+        <v>2</v>
+      </c>
+      <c r="F45" s="154">
+        <v>4</v>
+      </c>
+      <c r="G45" s="154">
+        <v>6</v>
+      </c>
+      <c r="H45" s="154">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I45" s="168"/>
-      <c r="J45" s="168"/>
-      <c r="K45" s="168">
-        <v>4</v>
-      </c>
-      <c r="L45" s="168"/>
+      <c r="I45" s="154"/>
+      <c r="J45" s="154"/>
+      <c r="K45" s="154">
+        <v>4</v>
+      </c>
+      <c r="L45" s="154"/>
       <c r="M45" s="49">
         <v>20.204999999999998</v>
       </c>
-      <c r="N45" s="169"/>
-      <c r="O45" s="170"/>
-      <c r="P45" s="169"/>
-      <c r="Q45" s="170"/>
+      <c r="N45" s="155"/>
+      <c r="O45" s="156"/>
+      <c r="P45" s="155"/>
+      <c r="Q45" s="156"/>
     </row>
     <row r="46" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -15731,14 +15774,14 @@
       <c r="M46" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N46" s="102" t="s">
+      <c r="N46" s="92" t="s">
         <v>318</v>
       </c>
-      <c r="O46" s="103">
+      <c r="O46" s="93">
         <v>6</v>
       </c>
       <c r="P46" s="3"/>
-      <c r="Q46" s="103"/>
+      <c r="Q46" s="93"/>
     </row>
     <row r="47" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -15773,14 +15816,14 @@
       <c r="M47" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N47" s="102" t="s">
+      <c r="N47" s="92" t="s">
         <v>319</v>
       </c>
-      <c r="O47" s="103">
+      <c r="O47" s="93">
         <v>6</v>
       </c>
       <c r="P47" s="3"/>
-      <c r="Q47" s="103"/>
+      <c r="Q47" s="93"/>
     </row>
     <row r="48" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -15813,14 +15856,14 @@
       <c r="M48" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N48" s="102" t="s">
+      <c r="N48" s="92" t="s">
         <v>315</v>
       </c>
-      <c r="O48" s="103">
+      <c r="O48" s="93">
         <v>6</v>
       </c>
       <c r="P48" s="3"/>
-      <c r="Q48" s="103"/>
+      <c r="Q48" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zaizd3.xlsx
+++ b/Zaizd3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="20730" windowHeight="8700" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="20730" windowHeight="8700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="1" r:id="rId1"/>
@@ -11001,8 +11001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12060,89 +12060,89 @@
       <c r="Q25" s="66"/>
       <c r="R25" s="28"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:18" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="4">
-        <v>6</v>
-      </c>
-      <c r="D26" s="4">
-        <v>4</v>
-      </c>
-      <c r="E26" s="4">
-        <v>4</v>
-      </c>
-      <c r="F26" s="4">
-        <v>6</v>
-      </c>
-      <c r="G26" s="4">
-        <v>6</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="C26" s="46">
+        <v>6</v>
+      </c>
+      <c r="D26" s="46">
+        <v>4</v>
+      </c>
+      <c r="E26" s="46">
+        <v>4</v>
+      </c>
+      <c r="F26" s="46">
+        <v>6</v>
+      </c>
+      <c r="G26" s="46">
+        <v>6</v>
+      </c>
+      <c r="H26" s="46">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4">
-        <v>4</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4">
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46">
+        <v>4</v>
+      </c>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N26" s="10" t="s">
+      <c r="N26" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="O26" s="142"/>
+      <c r="P26" s="142">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4">
-        <v>2</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46">
+        <v>2</v>
+      </c>
+      <c r="F27" s="46">
         <v>10</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="46">
         <v>0</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="46">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4">
-        <v>4</v>
-      </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4">
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46">
+        <v>4</v>
+      </c>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="N27" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="12"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="136"/>
     </row>
     <row r="28" spans="1:18" s="126" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="91" t="s">
@@ -12794,7 +12794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -13943,7 +13943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>

--- a/Zaizd3.xlsx
+++ b/Zaizd3.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rozklad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="20730" windowHeight="8700" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="20730" windowHeight="8700" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1 курс'!$A$1:$R$15</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -29,7 +34,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N15" authorId="1">
+    <comment ref="N15" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0">
+    <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +133,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="B18" authorId="0">
+    <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="1">
+    <comment ref="B24" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0">
+    <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +207,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0">
+    <comment ref="N9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -243,7 +248,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N25" authorId="1">
+    <comment ref="N25" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -275,6 +280,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="B35" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Наступний заїзд</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -286,7 +306,7 @@
     <author>xgresx@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -301,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="1">
+    <comment ref="B12" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -332,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N17" authorId="1">
+    <comment ref="N17" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -383,7 +403,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="J18" authorId="0">
+    <comment ref="J18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0">
+    <comment ref="A21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -431,7 +451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0">
+    <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1540,7 +1560,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1683,7 +1703,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1754,6 +1774,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2080,9 +2106,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2093,18 +2116,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2121,18 +2132,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2257,19 +2256,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
@@ -2423,14 +2409,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Ввід" xfId="3" builtinId="20"/>
-    <cellStyle name="Добре" xfId="1" builtinId="26"/>
+    <cellStyle name="Гарний" xfId="1" builtinId="26"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Нейтральний" xfId="2" builtinId="28"/>
     <cellStyle name="Поганий" xfId="4" builtinId="27"/>
     <cellStyle name="Примітка" xfId="5" builtinId="10"/>
-    <cellStyle name="Середній" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="150">
     <dxf>
@@ -5884,7 +5908,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартна">
+    <a:clrScheme name="Офіс">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5922,9 +5946,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартна">
+    <a:fontScheme name="Офіс">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5959,7 +5983,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5994,7 +6018,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартна">
+    <a:fmtScheme name="Офіс">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6170,8 +6194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R238"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6252,289 +6276,289 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+    <row r="2" spans="1:18" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="97">
-        <v>4</v>
-      </c>
-      <c r="D2" s="97">
-        <v>4</v>
-      </c>
-      <c r="E2" s="97">
-        <v>2</v>
-      </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97">
-        <v>4</v>
-      </c>
-      <c r="H2" s="97">
+      <c r="B2" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="88">
+        <v>4</v>
+      </c>
+      <c r="D2" s="88">
+        <v>4</v>
+      </c>
+      <c r="E2" s="88">
+        <v>2</v>
+      </c>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88">
+        <v>4</v>
+      </c>
+      <c r="H2" s="88">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="97">
+      <c r="I2" s="88"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="88">
         <v>3</v>
       </c>
-      <c r="L2" s="97"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="97" t="s">
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="88" t="s">
         <v>185</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="94"/>
-    </row>
-    <row r="3" spans="1:18" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="85"/>
+    </row>
+    <row r="3" spans="1:18" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="97">
-        <v>4</v>
-      </c>
-      <c r="D3" s="97">
-        <v>6</v>
-      </c>
-      <c r="E3" s="97">
-        <v>4</v>
-      </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97">
-        <v>6</v>
-      </c>
-      <c r="H3" s="97">
+      <c r="C3" s="88">
+        <v>4</v>
+      </c>
+      <c r="D3" s="88">
+        <v>6</v>
+      </c>
+      <c r="E3" s="88">
+        <v>4</v>
+      </c>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88">
+        <v>6</v>
+      </c>
+      <c r="H3" s="88">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97">
+      <c r="I3" s="88"/>
+      <c r="J3" s="88">
         <v>3</v>
       </c>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="97" t="s">
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="94"/>
-    </row>
-    <row r="4" spans="1:18" s="95" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="85"/>
+    </row>
+    <row r="4" spans="1:18" s="86" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="97" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="97">
-        <v>6</v>
-      </c>
-      <c r="D4" s="97">
-        <v>6</v>
-      </c>
-      <c r="E4" s="97">
-        <v>4</v>
-      </c>
-      <c r="F4" s="97">
-        <v>4</v>
-      </c>
-      <c r="G4" s="97">
-        <v>6</v>
-      </c>
-      <c r="H4" s="97">
+      <c r="B4" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="88">
+        <v>6</v>
+      </c>
+      <c r="D4" s="88">
+        <v>6</v>
+      </c>
+      <c r="E4" s="88">
+        <v>4</v>
+      </c>
+      <c r="F4" s="88">
+        <v>4</v>
+      </c>
+      <c r="G4" s="88">
+        <v>6</v>
+      </c>
+      <c r="H4" s="88">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97">
-        <v>4</v>
-      </c>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="92" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="88">
+        <v>4</v>
+      </c>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="94"/>
-    </row>
-    <row r="5" spans="1:18" s="95" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="85"/>
+    </row>
+    <row r="5" spans="1:18" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="92">
+      <c r="B5" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="83">
         <v>12</v>
       </c>
-      <c r="D5" s="92">
+      <c r="D5" s="83">
         <v>10</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92">
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83">
         <v>10</v>
       </c>
-      <c r="H5" s="92">
+      <c r="H5" s="83">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92">
-        <v>2</v>
-      </c>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92" t="s">
+      <c r="I5" s="83"/>
+      <c r="J5" s="83">
+        <v>2</v>
+      </c>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="N5" s="92" t="s">
+      <c r="N5" s="83" t="s">
         <v>275</v>
       </c>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="94"/>
-    </row>
-    <row r="6" spans="1:18" s="95" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="85"/>
+    </row>
+    <row r="6" spans="1:18" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="92">
+      <c r="C6" s="83">
         <v>14</v>
       </c>
-      <c r="D6" s="92">
-        <v>6</v>
-      </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92">
-        <v>6</v>
-      </c>
-      <c r="H6" s="92">
+      <c r="D6" s="83">
+        <v>6</v>
+      </c>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83">
+        <v>6</v>
+      </c>
+      <c r="H6" s="83">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92">
-        <v>2</v>
-      </c>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92" t="s">
+      <c r="I6" s="83"/>
+      <c r="J6" s="83">
+        <v>2</v>
+      </c>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="N6" s="93" t="s">
+      <c r="N6" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="O6" s="93">
+      <c r="O6" s="84">
         <v>12</v>
       </c>
-      <c r="P6" s="93">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="94"/>
-    </row>
-    <row r="7" spans="1:18" s="95" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
+      <c r="P6" s="84">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="85"/>
+    </row>
+    <row r="7" spans="1:18" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="83">
         <v>10</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="83">
         <v>10</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92">
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83">
         <v>10</v>
       </c>
-      <c r="H7" s="92">
+      <c r="H7" s="83">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92">
-        <v>2</v>
-      </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92" t="s">
+      <c r="I7" s="83"/>
+      <c r="J7" s="83">
+        <v>2</v>
+      </c>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="N7" s="93" t="s">
+      <c r="N7" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="93">
+      <c r="O7" s="84">
         <v>12</v>
       </c>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93">
-        <v>8</v>
-      </c>
-      <c r="R7" s="94"/>
-    </row>
-    <row r="8" spans="1:18" s="95" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84">
+        <v>8</v>
+      </c>
+      <c r="R7" s="85"/>
+    </row>
+    <row r="8" spans="1:18" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="92">
-        <v>8</v>
-      </c>
-      <c r="D8" s="92">
-        <v>6</v>
-      </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92">
-        <v>6</v>
-      </c>
-      <c r="H8" s="92">
+      <c r="C8" s="83">
+        <v>8</v>
+      </c>
+      <c r="D8" s="83">
+        <v>6</v>
+      </c>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83">
+        <v>6</v>
+      </c>
+      <c r="H8" s="83">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92">
-        <v>2</v>
-      </c>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92" t="s">
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83">
+        <v>2</v>
+      </c>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="94"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="85"/>
     </row>
     <row r="9" spans="1:18" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="120" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="46" t="s">
@@ -6566,20 +6590,20 @@
       <c r="M9" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="N9" s="135" t="s">
+      <c r="N9" s="121" t="s">
         <v>202</v>
       </c>
-      <c r="O9" s="135">
-        <v>8</v>
-      </c>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="135">
-        <v>6</v>
-      </c>
-      <c r="R9" s="136"/>
+      <c r="O9" s="121">
+        <v>8</v>
+      </c>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121">
+        <v>6</v>
+      </c>
+      <c r="R9" s="122"/>
     </row>
     <row r="10" spans="1:18" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="120" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="46" t="s">
@@ -6609,18 +6633,18 @@
       <c r="M10" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="N10" s="142" t="s">
+      <c r="N10" s="128" t="s">
         <v>203</v>
       </c>
-      <c r="O10" s="142">
-        <v>4</v>
-      </c>
-      <c r="P10" s="141"/>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="136"/>
+      <c r="O10" s="128">
+        <v>4</v>
+      </c>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="122"/>
     </row>
     <row r="11" spans="1:18" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="120" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="46" t="s">
@@ -6654,110 +6678,110 @@
       <c r="M11" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="N11" s="135" t="s">
+      <c r="N11" s="121" t="s">
         <v>210</v>
       </c>
-      <c r="O11" s="135"/>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="135"/>
-      <c r="R11" s="136"/>
-    </row>
-    <row r="12" spans="1:18" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="O11" s="121"/>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="121"/>
+      <c r="R11" s="122"/>
+    </row>
+    <row r="12" spans="1:18" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="92">
+      <c r="C12" s="83">
         <v>10</v>
       </c>
-      <c r="D12" s="92">
-        <v>8</v>
-      </c>
-      <c r="E12" s="92">
-        <v>6</v>
-      </c>
-      <c r="F12" s="92">
-        <v>6</v>
-      </c>
-      <c r="G12" s="92">
-        <v>8</v>
-      </c>
-      <c r="H12" s="92">
+      <c r="D12" s="83">
+        <v>8</v>
+      </c>
+      <c r="E12" s="83">
+        <v>6</v>
+      </c>
+      <c r="F12" s="83">
+        <v>6</v>
+      </c>
+      <c r="G12" s="83">
+        <v>8</v>
+      </c>
+      <c r="H12" s="83">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92">
-        <v>4</v>
-      </c>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="93" t="s">
+      <c r="I12" s="83"/>
+      <c r="J12" s="83">
+        <v>4</v>
+      </c>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="N12" s="92" t="s">
+      <c r="N12" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="94" t="s">
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="85" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="95" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="100" t="s">
+    <row r="13" spans="1:18" s="86" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="91" t="s">
         <v>186</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="101">
+      <c r="C13" s="92">
         <v>10</v>
       </c>
-      <c r="D13" s="101">
-        <v>8</v>
-      </c>
-      <c r="E13" s="101">
-        <v>6</v>
-      </c>
-      <c r="F13" s="101">
-        <v>6</v>
-      </c>
-      <c r="G13" s="101">
-        <v>8</v>
-      </c>
-      <c r="H13" s="101">
+      <c r="D13" s="92">
+        <v>8</v>
+      </c>
+      <c r="E13" s="92">
+        <v>6</v>
+      </c>
+      <c r="F13" s="92">
+        <v>6</v>
+      </c>
+      <c r="G13" s="92">
+        <v>8</v>
+      </c>
+      <c r="H13" s="92">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101">
-        <v>4</v>
-      </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101" t="s">
+      <c r="I13" s="92"/>
+      <c r="J13" s="92">
+        <v>4</v>
+      </c>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92" t="s">
         <v>321</v>
       </c>
-      <c r="M13" s="102" t="s">
+      <c r="M13" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="N13" s="101" t="s">
+      <c r="N13" s="92" t="s">
         <v>187</v>
       </c>
-      <c r="O13" s="102">
+      <c r="O13" s="93">
         <v>14</v>
       </c>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="103" t="s">
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="94" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="46" t="s">
@@ -6786,68 +6810,68 @@
       </c>
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
-      <c r="M14" s="135">
+      <c r="M14" s="121">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N14" s="141" t="s">
+      <c r="N14" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="O14" s="141">
-        <v>4</v>
-      </c>
-      <c r="P14" s="141">
+      <c r="O14" s="127">
+        <v>4</v>
+      </c>
+      <c r="P14" s="127">
         <v>0</v>
       </c>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="136"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="122"/>
     </row>
     <row r="15" spans="1:18" s="45" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="148" t="s">
+      <c r="A15" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="149" t="s">
+      <c r="B15" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="149">
-        <v>2</v>
-      </c>
-      <c r="D15" s="149">
+      <c r="C15" s="135">
+        <v>2</v>
+      </c>
+      <c r="D15" s="135">
         <v>0</v>
       </c>
-      <c r="E15" s="149">
-        <v>4</v>
-      </c>
-      <c r="F15" s="149">
+      <c r="E15" s="135">
+        <v>4</v>
+      </c>
+      <c r="F15" s="135">
         <v>0</v>
       </c>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149">
+      <c r="G15" s="135"/>
+      <c r="H15" s="135">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149">
-        <v>4</v>
-      </c>
-      <c r="K15" s="149"/>
-      <c r="L15" s="149" t="s">
+      <c r="I15" s="135"/>
+      <c r="J15" s="135">
+        <v>4</v>
+      </c>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135" t="s">
         <v>322</v>
       </c>
-      <c r="M15" s="150">
+      <c r="M15" s="136">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N15" s="150" t="s">
+      <c r="N15" s="136" t="s">
         <v>218</v>
       </c>
-      <c r="O15" s="150">
-        <v>2</v>
-      </c>
-      <c r="P15" s="150"/>
-      <c r="Q15" s="150"/>
-      <c r="R15" s="151"/>
+      <c r="O15" s="136">
+        <v>2</v>
+      </c>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="137"/>
     </row>
     <row r="16" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="46" t="s">
@@ -6878,23 +6902,23 @@
         <v>4</v>
       </c>
       <c r="L16" s="46"/>
-      <c r="M16" s="135">
+      <c r="M16" s="121">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N16" s="141" t="s">
+      <c r="N16" s="127" t="s">
         <v>202</v>
       </c>
-      <c r="O16" s="141">
-        <v>4</v>
-      </c>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="141">
-        <v>2</v>
-      </c>
-      <c r="R16" s="136"/>
+      <c r="O16" s="127">
+        <v>4</v>
+      </c>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127">
+        <v>2</v>
+      </c>
+      <c r="R16" s="122"/>
     </row>
     <row r="17" spans="1:18" s="45" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="46" t="s">
@@ -6923,25 +6947,25 @@
       </c>
       <c r="K17" s="46"/>
       <c r="L17" s="46"/>
-      <c r="M17" s="135">
+      <c r="M17" s="121">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N17" s="141" t="s">
+      <c r="N17" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="O17" s="141">
-        <v>2</v>
-      </c>
-      <c r="P17" s="141">
+      <c r="O17" s="127">
+        <v>2</v>
+      </c>
+      <c r="P17" s="127">
         <v>0</v>
       </c>
-      <c r="Q17" s="141">
+      <c r="Q17" s="127">
         <v>0</v>
       </c>
-      <c r="R17" s="136"/>
+      <c r="R17" s="122"/>
     </row>
     <row r="18" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="46" t="s">
@@ -6968,20 +6992,20 @@
         <v>4</v>
       </c>
       <c r="L18" s="46"/>
-      <c r="M18" s="135">
+      <c r="M18" s="121">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N18" s="141" t="s">
+      <c r="N18" s="127" t="s">
         <v>235</v>
       </c>
-      <c r="O18" s="141">
-        <v>2</v>
-      </c>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="141">
+      <c r="O18" s="127">
+        <v>2</v>
+      </c>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="127">
         <v>0</v>
       </c>
-      <c r="R18" s="136"/>
+      <c r="R18" s="122"/>
     </row>
     <row r="19" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -7024,53 +7048,53 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="12"/>
     </row>
-    <row r="20" spans="1:18" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="91" t="s">
+    <row r="20" spans="1:18" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="92">
-        <v>6</v>
-      </c>
-      <c r="D20" s="93">
-        <v>4</v>
-      </c>
-      <c r="E20" s="93">
-        <v>2</v>
-      </c>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93">
-        <v>4</v>
-      </c>
-      <c r="H20" s="93">
+      <c r="C20" s="83">
+        <v>6</v>
+      </c>
+      <c r="D20" s="84">
+        <v>4</v>
+      </c>
+      <c r="E20" s="84">
+        <v>2</v>
+      </c>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84">
+        <v>4</v>
+      </c>
+      <c r="H20" s="84">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93">
-        <v>4</v>
-      </c>
-      <c r="K20" s="93"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="93">
+      <c r="I20" s="84"/>
+      <c r="J20" s="84">
+        <v>4</v>
+      </c>
+      <c r="K20" s="84"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="84">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N20" s="109" t="s">
+      <c r="N20" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="O20" s="109">
-        <v>6</v>
-      </c>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="109">
-        <v>4</v>
-      </c>
-      <c r="R20" s="94"/>
+      <c r="O20" s="100">
+        <v>6</v>
+      </c>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100">
+        <v>4</v>
+      </c>
+      <c r="R20" s="85"/>
     </row>
     <row r="21" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="120" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="46" t="s">
@@ -7079,221 +7103,221 @@
       <c r="C21" s="46">
         <v>6</v>
       </c>
-      <c r="D21" s="135">
-        <v>4</v>
-      </c>
-      <c r="E21" s="135">
-        <v>4</v>
-      </c>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135">
-        <v>4</v>
-      </c>
-      <c r="H21" s="135">
+      <c r="D21" s="121">
+        <v>4</v>
+      </c>
+      <c r="E21" s="121">
+        <v>4</v>
+      </c>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121">
+        <v>4</v>
+      </c>
+      <c r="H21" s="121">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135">
+      <c r="I21" s="121"/>
+      <c r="J21" s="121">
         <v>3</v>
       </c>
-      <c r="K21" s="135"/>
+      <c r="K21" s="121"/>
       <c r="L21" s="46"/>
-      <c r="M21" s="135">
+      <c r="M21" s="121">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N21" s="141" t="s">
+      <c r="N21" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="O21" s="141">
-        <v>6</v>
-      </c>
-      <c r="P21" s="141">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="136"/>
-    </row>
-    <row r="22" spans="1:18" s="95" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="91" t="s">
+      <c r="O21" s="127">
+        <v>6</v>
+      </c>
+      <c r="P21" s="127">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="122"/>
+    </row>
+    <row r="22" spans="1:18" s="86" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="92">
-        <v>6</v>
-      </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93">
-        <v>2</v>
-      </c>
-      <c r="F22" s="93">
-        <v>6</v>
-      </c>
-      <c r="G22" s="93">
+      <c r="C22" s="83">
+        <v>6</v>
+      </c>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84">
+        <v>2</v>
+      </c>
+      <c r="F22" s="84">
+        <v>6</v>
+      </c>
+      <c r="G22" s="84">
         <v>0</v>
       </c>
-      <c r="H22" s="93">
+      <c r="H22" s="84">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93">
-        <v>4</v>
-      </c>
-      <c r="K22" s="93"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="93">
+      <c r="I22" s="84"/>
+      <c r="J22" s="84">
+        <v>4</v>
+      </c>
+      <c r="K22" s="84"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="84">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N22" s="109" t="s">
+      <c r="N22" s="100" t="s">
         <v>207</v>
       </c>
-      <c r="O22" s="109">
-        <v>6</v>
-      </c>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="94"/>
-    </row>
-    <row r="23" spans="1:18" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="91" t="s">
+      <c r="O22" s="100">
+        <v>6</v>
+      </c>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="85"/>
+    </row>
+    <row r="23" spans="1:18" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="92">
-        <v>6</v>
-      </c>
-      <c r="D23" s="93">
-        <v>4</v>
-      </c>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93">
-        <v>4</v>
-      </c>
-      <c r="H23" s="93">
+      <c r="C23" s="83">
+        <v>6</v>
+      </c>
+      <c r="D23" s="84">
+        <v>4</v>
+      </c>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84">
+        <v>4</v>
+      </c>
+      <c r="H23" s="84">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93">
-        <v>2</v>
-      </c>
-      <c r="L23" s="92"/>
-      <c r="M23" s="93">
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84">
+        <v>2</v>
+      </c>
+      <c r="L23" s="83"/>
+      <c r="M23" s="84">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N23" s="93" t="s">
+      <c r="N23" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="O23" s="93">
-        <v>6</v>
-      </c>
-      <c r="P23" s="93">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="94"/>
-    </row>
-    <row r="24" spans="1:18" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="91" t="s">
+      <c r="O23" s="84">
+        <v>6</v>
+      </c>
+      <c r="P23" s="84">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="85"/>
+    </row>
+    <row r="24" spans="1:18" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="92">
-        <v>4</v>
-      </c>
-      <c r="D24" s="92">
-        <v>6</v>
-      </c>
-      <c r="E24" s="92">
-        <v>4</v>
-      </c>
-      <c r="F24" s="92">
-        <v>6</v>
-      </c>
-      <c r="G24" s="92">
-        <v>6</v>
-      </c>
-      <c r="H24" s="92">
+      <c r="C24" s="83">
+        <v>4</v>
+      </c>
+      <c r="D24" s="83">
+        <v>6</v>
+      </c>
+      <c r="E24" s="83">
+        <v>4</v>
+      </c>
+      <c r="F24" s="83">
+        <v>6</v>
+      </c>
+      <c r="G24" s="83">
+        <v>6</v>
+      </c>
+      <c r="H24" s="83">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92">
-        <v>4</v>
-      </c>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="93">
+      <c r="I24" s="83"/>
+      <c r="J24" s="83">
+        <v>4</v>
+      </c>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="84">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N24" s="108" t="s">
+      <c r="N24" s="99" t="s">
         <v>277</v>
       </c>
-      <c r="O24" s="109"/>
-      <c r="P24" s="109"/>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="94" t="s">
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="85" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="95" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="100" t="s">
+    <row r="25" spans="1:18" s="86" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="101">
-        <v>4</v>
-      </c>
-      <c r="D25" s="101">
-        <v>8</v>
-      </c>
-      <c r="E25" s="101">
-        <v>4</v>
-      </c>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101">
-        <v>8</v>
-      </c>
-      <c r="H25" s="101">
+      <c r="C25" s="92">
+        <v>4</v>
+      </c>
+      <c r="D25" s="92">
+        <v>8</v>
+      </c>
+      <c r="E25" s="92">
+        <v>4</v>
+      </c>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92">
+        <v>8</v>
+      </c>
+      <c r="H25" s="92">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101">
+      <c r="I25" s="92"/>
+      <c r="J25" s="92">
         <v>3</v>
       </c>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101" t="s">
+      <c r="K25" s="92"/>
+      <c r="L25" s="92" t="s">
         <v>321</v>
       </c>
-      <c r="M25" s="102">
+      <c r="M25" s="93">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N25" s="101" t="s">
+      <c r="N25" s="92" t="s">
         <v>187</v>
       </c>
-      <c r="O25" s="102">
-        <v>6</v>
-      </c>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="103" t="s">
+      <c r="O25" s="93">
+        <v>6</v>
+      </c>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="94" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="134" t="s">
+      <c r="A26" s="120" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="46" t="s">
@@ -7324,63 +7348,63 @@
       </c>
       <c r="K26" s="46"/>
       <c r="L26" s="46"/>
-      <c r="M26" s="135">
+      <c r="M26" s="121">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N26" s="135" t="s">
+      <c r="N26" s="121" t="s">
         <v>232</v>
       </c>
-      <c r="O26" s="135">
+      <c r="O26" s="121">
         <v>16</v>
       </c>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="135">
+      <c r="P26" s="121"/>
+      <c r="Q26" s="121">
         <v>0</v>
       </c>
-      <c r="R26" s="136"/>
-    </row>
-    <row r="27" spans="1:18" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="110" t="s">
+      <c r="R26" s="122"/>
+    </row>
+    <row r="27" spans="1:18" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="111">
-        <v>4</v>
-      </c>
-      <c r="D27" s="112">
-        <v>6</v>
-      </c>
-      <c r="E27" s="112">
-        <v>4</v>
-      </c>
-      <c r="F27" s="112">
-        <v>2</v>
-      </c>
-      <c r="G27" s="112">
-        <v>6</v>
-      </c>
-      <c r="H27" s="112">
+      <c r="C27" s="102">
+        <v>4</v>
+      </c>
+      <c r="D27" s="103">
+        <v>6</v>
+      </c>
+      <c r="E27" s="103">
+        <v>4</v>
+      </c>
+      <c r="F27" s="103">
+        <v>2</v>
+      </c>
+      <c r="G27" s="103">
+        <v>6</v>
+      </c>
+      <c r="H27" s="103">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I27" s="112"/>
-      <c r="J27" s="113">
-        <v>4</v>
-      </c>
-      <c r="K27" s="112"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111">
+      <c r="I27" s="103"/>
+      <c r="J27" s="104">
+        <v>4</v>
+      </c>
+      <c r="K27" s="103"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N27" s="111" t="s">
+      <c r="N27" s="102" t="s">
         <v>288</v>
       </c>
-      <c r="O27" s="111"/>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="114"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="105"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -7573,172 +7597,172 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="105" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+    <row r="2" spans="1:18" s="96" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="97">
-        <v>6</v>
-      </c>
-      <c r="D2" s="97">
-        <v>4</v>
-      </c>
-      <c r="E2" s="97">
-        <v>2</v>
-      </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97">
-        <v>4</v>
-      </c>
-      <c r="H2" s="97">
+      <c r="C2" s="88">
+        <v>6</v>
+      </c>
+      <c r="D2" s="88">
+        <v>4</v>
+      </c>
+      <c r="E2" s="88">
+        <v>2</v>
+      </c>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88">
+        <v>4</v>
+      </c>
+      <c r="H2" s="88">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97">
+      <c r="I2" s="88"/>
+      <c r="J2" s="88">
         <v>3</v>
       </c>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="92" t="s">
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="107"/>
-    </row>
-    <row r="3" spans="1:18" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="98"/>
+    </row>
+    <row r="3" spans="1:18" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="97">
-        <v>4</v>
-      </c>
-      <c r="D3" s="97">
-        <v>6</v>
-      </c>
-      <c r="E3" s="97">
-        <v>4</v>
-      </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97">
-        <v>6</v>
-      </c>
-      <c r="H3" s="97">
+      <c r="C3" s="88">
+        <v>4</v>
+      </c>
+      <c r="D3" s="88">
+        <v>6</v>
+      </c>
+      <c r="E3" s="88">
+        <v>4</v>
+      </c>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88">
+        <v>6</v>
+      </c>
+      <c r="H3" s="88">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97">
+      <c r="I3" s="88"/>
+      <c r="J3" s="88">
         <v>3</v>
       </c>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="92" t="s">
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="83" t="s">
         <v>289</v>
       </c>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="107"/>
-    </row>
-    <row r="4" spans="1:18" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="98"/>
+    </row>
+    <row r="4" spans="1:18" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="92">
-        <v>8</v>
-      </c>
-      <c r="D4" s="92">
-        <v>8</v>
-      </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92">
-        <v>8</v>
-      </c>
-      <c r="H4" s="92">
+      <c r="C4" s="83">
+        <v>8</v>
+      </c>
+      <c r="D4" s="83">
+        <v>8</v>
+      </c>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83">
+        <v>8</v>
+      </c>
+      <c r="H4" s="83">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92">
-        <v>2</v>
-      </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92">
+      <c r="I4" s="83"/>
+      <c r="J4" s="83">
+        <v>2</v>
+      </c>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="O4" s="92">
+      <c r="O4" s="83">
         <v>12</v>
       </c>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92">
-        <v>4</v>
-      </c>
-      <c r="R4" s="107"/>
-    </row>
-    <row r="5" spans="1:18" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83">
+        <v>4</v>
+      </c>
+      <c r="R4" s="98"/>
+    </row>
+    <row r="5" spans="1:18" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="92">
-        <v>8</v>
-      </c>
-      <c r="D5" s="92">
+      <c r="C5" s="83">
+        <v>8</v>
+      </c>
+      <c r="D5" s="83">
         <v>10</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92">
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83">
         <v>10</v>
       </c>
-      <c r="H5" s="92">
+      <c r="H5" s="83">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92">
-        <v>2</v>
-      </c>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92">
+      <c r="I5" s="83"/>
+      <c r="J5" s="83">
+        <v>2</v>
+      </c>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="92" t="s">
+      <c r="N5" s="83" t="s">
         <v>236</v>
       </c>
-      <c r="O5" s="92">
+      <c r="O5" s="83">
         <v>12</v>
       </c>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92">
-        <v>6</v>
-      </c>
-      <c r="R5" s="107"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83">
+        <v>6</v>
+      </c>
+      <c r="R5" s="98"/>
     </row>
     <row r="6" spans="1:18" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B6" s="46" t="s">
@@ -7782,135 +7806,135 @@
       </c>
       <c r="P6" s="46"/>
       <c r="Q6" s="46"/>
-      <c r="R6" s="153"/>
-    </row>
-    <row r="7" spans="1:18" s="105" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
+      <c r="R6" s="139"/>
+    </row>
+    <row r="7" spans="1:18" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="92">
+      <c r="B7" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="83">
         <v>12</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="83">
         <v>10</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92">
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83">
         <v>10</v>
       </c>
-      <c r="H7" s="92">
+      <c r="H7" s="83">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92">
-        <v>2</v>
-      </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92">
+      <c r="I7" s="83"/>
+      <c r="J7" s="83">
+        <v>2</v>
+      </c>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="92" t="s">
+      <c r="N7" s="83" t="s">
         <v>278</v>
       </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="107"/>
-    </row>
-    <row r="8" spans="1:18" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="98"/>
+    </row>
+    <row r="8" spans="1:18" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="92">
-        <v>6</v>
-      </c>
-      <c r="D8" s="92">
-        <v>6</v>
-      </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92">
-        <v>6</v>
-      </c>
-      <c r="H8" s="92">
+      <c r="C8" s="83">
+        <v>6</v>
+      </c>
+      <c r="D8" s="83">
+        <v>6</v>
+      </c>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83">
+        <v>6</v>
+      </c>
+      <c r="H8" s="83">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92">
-        <v>2</v>
-      </c>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92">
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83">
+        <v>2</v>
+      </c>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N8" s="92" t="s">
+      <c r="N8" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="O8" s="92">
+      <c r="O8" s="83">
         <v>10</v>
       </c>
-      <c r="P8" s="92">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="107"/>
-    </row>
-    <row r="9" spans="1:18" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
+      <c r="P8" s="83">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="98"/>
+    </row>
+    <row r="9" spans="1:18" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="92">
-        <v>6</v>
-      </c>
-      <c r="D9" s="92">
-        <v>8</v>
-      </c>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92">
-        <v>8</v>
-      </c>
-      <c r="H9" s="92">
+      <c r="C9" s="83">
+        <v>6</v>
+      </c>
+      <c r="D9" s="83">
+        <v>8</v>
+      </c>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83">
+        <v>8</v>
+      </c>
+      <c r="H9" s="83">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92">
-        <v>2</v>
-      </c>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92">
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83">
+        <v>2</v>
+      </c>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N9" s="92" t="s">
+      <c r="N9" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="O9" s="92">
+      <c r="O9" s="83">
         <v>10</v>
       </c>
-      <c r="P9" s="92">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="107"/>
+      <c r="P9" s="83">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="98"/>
     </row>
     <row r="10" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B10" s="46" t="s">
@@ -7942,18 +7966,18 @@
       <c r="M10" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N10" s="152" t="s">
+      <c r="N10" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="O10" s="152">
+      <c r="O10" s="138">
         <v>12</v>
       </c>
       <c r="P10" s="46"/>
       <c r="Q10" s="46"/>
-      <c r="R10" s="153"/>
+      <c r="R10" s="139"/>
     </row>
     <row r="11" spans="1:18" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B11" s="46" t="s">
@@ -7983,16 +8007,16 @@
       <c r="M11" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N11" s="152" t="s">
+      <c r="N11" s="138" t="s">
         <v>200</v>
       </c>
       <c r="O11" s="46"/>
       <c r="P11" s="46"/>
       <c r="Q11" s="46"/>
-      <c r="R11" s="153"/>
+      <c r="R11" s="139"/>
     </row>
     <row r="12" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B12" s="46" t="s">
@@ -8022,16 +8046,16 @@
       <c r="M12" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N12" s="152" t="s">
+      <c r="N12" s="138" t="s">
         <v>211</v>
       </c>
-      <c r="O12" s="145"/>
-      <c r="P12" s="145"/>
+      <c r="O12" s="131"/>
+      <c r="P12" s="131"/>
       <c r="Q12" s="46"/>
-      <c r="R12" s="153"/>
+      <c r="R12" s="139"/>
     </row>
     <row r="13" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B13" s="46" t="s">
@@ -8067,10 +8091,10 @@
       <c r="O13" s="46"/>
       <c r="P13" s="46"/>
       <c r="Q13" s="46"/>
-      <c r="R13" s="153"/>
+      <c r="R13" s="139"/>
     </row>
     <row r="14" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="46" t="s">
@@ -8102,61 +8126,61 @@
       <c r="M14" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N14" s="145" t="s">
+      <c r="N14" s="131" t="s">
         <v>204</v>
       </c>
-      <c r="O14" s="145">
+      <c r="O14" s="131">
         <v>12</v>
       </c>
-      <c r="P14" s="145">
+      <c r="P14" s="131">
         <v>2</v>
       </c>
       <c r="Q14" s="46"/>
-      <c r="R14" s="153"/>
-    </row>
-    <row r="15" spans="1:18" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+      <c r="R14" s="139"/>
+    </row>
+    <row r="15" spans="1:18" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="95">
         <v>10</v>
       </c>
-      <c r="D15" s="104">
-        <v>8</v>
-      </c>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104">
-        <v>8</v>
-      </c>
-      <c r="H15" s="104">
+      <c r="D15" s="95">
+        <v>8</v>
+      </c>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95">
+        <v>8</v>
+      </c>
+      <c r="H15" s="95">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104">
-        <v>2</v>
-      </c>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104">
+      <c r="I15" s="95"/>
+      <c r="J15" s="95">
+        <v>2</v>
+      </c>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95">
         <v>6.080101</v>
       </c>
-      <c r="N15" s="104" t="s">
+      <c r="N15" s="95" t="s">
         <v>279</v>
       </c>
-      <c r="O15" s="104"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104" t="s">
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="46" t="s">
@@ -8196,10 +8220,10 @@
         <v>4</v>
       </c>
       <c r="Q16" s="46"/>
-      <c r="R16" s="153"/>
+      <c r="R16" s="139"/>
     </row>
     <row r="17" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="46" t="s">
@@ -8233,20 +8257,20 @@
       <c r="M17" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N17" s="152" t="s">
+      <c r="N17" s="138" t="s">
         <v>211</v>
       </c>
-      <c r="O17" s="152">
+      <c r="O17" s="138">
         <v>10</v>
       </c>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="152">
+      <c r="P17" s="138"/>
+      <c r="Q17" s="138">
         <v>0</v>
       </c>
-      <c r="R17" s="153"/>
+      <c r="R17" s="139"/>
     </row>
     <row r="18" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="46" t="s">
@@ -8292,10 +8316,10 @@
       <c r="Q18" s="46">
         <v>2</v>
       </c>
-      <c r="R18" s="153"/>
+      <c r="R18" s="139"/>
     </row>
     <row r="19" spans="1:18" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="46" t="s">
@@ -8327,20 +8351,20 @@
       <c r="M19" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N19" s="145" t="s">
+      <c r="N19" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="O19" s="145">
-        <v>6</v>
-      </c>
-      <c r="P19" s="145">
+      <c r="O19" s="131">
+        <v>6</v>
+      </c>
+      <c r="P19" s="131">
         <v>2</v>
       </c>
       <c r="Q19" s="46"/>
-      <c r="R19" s="153"/>
+      <c r="R19" s="139"/>
     </row>
     <row r="20" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="134" t="s">
+      <c r="A20" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="46" t="s">
@@ -8380,10 +8404,10 @@
         <v>2</v>
       </c>
       <c r="Q20" s="46"/>
-      <c r="R20" s="153"/>
+      <c r="R20" s="139"/>
     </row>
     <row r="21" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="46" t="s">
@@ -8413,20 +8437,20 @@
       <c r="M21" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N21" s="145" t="s">
+      <c r="N21" s="131" t="s">
         <v>242</v>
       </c>
-      <c r="O21" s="145">
-        <v>4</v>
-      </c>
-      <c r="P21" s="145">
+      <c r="O21" s="131">
+        <v>4</v>
+      </c>
+      <c r="P21" s="131">
         <v>4</v>
       </c>
       <c r="Q21" s="46"/>
-      <c r="R21" s="153"/>
+      <c r="R21" s="139"/>
     </row>
     <row r="22" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="134" t="s">
+      <c r="A22" s="120" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="46" t="s">
@@ -8460,20 +8484,20 @@
       <c r="M22" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N22" s="152" t="s">
+      <c r="N22" s="138" t="s">
         <v>213</v>
       </c>
-      <c r="O22" s="152">
-        <v>8</v>
-      </c>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152">
+      <c r="O22" s="138">
+        <v>8</v>
+      </c>
+      <c r="P22" s="138"/>
+      <c r="Q22" s="138">
         <v>0</v>
       </c>
-      <c r="R22" s="153"/>
+      <c r="R22" s="139"/>
     </row>
     <row r="23" spans="1:18" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="134" t="s">
+      <c r="A23" s="120" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="46" t="s">
@@ -8503,20 +8527,20 @@
       <c r="M23" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N23" s="152" t="s">
+      <c r="N23" s="138" t="s">
         <v>240</v>
       </c>
-      <c r="O23" s="152">
-        <v>8</v>
-      </c>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152">
-        <v>4</v>
-      </c>
-      <c r="R23" s="153"/>
+      <c r="O23" s="138">
+        <v>8</v>
+      </c>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138">
+        <v>4</v>
+      </c>
+      <c r="R23" s="139"/>
     </row>
     <row r="24" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="134" t="s">
+      <c r="A24" s="120" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="46" t="s">
@@ -8554,10 +8578,10 @@
       <c r="O24" s="46"/>
       <c r="P24" s="46"/>
       <c r="Q24" s="46"/>
-      <c r="R24" s="153"/>
+      <c r="R24" s="139"/>
     </row>
     <row r="25" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="134" t="s">
+      <c r="A25" s="120" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="46" t="s">
@@ -8597,12 +8621,12 @@
       <c r="O25" s="46">
         <v>10</v>
       </c>
-      <c r="P25" s="145"/>
-      <c r="Q25" s="145"/>
-      <c r="R25" s="153"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="139"/>
     </row>
     <row r="26" spans="1:18" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="134" t="s">
+      <c r="A26" s="120" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="46" t="s">
@@ -8640,10 +8664,10 @@
         <v>12</v>
       </c>
       <c r="Q26" s="46"/>
-      <c r="R26" s="153"/>
-    </row>
-    <row r="27" spans="1:18" s="157" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="R26" s="139"/>
+    </row>
+    <row r="27" spans="1:18" s="143" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="53" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="52" t="s">
@@ -8677,20 +8701,20 @@
       <c r="M27" s="52">
         <v>6.090103</v>
       </c>
-      <c r="N27" s="155" t="s">
+      <c r="N27" s="141" t="s">
         <v>214</v>
       </c>
-      <c r="O27" s="155">
+      <c r="O27" s="141">
         <v>10</v>
       </c>
-      <c r="P27" s="155"/>
-      <c r="Q27" s="155">
-        <v>4</v>
-      </c>
-      <c r="R27" s="156"/>
+      <c r="P27" s="141"/>
+      <c r="Q27" s="141">
+        <v>4</v>
+      </c>
+      <c r="R27" s="142"/>
     </row>
     <row r="28" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="120" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="46" t="s">
@@ -8722,18 +8746,18 @@
       <c r="M28" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N28" s="163" t="s">
+      <c r="N28" s="149" t="s">
         <v>232</v>
       </c>
-      <c r="O28" s="163">
-        <v>4</v>
-      </c>
-      <c r="P28" s="163"/>
-      <c r="Q28" s="163"/>
-      <c r="R28" s="164"/>
+      <c r="O28" s="149">
+        <v>4</v>
+      </c>
+      <c r="P28" s="149"/>
+      <c r="Q28" s="149"/>
+      <c r="R28" s="150"/>
     </row>
     <row r="29" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="120" t="s">
         <v>193</v>
       </c>
       <c r="B29" s="46" t="s">
@@ -8765,20 +8789,20 @@
       <c r="M29" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N29" s="152" t="s">
+      <c r="N29" s="138" t="s">
         <v>241</v>
       </c>
-      <c r="O29" s="152">
-        <v>8</v>
-      </c>
-      <c r="P29" s="152"/>
-      <c r="Q29" s="152">
-        <v>4</v>
-      </c>
-      <c r="R29" s="153"/>
+      <c r="O29" s="138">
+        <v>8</v>
+      </c>
+      <c r="P29" s="138"/>
+      <c r="Q29" s="138">
+        <v>4</v>
+      </c>
+      <c r="R29" s="139"/>
     </row>
     <row r="30" spans="1:18" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="134" t="s">
+      <c r="A30" s="120" t="s">
         <v>193</v>
       </c>
       <c r="B30" s="46" t="s">
@@ -8812,20 +8836,20 @@
       <c r="M30" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N30" s="152" t="s">
+      <c r="N30" s="138" t="s">
         <v>232</v>
       </c>
-      <c r="O30" s="152">
+      <c r="O30" s="138">
         <v>10</v>
       </c>
-      <c r="P30" s="152">
-        <v>4</v>
-      </c>
-      <c r="Q30" s="145"/>
-      <c r="R30" s="153"/>
+      <c r="P30" s="138">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="131"/>
+      <c r="R30" s="139"/>
     </row>
     <row r="31" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="134" t="s">
+      <c r="A31" s="120" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="46" t="s">
@@ -8859,62 +8883,62 @@
       <c r="M31" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N31" s="152" t="s">
+      <c r="N31" s="138" t="s">
         <v>212</v>
       </c>
-      <c r="O31" s="152">
-        <v>8</v>
-      </c>
-      <c r="P31" s="152"/>
-      <c r="Q31" s="152">
-        <v>2</v>
-      </c>
-      <c r="R31" s="154"/>
+      <c r="O31" s="138">
+        <v>8</v>
+      </c>
+      <c r="P31" s="138"/>
+      <c r="Q31" s="138">
+        <v>2</v>
+      </c>
+      <c r="R31" s="140"/>
     </row>
     <row r="32" spans="1:18" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="158" t="s">
+      <c r="A32" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="159" t="s">
+      <c r="B32" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="159">
-        <v>6</v>
-      </c>
-      <c r="D32" s="159">
-        <v>4</v>
-      </c>
-      <c r="E32" s="159">
-        <v>4</v>
-      </c>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159">
-        <v>4</v>
-      </c>
-      <c r="H32" s="159">
+      <c r="C32" s="145">
+        <v>6</v>
+      </c>
+      <c r="D32" s="145">
+        <v>4</v>
+      </c>
+      <c r="E32" s="145">
+        <v>4</v>
+      </c>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145">
+        <v>4</v>
+      </c>
+      <c r="H32" s="145">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I32" s="159"/>
-      <c r="J32" s="159">
+      <c r="I32" s="145"/>
+      <c r="J32" s="145">
         <v>3</v>
       </c>
-      <c r="K32" s="159"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="159">
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="145">
         <v>6.090103</v>
       </c>
-      <c r="N32" s="160" t="s">
+      <c r="N32" s="146" t="s">
         <v>200</v>
       </c>
-      <c r="O32" s="160">
-        <v>6</v>
-      </c>
-      <c r="P32" s="160">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="162"/>
+      <c r="O32" s="146">
+        <v>6</v>
+      </c>
+      <c r="P32" s="146">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="147"/>
+      <c r="R32" s="148"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8930,8 +8954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9008,260 +9032,260 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:17" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="92">
-        <v>8</v>
-      </c>
-      <c r="D2" s="92">
+      <c r="C2" s="83">
+        <v>8</v>
+      </c>
+      <c r="D2" s="83">
         <v>16</v>
       </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92">
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83">
         <v>16</v>
       </c>
-      <c r="H2" s="97">
+      <c r="H2" s="88">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97">
-        <v>2</v>
-      </c>
-      <c r="K2" s="97"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92">
+      <c r="I2" s="88"/>
+      <c r="J2" s="88">
+        <v>2</v>
+      </c>
+      <c r="K2" s="88"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N2" s="109" t="s">
+      <c r="N2" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="O2" s="109">
+      <c r="O2" s="100">
         <v>12</v>
       </c>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="124">
+      <c r="P2" s="100"/>
+      <c r="Q2" s="110">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+    <row r="3" spans="1:17" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="92">
-        <v>8</v>
-      </c>
-      <c r="D3" s="92">
-        <v>8</v>
-      </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92">
-        <v>8</v>
-      </c>
-      <c r="H3" s="92">
+      <c r="C3" s="83">
+        <v>8</v>
+      </c>
+      <c r="D3" s="83">
+        <v>8</v>
+      </c>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83">
+        <v>8</v>
+      </c>
+      <c r="H3" s="83">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92">
-        <v>2</v>
-      </c>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92">
+      <c r="I3" s="83"/>
+      <c r="J3" s="83">
+        <v>2</v>
+      </c>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N3" s="93" t="s">
+      <c r="N3" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="O3" s="93">
+      <c r="O3" s="84">
         <v>12</v>
       </c>
-      <c r="P3" s="93">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="94"/>
-    </row>
-    <row r="4" spans="1:17" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="P3" s="84">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="85"/>
+    </row>
+    <row r="4" spans="1:17" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="92">
-        <v>8</v>
-      </c>
-      <c r="D4" s="92">
-        <v>6</v>
-      </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92">
-        <v>6</v>
-      </c>
-      <c r="H4" s="92">
+      <c r="C4" s="83">
+        <v>8</v>
+      </c>
+      <c r="D4" s="83">
+        <v>6</v>
+      </c>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83">
+        <v>6</v>
+      </c>
+      <c r="H4" s="83">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92">
-        <v>2</v>
-      </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92">
+      <c r="I4" s="83"/>
+      <c r="J4" s="83">
+        <v>2</v>
+      </c>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="O4" s="93">
+      <c r="O4" s="84">
         <v>10</v>
       </c>
-      <c r="P4" s="92">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="94"/>
-    </row>
-    <row r="5" spans="1:17" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="P4" s="83">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="85"/>
+    </row>
+    <row r="5" spans="1:17" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="92">
-        <v>6</v>
-      </c>
-      <c r="D5" s="92">
-        <v>4</v>
-      </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92">
-        <v>4</v>
-      </c>
-      <c r="H5" s="92">
+      <c r="C5" s="83">
+        <v>6</v>
+      </c>
+      <c r="D5" s="83">
+        <v>4</v>
+      </c>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83">
+        <v>4</v>
+      </c>
+      <c r="H5" s="83">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92">
-        <v>2</v>
-      </c>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92">
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83">
+        <v>2</v>
+      </c>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="93" t="s">
+      <c r="N5" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="O5" s="93">
-        <v>6</v>
-      </c>
-      <c r="P5" s="92">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="94"/>
-    </row>
-    <row r="6" spans="1:17" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="O5" s="84">
+        <v>6</v>
+      </c>
+      <c r="P5" s="83">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="85"/>
+    </row>
+    <row r="6" spans="1:17" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="104">
-        <v>6</v>
-      </c>
-      <c r="D6" s="104">
-        <v>4</v>
-      </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104">
-        <v>4</v>
-      </c>
-      <c r="H6" s="104">
+      <c r="C6" s="95">
+        <v>6</v>
+      </c>
+      <c r="D6" s="95">
+        <v>4</v>
+      </c>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95">
+        <v>4</v>
+      </c>
+      <c r="H6" s="95">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104">
-        <v>2</v>
-      </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104">
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95">
+        <v>2</v>
+      </c>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="125" t="s">
+      <c r="N6" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="O6" s="125">
-        <v>8</v>
-      </c>
-      <c r="P6" s="125">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="125"/>
-    </row>
-    <row r="7" spans="1:17" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
+      <c r="O6" s="111">
+        <v>8</v>
+      </c>
+      <c r="P6" s="111">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="111"/>
+    </row>
+    <row r="7" spans="1:17" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="92">
-        <v>6</v>
-      </c>
-      <c r="D7" s="92">
-        <v>8</v>
-      </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92">
-        <v>8</v>
-      </c>
-      <c r="H7" s="92">
+      <c r="C7" s="83">
+        <v>6</v>
+      </c>
+      <c r="D7" s="83">
+        <v>8</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83">
+        <v>8</v>
+      </c>
+      <c r="H7" s="83">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92">
-        <v>2</v>
-      </c>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92">
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83">
+        <v>2</v>
+      </c>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="93" t="s">
+      <c r="N7" s="84" t="s">
         <v>244</v>
       </c>
-      <c r="O7" s="93">
-        <v>6</v>
-      </c>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="94">
+      <c r="O7" s="84">
+        <v>6</v>
+      </c>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="85">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B8" s="46" t="s">
@@ -9293,17 +9317,17 @@
       <c r="M8" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N8" s="135" t="s">
+      <c r="N8" s="121" t="s">
         <v>223</v>
       </c>
-      <c r="O8" s="135">
+      <c r="O8" s="121">
         <v>20</v>
       </c>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="136"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="122"/>
     </row>
     <row r="9" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B9" s="46" t="s">
@@ -9333,17 +9357,17 @@
       <c r="M9" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N9" s="135" t="s">
+      <c r="N9" s="121" t="s">
         <v>333</v>
       </c>
-      <c r="O9" s="135">
-        <v>8</v>
-      </c>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="136"/>
+      <c r="O9" s="121">
+        <v>8</v>
+      </c>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="122"/>
     </row>
     <row r="10" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B10" s="46" t="s">
@@ -9373,17 +9397,17 @@
       <c r="M10" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N10" s="142" t="s">
+      <c r="N10" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="O10" s="142">
-        <v>6</v>
-      </c>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="136"/>
+      <c r="O10" s="128">
+        <v>6</v>
+      </c>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="122"/>
     </row>
     <row r="11" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B11" s="46" t="s">
@@ -9417,17 +9441,17 @@
       <c r="M11" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N11" s="142" t="s">
+      <c r="N11" s="128" t="s">
         <v>201</v>
       </c>
-      <c r="O11" s="142">
-        <v>6</v>
-      </c>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="136"/>
+      <c r="O11" s="128">
+        <v>6</v>
+      </c>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="122"/>
     </row>
     <row r="12" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B12" s="46" t="s">
@@ -9457,15 +9481,15 @@
       <c r="M12" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N12" s="135" t="s">
+      <c r="N12" s="121" t="s">
         <v>210</v>
       </c>
-      <c r="O12" s="135"/>
-      <c r="P12" s="135"/>
-      <c r="Q12" s="136"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="122"/>
     </row>
     <row r="13" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B13" s="46" t="s">
@@ -9495,99 +9519,99 @@
       <c r="M13" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N13" s="142" t="s">
+      <c r="N13" s="128" t="s">
         <v>216</v>
       </c>
-      <c r="O13" s="135"/>
-      <c r="P13" s="135"/>
-      <c r="Q13" s="136"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="122"/>
     </row>
     <row r="14" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="130" t="s">
         <v>194</v>
       </c>
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145">
-        <v>8</v>
-      </c>
-      <c r="F14" s="145">
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131">
+        <v>8</v>
+      </c>
+      <c r="F14" s="131">
         <v>10</v>
       </c>
-      <c r="G14" s="145">
+      <c r="G14" s="131">
         <v>0</v>
       </c>
-      <c r="H14" s="145">
+      <c r="H14" s="131">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145">
-        <v>4</v>
-      </c>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="145">
+      <c r="I14" s="131"/>
+      <c r="J14" s="131">
+        <v>4</v>
+      </c>
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="131">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N14" s="141" t="s">
+      <c r="N14" s="127" t="s">
         <v>203</v>
       </c>
-      <c r="O14" s="141">
+      <c r="O14" s="127">
         <v>12</v>
       </c>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="146">
+      <c r="P14" s="127"/>
+      <c r="Q14" s="132">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="99" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="127" t="s">
+    <row r="15" spans="1:17" s="90" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="113" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128">
-        <v>4</v>
-      </c>
-      <c r="F15" s="128">
-        <v>8</v>
-      </c>
-      <c r="G15" s="128">
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114">
+        <v>4</v>
+      </c>
+      <c r="F15" s="114">
+        <v>8</v>
+      </c>
+      <c r="G15" s="114">
         <v>0</v>
       </c>
-      <c r="H15" s="128">
+      <c r="H15" s="114">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128">
-        <v>4</v>
-      </c>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128">
+      <c r="I15" s="114"/>
+      <c r="J15" s="114">
+        <v>4</v>
+      </c>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N15" s="128" t="s">
+      <c r="N15" s="114" t="s">
         <v>246</v>
       </c>
-      <c r="O15" s="109">
-        <v>8</v>
-      </c>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="124">
+      <c r="O15" s="100">
+        <v>8</v>
+      </c>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="110">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="46" t="s">
@@ -9619,65 +9643,65 @@
       <c r="M16" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N16" s="142" t="s">
+      <c r="N16" s="128" t="s">
         <v>204</v>
       </c>
-      <c r="O16" s="142">
-        <v>8</v>
-      </c>
-      <c r="P16" s="142">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="136"/>
+      <c r="O16" s="128">
+        <v>8</v>
+      </c>
+      <c r="P16" s="128">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="122"/>
     </row>
     <row r="17" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="166" t="s">
+      <c r="A17" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="166" t="s">
+      <c r="B17" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="166">
-        <v>4</v>
-      </c>
-      <c r="D17" s="166">
-        <v>4</v>
-      </c>
-      <c r="E17" s="166">
-        <v>6</v>
-      </c>
-      <c r="F17" s="166">
-        <v>6</v>
-      </c>
-      <c r="G17" s="166">
-        <v>4</v>
-      </c>
-      <c r="H17" s="166">
+      <c r="C17" s="152">
+        <v>4</v>
+      </c>
+      <c r="D17" s="152">
+        <v>4</v>
+      </c>
+      <c r="E17" s="152">
+        <v>6</v>
+      </c>
+      <c r="F17" s="152">
+        <v>6</v>
+      </c>
+      <c r="G17" s="152">
+        <v>4</v>
+      </c>
+      <c r="H17" s="152">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I17" s="166"/>
-      <c r="J17" s="166">
-        <v>4</v>
-      </c>
-      <c r="K17" s="166"/>
-      <c r="L17" s="166"/>
-      <c r="M17" s="166">
+      <c r="I17" s="152"/>
+      <c r="J17" s="152">
+        <v>4</v>
+      </c>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152">
         <v>6.080101</v>
       </c>
-      <c r="N17" s="167" t="s">
+      <c r="N17" s="153" t="s">
         <v>334</v>
       </c>
-      <c r="O17" s="167">
-        <v>8</v>
-      </c>
-      <c r="P17" s="167"/>
-      <c r="Q17" s="167">
+      <c r="O17" s="153">
+        <v>8</v>
+      </c>
+      <c r="P17" s="153"/>
+      <c r="Q17" s="153">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="50" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="46" t="s">
@@ -9709,17 +9733,17 @@
       <c r="M18" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N18" s="142" t="s">
+      <c r="N18" s="128" t="s">
         <v>247</v>
       </c>
-      <c r="O18" s="135">
+      <c r="O18" s="121">
         <v>10</v>
       </c>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="136"/>
+      <c r="P18" s="121"/>
+      <c r="Q18" s="122"/>
     </row>
     <row r="19" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="46" t="s">
@@ -9751,19 +9775,19 @@
       <c r="M19" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N19" s="142" t="s">
+      <c r="N19" s="128" t="s">
         <v>218</v>
       </c>
-      <c r="O19" s="142">
+      <c r="O19" s="128">
         <v>10</v>
       </c>
-      <c r="P19" s="142">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="136"/>
+      <c r="P19" s="128">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="122"/>
     </row>
     <row r="20" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="134" t="s">
+      <c r="A20" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="46" t="s">
@@ -9791,17 +9815,17 @@
       <c r="M20" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N20" s="135" t="s">
+      <c r="N20" s="121" t="s">
         <v>219</v>
       </c>
-      <c r="O20" s="135">
-        <v>8</v>
-      </c>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="136"/>
+      <c r="O20" s="121">
+        <v>8</v>
+      </c>
+      <c r="P20" s="121"/>
+      <c r="Q20" s="122"/>
     </row>
     <row r="21" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="46" t="s">
@@ -9831,15 +9855,15 @@
       <c r="M21" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N21" s="142" t="s">
+      <c r="N21" s="128" t="s">
         <v>220</v>
       </c>
-      <c r="O21" s="135"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="136"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="122"/>
     </row>
     <row r="22" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="134" t="s">
+      <c r="A22" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="46" t="s">
@@ -9869,19 +9893,19 @@
       <c r="M22" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N22" s="142" t="s">
+      <c r="N22" s="128" t="s">
         <v>248</v>
       </c>
-      <c r="O22" s="142">
-        <v>8</v>
-      </c>
-      <c r="P22" s="142">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="136"/>
+      <c r="O22" s="128">
+        <v>8</v>
+      </c>
+      <c r="P22" s="128">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="122"/>
     </row>
     <row r="23" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="134" t="s">
+      <c r="A23" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="46" t="s">
@@ -9913,19 +9937,19 @@
       <c r="M23" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N23" s="142" t="s">
+      <c r="N23" s="128" t="s">
         <v>204</v>
       </c>
-      <c r="O23" s="142">
-        <v>8</v>
-      </c>
-      <c r="P23" s="142">
+      <c r="O23" s="128">
+        <v>8</v>
+      </c>
+      <c r="P23" s="128">
         <v>0</v>
       </c>
-      <c r="Q23" s="136"/>
+      <c r="Q23" s="122"/>
     </row>
     <row r="24" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="134" t="s">
+      <c r="A24" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="46" t="s">
@@ -9957,19 +9981,19 @@
       <c r="M24" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N24" s="142" t="s">
+      <c r="N24" s="128" t="s">
         <v>235</v>
       </c>
-      <c r="O24" s="142">
-        <v>8</v>
-      </c>
-      <c r="P24" s="142"/>
-      <c r="Q24" s="165">
+      <c r="O24" s="128">
+        <v>8</v>
+      </c>
+      <c r="P24" s="128"/>
+      <c r="Q24" s="151">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="134" t="s">
+      <c r="A25" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="46" t="s">
@@ -10001,17 +10025,17 @@
       <c r="M25" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N25" s="142" t="s">
+      <c r="N25" s="128" t="s">
         <v>249</v>
       </c>
-      <c r="O25" s="142">
+      <c r="O25" s="128">
         <v>10</v>
       </c>
-      <c r="P25" s="135"/>
-      <c r="Q25" s="136"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="122"/>
     </row>
     <row r="26" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="134" t="s">
+      <c r="A26" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="46" t="s">
@@ -10041,19 +10065,19 @@
       <c r="M26" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N26" s="135" t="s">
+      <c r="N26" s="121" t="s">
         <v>216</v>
       </c>
-      <c r="O26" s="135">
-        <v>8</v>
-      </c>
-      <c r="P26" s="135">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="136"/>
+      <c r="O26" s="121">
+        <v>8</v>
+      </c>
+      <c r="P26" s="121">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="122"/>
     </row>
     <row r="27" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="134" t="s">
+      <c r="A27" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="46" t="s">
@@ -10083,19 +10107,19 @@
       <c r="M27" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N27" s="135" t="s">
+      <c r="N27" s="121" t="s">
         <v>221</v>
       </c>
-      <c r="O27" s="135">
-        <v>6</v>
-      </c>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="136">
+      <c r="O27" s="121">
+        <v>6</v>
+      </c>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="122">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="46" t="s">
@@ -10125,19 +10149,19 @@
       <c r="M28" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N28" s="135" t="s">
+      <c r="N28" s="121" t="s">
         <v>242</v>
       </c>
-      <c r="O28" s="135">
-        <v>6</v>
-      </c>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="136">
+      <c r="O28" s="121">
+        <v>6</v>
+      </c>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="122">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="46" t="s">
@@ -10145,10 +10169,10 @@
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
-      <c r="E29" s="145">
-        <v>4</v>
-      </c>
-      <c r="F29" s="145">
+      <c r="E29" s="131">
+        <v>4</v>
+      </c>
+      <c r="F29" s="131">
         <v>6</v>
       </c>
       <c r="G29" s="46">
@@ -10167,17 +10191,17 @@
       <c r="M29" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N29" s="141" t="s">
+      <c r="N29" s="127" t="s">
         <v>241</v>
       </c>
-      <c r="O29" s="141">
-        <v>8</v>
-      </c>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="146"/>
+      <c r="O29" s="127">
+        <v>8</v>
+      </c>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="132"/>
     </row>
     <row r="30" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="134" t="s">
+      <c r="A30" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="46" t="s">
@@ -10211,57 +10235,57 @@
       <c r="M30" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N30" s="142" t="s">
+      <c r="N30" s="128" t="s">
         <v>222</v>
       </c>
-      <c r="O30" s="142">
-        <v>6</v>
-      </c>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="165">
+      <c r="O30" s="128">
+        <v>6</v>
+      </c>
+      <c r="P30" s="128"/>
+      <c r="Q30" s="151">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="99" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="91" t="s">
+    <row r="31" spans="1:17" s="90" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="92">
-        <v>6</v>
-      </c>
-      <c r="D31" s="92">
-        <v>2</v>
-      </c>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92">
-        <v>2</v>
-      </c>
-      <c r="H31" s="92">
+      <c r="C31" s="83">
+        <v>6</v>
+      </c>
+      <c r="D31" s="83">
+        <v>2</v>
+      </c>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83">
+        <v>2</v>
+      </c>
+      <c r="H31" s="83">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92">
-        <v>2</v>
-      </c>
-      <c r="L31" s="92" t="s">
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83">
+        <v>2</v>
+      </c>
+      <c r="L31" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="M31" s="92"/>
-      <c r="N31" s="93" t="s">
+      <c r="M31" s="83"/>
+      <c r="N31" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="O31" s="93"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="94"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="85"/>
     </row>
     <row r="32" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="134" t="s">
+      <c r="A32" s="120" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="46" t="s">
@@ -10295,19 +10319,19 @@
       <c r="M32" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N32" s="142" t="s">
+      <c r="N32" s="128" t="s">
         <v>335</v>
       </c>
-      <c r="O32" s="142">
-        <v>6</v>
-      </c>
-      <c r="P32" s="152">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="136"/>
+      <c r="O32" s="128">
+        <v>6</v>
+      </c>
+      <c r="P32" s="138">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="122"/>
     </row>
     <row r="33" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="134" t="s">
+      <c r="A33" s="120" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="46" t="s">
@@ -10339,57 +10363,57 @@
       <c r="M33" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N33" s="142" t="s">
+      <c r="N33" s="128" t="s">
         <v>208</v>
       </c>
-      <c r="O33" s="142">
-        <v>4</v>
-      </c>
-      <c r="P33" s="142">
+      <c r="O33" s="128">
+        <v>4</v>
+      </c>
+      <c r="P33" s="128">
         <v>0</v>
       </c>
-      <c r="Q33" s="165"/>
-    </row>
-    <row r="34" spans="1:17" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="91" t="s">
+      <c r="Q33" s="151"/>
+    </row>
+    <row r="34" spans="1:17" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="92" t="s">
+      <c r="B34" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="92">
-        <v>6</v>
-      </c>
-      <c r="D34" s="92">
-        <v>2</v>
-      </c>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92">
-        <v>2</v>
-      </c>
-      <c r="H34" s="92">
+      <c r="C34" s="83">
+        <v>6</v>
+      </c>
+      <c r="D34" s="83">
+        <v>2</v>
+      </c>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83">
+        <v>2</v>
+      </c>
+      <c r="H34" s="83">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92">
-        <v>2</v>
-      </c>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92">
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83">
+        <v>2</v>
+      </c>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83">
         <v>6.090103</v>
       </c>
-      <c r="N34" s="99" t="s">
+      <c r="N34" s="90" t="s">
         <v>282</v>
       </c>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="94"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="85"/>
     </row>
     <row r="35" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="134" t="s">
+      <c r="A35" s="120" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="46" t="s">
@@ -10425,19 +10449,19 @@
       <c r="M35" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N35" s="142" t="s">
+      <c r="N35" s="128" t="s">
         <v>250</v>
       </c>
-      <c r="O35" s="142">
+      <c r="O35" s="128">
         <v>12</v>
       </c>
       <c r="P35" s="46">
         <v>0</v>
       </c>
-      <c r="Q35" s="136"/>
+      <c r="Q35" s="122"/>
     </row>
     <row r="36" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="134" t="s">
+      <c r="A36" s="120" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="46" t="s">
@@ -10469,19 +10493,19 @@
       <c r="M36" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N36" s="142" t="s">
+      <c r="N36" s="128" t="s">
         <v>242</v>
       </c>
-      <c r="O36" s="142">
-        <v>6</v>
-      </c>
-      <c r="P36" s="142"/>
-      <c r="Q36" s="165">
+      <c r="O36" s="128">
+        <v>6</v>
+      </c>
+      <c r="P36" s="128"/>
+      <c r="Q36" s="151">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="134" t="s">
+      <c r="A37" s="120" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="46" t="s">
@@ -10511,19 +10535,19 @@
       <c r="M37" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N37" s="135" t="s">
+      <c r="N37" s="121" t="s">
         <v>207</v>
       </c>
-      <c r="O37" s="135">
-        <v>4</v>
-      </c>
-      <c r="P37" s="135">
-        <v>6</v>
-      </c>
-      <c r="Q37" s="136"/>
+      <c r="O37" s="121">
+        <v>4</v>
+      </c>
+      <c r="P37" s="121">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="122"/>
     </row>
     <row r="38" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="134" t="s">
+      <c r="A38" s="120" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="46" t="s">
@@ -10555,15 +10579,15 @@
       <c r="M38" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N38" s="135" t="s">
+      <c r="N38" s="121" t="s">
         <v>283</v>
       </c>
-      <c r="O38" s="135"/>
-      <c r="P38" s="135"/>
-      <c r="Q38" s="136"/>
+      <c r="O38" s="121"/>
+      <c r="P38" s="121"/>
+      <c r="Q38" s="122"/>
     </row>
     <row r="39" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="134" t="s">
+      <c r="A39" s="120" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="46" t="s">
@@ -10595,19 +10619,19 @@
       <c r="M39" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N39" s="135" t="s">
+      <c r="N39" s="121" t="s">
         <v>250</v>
       </c>
-      <c r="O39" s="135">
+      <c r="O39" s="121">
         <v>6</v>
       </c>
       <c r="P39" s="46">
         <v>4</v>
       </c>
-      <c r="Q39" s="136"/>
+      <c r="Q39" s="122"/>
     </row>
     <row r="40" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="134" t="s">
+      <c r="A40" s="120" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="46" t="s">
@@ -10639,53 +10663,53 @@
       <c r="M40" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N40" s="135" t="s">
+      <c r="N40" s="121" t="s">
         <v>243</v>
       </c>
-      <c r="O40" s="141"/>
-      <c r="P40" s="141"/>
-      <c r="Q40" s="136"/>
-    </row>
-    <row r="41" spans="1:17" s="99" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="91" t="s">
+      <c r="O40" s="127"/>
+      <c r="P40" s="127"/>
+      <c r="Q40" s="122"/>
+    </row>
+    <row r="41" spans="1:17" s="90" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92">
-        <v>4</v>
-      </c>
-      <c r="E41" s="92">
-        <v>4</v>
-      </c>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92">
-        <v>4</v>
-      </c>
-      <c r="H41" s="92">
+      <c r="C41" s="83"/>
+      <c r="D41" s="83">
+        <v>4</v>
+      </c>
+      <c r="E41" s="83">
+        <v>4</v>
+      </c>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83">
+        <v>4</v>
+      </c>
+      <c r="H41" s="83">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92">
+      <c r="I41" s="83"/>
+      <c r="J41" s="83">
         <v>3</v>
       </c>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92" t="s">
+      <c r="K41" s="83"/>
+      <c r="L41" s="83" t="s">
         <v>199</v>
       </c>
-      <c r="M41" s="92"/>
-      <c r="N41" s="93" t="s">
+      <c r="M41" s="83"/>
+      <c r="N41" s="84" t="s">
         <v>281</v>
       </c>
-      <c r="O41" s="93"/>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="94"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="84"/>
+      <c r="Q41" s="85"/>
     </row>
     <row r="42" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="134" t="s">
+      <c r="A42" s="120" t="s">
         <v>56</v>
       </c>
       <c r="B42" s="46" t="s">
@@ -10717,19 +10741,19 @@
       <c r="M42" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N42" s="135" t="s">
+      <c r="N42" s="121" t="s">
         <v>250</v>
       </c>
-      <c r="O42" s="135">
-        <v>8</v>
-      </c>
-      <c r="P42" s="135"/>
-      <c r="Q42" s="136">
+      <c r="O42" s="121">
+        <v>8</v>
+      </c>
+      <c r="P42" s="121"/>
+      <c r="Q42" s="122">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="134" t="s">
+      <c r="A43" s="120" t="s">
         <v>56</v>
       </c>
       <c r="B43" s="46" t="s">
@@ -10763,60 +10787,60 @@
       <c r="M43" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N43" s="142" t="s">
+      <c r="N43" s="128" t="s">
         <v>213</v>
       </c>
-      <c r="O43" s="142">
-        <v>6</v>
-      </c>
-      <c r="P43" s="142">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="136"/>
+      <c r="O43" s="128">
+        <v>6</v>
+      </c>
+      <c r="P43" s="128">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="122"/>
     </row>
     <row r="44" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="158" t="s">
+      <c r="A44" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="159" t="s">
+      <c r="B44" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="159">
-        <v>6</v>
-      </c>
-      <c r="D44" s="159">
-        <v>6</v>
-      </c>
-      <c r="E44" s="159">
-        <v>6</v>
-      </c>
-      <c r="F44" s="159">
-        <v>8</v>
-      </c>
-      <c r="G44" s="159">
-        <v>6</v>
-      </c>
-      <c r="H44" s="159">
+      <c r="C44" s="145">
+        <v>6</v>
+      </c>
+      <c r="D44" s="145">
+        <v>6</v>
+      </c>
+      <c r="E44" s="145">
+        <v>6</v>
+      </c>
+      <c r="F44" s="145">
+        <v>8</v>
+      </c>
+      <c r="G44" s="145">
+        <v>6</v>
+      </c>
+      <c r="H44" s="145">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I44" s="159"/>
-      <c r="J44" s="159"/>
-      <c r="K44" s="159">
-        <v>4</v>
-      </c>
-      <c r="L44" s="159"/>
-      <c r="M44" s="159">
+      <c r="I44" s="145"/>
+      <c r="J44" s="145"/>
+      <c r="K44" s="145">
+        <v>4</v>
+      </c>
+      <c r="L44" s="145"/>
+      <c r="M44" s="145">
         <v>6.090103</v>
       </c>
-      <c r="N44" s="168" t="s">
+      <c r="N44" s="154" t="s">
         <v>337</v>
       </c>
-      <c r="O44" s="168">
+      <c r="O44" s="154">
         <v>12</v>
       </c>
-      <c r="P44" s="169"/>
-      <c r="Q44" s="170"/>
+      <c r="P44" s="155"/>
+      <c r="Q44" s="156"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -11001,8 +11025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11079,8 +11103,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
+    <row r="2" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B2" s="46" t="s">
@@ -11110,19 +11134,19 @@
       <c r="M2" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N2" s="135" t="s">
+      <c r="N2" s="121" t="s">
         <v>223</v>
       </c>
-      <c r="O2" s="135">
+      <c r="O2" s="121">
         <v>12</v>
       </c>
-      <c r="P2" s="135">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="136"/>
-    </row>
-    <row r="3" spans="1:17" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
+      <c r="P2" s="121">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="122"/>
+    </row>
+    <row r="3" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="46" t="s">
@@ -11152,19 +11176,19 @@
       <c r="M3" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N3" s="135" t="s">
+      <c r="N3" s="121" t="s">
         <v>215</v>
       </c>
-      <c r="O3" s="135">
+      <c r="O3" s="121">
         <v>10</v>
       </c>
-      <c r="P3" s="135">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="136"/>
-    </row>
-    <row r="4" spans="1:17" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="134" t="s">
+      <c r="P3" s="121">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="122"/>
+    </row>
+    <row r="4" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B4" s="46" t="s">
@@ -11194,17 +11218,17 @@
       <c r="M4" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N4" s="135" t="s">
+      <c r="N4" s="121" t="s">
         <v>203</v>
       </c>
-      <c r="O4" s="135">
+      <c r="O4" s="121">
         <v>10</v>
       </c>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="136"/>
-    </row>
-    <row r="5" spans="1:17" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
+      <c r="P4" s="121"/>
+      <c r="Q4" s="122"/>
+    </row>
+    <row r="5" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B5" s="46" t="s">
@@ -11234,19 +11258,19 @@
       <c r="M5" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="142" t="s">
+      <c r="N5" s="128" t="s">
         <v>216</v>
       </c>
-      <c r="O5" s="142">
+      <c r="O5" s="128">
         <v>10</v>
       </c>
-      <c r="P5" s="152">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="136"/>
-    </row>
-    <row r="6" spans="1:17" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="134" t="s">
+      <c r="P5" s="138">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="122"/>
+    </row>
+    <row r="6" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B6" s="46" t="s">
@@ -11276,19 +11300,19 @@
       <c r="M6" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="O6" s="135">
+      <c r="O6" s="121">
         <v>8</v>
       </c>
       <c r="P6" s="46">
         <v>2</v>
       </c>
-      <c r="Q6" s="136"/>
-    </row>
-    <row r="7" spans="1:17" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="134" t="s">
+      <c r="Q6" s="122"/>
+    </row>
+    <row r="7" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B7" s="46" t="s">
@@ -11322,57 +11346,57 @@
       <c r="M7" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="135" t="s">
+      <c r="N7" s="121" t="s">
         <v>219</v>
       </c>
-      <c r="O7" s="135">
+      <c r="O7" s="121">
         <v>8</v>
       </c>
       <c r="P7" s="46">
         <v>2</v>
       </c>
-      <c r="Q7" s="136"/>
-    </row>
-    <row r="8" spans="1:17" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="127" t="s">
+      <c r="Q7" s="122"/>
+    </row>
+    <row r="8" spans="1:17" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="113" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128">
-        <v>6</v>
-      </c>
-      <c r="E8" s="128">
-        <v>4</v>
-      </c>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128">
-        <v>6</v>
-      </c>
-      <c r="H8" s="128">
+      <c r="C8" s="114"/>
+      <c r="D8" s="114">
+        <v>6</v>
+      </c>
+      <c r="E8" s="114">
+        <v>4</v>
+      </c>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114">
+        <v>6</v>
+      </c>
+      <c r="H8" s="114">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128">
+      <c r="I8" s="114"/>
+      <c r="J8" s="114">
         <v>3</v>
       </c>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128">
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N8" s="109" t="s">
+      <c r="N8" s="100" t="s">
         <v>340</v>
       </c>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="124"/>
-    </row>
-    <row r="9" spans="1:17" s="147" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="134" t="s">
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="110"/>
+    </row>
+    <row r="9" spans="1:17" s="133" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B9" s="46" t="s">
@@ -11402,17 +11426,17 @@
       <c r="M9" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N9" s="142" t="s">
+      <c r="N9" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="O9" s="142">
-        <v>6</v>
-      </c>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="136"/>
+      <c r="O9" s="128">
+        <v>6</v>
+      </c>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="122"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>194</v>
       </c>
       <c r="B10" s="52" t="s">
@@ -11442,57 +11466,57 @@
       <c r="M10" s="52">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N10" s="62" t="s">
+      <c r="N10" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="O10" s="62">
+      <c r="O10" s="57">
         <v>10</v>
       </c>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="56"/>
-    </row>
-    <row r="11" spans="1:17" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+    </row>
+    <row r="11" spans="1:17" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92">
-        <v>6</v>
-      </c>
-      <c r="E11" s="92">
-        <v>6</v>
-      </c>
-      <c r="F11" s="92">
-        <v>2</v>
-      </c>
-      <c r="G11" s="92">
-        <v>6</v>
-      </c>
-      <c r="H11" s="92">
+      <c r="C11" s="83"/>
+      <c r="D11" s="83">
+        <v>6</v>
+      </c>
+      <c r="E11" s="83">
+        <v>6</v>
+      </c>
+      <c r="F11" s="83">
+        <v>2</v>
+      </c>
+      <c r="G11" s="83">
+        <v>6</v>
+      </c>
+      <c r="H11" s="83">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92">
-        <v>4</v>
-      </c>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92">
+      <c r="I11" s="83"/>
+      <c r="J11" s="83">
+        <v>4</v>
+      </c>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N11" s="93" t="s">
+      <c r="N11" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="94"/>
-    </row>
-    <row r="12" spans="1:17" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="134" t="s">
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="85"/>
+    </row>
+    <row r="12" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B12" s="46" t="s">
@@ -11526,17 +11550,17 @@
       <c r="M12" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N12" s="142" t="s">
+      <c r="N12" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="O12" s="142">
+      <c r="O12" s="128">
         <v>16</v>
       </c>
-      <c r="P12" s="135"/>
-      <c r="Q12" s="136"/>
-    </row>
-    <row r="13" spans="1:17" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="134" t="s">
+      <c r="P12" s="121"/>
+      <c r="Q12" s="122"/>
+    </row>
+    <row r="13" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B13" s="46" t="s">
@@ -11566,15 +11590,15 @@
       <c r="M13" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N13" s="142" t="s">
+      <c r="N13" s="128" t="s">
         <v>224</v>
       </c>
-      <c r="O13" s="135"/>
-      <c r="P13" s="135"/>
-      <c r="Q13" s="136"/>
-    </row>
-    <row r="14" spans="1:17" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="134" t="s">
+      <c r="O13" s="121"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="122"/>
+    </row>
+    <row r="14" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B14" s="46" t="s">
@@ -11604,15 +11628,15 @@
       <c r="M14" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N14" s="142" t="s">
+      <c r="N14" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="O14" s="135"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="136"/>
-    </row>
-    <row r="15" spans="1:17" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="134" t="s">
+      <c r="O14" s="121"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="122"/>
+    </row>
+    <row r="15" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="120" t="s">
         <v>194</v>
       </c>
       <c r="B15" s="46" t="s">
@@ -11642,15 +11666,15 @@
       <c r="M15" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N15" s="142" t="s">
+      <c r="N15" s="128" t="s">
         <v>225</v>
       </c>
-      <c r="O15" s="135"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="136"/>
-    </row>
-    <row r="16" spans="1:17" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="134" t="s">
+      <c r="O15" s="121"/>
+      <c r="P15" s="121"/>
+      <c r="Q15" s="122"/>
+    </row>
+    <row r="16" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="46" t="s">
@@ -11684,57 +11708,57 @@
       <c r="M16" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N16" s="142" t="s">
+      <c r="N16" s="128" t="s">
         <v>226</v>
       </c>
-      <c r="O16" s="142">
+      <c r="O16" s="128">
         <v>12</v>
       </c>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="165">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="P16" s="128"/>
+      <c r="Q16" s="151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4">
-        <v>6</v>
-      </c>
-      <c r="F17" s="4">
-        <v>6</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46">
+        <v>6</v>
+      </c>
+      <c r="F17" s="46">
+        <v>6</v>
+      </c>
+      <c r="G17" s="46">
         <v>0</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="46">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4">
-        <v>4</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4">
+      <c r="I17" s="46"/>
+      <c r="J17" s="46">
+        <v>4</v>
+      </c>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N17" s="128" t="s">
         <v>220</v>
       </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="12"/>
-    </row>
-    <row r="18" spans="1:18" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="134" t="s">
+      <c r="O17" s="121"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="122"/>
+    </row>
+    <row r="18" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="46" t="s">
@@ -11766,59 +11790,59 @@
       <c r="M18" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N18" s="135" t="s">
+      <c r="N18" s="121" t="s">
         <v>285</v>
       </c>
-      <c r="O18" s="135"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="136"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="O18" s="121"/>
+      <c r="P18" s="121"/>
+      <c r="Q18" s="122"/>
+    </row>
+    <row r="19" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4">
-        <v>8</v>
-      </c>
-      <c r="E19" s="4">
-        <v>6</v>
-      </c>
-      <c r="F19" s="4">
-        <v>6</v>
-      </c>
-      <c r="G19" s="4">
-        <v>8</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="C19" s="46"/>
+      <c r="D19" s="46">
+        <v>8</v>
+      </c>
+      <c r="E19" s="46">
+        <v>6</v>
+      </c>
+      <c r="F19" s="46">
+        <v>6</v>
+      </c>
+      <c r="G19" s="46">
+        <v>8</v>
+      </c>
+      <c r="H19" s="46">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4">
-        <v>4</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4">
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46">
+        <v>4</v>
+      </c>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="128" t="s">
         <v>251</v>
       </c>
-      <c r="O19" s="10">
-        <v>8</v>
-      </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="60">
+      <c r="O19" s="128">
+        <v>8</v>
+      </c>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="151">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="134" t="s">
+    <row r="20" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="46" t="s">
@@ -11848,15 +11872,15 @@
       <c r="M20" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N20" s="142" t="s">
+      <c r="N20" s="128" t="s">
         <v>249</v>
       </c>
-      <c r="O20" s="135"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="136"/>
-    </row>
-    <row r="21" spans="1:18" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="134" t="s">
+      <c r="O20" s="121"/>
+      <c r="P20" s="121"/>
+      <c r="Q20" s="122"/>
+    </row>
+    <row r="21" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="46" t="s">
@@ -11886,19 +11910,19 @@
       <c r="M21" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N21" s="142" t="s">
+      <c r="N21" s="128" t="s">
         <v>218</v>
       </c>
-      <c r="O21" s="135">
+      <c r="O21" s="121">
         <v>10</v>
       </c>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="136">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="134" t="s">
+      <c r="P21" s="121"/>
+      <c r="Q21" s="122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="46" t="s">
@@ -11928,19 +11952,19 @@
       <c r="M22" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N22" s="142" t="s">
+      <c r="N22" s="128" t="s">
         <v>272</v>
       </c>
-      <c r="O22" s="135">
+      <c r="O22" s="121">
         <v>8</v>
       </c>
       <c r="P22" s="46">
         <v>2</v>
       </c>
-      <c r="Q22" s="136"/>
-    </row>
-    <row r="23" spans="1:18" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="134" t="s">
+      <c r="Q22" s="122"/>
+    </row>
+    <row r="23" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="46" t="s">
@@ -11970,19 +11994,19 @@
       <c r="M23" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N23" s="142" t="s">
+      <c r="N23" s="128" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="142">
-        <v>8</v>
-      </c>
-      <c r="P23" s="142">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="136"/>
-    </row>
-    <row r="24" spans="1:18" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="134" t="s">
+      <c r="O23" s="128">
+        <v>8</v>
+      </c>
+      <c r="P23" s="128">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="122"/>
+    </row>
+    <row r="24" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="46" t="s">
@@ -12012,56 +12036,56 @@
       <c r="M24" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N24" s="135" t="s">
+      <c r="N24" s="121" t="s">
         <v>216</v>
       </c>
-      <c r="O24" s="135">
-        <v>8</v>
-      </c>
-      <c r="P24" s="135"/>
-      <c r="Q24" s="136">
+      <c r="O24" s="121">
+        <v>8</v>
+      </c>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="122">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64">
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59">
         <v>10</v>
       </c>
-      <c r="G25" s="64">
+      <c r="G25" s="59">
         <v>0</v>
       </c>
-      <c r="H25" s="64">
+      <c r="H25" s="59">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64">
-        <v>4</v>
-      </c>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64">
+      <c r="I25" s="59"/>
+      <c r="J25" s="59">
+        <v>4</v>
+      </c>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59">
         <v>6.080101</v>
       </c>
-      <c r="N25" s="65" t="s">
+      <c r="N25" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="66"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
       <c r="R25" s="28"/>
     </row>
-    <row r="26" spans="1:18" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="134" t="s">
+    <row r="26" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="46" t="s">
@@ -12095,19 +12119,19 @@
       <c r="M26" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N26" s="142" t="s">
+      <c r="N26" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="O26" s="142"/>
-      <c r="P26" s="142">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="165">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="134" t="s">
+      <c r="O26" s="128"/>
+      <c r="P26" s="128">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="46" t="s">
@@ -12137,55 +12161,55 @@
       <c r="M27" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N27" s="142" t="s">
+      <c r="N27" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="O27" s="135"/>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="136"/>
-    </row>
-    <row r="28" spans="1:18" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="91" t="s">
+      <c r="O27" s="121"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="122"/>
+    </row>
+    <row r="28" spans="1:18" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92">
-        <v>6</v>
-      </c>
-      <c r="E28" s="92">
-        <v>6</v>
-      </c>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92">
-        <v>6</v>
-      </c>
-      <c r="H28" s="92">
+      <c r="C28" s="83"/>
+      <c r="D28" s="83">
+        <v>6</v>
+      </c>
+      <c r="E28" s="83">
+        <v>6</v>
+      </c>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83">
+        <v>6</v>
+      </c>
+      <c r="H28" s="83">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92">
+      <c r="I28" s="83"/>
+      <c r="J28" s="83">
         <v>3</v>
       </c>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92">
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83">
         <v>6.080101</v>
       </c>
-      <c r="N28" s="108" t="s">
+      <c r="N28" s="99" t="s">
         <v>274</v>
       </c>
-      <c r="O28" s="108">
-        <v>6</v>
-      </c>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="94"/>
-    </row>
-    <row r="29" spans="1:18" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="134" t="s">
+      <c r="O28" s="99">
+        <v>6</v>
+      </c>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="85"/>
+    </row>
+    <row r="29" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="120" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="46" t="s">
@@ -12215,570 +12239,570 @@
       <c r="M29" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N29" s="135" t="s">
+      <c r="N29" s="121" t="s">
         <v>330</v>
       </c>
-      <c r="O29" s="135"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="136"/>
-    </row>
-    <row r="30" spans="1:18" s="126" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="91" t="s">
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="122"/>
+    </row>
+    <row r="30" spans="1:18" s="112" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="92" t="s">
+      <c r="B30" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92">
-        <v>4</v>
-      </c>
-      <c r="E30" s="92">
-        <v>4</v>
-      </c>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92">
-        <v>4</v>
-      </c>
-      <c r="H30" s="92">
+      <c r="C30" s="83"/>
+      <c r="D30" s="83">
+        <v>4</v>
+      </c>
+      <c r="E30" s="83">
+        <v>4</v>
+      </c>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83">
+        <v>4</v>
+      </c>
+      <c r="H30" s="83">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92">
+      <c r="I30" s="83"/>
+      <c r="J30" s="83">
         <v>3</v>
       </c>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92" t="s">
+      <c r="K30" s="83"/>
+      <c r="L30" s="83" t="s">
         <v>199</v>
       </c>
-      <c r="M30" s="92"/>
-      <c r="N30" s="93" t="s">
+      <c r="M30" s="83"/>
+      <c r="N30" s="84" t="s">
         <v>281</v>
       </c>
-      <c r="O30" s="93"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="94"/>
-    </row>
-    <row r="31" spans="1:18" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="91" t="s">
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="85"/>
+    </row>
+    <row r="31" spans="1:18" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="92">
-        <v>4</v>
-      </c>
-      <c r="D31" s="92">
-        <v>4</v>
-      </c>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92">
-        <v>4</v>
-      </c>
-      <c r="H31" s="92">
+      <c r="C31" s="83">
+        <v>4</v>
+      </c>
+      <c r="D31" s="83">
+        <v>4</v>
+      </c>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83">
+        <v>4</v>
+      </c>
+      <c r="H31" s="83">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92">
-        <v>2</v>
-      </c>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="93" t="s">
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83">
+        <v>2</v>
+      </c>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="84" t="s">
         <v>327</v>
       </c>
-      <c r="O31" s="93"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="94"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="85"/>
+    </row>
+    <row r="32" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="4">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4">
-        <v>4</v>
-      </c>
-      <c r="E32" s="4">
-        <v>2</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4">
-        <v>4</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="C32" s="46">
+        <v>6</v>
+      </c>
+      <c r="D32" s="46">
+        <v>4</v>
+      </c>
+      <c r="E32" s="46">
+        <v>2</v>
+      </c>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46">
+        <v>4</v>
+      </c>
+      <c r="H32" s="46">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4">
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46">
         <v>3</v>
       </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4">
+      <c r="L32" s="46"/>
+      <c r="M32" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N32" s="10" t="s">
+      <c r="N32" s="128" t="s">
         <v>205</v>
       </c>
-      <c r="O32" s="10">
-        <v>6</v>
-      </c>
-      <c r="P32" s="10">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="12"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="O32" s="128">
+        <v>6</v>
+      </c>
+      <c r="P32" s="128">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="122"/>
+    </row>
+    <row r="33" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="4">
-        <v>6</v>
-      </c>
-      <c r="D33" s="4">
-        <v>4</v>
-      </c>
-      <c r="E33" s="52">
-        <v>8</v>
-      </c>
-      <c r="F33" s="52">
-        <v>2</v>
-      </c>
-      <c r="G33" s="4">
-        <v>4</v>
-      </c>
-      <c r="H33" s="4">
+      <c r="C33" s="46">
+        <v>6</v>
+      </c>
+      <c r="D33" s="46">
+        <v>4</v>
+      </c>
+      <c r="E33" s="46">
+        <v>8</v>
+      </c>
+      <c r="F33" s="46">
+        <v>2</v>
+      </c>
+      <c r="G33" s="46">
+        <v>4</v>
+      </c>
+      <c r="H33" s="46">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4">
-        <v>4</v>
-      </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4">
+      <c r="I33" s="46"/>
+      <c r="J33" s="46">
+        <v>4</v>
+      </c>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="N33" s="127" t="s">
         <v>250</v>
       </c>
-      <c r="O33" s="15">
+      <c r="O33" s="127">
         <v>10</v>
       </c>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="58">
+      <c r="P33" s="127"/>
+      <c r="Q33" s="132">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="4">
-        <v>6</v>
-      </c>
-      <c r="D34" s="4">
-        <v>8</v>
-      </c>
-      <c r="E34" s="4">
-        <v>4</v>
-      </c>
-      <c r="F34" s="4">
-        <v>6</v>
-      </c>
-      <c r="G34" s="4">
-        <v>8</v>
-      </c>
-      <c r="H34" s="4">
+      <c r="C34" s="46">
+        <v>6</v>
+      </c>
+      <c r="D34" s="46">
+        <v>8</v>
+      </c>
+      <c r="E34" s="46">
+        <v>4</v>
+      </c>
+      <c r="F34" s="46">
+        <v>6</v>
+      </c>
+      <c r="G34" s="46">
+        <v>8</v>
+      </c>
+      <c r="H34" s="46">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4">
-        <v>4</v>
-      </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4">
+      <c r="I34" s="46"/>
+      <c r="J34" s="46">
+        <v>4</v>
+      </c>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N34" s="121" t="s">
         <v>250</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="121">
         <v>12</v>
       </c>
-      <c r="P34" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="12"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="61" t="s">
+      <c r="P34" s="46">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="122"/>
+    </row>
+    <row r="35" spans="1:17" s="162" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="26">
-        <v>4</v>
-      </c>
-      <c r="D35" s="26">
-        <v>4</v>
-      </c>
-      <c r="E35" s="26">
-        <v>4</v>
-      </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26">
-        <v>4</v>
-      </c>
-      <c r="H35" s="26">
+      <c r="C35" s="164">
+        <v>4</v>
+      </c>
+      <c r="D35" s="164">
+        <v>4</v>
+      </c>
+      <c r="E35" s="164">
+        <v>4</v>
+      </c>
+      <c r="F35" s="164"/>
+      <c r="G35" s="164">
+        <v>4</v>
+      </c>
+      <c r="H35" s="164">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26">
+      <c r="I35" s="164"/>
+      <c r="J35" s="164">
         <v>3</v>
       </c>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26">
+      <c r="K35" s="164"/>
+      <c r="L35" s="164"/>
+      <c r="M35" s="164">
         <v>6.090103</v>
       </c>
-      <c r="N35" s="15" t="s">
+      <c r="N35" s="165" t="s">
         <v>214</v>
       </c>
-      <c r="O35" s="15">
-        <v>6</v>
-      </c>
-      <c r="P35" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="58"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="O35" s="165">
+        <v>6</v>
+      </c>
+      <c r="P35" s="165">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="166"/>
+    </row>
+    <row r="36" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="4">
-        <v>4</v>
-      </c>
-      <c r="D36" s="4">
-        <v>4</v>
-      </c>
-      <c r="E36" s="4">
-        <v>6</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4">
-        <v>4</v>
-      </c>
-      <c r="H36" s="4">
+      <c r="C36" s="46">
+        <v>4</v>
+      </c>
+      <c r="D36" s="46">
+        <v>4</v>
+      </c>
+      <c r="E36" s="46">
+        <v>6</v>
+      </c>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46">
+        <v>4</v>
+      </c>
+      <c r="H36" s="46">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4">
+      <c r="I36" s="46"/>
+      <c r="J36" s="46">
         <v>3</v>
       </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4">
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="N36" s="121" t="s">
         <v>250</v>
       </c>
-      <c r="O36" s="3">
-        <v>8</v>
-      </c>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="12"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="O36" s="121">
+        <v>8</v>
+      </c>
+      <c r="P36" s="121"/>
+      <c r="Q36" s="122"/>
+    </row>
+    <row r="37" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="4">
-        <v>4</v>
-      </c>
-      <c r="D37" s="4">
-        <v>2</v>
-      </c>
-      <c r="E37" s="4">
-        <v>4</v>
-      </c>
-      <c r="F37" s="4">
-        <v>4</v>
-      </c>
-      <c r="G37" s="4">
-        <v>2</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="C37" s="46">
+        <v>4</v>
+      </c>
+      <c r="D37" s="46">
+        <v>2</v>
+      </c>
+      <c r="E37" s="46">
+        <v>4</v>
+      </c>
+      <c r="F37" s="46">
+        <v>4</v>
+      </c>
+      <c r="G37" s="46">
+        <v>2</v>
+      </c>
+      <c r="H37" s="46">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4">
-        <v>4</v>
-      </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4">
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46">
+        <v>4</v>
+      </c>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="N37" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="O37" s="15">
-        <v>6</v>
-      </c>
-      <c r="P37" s="15">
+      <c r="O37" s="127">
+        <v>6</v>
+      </c>
+      <c r="P37" s="127">
         <v>0</v>
       </c>
-      <c r="Q37" s="12"/>
-    </row>
-    <row r="38" spans="1:17" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="144" t="s">
+      <c r="Q37" s="122"/>
+    </row>
+    <row r="38" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="145" t="s">
+      <c r="B38" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="145">
-        <v>4</v>
-      </c>
-      <c r="D38" s="145">
-        <v>6</v>
-      </c>
-      <c r="E38" s="145">
-        <v>2</v>
-      </c>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145">
-        <v>6</v>
-      </c>
-      <c r="H38" s="145">
+      <c r="C38" s="131">
+        <v>4</v>
+      </c>
+      <c r="D38" s="131">
+        <v>6</v>
+      </c>
+      <c r="E38" s="131">
+        <v>2</v>
+      </c>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131">
+        <v>6</v>
+      </c>
+      <c r="H38" s="131">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I38" s="145"/>
-      <c r="J38" s="145"/>
-      <c r="K38" s="145">
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="131">
         <v>3</v>
       </c>
-      <c r="L38" s="145"/>
-      <c r="M38" s="145">
+      <c r="L38" s="131"/>
+      <c r="M38" s="131">
         <v>6.090103</v>
       </c>
-      <c r="N38" s="141" t="s">
+      <c r="N38" s="127" t="s">
         <v>283</v>
       </c>
-      <c r="O38" s="141"/>
-      <c r="P38" s="141"/>
-      <c r="Q38" s="146"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="61" t="s">
+      <c r="O38" s="127"/>
+      <c r="P38" s="127"/>
+      <c r="Q38" s="132"/>
+    </row>
+    <row r="39" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="26">
-        <v>4</v>
-      </c>
-      <c r="D39" s="26">
-        <v>2</v>
-      </c>
-      <c r="E39" s="26">
-        <v>4</v>
-      </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26">
-        <v>2</v>
-      </c>
-      <c r="H39" s="26">
+      <c r="C39" s="131">
+        <v>4</v>
+      </c>
+      <c r="D39" s="131">
+        <v>2</v>
+      </c>
+      <c r="E39" s="131">
+        <v>4</v>
+      </c>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131">
+        <v>2</v>
+      </c>
+      <c r="H39" s="131">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26">
-        <v>4</v>
-      </c>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26">
+      <c r="I39" s="131"/>
+      <c r="J39" s="131">
+        <v>4</v>
+      </c>
+      <c r="K39" s="131"/>
+      <c r="L39" s="131"/>
+      <c r="M39" s="131">
         <v>6.090103</v>
       </c>
-      <c r="N39" s="15" t="s">
+      <c r="N39" s="127" t="s">
         <v>213</v>
       </c>
-      <c r="O39" s="15">
-        <v>6</v>
-      </c>
-      <c r="P39" s="15">
+      <c r="O39" s="127">
+        <v>6</v>
+      </c>
+      <c r="P39" s="127">
         <v>0</v>
       </c>
-      <c r="Q39" s="58"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="Q39" s="132"/>
+    </row>
+    <row r="40" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="C40" s="4">
-        <v>6</v>
-      </c>
-      <c r="D40" s="4">
+      <c r="C40" s="46">
+        <v>6</v>
+      </c>
+      <c r="D40" s="46">
         <v>0</v>
       </c>
-      <c r="E40" s="4">
-        <v>4</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4">
+      <c r="E40" s="46">
+        <v>4</v>
+      </c>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46">
         <v>0</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="46">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="46">
         <v>3</v>
       </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4">
-        <v>4</v>
-      </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4">
+      <c r="J40" s="46"/>
+      <c r="K40" s="46">
+        <v>4</v>
+      </c>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N40" s="15" t="s">
+      <c r="N40" s="127" t="s">
         <v>250</v>
       </c>
-      <c r="O40" s="15">
-        <v>6</v>
-      </c>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="12"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="O40" s="127">
+        <v>6</v>
+      </c>
+      <c r="P40" s="127"/>
+      <c r="Q40" s="122"/>
+    </row>
+    <row r="41" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="4">
-        <v>6</v>
-      </c>
-      <c r="D41" s="4">
-        <v>4</v>
-      </c>
-      <c r="E41" s="4">
-        <v>4</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4">
-        <v>4</v>
-      </c>
-      <c r="H41" s="4">
+      <c r="C41" s="46">
+        <v>6</v>
+      </c>
+      <c r="D41" s="46">
+        <v>4</v>
+      </c>
+      <c r="E41" s="46">
+        <v>4</v>
+      </c>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46">
+        <v>4</v>
+      </c>
+      <c r="H41" s="46">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="46">
         <v>3</v>
       </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4">
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N41" s="10" t="s">
+      <c r="N41" s="128" t="s">
         <v>250</v>
       </c>
-      <c r="O41" s="10">
-        <v>8</v>
-      </c>
-      <c r="P41" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="12"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="O41" s="128">
+        <v>8</v>
+      </c>
+      <c r="P41" s="128">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="122"/>
+    </row>
+    <row r="42" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="18">
-        <v>4</v>
-      </c>
-      <c r="D42" s="18">
-        <v>6</v>
-      </c>
-      <c r="E42" s="18">
-        <v>4</v>
-      </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18">
-        <v>6</v>
-      </c>
-      <c r="H42" s="18">
+      <c r="C42" s="145">
+        <v>4</v>
+      </c>
+      <c r="D42" s="145">
+        <v>6</v>
+      </c>
+      <c r="E42" s="145">
+        <v>4</v>
+      </c>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145">
+        <v>6</v>
+      </c>
+      <c r="H42" s="145">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18">
+      <c r="I42" s="145"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="145">
         <v>3</v>
       </c>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18">
+      <c r="L42" s="145"/>
+      <c r="M42" s="145">
         <v>6.090103</v>
       </c>
-      <c r="N42" s="27" t="s">
+      <c r="N42" s="154" t="s">
         <v>213</v>
       </c>
-      <c r="O42" s="27">
-        <v>8</v>
-      </c>
-      <c r="P42" s="27">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="53"/>
+      <c r="O42" s="154">
+        <v>8</v>
+      </c>
+      <c r="P42" s="154">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="156"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12794,8 +12818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12873,820 +12897,820 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="79">
-        <v>4</v>
-      </c>
-      <c r="D2" s="79">
-        <v>4</v>
-      </c>
-      <c r="E2" s="79">
-        <v>2</v>
-      </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79">
-        <v>4</v>
-      </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79">
+      <c r="C2" s="70">
+        <v>4</v>
+      </c>
+      <c r="D2" s="70">
+        <v>4</v>
+      </c>
+      <c r="E2" s="70">
+        <v>2</v>
+      </c>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70">
+        <v>4</v>
+      </c>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70">
         <v>3</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79">
+      <c r="J2" s="70"/>
+      <c r="K2" s="70">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79">
+      <c r="L2" s="70"/>
+      <c r="M2" s="70">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="N2" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="O2" s="80">
-        <v>8</v>
-      </c>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="82"/>
-    </row>
-    <row r="3" spans="1:17" s="88" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="O2" s="71">
+        <v>8</v>
+      </c>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="73"/>
+    </row>
+    <row r="3" spans="1:17" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="85">
-        <v>8</v>
-      </c>
-      <c r="D3" s="85">
-        <v>6</v>
-      </c>
-      <c r="E3" s="85">
-        <v>2</v>
-      </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85">
-        <v>6</v>
-      </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85">
+      <c r="C3" s="76">
+        <v>8</v>
+      </c>
+      <c r="D3" s="76">
+        <v>6</v>
+      </c>
+      <c r="E3" s="76">
+        <v>2</v>
+      </c>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76">
+        <v>6</v>
+      </c>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76">
         <v>3</v>
       </c>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85">
+      <c r="J3" s="76"/>
+      <c r="K3" s="76">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85">
+      <c r="L3" s="76"/>
+      <c r="M3" s="76">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N3" s="86" t="s">
+      <c r="N3" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="O3" s="86">
+      <c r="O3" s="77">
         <v>12</v>
       </c>
-      <c r="P3" s="86">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="P3" s="77">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="78"/>
+    </row>
+    <row r="4" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="79">
-        <v>6</v>
-      </c>
-      <c r="D4" s="79">
-        <v>8</v>
-      </c>
-      <c r="E4" s="79">
-        <v>2</v>
-      </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79">
-        <v>8</v>
-      </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79">
+      <c r="C4" s="70">
+        <v>6</v>
+      </c>
+      <c r="D4" s="70">
+        <v>8</v>
+      </c>
+      <c r="E4" s="70">
+        <v>2</v>
+      </c>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70">
+        <v>8</v>
+      </c>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70">
         <v>3</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79">
+      <c r="J4" s="70"/>
+      <c r="K4" s="70">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79">
+      <c r="L4" s="70"/>
+      <c r="M4" s="70">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="O4" s="80">
+      <c r="O4" s="71">
         <v>12</v>
       </c>
-      <c r="P4" s="80">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="89"/>
-    </row>
-    <row r="5" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="P4" s="71">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="80"/>
+    </row>
+    <row r="5" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="79">
-        <v>8</v>
-      </c>
-      <c r="D5" s="79">
-        <v>6</v>
-      </c>
-      <c r="E5" s="79">
-        <v>2</v>
-      </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79">
-        <v>6</v>
-      </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79">
+      <c r="C5" s="70">
+        <v>8</v>
+      </c>
+      <c r="D5" s="70">
+        <v>6</v>
+      </c>
+      <c r="E5" s="70">
+        <v>2</v>
+      </c>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70">
+        <v>6</v>
+      </c>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70">
         <v>3</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79">
+      <c r="J5" s="70"/>
+      <c r="K5" s="70">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79">
+      <c r="L5" s="70"/>
+      <c r="M5" s="70">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="80" t="s">
+      <c r="N5" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="O5" s="80">
+      <c r="O5" s="71">
         <v>12</v>
       </c>
-      <c r="P5" s="80">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="89"/>
-    </row>
-    <row r="6" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="P5" s="71">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="80"/>
+    </row>
+    <row r="6" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="79">
-        <v>8</v>
-      </c>
-      <c r="D6" s="79">
-        <v>8</v>
-      </c>
-      <c r="E6" s="79">
-        <v>2</v>
-      </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79">
-        <v>8</v>
-      </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79">
+      <c r="C6" s="70">
+        <v>8</v>
+      </c>
+      <c r="D6" s="70">
+        <v>8</v>
+      </c>
+      <c r="E6" s="70">
+        <v>2</v>
+      </c>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70">
+        <v>8</v>
+      </c>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70">
         <v>3</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79">
+      <c r="J6" s="70"/>
+      <c r="K6" s="70">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79">
+      <c r="L6" s="70"/>
+      <c r="M6" s="70">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="80" t="s">
+      <c r="N6" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="O6" s="80">
+      <c r="O6" s="71">
         <v>12</v>
       </c>
-      <c r="P6" s="80">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="89"/>
-    </row>
-    <row r="7" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="P6" s="71">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="80"/>
+    </row>
+    <row r="7" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="79">
-        <v>4</v>
-      </c>
-      <c r="D7" s="79">
-        <v>4</v>
-      </c>
-      <c r="E7" s="79">
-        <v>2</v>
-      </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79">
-        <v>4</v>
-      </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79">
+      <c r="C7" s="70">
+        <v>4</v>
+      </c>
+      <c r="D7" s="70">
+        <v>4</v>
+      </c>
+      <c r="E7" s="70">
+        <v>2</v>
+      </c>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70">
+        <v>4</v>
+      </c>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70">
         <v>3</v>
       </c>
-      <c r="K7" s="79">
+      <c r="K7" s="70">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79">
+      <c r="L7" s="70"/>
+      <c r="M7" s="70">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="80" t="s">
+      <c r="N7" s="71" t="s">
         <v>254</v>
       </c>
-      <c r="O7" s="80">
-        <v>8</v>
-      </c>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="89"/>
-    </row>
-    <row r="8" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="O7" s="71">
+        <v>8</v>
+      </c>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="80"/>
+    </row>
+    <row r="8" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="79">
-        <v>4</v>
-      </c>
-      <c r="D8" s="79">
-        <v>4</v>
-      </c>
-      <c r="E8" s="79">
-        <v>2</v>
-      </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79">
-        <v>4</v>
-      </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79">
+      <c r="C8" s="70">
+        <v>4</v>
+      </c>
+      <c r="D8" s="70">
+        <v>4</v>
+      </c>
+      <c r="E8" s="70">
+        <v>2</v>
+      </c>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70">
+        <v>4</v>
+      </c>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70">
         <v>3</v>
       </c>
-      <c r="K8" s="79">
+      <c r="K8" s="70">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79">
+      <c r="L8" s="70"/>
+      <c r="M8" s="70">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N8" s="80" t="s">
+      <c r="N8" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="O8" s="80">
-        <v>8</v>
-      </c>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="89"/>
-    </row>
-    <row r="9" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78" t="s">
+      <c r="O8" s="71">
+        <v>8</v>
+      </c>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="80"/>
+    </row>
+    <row r="9" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="79">
-        <v>6</v>
-      </c>
-      <c r="D9" s="79">
-        <v>8</v>
-      </c>
-      <c r="E9" s="79">
-        <v>2</v>
-      </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79">
-        <v>8</v>
-      </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79">
+      <c r="C9" s="70">
+        <v>6</v>
+      </c>
+      <c r="D9" s="70">
+        <v>8</v>
+      </c>
+      <c r="E9" s="70">
+        <v>2</v>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70">
+        <v>8</v>
+      </c>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70">
         <v>3</v>
       </c>
-      <c r="K9" s="79">
+      <c r="K9" s="70">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79">
+      <c r="L9" s="70"/>
+      <c r="M9" s="70">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N9" s="80" t="s">
+      <c r="N9" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="O9" s="80">
+      <c r="O9" s="71">
         <v>12</v>
       </c>
-      <c r="P9" s="80">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="89"/>
+      <c r="P9" s="71">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="80"/>
     </row>
     <row r="10" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="172" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="131">
         <v>10</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="131">
         <v>10</v>
       </c>
-      <c r="E10" s="26">
-        <v>2</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26">
+      <c r="E10" s="131">
+        <v>2</v>
+      </c>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131">
         <v>10</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26">
+      <c r="H10" s="131"/>
+      <c r="I10" s="131">
         <v>3</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26">
+      <c r="J10" s="131"/>
+      <c r="K10" s="131">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26">
+      <c r="L10" s="131"/>
+      <c r="M10" s="131">
         <v>6.080101</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="127" t="s">
         <v>221</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="127">
         <v>18</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="58">
+      <c r="P10" s="127"/>
+      <c r="Q10" s="132">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="26">
-        <v>8</v>
-      </c>
-      <c r="D11" s="26">
-        <v>8</v>
-      </c>
-      <c r="E11" s="26">
-        <v>4</v>
-      </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26">
-        <v>8</v>
-      </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26">
+      <c r="C11" s="131">
+        <v>8</v>
+      </c>
+      <c r="D11" s="131">
+        <v>8</v>
+      </c>
+      <c r="E11" s="131">
+        <v>4</v>
+      </c>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131">
+        <v>8</v>
+      </c>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131">
         <v>3</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26">
+      <c r="J11" s="131"/>
+      <c r="K11" s="131">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26">
+      <c r="L11" s="131"/>
+      <c r="M11" s="131">
         <v>6.080101</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="127" t="s">
         <v>229</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="127">
         <v>12</v>
       </c>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="58">
+      <c r="P11" s="127"/>
+      <c r="Q11" s="132">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="131">
         <v>10</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="131">
         <v>10</v>
       </c>
-      <c r="E12" s="26">
-        <v>4</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26">
+      <c r="E12" s="131">
+        <v>4</v>
+      </c>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131">
         <v>10</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26">
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131">
         <v>3</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="131">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26">
+      <c r="L12" s="131"/>
+      <c r="M12" s="131">
         <v>6.080101</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="127" t="s">
         <v>229</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="127">
         <v>16</v>
       </c>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="58">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="P12" s="127"/>
+      <c r="Q12" s="132">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="4">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4">
-        <v>4</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4">
-        <v>4</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4">
-        <v>2</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="C13" s="83">
+        <v>4</v>
+      </c>
+      <c r="D13" s="83">
+        <v>4</v>
+      </c>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83">
+        <v>4</v>
+      </c>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83">
+        <v>2</v>
+      </c>
+      <c r="K13" s="83">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4">
+      <c r="L13" s="83"/>
+      <c r="M13" s="83">
         <v>6.080101</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="O13" s="3">
-        <v>8</v>
-      </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="12"/>
-    </row>
-    <row r="14" spans="1:17" s="118" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="119" t="s">
+      <c r="O13" s="84">
+        <v>8</v>
+      </c>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="85"/>
+    </row>
+    <row r="14" spans="1:17" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="115">
-        <v>6</v>
-      </c>
-      <c r="D14" s="115">
-        <v>6</v>
-      </c>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115">
-        <v>6</v>
-      </c>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115">
-        <v>2</v>
-      </c>
-      <c r="K14" s="115">
+      <c r="C14" s="46">
+        <v>6</v>
+      </c>
+      <c r="D14" s="46">
+        <v>6</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46">
+        <v>6</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46">
+        <v>2</v>
+      </c>
+      <c r="K14" s="46">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115">
+      <c r="L14" s="46"/>
+      <c r="M14" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N14" s="115" t="s">
+      <c r="N14" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="117"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="122"/>
     </row>
     <row r="15" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="46">
         <v>10</v>
       </c>
-      <c r="D15" s="4">
-        <v>4</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4">
-        <v>2</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="D15" s="46">
+        <v>4</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46">
+        <v>2</v>
+      </c>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46">
+        <v>2</v>
+      </c>
+      <c r="K15" s="46">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4">
+      <c r="L15" s="46"/>
+      <c r="M15" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="128" t="s">
         <v>252</v>
       </c>
-      <c r="O15" s="15">
-        <v>8</v>
-      </c>
-      <c r="P15" s="15">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="12"/>
-    </row>
-    <row r="16" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="O15" s="127">
+        <v>8</v>
+      </c>
+      <c r="P15" s="127">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="122"/>
+    </row>
+    <row r="16" spans="1:17" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="4">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4">
-        <v>4</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
-        <v>4</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4">
-        <v>2</v>
-      </c>
-      <c r="K16" s="4">
+      <c r="C16" s="83">
+        <v>8</v>
+      </c>
+      <c r="D16" s="83">
+        <v>4</v>
+      </c>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83">
+        <v>4</v>
+      </c>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83">
+        <v>2</v>
+      </c>
+      <c r="K16" s="83">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4">
+      <c r="L16" s="83"/>
+      <c r="M16" s="83">
         <v>6.080101</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="99" t="s">
         <v>248</v>
       </c>
-      <c r="O16" s="10">
-        <v>8</v>
-      </c>
-      <c r="P16" s="10">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="12"/>
+      <c r="O16" s="99">
+        <v>8</v>
+      </c>
+      <c r="P16" s="99">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="85"/>
     </row>
     <row r="17" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="174" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="67">
-        <v>6</v>
-      </c>
-      <c r="D17" s="67">
-        <v>6</v>
-      </c>
-      <c r="E17" s="67">
-        <v>6</v>
-      </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67">
-        <v>6</v>
-      </c>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67">
+      <c r="C17" s="174">
+        <v>6</v>
+      </c>
+      <c r="D17" s="174">
+        <v>6</v>
+      </c>
+      <c r="E17" s="174">
+        <v>6</v>
+      </c>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174">
+        <v>6</v>
+      </c>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174">
         <v>3</v>
       </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67">
+      <c r="J17" s="174"/>
+      <c r="K17" s="174">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67">
+      <c r="L17" s="174"/>
+      <c r="M17" s="174">
         <v>6.090103</v>
       </c>
-      <c r="N17" s="68" t="s">
+      <c r="N17" s="175" t="s">
         <v>243</v>
       </c>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="59"/>
+      <c r="O17" s="175"/>
+      <c r="P17" s="175"/>
+      <c r="Q17" s="125"/>
     </row>
     <row r="18" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="4">
-        <v>4</v>
-      </c>
-      <c r="D18" s="4">
-        <v>4</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4">
-        <v>4</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4">
+      <c r="C18" s="46">
+        <v>4</v>
+      </c>
+      <c r="D18" s="46">
+        <v>4</v>
+      </c>
+      <c r="E18" s="46">
+        <v>2</v>
+      </c>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46">
+        <v>4</v>
+      </c>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46">
         <v>3</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="46">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4">
+      <c r="L18" s="46"/>
+      <c r="M18" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="N18" s="128" t="s">
         <v>213</v>
       </c>
-      <c r="O18" s="10">
-        <v>4</v>
-      </c>
-      <c r="P18" s="10">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="12"/>
+      <c r="O18" s="128">
+        <v>4</v>
+      </c>
+      <c r="P18" s="128">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="122"/>
     </row>
     <row r="19" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="4">
-        <v>8</v>
-      </c>
-      <c r="D19" s="4">
-        <v>6</v>
-      </c>
-      <c r="E19" s="4">
-        <v>6</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
-        <v>6</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4">
+      <c r="C19" s="46">
+        <v>8</v>
+      </c>
+      <c r="D19" s="46">
+        <v>6</v>
+      </c>
+      <c r="E19" s="46">
+        <v>6</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46">
+        <v>6</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46">
         <v>3</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4">
+      <c r="J19" s="46"/>
+      <c r="K19" s="46">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4">
+      <c r="L19" s="46"/>
+      <c r="M19" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="128" t="s">
         <v>250</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="128">
         <v>10</v>
       </c>
-      <c r="P19" s="10">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="12"/>
+      <c r="P19" s="128">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="122"/>
     </row>
     <row r="20" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="4">
-        <v>6</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2</v>
-      </c>
-      <c r="E20" s="26" t="s">
+      <c r="C20" s="46">
+        <v>6</v>
+      </c>
+      <c r="D20" s="46">
+        <v>2</v>
+      </c>
+      <c r="E20" s="131" t="s">
         <v>338</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
-        <v>2</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4">
+      <c r="F20" s="46"/>
+      <c r="G20" s="46">
+        <v>2</v>
+      </c>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46">
         <v>3</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4" t="e">
+      <c r="J20" s="46"/>
+      <c r="K20" s="46" t="e">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4">
+      <c r="L20" s="46"/>
+      <c r="M20" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="N20" s="128" t="s">
         <v>250</v>
       </c>
-      <c r="O20" s="15">
-        <v>6</v>
-      </c>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="58">
+      <c r="O20" s="127">
+        <v>6</v>
+      </c>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="132">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="120" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="46" t="s">
@@ -13716,218 +13740,218 @@
       <c r="M21" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N21" s="135" t="s">
+      <c r="N21" s="121" t="s">
         <v>285</v>
       </c>
-      <c r="O21" s="135"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="136"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="122"/>
     </row>
     <row r="22" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="4">
-        <v>4</v>
-      </c>
-      <c r="D22" s="4">
-        <v>6</v>
-      </c>
-      <c r="E22" s="4">
-        <v>4</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4">
-        <v>6</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4">
+      <c r="C22" s="46">
+        <v>4</v>
+      </c>
+      <c r="D22" s="46">
+        <v>6</v>
+      </c>
+      <c r="E22" s="46">
+        <v>4</v>
+      </c>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46">
+        <v>6</v>
+      </c>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46">
         <v>3</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="46">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4">
+      <c r="L22" s="46"/>
+      <c r="M22" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="N22" s="128" t="s">
         <v>205</v>
       </c>
-      <c r="O22" s="10">
-        <v>8</v>
-      </c>
-      <c r="P22" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="12"/>
+      <c r="O22" s="128">
+        <v>8</v>
+      </c>
+      <c r="P22" s="128">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="122"/>
     </row>
     <row r="23" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="4">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4">
-        <v>4</v>
-      </c>
-      <c r="E23" s="4">
-        <v>6</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
-        <v>4</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4">
+      <c r="C23" s="46">
+        <v>4</v>
+      </c>
+      <c r="D23" s="46">
+        <v>4</v>
+      </c>
+      <c r="E23" s="46">
+        <v>6</v>
+      </c>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46">
+        <v>4</v>
+      </c>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46">
         <v>3</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4">
+      <c r="J23" s="46"/>
+      <c r="K23" s="46">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4">
+      <c r="L23" s="46"/>
+      <c r="M23" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" s="128" t="s">
         <v>230</v>
       </c>
-      <c r="O23" s="10">
-        <v>8</v>
-      </c>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="58"/>
+      <c r="O23" s="128">
+        <v>8</v>
+      </c>
+      <c r="P23" s="128"/>
+      <c r="Q23" s="132"/>
     </row>
     <row r="24" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4">
-        <v>8</v>
-      </c>
-      <c r="E24" s="4">
-        <v>6</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4">
-        <v>8</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4">
+      <c r="C24" s="46"/>
+      <c r="D24" s="46">
+        <v>8</v>
+      </c>
+      <c r="E24" s="46">
+        <v>6</v>
+      </c>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46">
+        <v>8</v>
+      </c>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46">
         <v>3</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4">
+      <c r="J24" s="46"/>
+      <c r="K24" s="46">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4">
+      <c r="L24" s="46"/>
+      <c r="M24" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="N24" s="128" t="s">
         <v>250</v>
       </c>
-      <c r="O24" s="10">
-        <v>8</v>
-      </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="12"/>
-    </row>
-    <row r="25" spans="1:17" s="99" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="91" t="s">
+      <c r="O24" s="128">
+        <v>8</v>
+      </c>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="122"/>
+    </row>
+    <row r="25" spans="1:17" s="90" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="92">
-        <v>6</v>
-      </c>
-      <c r="D25" s="92">
-        <v>2</v>
-      </c>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92">
-        <v>2</v>
-      </c>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92">
-        <v>2</v>
-      </c>
-      <c r="K25" s="92">
+      <c r="C25" s="83">
+        <v>6</v>
+      </c>
+      <c r="D25" s="83">
+        <v>2</v>
+      </c>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83">
+        <v>2</v>
+      </c>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83">
+        <v>2</v>
+      </c>
+      <c r="K25" s="83">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="L25" s="92" t="s">
+      <c r="L25" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="M25" s="92"/>
-      <c r="N25" s="93" t="s">
+      <c r="M25" s="83"/>
+      <c r="N25" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="94"/>
-    </row>
-    <row r="26" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="85"/>
+    </row>
+    <row r="26" spans="1:17" s="171" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="168" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="18">
-        <v>4</v>
-      </c>
-      <c r="D26" s="18">
-        <v>4</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18">
-        <v>4</v>
-      </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18">
-        <v>2</v>
-      </c>
-      <c r="K26" s="18">
+      <c r="C26" s="168">
+        <v>4</v>
+      </c>
+      <c r="D26" s="168">
+        <v>4</v>
+      </c>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168">
+        <v>4</v>
+      </c>
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="168">
+        <v>2</v>
+      </c>
+      <c r="K26" s="168">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18">
+      <c r="L26" s="168"/>
+      <c r="M26" s="168">
         <v>6.090103</v>
       </c>
-      <c r="N26" s="69" t="s">
+      <c r="N26" s="169" t="s">
         <v>241</v>
       </c>
-      <c r="O26" s="69">
-        <v>4</v>
-      </c>
-      <c r="P26" s="69">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="53"/>
+      <c r="O26" s="169">
+        <v>4</v>
+      </c>
+      <c r="P26" s="169">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="170"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13943,8 +13967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K16" sqref="K11:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14051,16 +14075,16 @@
       <c r="K2" s="46"/>
       <c r="L2" s="46"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="135" t="s">
+      <c r="N2" s="121" t="s">
         <v>253</v>
       </c>
-      <c r="O2" s="135">
+      <c r="O2" s="121">
         <v>16</v>
       </c>
-      <c r="P2" s="135">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="137"/>
+      <c r="P2" s="121">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
@@ -14093,92 +14117,92 @@
       <c r="K3" s="46"/>
       <c r="L3" s="46"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="135" t="s">
+      <c r="N3" s="121" t="s">
         <v>231</v>
       </c>
-      <c r="O3" s="135">
+      <c r="O3" s="121">
         <v>16</v>
       </c>
-      <c r="P3" s="135">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="137"/>
-    </row>
-    <row r="4" spans="1:17" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
+      <c r="P3" s="121">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="123"/>
+    </row>
+    <row r="4" spans="1:17" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="83" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4">
         <v>8</v>
       </c>
-      <c r="D4" s="92">
-        <v>2</v>
-      </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92">
-        <v>2</v>
-      </c>
-      <c r="H4" s="92">
+      <c r="D4" s="83">
+        <v>2</v>
+      </c>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83">
+        <v>2</v>
+      </c>
+      <c r="H4" s="83">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92">
-        <v>2</v>
-      </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83">
+        <v>2</v>
+      </c>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
       <c r="M4" s="46"/>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="84" t="s">
         <v>286</v>
       </c>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="129"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="115"/>
     </row>
     <row r="5" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="57">
-        <v>4</v>
-      </c>
-      <c r="D5" s="138">
-        <v>6</v>
-      </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138">
-        <v>6</v>
-      </c>
-      <c r="H5" s="138">
+      <c r="C5" s="56">
+        <v>4</v>
+      </c>
+      <c r="D5" s="124">
+        <v>6</v>
+      </c>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124">
+        <v>6</v>
+      </c>
+      <c r="H5" s="124">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138">
-        <v>2</v>
-      </c>
-      <c r="L5" s="138"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124">
+        <v>2</v>
+      </c>
+      <c r="L5" s="124"/>
       <c r="M5" s="44">
         <v>7.0140000000000002</v>
       </c>
-      <c r="N5" s="139" t="s">
+      <c r="N5" s="125" t="s">
         <v>210</v>
       </c>
-      <c r="O5" s="139"/>
-      <c r="P5" s="139">
+      <c r="O5" s="125"/>
+      <c r="P5" s="125">
         <v>10</v>
       </c>
-      <c r="Q5" s="140"/>
+      <c r="Q5" s="126"/>
     </row>
     <row r="6" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
@@ -14211,16 +14235,16 @@
       <c r="M6" s="4">
         <v>7.0140000000000002</v>
       </c>
-      <c r="N6" s="141" t="s">
+      <c r="N6" s="127" t="s">
         <v>223</v>
       </c>
-      <c r="O6" s="141">
+      <c r="O6" s="127">
         <v>12</v>
       </c>
-      <c r="P6" s="141">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="137"/>
+      <c r="P6" s="127">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="123"/>
     </row>
     <row r="7" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -14416,7 +14440,7 @@
       <c r="P11" s="15">
         <v>8</v>
       </c>
-      <c r="Q11" s="77"/>
+      <c r="Q11" s="68"/>
     </row>
     <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -14591,16 +14615,16 @@
       </c>
       <c r="L16" s="46"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="142" t="s">
+      <c r="N16" s="128" t="s">
         <v>272</v>
       </c>
-      <c r="O16" s="142">
-        <v>8</v>
-      </c>
-      <c r="P16" s="142">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="137"/>
+      <c r="O16" s="128">
+        <v>8</v>
+      </c>
+      <c r="P16" s="128">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="123"/>
     </row>
     <row r="17" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
@@ -14631,16 +14655,16 @@
       </c>
       <c r="L17" s="46"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="142" t="s">
+      <c r="N17" s="128" t="s">
         <v>257</v>
       </c>
-      <c r="O17" s="142">
-        <v>8</v>
-      </c>
-      <c r="P17" s="142">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="137"/>
+      <c r="O17" s="128">
+        <v>8</v>
+      </c>
+      <c r="P17" s="128">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="123"/>
     </row>
     <row r="18" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -14713,16 +14737,16 @@
       <c r="K19" s="46"/>
       <c r="L19" s="46"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="135" t="s">
+      <c r="N19" s="121" t="s">
         <v>229</v>
       </c>
-      <c r="O19" s="135">
-        <v>8</v>
-      </c>
-      <c r="P19" s="135">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="137"/>
+      <c r="O19" s="121">
+        <v>8</v>
+      </c>
+      <c r="P19" s="121">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="123"/>
     </row>
     <row r="20" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -14812,7 +14836,7 @@
       <c r="A22" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="143" t="s">
+      <c r="B22" s="129" t="s">
         <v>260</v>
       </c>
       <c r="C22" s="4">
@@ -14837,16 +14861,16 @@
       </c>
       <c r="L22" s="46"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="142" t="s">
+      <c r="N22" s="128" t="s">
         <v>258</v>
       </c>
-      <c r="O22" s="142">
-        <v>8</v>
-      </c>
-      <c r="P22" s="142">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="137"/>
+      <c r="O22" s="128">
+        <v>8</v>
+      </c>
+      <c r="P22" s="128">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="123"/>
     </row>
     <row r="23" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -14955,14 +14979,14 @@
       </c>
       <c r="L25" s="46"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="142" t="s">
+      <c r="N25" s="128" t="s">
         <v>259</v>
       </c>
-      <c r="O25" s="142">
-        <v>6</v>
-      </c>
-      <c r="P25" s="135"/>
-      <c r="Q25" s="137"/>
+      <c r="O25" s="128">
+        <v>6</v>
+      </c>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="123"/>
     </row>
     <row r="26" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
@@ -14993,20 +15017,20 @@
       </c>
       <c r="L26" s="46"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="142" t="s">
+      <c r="N26" s="128" t="s">
         <v>258</v>
       </c>
-      <c r="O26" s="142">
-        <v>8</v>
-      </c>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="137"/>
+      <c r="O26" s="128">
+        <v>8</v>
+      </c>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="123"/>
     </row>
     <row r="27" spans="1:17" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="62" t="s">
         <v>261</v>
       </c>
       <c r="C27" s="4"/>
@@ -15069,16 +15093,16 @@
       </c>
       <c r="L28" s="46"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="142" t="s">
+      <c r="N28" s="128" t="s">
         <v>252</v>
       </c>
-      <c r="O28" s="141">
-        <v>8</v>
-      </c>
-      <c r="P28" s="141">
-        <v>4</v>
-      </c>
-      <c r="Q28" s="137"/>
+      <c r="O28" s="127">
+        <v>8</v>
+      </c>
+      <c r="P28" s="127">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="123"/>
     </row>
     <row r="29" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="46" t="s">
@@ -15109,12 +15133,12 @@
       <c r="K29" s="46"/>
       <c r="L29" s="46"/>
       <c r="M29" s="46"/>
-      <c r="N29" s="135" t="s">
+      <c r="N29" s="121" t="s">
         <v>287</v>
       </c>
-      <c r="O29" s="135"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="137"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="123"/>
     </row>
     <row r="30" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
@@ -15147,14 +15171,14 @@
       <c r="M30" s="4">
         <v>8.0139999999999993</v>
       </c>
-      <c r="N30" s="142" t="s">
+      <c r="N30" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="O30" s="142"/>
-      <c r="P30" s="142">
+      <c r="O30" s="128"/>
+      <c r="P30" s="128">
         <v>10</v>
       </c>
-      <c r="Q30" s="137"/>
+      <c r="Q30" s="123"/>
     </row>
     <row r="31" spans="1:17" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -15327,7 +15351,7 @@
       <c r="B35" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="C35" s="72"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="48">
         <v>4</v>
       </c>
@@ -15351,12 +15375,12 @@
       <c r="M35" s="43">
         <v>20.204999999999998</v>
       </c>
-      <c r="N35" s="174" t="s">
+      <c r="N35" s="160" t="s">
         <v>326</v>
       </c>
-      <c r="O35" s="175"/>
-      <c r="P35" s="174"/>
-      <c r="Q35" s="175"/>
+      <c r="O35" s="161"/>
+      <c r="P35" s="160"/>
+      <c r="Q35" s="161"/>
     </row>
     <row r="36" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -15391,14 +15415,14 @@
       <c r="M36" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N36" s="74" t="s">
+      <c r="N36" s="65" t="s">
         <v>315</v>
       </c>
       <c r="O36" s="3">
         <v>6</v>
       </c>
       <c r="P36" s="3"/>
-      <c r="Q36" s="75"/>
+      <c r="Q36" s="66"/>
     </row>
     <row r="37" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="46" t="s">
@@ -15408,13 +15432,13 @@
         <v>304</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="171">
-        <v>6</v>
-      </c>
-      <c r="E37" s="171">
-        <v>4</v>
-      </c>
-      <c r="F37" s="171">
+      <c r="D37" s="157">
+        <v>6</v>
+      </c>
+      <c r="E37" s="157">
+        <v>4</v>
+      </c>
+      <c r="F37" s="157">
         <v>4</v>
       </c>
       <c r="G37" s="46">
@@ -15435,14 +15459,14 @@
       <c r="M37" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N37" s="172" t="s">
+      <c r="N37" s="158" t="s">
         <v>316</v>
       </c>
-      <c r="O37" s="173">
-        <v>6</v>
-      </c>
-      <c r="P37" s="135"/>
-      <c r="Q37" s="173"/>
+      <c r="O37" s="159">
+        <v>6</v>
+      </c>
+      <c r="P37" s="121"/>
+      <c r="Q37" s="159"/>
     </row>
     <row r="38" spans="1:17" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -15475,14 +15499,14 @@
       <c r="M38" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N38" s="74" t="s">
+      <c r="N38" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="O38" s="75">
+      <c r="O38" s="66">
         <v>4</v>
       </c>
       <c r="P38" s="3"/>
-      <c r="Q38" s="75">
+      <c r="Q38" s="66">
         <v>2</v>
       </c>
     </row>
@@ -15517,54 +15541,54 @@
       <c r="M39" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N39" s="74" t="s">
+      <c r="N39" s="65" t="s">
         <v>259</v>
       </c>
-      <c r="O39" s="75">
+      <c r="O39" s="66">
         <v>4</v>
       </c>
       <c r="P39" s="3">
         <v>2</v>
       </c>
-      <c r="Q39" s="75"/>
+      <c r="Q39" s="66"/>
     </row>
     <row r="40" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="63" t="s">
         <v>301</v>
       </c>
-      <c r="B40" s="72" t="s">
+      <c r="B40" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72">
-        <v>6</v>
-      </c>
-      <c r="E40" s="72">
-        <v>4</v>
-      </c>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72">
-        <v>6</v>
-      </c>
-      <c r="H40" s="72">
+      <c r="C40" s="63"/>
+      <c r="D40" s="63">
+        <v>6</v>
+      </c>
+      <c r="E40" s="63">
+        <v>4</v>
+      </c>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63">
+        <v>6</v>
+      </c>
+      <c r="H40" s="63">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72">
-        <v>2</v>
-      </c>
-      <c r="L40" s="72"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63">
+        <v>2</v>
+      </c>
+      <c r="L40" s="63"/>
       <c r="M40" s="43">
         <v>20.204999999999998</v>
       </c>
-      <c r="N40" s="73" t="s">
+      <c r="N40" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="O40" s="76"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="76"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="67"/>
     </row>
     <row r="41" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -15601,14 +15625,14 @@
       <c r="M41" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N41" s="74" t="s">
+      <c r="N41" s="65" t="s">
         <v>317</v>
       </c>
-      <c r="O41" s="75">
+      <c r="O41" s="66">
         <v>6</v>
       </c>
       <c r="P41" s="3"/>
-      <c r="Q41" s="75"/>
+      <c r="Q41" s="66"/>
     </row>
     <row r="42" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -15641,134 +15665,134 @@
       <c r="M42" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N42" s="74" t="s">
+      <c r="N42" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="O42" s="75">
+      <c r="O42" s="66">
         <v>6</v>
       </c>
       <c r="P42" s="3">
         <v>2</v>
       </c>
-      <c r="Q42" s="75"/>
-    </row>
-    <row r="43" spans="1:17" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="121" t="s">
+      <c r="Q42" s="66"/>
+    </row>
+    <row r="43" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="107" t="s">
         <v>301</v>
       </c>
-      <c r="B43" s="121" t="s">
+      <c r="B43" s="107" t="s">
         <v>309</v>
       </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="121">
-        <v>6</v>
-      </c>
-      <c r="E43" s="121">
-        <v>4</v>
-      </c>
-      <c r="F43" s="121">
-        <v>4</v>
-      </c>
-      <c r="G43" s="121">
-        <v>6</v>
-      </c>
-      <c r="H43" s="121">
+      <c r="C43" s="63"/>
+      <c r="D43" s="107">
+        <v>6</v>
+      </c>
+      <c r="E43" s="107">
+        <v>4</v>
+      </c>
+      <c r="F43" s="107">
+        <v>4</v>
+      </c>
+      <c r="G43" s="107">
+        <v>6</v>
+      </c>
+      <c r="H43" s="107">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I43" s="121"/>
-      <c r="J43" s="121">
-        <v>4</v>
-      </c>
-      <c r="K43" s="121"/>
-      <c r="L43" s="121"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107">
+        <v>4</v>
+      </c>
+      <c r="K43" s="107"/>
+      <c r="L43" s="107"/>
       <c r="M43" s="43">
         <v>20.204999999999998</v>
       </c>
-      <c r="N43" s="122" t="s">
+      <c r="N43" s="108" t="s">
         <v>328</v>
       </c>
-      <c r="O43" s="123"/>
-      <c r="P43" s="122"/>
-      <c r="Q43" s="123"/>
-    </row>
-    <row r="44" spans="1:17" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="121" t="s">
+      <c r="O43" s="109"/>
+      <c r="P43" s="108"/>
+      <c r="Q43" s="109"/>
+    </row>
+    <row r="44" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="B44" s="121" t="s">
+      <c r="B44" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="121">
-        <v>4</v>
-      </c>
-      <c r="E44" s="121">
-        <v>4</v>
-      </c>
-      <c r="F44" s="121">
-        <v>4</v>
-      </c>
-      <c r="G44" s="121">
-        <v>4</v>
-      </c>
-      <c r="H44" s="121">
+      <c r="C44" s="63"/>
+      <c r="D44" s="48">
+        <v>4</v>
+      </c>
+      <c r="E44" s="48">
+        <v>4</v>
+      </c>
+      <c r="F44" s="48">
+        <v>4</v>
+      </c>
+      <c r="G44" s="48">
+        <v>4</v>
+      </c>
+      <c r="H44" s="48">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I44" s="121"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="121">
-        <v>4</v>
-      </c>
-      <c r="L44" s="121"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48">
+        <v>4</v>
+      </c>
+      <c r="L44" s="48"/>
       <c r="M44" s="43">
         <v>20.204999999999998</v>
       </c>
-      <c r="N44" s="122" t="s">
+      <c r="N44" s="160" t="s">
         <v>331</v>
       </c>
-      <c r="O44" s="123"/>
-      <c r="P44" s="122"/>
-      <c r="Q44" s="123"/>
-    </row>
-    <row r="45" spans="1:17" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="131" t="s">
+      <c r="O44" s="173"/>
+      <c r="P44" s="160"/>
+      <c r="Q44" s="173"/>
+    </row>
+    <row r="45" spans="1:17" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="117" t="s">
         <v>301</v>
       </c>
-      <c r="B45" s="131" t="s">
+      <c r="B45" s="117" t="s">
         <v>311</v>
       </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="131">
-        <v>6</v>
-      </c>
-      <c r="E45" s="131">
-        <v>2</v>
-      </c>
-      <c r="F45" s="131">
-        <v>4</v>
-      </c>
-      <c r="G45" s="131">
-        <v>6</v>
-      </c>
-      <c r="H45" s="131">
+      <c r="C45" s="63"/>
+      <c r="D45" s="117">
+        <v>6</v>
+      </c>
+      <c r="E45" s="117">
+        <v>2</v>
+      </c>
+      <c r="F45" s="117">
+        <v>4</v>
+      </c>
+      <c r="G45" s="117">
+        <v>6</v>
+      </c>
+      <c r="H45" s="117">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I45" s="131"/>
-      <c r="J45" s="131"/>
-      <c r="K45" s="131">
-        <v>4</v>
-      </c>
-      <c r="L45" s="131"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="117">
+        <v>4</v>
+      </c>
+      <c r="L45" s="117"/>
       <c r="M45" s="48">
         <v>20.204999999999998</v>
       </c>
-      <c r="N45" s="132"/>
-      <c r="O45" s="133"/>
-      <c r="P45" s="132"/>
-      <c r="Q45" s="133"/>
+      <c r="N45" s="118"/>
+      <c r="O45" s="119"/>
+      <c r="P45" s="118"/>
+      <c r="Q45" s="119"/>
     </row>
     <row r="46" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -15805,14 +15829,14 @@
       <c r="M46" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N46" s="74" t="s">
+      <c r="N46" s="65" t="s">
         <v>318</v>
       </c>
-      <c r="O46" s="75">
+      <c r="O46" s="66">
         <v>6</v>
       </c>
       <c r="P46" s="3"/>
-      <c r="Q46" s="75"/>
+      <c r="Q46" s="66"/>
     </row>
     <row r="47" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -15847,14 +15871,14 @@
       <c r="M47" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N47" s="74" t="s">
+      <c r="N47" s="65" t="s">
         <v>319</v>
       </c>
-      <c r="O47" s="75">
+      <c r="O47" s="66">
         <v>6</v>
       </c>
       <c r="P47" s="3"/>
-      <c r="Q47" s="75"/>
+      <c r="Q47" s="66"/>
     </row>
     <row r="48" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -15887,14 +15911,14 @@
       <c r="M48" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N48" s="74" t="s">
+      <c r="N48" s="65" t="s">
         <v>315</v>
       </c>
-      <c r="O48" s="75">
+      <c r="O48" s="66">
         <v>6</v>
       </c>
       <c r="P48" s="3"/>
-      <c r="Q48" s="75"/>
+      <c r="Q48" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zaizd3.xlsx
+++ b/Zaizd3.xlsx
@@ -480,7 +480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="342">
   <si>
     <t>Групи</t>
   </si>
@@ -1555,6 +1555,9 @@
   </si>
   <si>
     <t>викл. Ляшин Я.Є.</t>
+  </si>
+  <si>
+    <t>Муртазін О.А.</t>
   </si>
 </sst>
 </file>
@@ -1966,7 +1969,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2151,7 +2154,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2447,6 +2449,9 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Ввід" xfId="3" builtinId="20"/>
@@ -5846,18 +5851,7 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:Q48" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
-  <autoFilter ref="A1:Q48">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="10"/>
-        <filter val="14"/>
-        <filter val="2"/>
-        <filter val="4"/>
-        <filter val="6"/>
-        <filter val="8"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q48"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Групи" dataDxfId="34"/>
     <tableColumn id="2" name="Дисципліна" dataDxfId="33"/>
@@ -6194,8 +6188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R238"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A15:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6276,289 +6270,289 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+    <row r="2" spans="1:18" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="88">
-        <v>4</v>
-      </c>
-      <c r="D2" s="88">
-        <v>4</v>
-      </c>
-      <c r="E2" s="88">
-        <v>2</v>
-      </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88">
-        <v>4</v>
-      </c>
-      <c r="H2" s="88">
+      <c r="B2" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="87">
+        <v>4</v>
+      </c>
+      <c r="D2" s="87">
+        <v>4</v>
+      </c>
+      <c r="E2" s="87">
+        <v>2</v>
+      </c>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87">
+        <v>4</v>
+      </c>
+      <c r="H2" s="87">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="88">
+      <c r="I2" s="87"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="87">
         <v>3</v>
       </c>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="88" t="s">
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="85"/>
-    </row>
-    <row r="3" spans="1:18" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="84"/>
+    </row>
+    <row r="3" spans="1:18" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="88">
-        <v>4</v>
-      </c>
-      <c r="D3" s="88">
-        <v>6</v>
-      </c>
-      <c r="E3" s="88">
-        <v>4</v>
-      </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88">
-        <v>6</v>
-      </c>
-      <c r="H3" s="88">
+      <c r="C3" s="87">
+        <v>4</v>
+      </c>
+      <c r="D3" s="87">
+        <v>6</v>
+      </c>
+      <c r="E3" s="87">
+        <v>4</v>
+      </c>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87">
+        <v>6</v>
+      </c>
+      <c r="H3" s="87">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88">
+      <c r="I3" s="87"/>
+      <c r="J3" s="87">
         <v>3</v>
       </c>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="88" t="s">
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="85"/>
-    </row>
-    <row r="4" spans="1:18" s="86" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="84"/>
+    </row>
+    <row r="4" spans="1:18" s="85" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="88">
-        <v>6</v>
-      </c>
-      <c r="D4" s="88">
-        <v>6</v>
-      </c>
-      <c r="E4" s="88">
-        <v>4</v>
-      </c>
-      <c r="F4" s="88">
-        <v>4</v>
-      </c>
-      <c r="G4" s="88">
-        <v>6</v>
-      </c>
-      <c r="H4" s="88">
+      <c r="B4" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="87">
+        <v>6</v>
+      </c>
+      <c r="D4" s="87">
+        <v>6</v>
+      </c>
+      <c r="E4" s="87">
+        <v>4</v>
+      </c>
+      <c r="F4" s="87">
+        <v>4</v>
+      </c>
+      <c r="G4" s="87">
+        <v>6</v>
+      </c>
+      <c r="H4" s="87">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88">
-        <v>4</v>
-      </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="83" t="s">
+      <c r="I4" s="87"/>
+      <c r="J4" s="87">
+        <v>4</v>
+      </c>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="82" t="s">
         <v>276</v>
       </c>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="85"/>
-    </row>
-    <row r="5" spans="1:18" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="84"/>
+    </row>
+    <row r="5" spans="1:18" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="83">
+      <c r="B5" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="82">
         <v>12</v>
       </c>
-      <c r="D5" s="83">
+      <c r="D5" s="82">
         <v>10</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83">
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82">
         <v>10</v>
       </c>
-      <c r="H5" s="83">
+      <c r="H5" s="82">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83">
-        <v>2</v>
-      </c>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83" t="s">
+      <c r="I5" s="82"/>
+      <c r="J5" s="82">
+        <v>2</v>
+      </c>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="N5" s="83" t="s">
+      <c r="N5" s="82" t="s">
         <v>275</v>
       </c>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="85"/>
-    </row>
-    <row r="6" spans="1:18" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
+    </row>
+    <row r="6" spans="1:18" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="83">
+      <c r="C6" s="82">
         <v>14</v>
       </c>
-      <c r="D6" s="83">
-        <v>6</v>
-      </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83">
-        <v>6</v>
-      </c>
-      <c r="H6" s="83">
+      <c r="D6" s="82">
+        <v>6</v>
+      </c>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82">
+        <v>6</v>
+      </c>
+      <c r="H6" s="82">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83">
-        <v>2</v>
-      </c>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83" t="s">
+      <c r="I6" s="82"/>
+      <c r="J6" s="82">
+        <v>2</v>
+      </c>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="N6" s="84" t="s">
+      <c r="N6" s="83" t="s">
         <v>200</v>
       </c>
-      <c r="O6" s="84">
+      <c r="O6" s="83">
         <v>12</v>
       </c>
-      <c r="P6" s="84">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="85"/>
-    </row>
-    <row r="7" spans="1:18" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
+      <c r="P6" s="83">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="84"/>
+    </row>
+    <row r="7" spans="1:18" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="83">
+      <c r="C7" s="82">
         <v>10</v>
       </c>
-      <c r="D7" s="83">
+      <c r="D7" s="82">
         <v>10</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83">
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82">
         <v>10</v>
       </c>
-      <c r="H7" s="83">
+      <c r="H7" s="82">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83">
-        <v>2</v>
-      </c>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83" t="s">
+      <c r="I7" s="82"/>
+      <c r="J7" s="82">
+        <v>2</v>
+      </c>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="N7" s="84" t="s">
+      <c r="N7" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="O7" s="84">
+      <c r="O7" s="83">
         <v>12</v>
       </c>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84">
-        <v>8</v>
-      </c>
-      <c r="R7" s="85"/>
-    </row>
-    <row r="8" spans="1:18" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83">
+        <v>8</v>
+      </c>
+      <c r="R7" s="84"/>
+    </row>
+    <row r="8" spans="1:18" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="83">
-        <v>8</v>
-      </c>
-      <c r="D8" s="83">
-        <v>6</v>
-      </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83">
-        <v>6</v>
-      </c>
-      <c r="H8" s="83">
+      <c r="C8" s="82">
+        <v>8</v>
+      </c>
+      <c r="D8" s="82">
+        <v>6</v>
+      </c>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82">
+        <v>6</v>
+      </c>
+      <c r="H8" s="82">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83">
-        <v>2</v>
-      </c>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83" t="s">
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82">
+        <v>2</v>
+      </c>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="85"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="84"/>
     </row>
     <row r="9" spans="1:18" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="119" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="46" t="s">
@@ -6590,20 +6584,20 @@
       <c r="M9" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="N9" s="121" t="s">
+      <c r="N9" s="120" t="s">
         <v>202</v>
       </c>
-      <c r="O9" s="121">
-        <v>8</v>
-      </c>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="121">
-        <v>6</v>
-      </c>
-      <c r="R9" s="122"/>
+      <c r="O9" s="120">
+        <v>8</v>
+      </c>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120">
+        <v>6</v>
+      </c>
+      <c r="R9" s="121"/>
     </row>
     <row r="10" spans="1:18" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="119" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="46" t="s">
@@ -6633,18 +6627,18 @@
       <c r="M10" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="N10" s="128" t="s">
+      <c r="N10" s="127" t="s">
         <v>203</v>
       </c>
-      <c r="O10" s="128">
-        <v>4</v>
-      </c>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="122"/>
+      <c r="O10" s="127">
+        <v>4</v>
+      </c>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="121"/>
     </row>
     <row r="11" spans="1:18" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="119" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="46" t="s">
@@ -6678,110 +6672,110 @@
       <c r="M11" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="N11" s="121" t="s">
+      <c r="N11" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="O11" s="121"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="122"/>
-    </row>
-    <row r="12" spans="1:18" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82" t="s">
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="121"/>
+    </row>
+    <row r="12" spans="1:18" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="83">
+      <c r="C12" s="82">
         <v>10</v>
       </c>
-      <c r="D12" s="83">
-        <v>8</v>
-      </c>
-      <c r="E12" s="83">
-        <v>6</v>
-      </c>
-      <c r="F12" s="83">
-        <v>6</v>
-      </c>
-      <c r="G12" s="83">
-        <v>8</v>
-      </c>
-      <c r="H12" s="83">
+      <c r="D12" s="82">
+        <v>8</v>
+      </c>
+      <c r="E12" s="82">
+        <v>6</v>
+      </c>
+      <c r="F12" s="82">
+        <v>6</v>
+      </c>
+      <c r="G12" s="82">
+        <v>8</v>
+      </c>
+      <c r="H12" s="82">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83">
-        <v>4</v>
-      </c>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="84" t="s">
+      <c r="I12" s="82"/>
+      <c r="J12" s="82">
+        <v>4</v>
+      </c>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="N12" s="83" t="s">
+      <c r="N12" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="85" t="s">
+      <c r="O12" s="83"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="84" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="86" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+    <row r="13" spans="1:18" s="85" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="90" t="s">
         <v>186</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="92">
+      <c r="C13" s="91">
         <v>10</v>
       </c>
-      <c r="D13" s="92">
-        <v>8</v>
-      </c>
-      <c r="E13" s="92">
-        <v>6</v>
-      </c>
-      <c r="F13" s="92">
-        <v>6</v>
-      </c>
-      <c r="G13" s="92">
-        <v>8</v>
-      </c>
-      <c r="H13" s="92">
+      <c r="D13" s="91">
+        <v>8</v>
+      </c>
+      <c r="E13" s="91">
+        <v>6</v>
+      </c>
+      <c r="F13" s="91">
+        <v>6</v>
+      </c>
+      <c r="G13" s="91">
+        <v>8</v>
+      </c>
+      <c r="H13" s="91">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92">
-        <v>4</v>
-      </c>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92" t="s">
+      <c r="I13" s="91"/>
+      <c r="J13" s="91">
+        <v>4</v>
+      </c>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="M13" s="93" t="s">
+      <c r="M13" s="92" t="s">
         <v>191</v>
       </c>
-      <c r="N13" s="92" t="s">
+      <c r="N13" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="O13" s="93">
+      <c r="O13" s="92">
         <v>14</v>
       </c>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="94" t="s">
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="93" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="46" t="s">
@@ -6810,68 +6804,68 @@
       </c>
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
-      <c r="M14" s="121">
+      <c r="M14" s="120">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N14" s="127" t="s">
+      <c r="N14" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="O14" s="127">
-        <v>4</v>
-      </c>
-      <c r="P14" s="127">
+      <c r="O14" s="126">
+        <v>4</v>
+      </c>
+      <c r="P14" s="126">
         <v>0</v>
       </c>
-      <c r="Q14" s="121"/>
-      <c r="R14" s="122"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="121"/>
     </row>
     <row r="15" spans="1:18" s="45" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="135">
-        <v>2</v>
-      </c>
-      <c r="D15" s="135">
+      <c r="C15" s="134">
+        <v>2</v>
+      </c>
+      <c r="D15" s="134">
         <v>0</v>
       </c>
-      <c r="E15" s="135">
-        <v>4</v>
-      </c>
-      <c r="F15" s="135">
+      <c r="E15" s="134">
+        <v>4</v>
+      </c>
+      <c r="F15" s="134">
         <v>0</v>
       </c>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135">
+      <c r="G15" s="134"/>
+      <c r="H15" s="134">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135">
-        <v>4</v>
-      </c>
-      <c r="K15" s="135"/>
-      <c r="L15" s="135" t="s">
+      <c r="I15" s="134"/>
+      <c r="J15" s="134">
+        <v>4</v>
+      </c>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134" t="s">
         <v>322</v>
       </c>
-      <c r="M15" s="136">
+      <c r="M15" s="135">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N15" s="136" t="s">
+      <c r="N15" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="O15" s="136">
-        <v>2</v>
-      </c>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="137"/>
+      <c r="O15" s="135">
+        <v>2</v>
+      </c>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="135"/>
+      <c r="R15" s="136"/>
     </row>
     <row r="16" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="120" t="s">
+      <c r="A16" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="46" t="s">
@@ -6902,23 +6896,23 @@
         <v>4</v>
       </c>
       <c r="L16" s="46"/>
-      <c r="M16" s="121">
+      <c r="M16" s="120">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N16" s="127" t="s">
+      <c r="N16" s="126" t="s">
         <v>202</v>
       </c>
-      <c r="O16" s="127">
-        <v>4</v>
-      </c>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127">
-        <v>2</v>
-      </c>
-      <c r="R16" s="122"/>
+      <c r="O16" s="126">
+        <v>4</v>
+      </c>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="126">
+        <v>2</v>
+      </c>
+      <c r="R16" s="121"/>
     </row>
     <row r="17" spans="1:18" s="45" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="46" t="s">
@@ -6947,25 +6941,25 @@
       </c>
       <c r="K17" s="46"/>
       <c r="L17" s="46"/>
-      <c r="M17" s="121">
+      <c r="M17" s="120">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N17" s="127" t="s">
+      <c r="N17" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="O17" s="127">
-        <v>2</v>
-      </c>
-      <c r="P17" s="127">
+      <c r="O17" s="126">
+        <v>2</v>
+      </c>
+      <c r="P17" s="126">
         <v>0</v>
       </c>
-      <c r="Q17" s="127">
+      <c r="Q17" s="126">
         <v>0</v>
       </c>
-      <c r="R17" s="122"/>
+      <c r="R17" s="121"/>
     </row>
     <row r="18" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="46" t="s">
@@ -6992,20 +6986,20 @@
         <v>4</v>
       </c>
       <c r="L18" s="46"/>
-      <c r="M18" s="121">
+      <c r="M18" s="120">
         <v>6.1929999999999996</v>
       </c>
-      <c r="N18" s="127" t="s">
+      <c r="N18" s="126" t="s">
         <v>235</v>
       </c>
-      <c r="O18" s="127">
-        <v>2</v>
-      </c>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127">
+      <c r="O18" s="126">
+        <v>2</v>
+      </c>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="126">
         <v>0</v>
       </c>
-      <c r="R18" s="122"/>
+      <c r="R18" s="121"/>
     </row>
     <row r="19" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -7048,53 +7042,53 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="12"/>
     </row>
-    <row r="20" spans="1:18" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="82" t="s">
+    <row r="20" spans="1:18" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="83">
-        <v>6</v>
-      </c>
-      <c r="D20" s="84">
-        <v>4</v>
-      </c>
-      <c r="E20" s="84">
-        <v>2</v>
-      </c>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84">
-        <v>4</v>
-      </c>
-      <c r="H20" s="84">
+      <c r="C20" s="82">
+        <v>6</v>
+      </c>
+      <c r="D20" s="83">
+        <v>4</v>
+      </c>
+      <c r="E20" s="83">
+        <v>2</v>
+      </c>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83">
+        <v>4</v>
+      </c>
+      <c r="H20" s="83">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84">
-        <v>4</v>
-      </c>
-      <c r="K20" s="84"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="84">
+      <c r="I20" s="83"/>
+      <c r="J20" s="83">
+        <v>4</v>
+      </c>
+      <c r="K20" s="83"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="83">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N20" s="100" t="s">
+      <c r="N20" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="O20" s="100">
-        <v>6</v>
-      </c>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100">
-        <v>4</v>
-      </c>
-      <c r="R20" s="85"/>
+      <c r="O20" s="99">
+        <v>6</v>
+      </c>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99">
+        <v>4</v>
+      </c>
+      <c r="R20" s="84"/>
     </row>
     <row r="21" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="119" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="46" t="s">
@@ -7103,221 +7097,221 @@
       <c r="C21" s="46">
         <v>6</v>
       </c>
-      <c r="D21" s="121">
-        <v>4</v>
-      </c>
-      <c r="E21" s="121">
-        <v>4</v>
-      </c>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121">
-        <v>4</v>
-      </c>
-      <c r="H21" s="121">
+      <c r="D21" s="120">
+        <v>4</v>
+      </c>
+      <c r="E21" s="120">
+        <v>4</v>
+      </c>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120">
+        <v>4</v>
+      </c>
+      <c r="H21" s="120">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121">
+      <c r="I21" s="120"/>
+      <c r="J21" s="120">
         <v>3</v>
       </c>
-      <c r="K21" s="121"/>
+      <c r="K21" s="120"/>
       <c r="L21" s="46"/>
-      <c r="M21" s="121">
+      <c r="M21" s="120">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N21" s="127" t="s">
+      <c r="N21" s="126" t="s">
         <v>206</v>
       </c>
-      <c r="O21" s="127">
-        <v>6</v>
-      </c>
-      <c r="P21" s="127">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="122"/>
-    </row>
-    <row r="22" spans="1:18" s="86" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82" t="s">
+      <c r="O21" s="126">
+        <v>6</v>
+      </c>
+      <c r="P21" s="126">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="121"/>
+    </row>
+    <row r="22" spans="1:18" s="85" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="83">
-        <v>6</v>
-      </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84">
-        <v>2</v>
-      </c>
-      <c r="F22" s="84">
-        <v>6</v>
-      </c>
-      <c r="G22" s="84">
+      <c r="C22" s="82">
+        <v>6</v>
+      </c>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83">
+        <v>2</v>
+      </c>
+      <c r="F22" s="83">
+        <v>6</v>
+      </c>
+      <c r="G22" s="83">
         <v>0</v>
       </c>
-      <c r="H22" s="84">
+      <c r="H22" s="83">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84">
-        <v>4</v>
-      </c>
-      <c r="K22" s="84"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="84">
+      <c r="I22" s="83"/>
+      <c r="J22" s="83">
+        <v>4</v>
+      </c>
+      <c r="K22" s="83"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="83">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N22" s="100" t="s">
+      <c r="N22" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="O22" s="100">
-        <v>6</v>
-      </c>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="85"/>
-    </row>
-    <row r="23" spans="1:18" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="82" t="s">
+      <c r="O22" s="99">
+        <v>6</v>
+      </c>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="84"/>
+    </row>
+    <row r="23" spans="1:18" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="83">
-        <v>6</v>
-      </c>
-      <c r="D23" s="84">
-        <v>4</v>
-      </c>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84">
-        <v>4</v>
-      </c>
-      <c r="H23" s="84">
+      <c r="C23" s="82">
+        <v>6</v>
+      </c>
+      <c r="D23" s="83">
+        <v>4</v>
+      </c>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83">
+        <v>4</v>
+      </c>
+      <c r="H23" s="83">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84">
-        <v>2</v>
-      </c>
-      <c r="L23" s="83"/>
-      <c r="M23" s="84">
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83">
+        <v>2</v>
+      </c>
+      <c r="L23" s="82"/>
+      <c r="M23" s="83">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N23" s="84" t="s">
+      <c r="N23" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="O23" s="84">
-        <v>6</v>
-      </c>
-      <c r="P23" s="84">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="85"/>
-    </row>
-    <row r="24" spans="1:18" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
+      <c r="O23" s="83">
+        <v>6</v>
+      </c>
+      <c r="P23" s="83">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="84"/>
+    </row>
+    <row r="24" spans="1:18" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="83">
-        <v>4</v>
-      </c>
-      <c r="D24" s="83">
-        <v>6</v>
-      </c>
-      <c r="E24" s="83">
-        <v>4</v>
-      </c>
-      <c r="F24" s="83">
-        <v>6</v>
-      </c>
-      <c r="G24" s="83">
-        <v>6</v>
-      </c>
-      <c r="H24" s="83">
+      <c r="C24" s="82">
+        <v>4</v>
+      </c>
+      <c r="D24" s="82">
+        <v>6</v>
+      </c>
+      <c r="E24" s="82">
+        <v>4</v>
+      </c>
+      <c r="F24" s="82">
+        <v>6</v>
+      </c>
+      <c r="G24" s="82">
+        <v>6</v>
+      </c>
+      <c r="H24" s="82">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83">
-        <v>4</v>
-      </c>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="84">
+      <c r="I24" s="82"/>
+      <c r="J24" s="82">
+        <v>4</v>
+      </c>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="83">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N24" s="99" t="s">
+      <c r="N24" s="98" t="s">
         <v>277</v>
       </c>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="85" t="s">
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="84" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="86" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="91" t="s">
+    <row r="25" spans="1:18" s="85" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="92">
-        <v>4</v>
-      </c>
-      <c r="D25" s="92">
-        <v>8</v>
-      </c>
-      <c r="E25" s="92">
-        <v>4</v>
-      </c>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92">
-        <v>8</v>
-      </c>
-      <c r="H25" s="92">
+      <c r="C25" s="91">
+        <v>4</v>
+      </c>
+      <c r="D25" s="91">
+        <v>8</v>
+      </c>
+      <c r="E25" s="91">
+        <v>4</v>
+      </c>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91">
+        <v>8</v>
+      </c>
+      <c r="H25" s="91">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92">
+      <c r="I25" s="91"/>
+      <c r="J25" s="91">
         <v>3</v>
       </c>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92" t="s">
+      <c r="K25" s="91"/>
+      <c r="L25" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="M25" s="93">
+      <c r="M25" s="92">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N25" s="92" t="s">
+      <c r="N25" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="O25" s="93">
-        <v>6</v>
-      </c>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="94" t="s">
+      <c r="O25" s="92">
+        <v>6</v>
+      </c>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="93" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="120" t="s">
+      <c r="A26" s="119" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="46" t="s">
@@ -7348,63 +7342,63 @@
       </c>
       <c r="K26" s="46"/>
       <c r="L26" s="46"/>
-      <c r="M26" s="121">
+      <c r="M26" s="120">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N26" s="121" t="s">
+      <c r="N26" s="120" t="s">
         <v>232</v>
       </c>
-      <c r="O26" s="121">
+      <c r="O26" s="120">
         <v>16</v>
       </c>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="121">
+      <c r="P26" s="120"/>
+      <c r="Q26" s="120">
         <v>0</v>
       </c>
-      <c r="R26" s="122"/>
-    </row>
-    <row r="27" spans="1:18" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="101" t="s">
+      <c r="R26" s="121"/>
+    </row>
+    <row r="27" spans="1:18" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="102">
-        <v>4</v>
-      </c>
-      <c r="D27" s="103">
-        <v>6</v>
-      </c>
-      <c r="E27" s="103">
-        <v>4</v>
-      </c>
-      <c r="F27" s="103">
-        <v>2</v>
-      </c>
-      <c r="G27" s="103">
-        <v>6</v>
-      </c>
-      <c r="H27" s="103">
+      <c r="C27" s="101">
+        <v>4</v>
+      </c>
+      <c r="D27" s="102">
+        <v>6</v>
+      </c>
+      <c r="E27" s="102">
+        <v>4</v>
+      </c>
+      <c r="F27" s="102">
+        <v>2</v>
+      </c>
+      <c r="G27" s="102">
+        <v>6</v>
+      </c>
+      <c r="H27" s="102">
         <f>Таблица1[[#This Row],[Годин 2 заїзд]]-Таблица1[[#This Row],[Використано годин]]+Таблица1[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I27" s="103"/>
-      <c r="J27" s="104">
-        <v>4</v>
-      </c>
-      <c r="K27" s="103"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102">
+      <c r="I27" s="102"/>
+      <c r="J27" s="103">
+        <v>4</v>
+      </c>
+      <c r="K27" s="102"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101">
         <v>6.2050000000000001</v>
       </c>
-      <c r="N27" s="102" t="s">
+      <c r="N27" s="101" t="s">
         <v>288</v>
       </c>
-      <c r="O27" s="102"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="105"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="104"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -7514,8 +7508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7597,172 +7591,172 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="96" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+    <row r="2" spans="1:18" s="95" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="88">
-        <v>6</v>
-      </c>
-      <c r="D2" s="88">
-        <v>4</v>
-      </c>
-      <c r="E2" s="88">
-        <v>2</v>
-      </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88">
-        <v>4</v>
-      </c>
-      <c r="H2" s="88">
+      <c r="C2" s="87">
+        <v>6</v>
+      </c>
+      <c r="D2" s="87">
+        <v>4</v>
+      </c>
+      <c r="E2" s="87">
+        <v>2</v>
+      </c>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87">
+        <v>4</v>
+      </c>
+      <c r="H2" s="87">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88">
+      <c r="I2" s="87"/>
+      <c r="J2" s="87">
         <v>3</v>
       </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="83" t="s">
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="82" t="s">
         <v>276</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="98"/>
-    </row>
-    <row r="3" spans="1:18" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="97"/>
+    </row>
+    <row r="3" spans="1:18" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="88">
-        <v>4</v>
-      </c>
-      <c r="D3" s="88">
-        <v>6</v>
-      </c>
-      <c r="E3" s="88">
-        <v>4</v>
-      </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88">
-        <v>6</v>
-      </c>
-      <c r="H3" s="88">
+      <c r="C3" s="87">
+        <v>4</v>
+      </c>
+      <c r="D3" s="87">
+        <v>6</v>
+      </c>
+      <c r="E3" s="87">
+        <v>4</v>
+      </c>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87">
+        <v>6</v>
+      </c>
+      <c r="H3" s="87">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88">
+      <c r="I3" s="87"/>
+      <c r="J3" s="87">
         <v>3</v>
       </c>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="83" t="s">
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="98"/>
-    </row>
-    <row r="4" spans="1:18" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="97"/>
+    </row>
+    <row r="4" spans="1:18" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="83">
-        <v>8</v>
-      </c>
-      <c r="D4" s="83">
-        <v>8</v>
-      </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83">
-        <v>8</v>
-      </c>
-      <c r="H4" s="83">
+      <c r="C4" s="82">
+        <v>8</v>
+      </c>
+      <c r="D4" s="82">
+        <v>8</v>
+      </c>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82">
+        <v>8</v>
+      </c>
+      <c r="H4" s="82">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83">
-        <v>2</v>
-      </c>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83">
+      <c r="I4" s="82"/>
+      <c r="J4" s="82">
+        <v>2</v>
+      </c>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="O4" s="83">
+      <c r="O4" s="82">
         <v>12</v>
       </c>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83">
-        <v>4</v>
-      </c>
-      <c r="R4" s="98"/>
-    </row>
-    <row r="5" spans="1:18" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82">
+        <v>4</v>
+      </c>
+      <c r="R4" s="97"/>
+    </row>
+    <row r="5" spans="1:18" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="83">
-        <v>8</v>
-      </c>
-      <c r="D5" s="83">
+      <c r="C5" s="82">
+        <v>8</v>
+      </c>
+      <c r="D5" s="82">
         <v>10</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83">
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82">
         <v>10</v>
       </c>
-      <c r="H5" s="83">
+      <c r="H5" s="82">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83">
-        <v>2</v>
-      </c>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83">
+      <c r="I5" s="82"/>
+      <c r="J5" s="82">
+        <v>2</v>
+      </c>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="83" t="s">
+      <c r="N5" s="82" t="s">
         <v>236</v>
       </c>
-      <c r="O5" s="83">
+      <c r="O5" s="82">
         <v>12</v>
       </c>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83">
-        <v>6</v>
-      </c>
-      <c r="R5" s="98"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82">
+        <v>6</v>
+      </c>
+      <c r="R5" s="97"/>
     </row>
     <row r="6" spans="1:18" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B6" s="46" t="s">
@@ -7806,135 +7800,135 @@
       </c>
       <c r="P6" s="46"/>
       <c r="Q6" s="46"/>
-      <c r="R6" s="139"/>
-    </row>
-    <row r="7" spans="1:18" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
+      <c r="R6" s="138"/>
+    </row>
+    <row r="7" spans="1:18" s="95" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="83">
+      <c r="B7" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="82">
         <v>12</v>
       </c>
-      <c r="D7" s="83">
+      <c r="D7" s="82">
         <v>10</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83">
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82">
         <v>10</v>
       </c>
-      <c r="H7" s="83">
+      <c r="H7" s="82">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83">
-        <v>2</v>
-      </c>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83">
+      <c r="I7" s="82"/>
+      <c r="J7" s="82">
+        <v>2</v>
+      </c>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="83" t="s">
+      <c r="N7" s="82" t="s">
         <v>278</v>
       </c>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="98"/>
-    </row>
-    <row r="8" spans="1:18" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="97"/>
+    </row>
+    <row r="8" spans="1:18" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="83">
-        <v>6</v>
-      </c>
-      <c r="D8" s="83">
-        <v>6</v>
-      </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83">
-        <v>6</v>
-      </c>
-      <c r="H8" s="83">
+      <c r="C8" s="82">
+        <v>6</v>
+      </c>
+      <c r="D8" s="82">
+        <v>6</v>
+      </c>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82">
+        <v>6</v>
+      </c>
+      <c r="H8" s="82">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83">
-        <v>2</v>
-      </c>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83">
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82">
+        <v>2</v>
+      </c>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N8" s="83" t="s">
+      <c r="N8" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="O8" s="83">
+      <c r="O8" s="82">
         <v>10</v>
       </c>
-      <c r="P8" s="83">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="98"/>
-    </row>
-    <row r="9" spans="1:18" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
+      <c r="P8" s="82">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="97"/>
+    </row>
+    <row r="9" spans="1:18" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="83">
-        <v>6</v>
-      </c>
-      <c r="D9" s="83">
-        <v>8</v>
-      </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83">
-        <v>8</v>
-      </c>
-      <c r="H9" s="83">
+      <c r="C9" s="82">
+        <v>6</v>
+      </c>
+      <c r="D9" s="82">
+        <v>8</v>
+      </c>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82">
+        <v>8</v>
+      </c>
+      <c r="H9" s="82">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83">
-        <v>2</v>
-      </c>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83">
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82">
+        <v>2</v>
+      </c>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N9" s="83" t="s">
+      <c r="N9" s="82" t="s">
         <v>255</v>
       </c>
-      <c r="O9" s="83">
+      <c r="O9" s="82">
         <v>10</v>
       </c>
-      <c r="P9" s="83">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="98"/>
+      <c r="P9" s="82">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="97"/>
     </row>
     <row r="10" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B10" s="46" t="s">
@@ -7966,18 +7960,18 @@
       <c r="M10" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N10" s="138" t="s">
+      <c r="N10" s="137" t="s">
         <v>203</v>
       </c>
-      <c r="O10" s="138">
+      <c r="O10" s="137">
         <v>12</v>
       </c>
       <c r="P10" s="46"/>
       <c r="Q10" s="46"/>
-      <c r="R10" s="139"/>
+      <c r="R10" s="138"/>
     </row>
     <row r="11" spans="1:18" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B11" s="46" t="s">
@@ -8007,16 +8001,16 @@
       <c r="M11" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N11" s="138" t="s">
+      <c r="N11" s="137" t="s">
         <v>200</v>
       </c>
       <c r="O11" s="46"/>
       <c r="P11" s="46"/>
       <c r="Q11" s="46"/>
-      <c r="R11" s="139"/>
+      <c r="R11" s="138"/>
     </row>
     <row r="12" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B12" s="46" t="s">
@@ -8046,16 +8040,16 @@
       <c r="M12" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N12" s="138" t="s">
+      <c r="N12" s="137" t="s">
         <v>211</v>
       </c>
-      <c r="O12" s="131"/>
-      <c r="P12" s="131"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
       <c r="Q12" s="46"/>
-      <c r="R12" s="139"/>
+      <c r="R12" s="138"/>
     </row>
     <row r="13" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B13" s="46" t="s">
@@ -8091,10 +8085,10 @@
       <c r="O13" s="46"/>
       <c r="P13" s="46"/>
       <c r="Q13" s="46"/>
-      <c r="R13" s="139"/>
+      <c r="R13" s="138"/>
     </row>
     <row r="14" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="46" t="s">
@@ -8126,61 +8120,61 @@
       <c r="M14" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N14" s="131" t="s">
+      <c r="N14" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="O14" s="131">
+      <c r="O14" s="130">
         <v>12</v>
       </c>
-      <c r="P14" s="131">
+      <c r="P14" s="130">
         <v>2</v>
       </c>
       <c r="Q14" s="46"/>
-      <c r="R14" s="139"/>
-    </row>
-    <row r="15" spans="1:18" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="s">
+      <c r="R14" s="138"/>
+    </row>
+    <row r="15" spans="1:18" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="95">
+      <c r="C15" s="94">
         <v>10</v>
       </c>
-      <c r="D15" s="95">
-        <v>8</v>
-      </c>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95">
-        <v>8</v>
-      </c>
-      <c r="H15" s="95">
+      <c r="D15" s="94">
+        <v>8</v>
+      </c>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94">
+        <v>8</v>
+      </c>
+      <c r="H15" s="94">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95">
-        <v>2</v>
-      </c>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95">
+      <c r="I15" s="94"/>
+      <c r="J15" s="94">
+        <v>2</v>
+      </c>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94">
         <v>6.080101</v>
       </c>
-      <c r="N15" s="95" t="s">
+      <c r="N15" s="94" t="s">
         <v>279</v>
       </c>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95" t="s">
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="120" t="s">
+      <c r="A16" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="46" t="s">
@@ -8220,10 +8214,10 @@
         <v>4</v>
       </c>
       <c r="Q16" s="46"/>
-      <c r="R16" s="139"/>
+      <c r="R16" s="138"/>
     </row>
     <row r="17" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="46" t="s">
@@ -8257,20 +8251,20 @@
       <c r="M17" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N17" s="138" t="s">
+      <c r="N17" s="137" t="s">
         <v>211</v>
       </c>
-      <c r="O17" s="138">
+      <c r="O17" s="137">
         <v>10</v>
       </c>
-      <c r="P17" s="138"/>
-      <c r="Q17" s="138">
+      <c r="P17" s="137"/>
+      <c r="Q17" s="137">
         <v>0</v>
       </c>
-      <c r="R17" s="139"/>
+      <c r="R17" s="138"/>
     </row>
     <row r="18" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="46" t="s">
@@ -8316,10 +8310,10 @@
       <c r="Q18" s="46">
         <v>2</v>
       </c>
-      <c r="R18" s="139"/>
+      <c r="R18" s="138"/>
     </row>
     <row r="19" spans="1:18" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="46" t="s">
@@ -8351,20 +8345,20 @@
       <c r="M19" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N19" s="131" t="s">
+      <c r="N19" s="130" t="s">
         <v>207</v>
       </c>
-      <c r="O19" s="131">
-        <v>6</v>
-      </c>
-      <c r="P19" s="131">
+      <c r="O19" s="130">
+        <v>6</v>
+      </c>
+      <c r="P19" s="130">
         <v>2</v>
       </c>
       <c r="Q19" s="46"/>
-      <c r="R19" s="139"/>
+      <c r="R19" s="138"/>
     </row>
     <row r="20" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="46" t="s">
@@ -8404,10 +8398,10 @@
         <v>2</v>
       </c>
       <c r="Q20" s="46"/>
-      <c r="R20" s="139"/>
+      <c r="R20" s="138"/>
     </row>
     <row r="21" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="46" t="s">
@@ -8437,20 +8431,20 @@
       <c r="M21" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N21" s="131" t="s">
+      <c r="N21" s="130" t="s">
         <v>242</v>
       </c>
-      <c r="O21" s="131">
-        <v>4</v>
-      </c>
-      <c r="P21" s="131">
+      <c r="O21" s="130">
+        <v>4</v>
+      </c>
+      <c r="P21" s="130">
         <v>4</v>
       </c>
       <c r="Q21" s="46"/>
-      <c r="R21" s="139"/>
+      <c r="R21" s="138"/>
     </row>
     <row r="22" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="46" t="s">
@@ -8484,20 +8478,20 @@
       <c r="M22" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N22" s="138" t="s">
+      <c r="N22" s="137" t="s">
         <v>213</v>
       </c>
-      <c r="O22" s="138">
-        <v>8</v>
-      </c>
-      <c r="P22" s="138"/>
-      <c r="Q22" s="138">
+      <c r="O22" s="137">
+        <v>8</v>
+      </c>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="137">
         <v>0</v>
       </c>
-      <c r="R22" s="139"/>
+      <c r="R22" s="138"/>
     </row>
     <row r="23" spans="1:18" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="120" t="s">
+      <c r="A23" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="46" t="s">
@@ -8527,20 +8521,20 @@
       <c r="M23" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N23" s="138" t="s">
+      <c r="N23" s="137" t="s">
         <v>240</v>
       </c>
-      <c r="O23" s="138">
-        <v>8</v>
-      </c>
-      <c r="P23" s="138"/>
-      <c r="Q23" s="138">
-        <v>4</v>
-      </c>
-      <c r="R23" s="139"/>
+      <c r="O23" s="137">
+        <v>8</v>
+      </c>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="137">
+        <v>4</v>
+      </c>
+      <c r="R23" s="138"/>
     </row>
     <row r="24" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="120" t="s">
+      <c r="A24" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="46" t="s">
@@ -8578,10 +8572,10 @@
       <c r="O24" s="46"/>
       <c r="P24" s="46"/>
       <c r="Q24" s="46"/>
-      <c r="R24" s="139"/>
+      <c r="R24" s="138"/>
     </row>
     <row r="25" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="46" t="s">
@@ -8621,12 +8615,12 @@
       <c r="O25" s="46">
         <v>10</v>
       </c>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="139"/>
+      <c r="P25" s="130"/>
+      <c r="Q25" s="130"/>
+      <c r="R25" s="138"/>
     </row>
     <row r="26" spans="1:18" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="120" t="s">
+      <c r="A26" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="46" t="s">
@@ -8664,9 +8658,9 @@
         <v>12</v>
       </c>
       <c r="Q26" s="46"/>
-      <c r="R26" s="139"/>
-    </row>
-    <row r="27" spans="1:18" s="143" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="138"/>
+    </row>
+    <row r="27" spans="1:18" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>56</v>
       </c>
@@ -8701,20 +8695,20 @@
       <c r="M27" s="52">
         <v>6.090103</v>
       </c>
-      <c r="N27" s="141" t="s">
+      <c r="N27" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="O27" s="141">
+      <c r="O27" s="140">
         <v>10</v>
       </c>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="141">
-        <v>4</v>
-      </c>
-      <c r="R27" s="142"/>
+      <c r="P27" s="140"/>
+      <c r="Q27" s="140">
+        <v>4</v>
+      </c>
+      <c r="R27" s="141"/>
     </row>
     <row r="28" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="120" t="s">
+      <c r="A28" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="46" t="s">
@@ -8746,18 +8740,18 @@
       <c r="M28" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N28" s="149" t="s">
+      <c r="N28" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="O28" s="149">
-        <v>4</v>
-      </c>
-      <c r="P28" s="149"/>
-      <c r="Q28" s="149"/>
-      <c r="R28" s="150"/>
+      <c r="O28" s="148">
+        <v>4</v>
+      </c>
+      <c r="P28" s="148"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="149"/>
     </row>
     <row r="29" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="120" t="s">
+      <c r="A29" s="119" t="s">
         <v>193</v>
       </c>
       <c r="B29" s="46" t="s">
@@ -8789,20 +8783,20 @@
       <c r="M29" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N29" s="138" t="s">
+      <c r="N29" s="137" t="s">
         <v>241</v>
       </c>
-      <c r="O29" s="138">
-        <v>8</v>
-      </c>
-      <c r="P29" s="138"/>
-      <c r="Q29" s="138">
-        <v>4</v>
-      </c>
-      <c r="R29" s="139"/>
+      <c r="O29" s="137">
+        <v>8</v>
+      </c>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="137">
+        <v>4</v>
+      </c>
+      <c r="R29" s="138"/>
     </row>
     <row r="30" spans="1:18" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="119" t="s">
         <v>193</v>
       </c>
       <c r="B30" s="46" t="s">
@@ -8836,20 +8830,20 @@
       <c r="M30" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N30" s="138" t="s">
+      <c r="N30" s="137" t="s">
         <v>232</v>
       </c>
-      <c r="O30" s="138">
+      <c r="O30" s="137">
         <v>10</v>
       </c>
-      <c r="P30" s="138">
-        <v>4</v>
-      </c>
-      <c r="Q30" s="131"/>
-      <c r="R30" s="139"/>
+      <c r="P30" s="137">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="130"/>
+      <c r="R30" s="138"/>
     </row>
     <row r="31" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="120" t="s">
+      <c r="A31" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="46" t="s">
@@ -8883,62 +8877,62 @@
       <c r="M31" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N31" s="138" t="s">
+      <c r="N31" s="137" t="s">
         <v>212</v>
       </c>
-      <c r="O31" s="138">
-        <v>8</v>
-      </c>
-      <c r="P31" s="138"/>
-      <c r="Q31" s="138">
-        <v>2</v>
-      </c>
-      <c r="R31" s="140"/>
+      <c r="O31" s="137">
+        <v>8</v>
+      </c>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="137">
+        <v>2</v>
+      </c>
+      <c r="R31" s="139"/>
     </row>
     <row r="32" spans="1:18" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="144" t="s">
+      <c r="A32" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="145" t="s">
+      <c r="B32" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="145">
-        <v>6</v>
-      </c>
-      <c r="D32" s="145">
-        <v>4</v>
-      </c>
-      <c r="E32" s="145">
-        <v>4</v>
-      </c>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145">
-        <v>4</v>
-      </c>
-      <c r="H32" s="145">
+      <c r="C32" s="144">
+        <v>6</v>
+      </c>
+      <c r="D32" s="144">
+        <v>4</v>
+      </c>
+      <c r="E32" s="144">
+        <v>4</v>
+      </c>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144">
+        <v>4</v>
+      </c>
+      <c r="H32" s="144">
         <f>Таблица2[[#This Row],[Годин 2 заїзд]]-Таблица2[[#This Row],[Використано годин]]+Таблица2[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145">
+      <c r="I32" s="144"/>
+      <c r="J32" s="144">
         <v>3</v>
       </c>
-      <c r="K32" s="145"/>
-      <c r="L32" s="145"/>
-      <c r="M32" s="145">
+      <c r="K32" s="144"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="144">
         <v>6.090103</v>
       </c>
-      <c r="N32" s="146" t="s">
+      <c r="N32" s="145" t="s">
         <v>200</v>
       </c>
-      <c r="O32" s="146">
-        <v>6</v>
-      </c>
-      <c r="P32" s="146">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="147"/>
-      <c r="R32" s="148"/>
+      <c r="O32" s="145">
+        <v>6</v>
+      </c>
+      <c r="P32" s="145">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="147"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8954,8 +8948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A44" sqref="A2:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9032,260 +9026,260 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:17" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="83">
-        <v>8</v>
-      </c>
-      <c r="D2" s="83">
+      <c r="C2" s="82">
+        <v>8</v>
+      </c>
+      <c r="D2" s="82">
         <v>16</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83">
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82">
         <v>16</v>
       </c>
-      <c r="H2" s="88">
+      <c r="H2" s="87">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88">
-        <v>2</v>
-      </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83">
+      <c r="I2" s="87"/>
+      <c r="J2" s="87">
+        <v>2</v>
+      </c>
+      <c r="K2" s="87"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="N2" s="99" t="s">
         <v>201</v>
       </c>
-      <c r="O2" s="100">
+      <c r="O2" s="99">
         <v>12</v>
       </c>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="110">
+      <c r="P2" s="99"/>
+      <c r="Q2" s="109">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="83">
-        <v>8</v>
-      </c>
-      <c r="D3" s="83">
-        <v>8</v>
-      </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83">
-        <v>8</v>
-      </c>
-      <c r="H3" s="83">
+      <c r="C3" s="82">
+        <v>8</v>
+      </c>
+      <c r="D3" s="82">
+        <v>8</v>
+      </c>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82">
+        <v>8</v>
+      </c>
+      <c r="H3" s="82">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83">
-        <v>2</v>
-      </c>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83">
+      <c r="I3" s="82"/>
+      <c r="J3" s="82">
+        <v>2</v>
+      </c>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N3" s="84" t="s">
+      <c r="N3" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="O3" s="84">
+      <c r="O3" s="83">
         <v>12</v>
       </c>
-      <c r="P3" s="84">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="85"/>
-    </row>
-    <row r="4" spans="1:17" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="P3" s="83">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="84"/>
+    </row>
+    <row r="4" spans="1:17" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="83">
-        <v>8</v>
-      </c>
-      <c r="D4" s="83">
-        <v>6</v>
-      </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83">
-        <v>6</v>
-      </c>
-      <c r="H4" s="83">
+      <c r="C4" s="82">
+        <v>8</v>
+      </c>
+      <c r="D4" s="82">
+        <v>6</v>
+      </c>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82">
+        <v>6</v>
+      </c>
+      <c r="H4" s="82">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83">
-        <v>2</v>
-      </c>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83">
+      <c r="I4" s="82"/>
+      <c r="J4" s="82">
+        <v>2</v>
+      </c>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="O4" s="84">
+      <c r="O4" s="83">
         <v>10</v>
       </c>
-      <c r="P4" s="83">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="85"/>
-    </row>
-    <row r="5" spans="1:17" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="P4" s="82">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="84"/>
+    </row>
+    <row r="5" spans="1:17" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="83">
-        <v>6</v>
-      </c>
-      <c r="D5" s="83">
-        <v>4</v>
-      </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83">
-        <v>4</v>
-      </c>
-      <c r="H5" s="83">
+      <c r="C5" s="82">
+        <v>6</v>
+      </c>
+      <c r="D5" s="82">
+        <v>4</v>
+      </c>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82">
+        <v>4</v>
+      </c>
+      <c r="H5" s="82">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83">
-        <v>2</v>
-      </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83">
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82">
+        <v>2</v>
+      </c>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="84" t="s">
+      <c r="N5" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="O5" s="84">
-        <v>6</v>
-      </c>
-      <c r="P5" s="83">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="85"/>
-    </row>
-    <row r="6" spans="1:17" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
+      <c r="O5" s="83">
+        <v>6</v>
+      </c>
+      <c r="P5" s="82">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="95">
-        <v>6</v>
-      </c>
-      <c r="D6" s="95">
-        <v>4</v>
-      </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95">
-        <v>4</v>
-      </c>
-      <c r="H6" s="95">
+      <c r="C6" s="94">
+        <v>6</v>
+      </c>
+      <c r="D6" s="94">
+        <v>4</v>
+      </c>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94">
+        <v>4</v>
+      </c>
+      <c r="H6" s="94">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95">
-        <v>2</v>
-      </c>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95">
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94">
+        <v>2</v>
+      </c>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="111" t="s">
+      <c r="N6" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="O6" s="111">
-        <v>8</v>
-      </c>
-      <c r="P6" s="111">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="111"/>
-    </row>
-    <row r="7" spans="1:17" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
+      <c r="O6" s="110">
+        <v>8</v>
+      </c>
+      <c r="P6" s="110">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="110"/>
+    </row>
+    <row r="7" spans="1:17" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="83">
-        <v>6</v>
-      </c>
-      <c r="D7" s="83">
-        <v>8</v>
-      </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83">
-        <v>8</v>
-      </c>
-      <c r="H7" s="83">
+      <c r="C7" s="82">
+        <v>6</v>
+      </c>
+      <c r="D7" s="82">
+        <v>8</v>
+      </c>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82">
+        <v>8</v>
+      </c>
+      <c r="H7" s="82">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83">
-        <v>2</v>
-      </c>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83">
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82">
+        <v>2</v>
+      </c>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="84" t="s">
+      <c r="N7" s="83" t="s">
         <v>244</v>
       </c>
-      <c r="O7" s="84">
-        <v>6</v>
-      </c>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="85">
+      <c r="O7" s="83">
+        <v>6</v>
+      </c>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="84">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B8" s="46" t="s">
@@ -9317,17 +9311,17 @@
       <c r="M8" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N8" s="121" t="s">
+      <c r="N8" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="O8" s="121">
+      <c r="O8" s="120">
         <v>20</v>
       </c>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="122"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="121"/>
     </row>
     <row r="9" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B9" s="46" t="s">
@@ -9357,17 +9351,17 @@
       <c r="M9" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N9" s="121" t="s">
+      <c r="N9" s="120" t="s">
         <v>333</v>
       </c>
-      <c r="O9" s="121">
-        <v>8</v>
-      </c>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="122"/>
+      <c r="O9" s="120">
+        <v>8</v>
+      </c>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="121"/>
     </row>
     <row r="10" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B10" s="46" t="s">
@@ -9397,17 +9391,17 @@
       <c r="M10" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N10" s="128" t="s">
+      <c r="N10" s="127" t="s">
         <v>215</v>
       </c>
-      <c r="O10" s="128">
-        <v>6</v>
-      </c>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="122"/>
+      <c r="O10" s="127">
+        <v>6</v>
+      </c>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="121"/>
     </row>
     <row r="11" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B11" s="46" t="s">
@@ -9441,17 +9435,17 @@
       <c r="M11" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N11" s="128" t="s">
+      <c r="N11" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="O11" s="128">
-        <v>6</v>
-      </c>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="122"/>
+      <c r="O11" s="127">
+        <v>6</v>
+      </c>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="121"/>
     </row>
     <row r="12" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B12" s="46" t="s">
@@ -9481,15 +9475,15 @@
       <c r="M12" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N12" s="121" t="s">
+      <c r="N12" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="122"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="121"/>
     </row>
     <row r="13" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B13" s="46" t="s">
@@ -9519,99 +9513,99 @@
       <c r="M13" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N13" s="128" t="s">
+      <c r="N13" s="127" t="s">
         <v>216</v>
       </c>
-      <c r="O13" s="121"/>
-      <c r="P13" s="121"/>
-      <c r="Q13" s="122"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="121"/>
     </row>
     <row r="14" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="129" t="s">
         <v>194</v>
       </c>
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131">
-        <v>8</v>
-      </c>
-      <c r="F14" s="131">
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130">
+        <v>8</v>
+      </c>
+      <c r="F14" s="130">
         <v>10</v>
       </c>
-      <c r="G14" s="131">
+      <c r="G14" s="130">
         <v>0</v>
       </c>
-      <c r="H14" s="131">
+      <c r="H14" s="130">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>8</v>
       </c>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131">
-        <v>4</v>
-      </c>
-      <c r="K14" s="131"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131">
+      <c r="I14" s="130"/>
+      <c r="J14" s="130">
+        <v>4</v>
+      </c>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="130">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N14" s="127" t="s">
+      <c r="N14" s="126" t="s">
         <v>203</v>
       </c>
-      <c r="O14" s="127">
+      <c r="O14" s="126">
         <v>12</v>
       </c>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="132">
+      <c r="P14" s="126"/>
+      <c r="Q14" s="131">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="90" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="113" t="s">
+    <row r="15" spans="1:17" s="89" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114">
-        <v>4</v>
-      </c>
-      <c r="F15" s="114">
-        <v>8</v>
-      </c>
-      <c r="G15" s="114">
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113">
+        <v>4</v>
+      </c>
+      <c r="F15" s="113">
+        <v>8</v>
+      </c>
+      <c r="G15" s="113">
         <v>0</v>
       </c>
-      <c r="H15" s="114">
+      <c r="H15" s="113">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114">
-        <v>4</v>
-      </c>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="114">
+      <c r="I15" s="113"/>
+      <c r="J15" s="113">
+        <v>4</v>
+      </c>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N15" s="114" t="s">
+      <c r="N15" s="113" t="s">
         <v>246</v>
       </c>
-      <c r="O15" s="100">
-        <v>8</v>
-      </c>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="110">
+      <c r="O15" s="99">
+        <v>8</v>
+      </c>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="109">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="120" t="s">
+      <c r="A16" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="46" t="s">
@@ -9643,65 +9637,65 @@
       <c r="M16" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N16" s="128" t="s">
+      <c r="N16" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="O16" s="128">
-        <v>8</v>
-      </c>
-      <c r="P16" s="128">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="122"/>
+      <c r="O16" s="127">
+        <v>8</v>
+      </c>
+      <c r="P16" s="127">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="121"/>
     </row>
     <row r="17" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="152" t="s">
+      <c r="A17" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="152" t="s">
+      <c r="B17" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="152">
-        <v>4</v>
-      </c>
-      <c r="D17" s="152">
-        <v>4</v>
-      </c>
-      <c r="E17" s="152">
-        <v>6</v>
-      </c>
-      <c r="F17" s="152">
-        <v>6</v>
-      </c>
-      <c r="G17" s="152">
-        <v>4</v>
-      </c>
-      <c r="H17" s="152">
+      <c r="C17" s="151">
+        <v>4</v>
+      </c>
+      <c r="D17" s="151">
+        <v>4</v>
+      </c>
+      <c r="E17" s="151">
+        <v>6</v>
+      </c>
+      <c r="F17" s="151">
+        <v>6</v>
+      </c>
+      <c r="G17" s="151">
+        <v>4</v>
+      </c>
+      <c r="H17" s="151">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I17" s="152"/>
-      <c r="J17" s="152">
-        <v>4</v>
-      </c>
-      <c r="K17" s="152"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152">
+      <c r="I17" s="151"/>
+      <c r="J17" s="151">
+        <v>4</v>
+      </c>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151">
         <v>6.080101</v>
       </c>
-      <c r="N17" s="153" t="s">
+      <c r="N17" s="152" t="s">
         <v>334</v>
       </c>
-      <c r="O17" s="153">
-        <v>8</v>
-      </c>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="153">
+      <c r="O17" s="152">
+        <v>8</v>
+      </c>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="50" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="46" t="s">
@@ -9733,17 +9727,17 @@
       <c r="M18" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N18" s="128" t="s">
+      <c r="N18" s="127" t="s">
         <v>247</v>
       </c>
-      <c r="O18" s="121">
+      <c r="O18" s="120">
         <v>10</v>
       </c>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="122"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="121"/>
     </row>
     <row r="19" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="46" t="s">
@@ -9775,19 +9769,19 @@
       <c r="M19" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N19" s="128" t="s">
+      <c r="N19" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="O19" s="128">
+      <c r="O19" s="127">
         <v>10</v>
       </c>
-      <c r="P19" s="128">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="122"/>
+      <c r="P19" s="127">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="121"/>
     </row>
     <row r="20" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="46" t="s">
@@ -9815,17 +9809,17 @@
       <c r="M20" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N20" s="121" t="s">
+      <c r="N20" s="120" t="s">
         <v>219</v>
       </c>
-      <c r="O20" s="121">
-        <v>8</v>
-      </c>
-      <c r="P20" s="121"/>
-      <c r="Q20" s="122"/>
+      <c r="O20" s="120">
+        <v>8</v>
+      </c>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="121"/>
     </row>
     <row r="21" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="46" t="s">
@@ -9855,15 +9849,15 @@
       <c r="M21" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N21" s="128" t="s">
+      <c r="N21" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="122"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="121"/>
     </row>
     <row r="22" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="46" t="s">
@@ -9893,19 +9887,19 @@
       <c r="M22" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N22" s="128" t="s">
+      <c r="N22" s="127" t="s">
         <v>248</v>
       </c>
-      <c r="O22" s="128">
-        <v>8</v>
-      </c>
-      <c r="P22" s="128">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="122"/>
+      <c r="O22" s="127">
+        <v>8</v>
+      </c>
+      <c r="P22" s="127">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="121"/>
     </row>
     <row r="23" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="120" t="s">
+      <c r="A23" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="46" t="s">
@@ -9937,19 +9931,19 @@
       <c r="M23" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N23" s="128" t="s">
+      <c r="N23" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="O23" s="128">
-        <v>8</v>
-      </c>
-      <c r="P23" s="128">
+      <c r="O23" s="127">
+        <v>8</v>
+      </c>
+      <c r="P23" s="127">
         <v>0</v>
       </c>
-      <c r="Q23" s="122"/>
+      <c r="Q23" s="121"/>
     </row>
     <row r="24" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="120" t="s">
+      <c r="A24" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="46" t="s">
@@ -9981,19 +9975,19 @@
       <c r="M24" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N24" s="128" t="s">
+      <c r="N24" s="127" t="s">
         <v>235</v>
       </c>
-      <c r="O24" s="128">
-        <v>8</v>
-      </c>
-      <c r="P24" s="128"/>
-      <c r="Q24" s="151">
+      <c r="O24" s="127">
+        <v>8</v>
+      </c>
+      <c r="P24" s="127"/>
+      <c r="Q24" s="150">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="46" t="s">
@@ -10025,17 +10019,17 @@
       <c r="M25" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N25" s="128" t="s">
+      <c r="N25" s="127" t="s">
         <v>249</v>
       </c>
-      <c r="O25" s="128">
+      <c r="O25" s="127">
         <v>10</v>
       </c>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="122"/>
+      <c r="P25" s="120"/>
+      <c r="Q25" s="121"/>
     </row>
     <row r="26" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="120" t="s">
+      <c r="A26" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="46" t="s">
@@ -10065,19 +10059,19 @@
       <c r="M26" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N26" s="121" t="s">
+      <c r="N26" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="O26" s="121">
-        <v>8</v>
-      </c>
-      <c r="P26" s="121">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="122"/>
+      <c r="O26" s="120">
+        <v>8</v>
+      </c>
+      <c r="P26" s="120">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="121"/>
     </row>
     <row r="27" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="120" t="s">
+      <c r="A27" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="46" t="s">
@@ -10107,19 +10101,19 @@
       <c r="M27" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N27" s="121" t="s">
+      <c r="N27" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="O27" s="121">
-        <v>6</v>
-      </c>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="122">
+      <c r="O27" s="120">
+        <v>6</v>
+      </c>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="121">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="120" t="s">
+      <c r="A28" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="46" t="s">
@@ -10149,19 +10143,19 @@
       <c r="M28" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N28" s="121" t="s">
+      <c r="N28" s="120" t="s">
         <v>242</v>
       </c>
-      <c r="O28" s="121">
-        <v>6</v>
-      </c>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="122">
+      <c r="O28" s="120">
+        <v>6</v>
+      </c>
+      <c r="P28" s="120"/>
+      <c r="Q28" s="121">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="120" t="s">
+      <c r="A29" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="46" t="s">
@@ -10169,10 +10163,10 @@
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
-      <c r="E29" s="131">
-        <v>4</v>
-      </c>
-      <c r="F29" s="131">
+      <c r="E29" s="130">
+        <v>4</v>
+      </c>
+      <c r="F29" s="130">
         <v>6</v>
       </c>
       <c r="G29" s="46">
@@ -10191,17 +10185,17 @@
       <c r="M29" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N29" s="127" t="s">
+      <c r="N29" s="126" t="s">
         <v>241</v>
       </c>
-      <c r="O29" s="127">
-        <v>8</v>
-      </c>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="132"/>
+      <c r="O29" s="126">
+        <v>8</v>
+      </c>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="131"/>
     </row>
     <row r="30" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="46" t="s">
@@ -10235,57 +10229,57 @@
       <c r="M30" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N30" s="128" t="s">
+      <c r="N30" s="127" t="s">
         <v>222</v>
       </c>
-      <c r="O30" s="128">
-        <v>6</v>
-      </c>
-      <c r="P30" s="128"/>
-      <c r="Q30" s="151">
+      <c r="O30" s="127">
+        <v>6</v>
+      </c>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="150">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="90" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="82" t="s">
+    <row r="31" spans="1:17" s="89" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="83">
-        <v>6</v>
-      </c>
-      <c r="D31" s="83">
-        <v>2</v>
-      </c>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83">
-        <v>2</v>
-      </c>
-      <c r="H31" s="83">
+      <c r="C31" s="82">
+        <v>6</v>
+      </c>
+      <c r="D31" s="82">
+        <v>2</v>
+      </c>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82">
+        <v>2</v>
+      </c>
+      <c r="H31" s="82">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83">
-        <v>2</v>
-      </c>
-      <c r="L31" s="83" t="s">
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82">
+        <v>2</v>
+      </c>
+      <c r="L31" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="M31" s="83"/>
-      <c r="N31" s="84" t="s">
+      <c r="M31" s="82"/>
+      <c r="N31" s="83" t="s">
         <v>280</v>
       </c>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="85"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="84"/>
     </row>
     <row r="32" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="120" t="s">
+      <c r="A32" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="46" t="s">
@@ -10319,19 +10313,19 @@
       <c r="M32" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N32" s="128" t="s">
+      <c r="N32" s="127" t="s">
         <v>335</v>
       </c>
-      <c r="O32" s="128">
-        <v>6</v>
-      </c>
-      <c r="P32" s="138">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="122"/>
+      <c r="O32" s="127">
+        <v>6</v>
+      </c>
+      <c r="P32" s="137">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="121"/>
     </row>
     <row r="33" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="120" t="s">
+      <c r="A33" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="46" t="s">
@@ -10363,57 +10357,57 @@
       <c r="M33" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N33" s="128" t="s">
+      <c r="N33" s="127" t="s">
         <v>208</v>
       </c>
-      <c r="O33" s="128">
-        <v>4</v>
-      </c>
-      <c r="P33" s="128">
+      <c r="O33" s="127">
+        <v>4</v>
+      </c>
+      <c r="P33" s="127">
         <v>0</v>
       </c>
-      <c r="Q33" s="151"/>
-    </row>
-    <row r="34" spans="1:17" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="82" t="s">
+      <c r="Q33" s="150"/>
+    </row>
+    <row r="34" spans="1:17" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="83">
-        <v>6</v>
-      </c>
-      <c r="D34" s="83">
-        <v>2</v>
-      </c>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83">
-        <v>2</v>
-      </c>
-      <c r="H34" s="83">
+      <c r="C34" s="82">
+        <v>6</v>
+      </c>
+      <c r="D34" s="82">
+        <v>2</v>
+      </c>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82">
+        <v>2</v>
+      </c>
+      <c r="H34" s="82">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83">
-        <v>2</v>
-      </c>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83">
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82">
+        <v>2</v>
+      </c>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82">
         <v>6.090103</v>
       </c>
-      <c r="N34" s="90" t="s">
+      <c r="N34" s="89" t="s">
         <v>282</v>
       </c>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="85"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="84"/>
     </row>
     <row r="35" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="120" t="s">
+      <c r="A35" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="46" t="s">
@@ -10449,19 +10443,19 @@
       <c r="M35" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N35" s="128" t="s">
+      <c r="N35" s="127" t="s">
         <v>250</v>
       </c>
-      <c r="O35" s="128">
+      <c r="O35" s="127">
         <v>12</v>
       </c>
       <c r="P35" s="46">
         <v>0</v>
       </c>
-      <c r="Q35" s="122"/>
+      <c r="Q35" s="121"/>
     </row>
     <row r="36" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="46" t="s">
@@ -10493,19 +10487,19 @@
       <c r="M36" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N36" s="128" t="s">
+      <c r="N36" s="127" t="s">
         <v>242</v>
       </c>
-      <c r="O36" s="128">
-        <v>6</v>
-      </c>
-      <c r="P36" s="128"/>
-      <c r="Q36" s="151">
+      <c r="O36" s="127">
+        <v>6</v>
+      </c>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="150">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="120" t="s">
+      <c r="A37" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="46" t="s">
@@ -10535,19 +10529,19 @@
       <c r="M37" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N37" s="121" t="s">
+      <c r="N37" s="120" t="s">
         <v>207</v>
       </c>
-      <c r="O37" s="121">
-        <v>4</v>
-      </c>
-      <c r="P37" s="121">
-        <v>6</v>
-      </c>
-      <c r="Q37" s="122"/>
+      <c r="O37" s="120">
+        <v>4</v>
+      </c>
+      <c r="P37" s="120">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="121"/>
     </row>
     <row r="38" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="120" t="s">
+      <c r="A38" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="46" t="s">
@@ -10579,15 +10573,15 @@
       <c r="M38" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N38" s="121" t="s">
+      <c r="N38" s="120" t="s">
         <v>283</v>
       </c>
-      <c r="O38" s="121"/>
-      <c r="P38" s="121"/>
-      <c r="Q38" s="122"/>
+      <c r="O38" s="120"/>
+      <c r="P38" s="120"/>
+      <c r="Q38" s="121"/>
     </row>
     <row r="39" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="120" t="s">
+      <c r="A39" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="46" t="s">
@@ -10619,19 +10613,19 @@
       <c r="M39" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N39" s="121" t="s">
+      <c r="N39" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="O39" s="121">
+      <c r="O39" s="120">
         <v>6</v>
       </c>
       <c r="P39" s="46">
         <v>4</v>
       </c>
-      <c r="Q39" s="122"/>
+      <c r="Q39" s="121"/>
     </row>
     <row r="40" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="120" t="s">
+      <c r="A40" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="46" t="s">
@@ -10663,53 +10657,53 @@
       <c r="M40" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N40" s="121" t="s">
+      <c r="N40" s="120" t="s">
         <v>243</v>
       </c>
-      <c r="O40" s="127"/>
-      <c r="P40" s="127"/>
-      <c r="Q40" s="122"/>
-    </row>
-    <row r="41" spans="1:17" s="90" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="82" t="s">
+      <c r="O40" s="126"/>
+      <c r="P40" s="126"/>
+      <c r="Q40" s="121"/>
+    </row>
+    <row r="41" spans="1:17" s="89" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83">
-        <v>4</v>
-      </c>
-      <c r="E41" s="83">
-        <v>4</v>
-      </c>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83">
-        <v>4</v>
-      </c>
-      <c r="H41" s="83">
+      <c r="C41" s="82"/>
+      <c r="D41" s="82">
+        <v>4</v>
+      </c>
+      <c r="E41" s="82">
+        <v>4</v>
+      </c>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82">
+        <v>4</v>
+      </c>
+      <c r="H41" s="82">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83">
+      <c r="I41" s="82"/>
+      <c r="J41" s="82">
         <v>3</v>
       </c>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83" t="s">
+      <c r="K41" s="82"/>
+      <c r="L41" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="M41" s="83"/>
-      <c r="N41" s="84" t="s">
+      <c r="M41" s="82"/>
+      <c r="N41" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="O41" s="84"/>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="85"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="83"/>
+      <c r="Q41" s="84"/>
     </row>
     <row r="42" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="120" t="s">
+      <c r="A42" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B42" s="46" t="s">
@@ -10741,19 +10735,19 @@
       <c r="M42" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N42" s="121" t="s">
+      <c r="N42" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="O42" s="121">
-        <v>8</v>
-      </c>
-      <c r="P42" s="121"/>
-      <c r="Q42" s="122">
+      <c r="O42" s="120">
+        <v>8</v>
+      </c>
+      <c r="P42" s="120"/>
+      <c r="Q42" s="121">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="120" t="s">
+      <c r="A43" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B43" s="46" t="s">
@@ -10787,60 +10781,60 @@
       <c r="M43" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N43" s="128" t="s">
+      <c r="N43" s="127" t="s">
         <v>213</v>
       </c>
-      <c r="O43" s="128">
-        <v>6</v>
-      </c>
-      <c r="P43" s="128">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="122"/>
+      <c r="O43" s="127">
+        <v>6</v>
+      </c>
+      <c r="P43" s="127">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="121"/>
     </row>
     <row r="44" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="144" t="s">
+      <c r="A44" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="145" t="s">
+      <c r="B44" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="145">
-        <v>6</v>
-      </c>
-      <c r="D44" s="145">
-        <v>6</v>
-      </c>
-      <c r="E44" s="145">
-        <v>6</v>
-      </c>
-      <c r="F44" s="145">
-        <v>8</v>
-      </c>
-      <c r="G44" s="145">
-        <v>6</v>
-      </c>
-      <c r="H44" s="145">
+      <c r="C44" s="144">
+        <v>6</v>
+      </c>
+      <c r="D44" s="144">
+        <v>6</v>
+      </c>
+      <c r="E44" s="144">
+        <v>6</v>
+      </c>
+      <c r="F44" s="144">
+        <v>8</v>
+      </c>
+      <c r="G44" s="144">
+        <v>6</v>
+      </c>
+      <c r="H44" s="144">
         <f>Таблица3[[#This Row],[Годин 2 заїзд]]-Таблица3[[#This Row],[Використано годин]]+Таблица3[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I44" s="145"/>
-      <c r="J44" s="145"/>
-      <c r="K44" s="145">
-        <v>4</v>
-      </c>
-      <c r="L44" s="145"/>
-      <c r="M44" s="145">
+      <c r="I44" s="144"/>
+      <c r="J44" s="144"/>
+      <c r="K44" s="144">
+        <v>4</v>
+      </c>
+      <c r="L44" s="144"/>
+      <c r="M44" s="144">
         <v>6.090103</v>
       </c>
-      <c r="N44" s="154" t="s">
+      <c r="N44" s="153" t="s">
         <v>337</v>
       </c>
-      <c r="O44" s="154">
+      <c r="O44" s="153">
         <v>12</v>
       </c>
-      <c r="P44" s="155"/>
-      <c r="Q44" s="156"/>
+      <c r="P44" s="154"/>
+      <c r="Q44" s="155"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -11025,8 +11019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A42" sqref="A2:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11103,8 +11097,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+    <row r="2" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B2" s="46" t="s">
@@ -11134,19 +11128,19 @@
       <c r="M2" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N2" s="121" t="s">
+      <c r="N2" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="O2" s="121">
+      <c r="O2" s="120">
         <v>12</v>
       </c>
-      <c r="P2" s="121">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="122"/>
-    </row>
-    <row r="3" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="P2" s="120">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="121"/>
+    </row>
+    <row r="3" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="46" t="s">
@@ -11176,19 +11170,19 @@
       <c r="M3" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N3" s="121" t="s">
+      <c r="N3" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="O3" s="121">
+      <c r="O3" s="120">
         <v>10</v>
       </c>
-      <c r="P3" s="121">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="122"/>
-    </row>
-    <row r="4" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="P3" s="120">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="121"/>
+    </row>
+    <row r="4" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B4" s="46" t="s">
@@ -11218,17 +11212,17 @@
       <c r="M4" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N4" s="121" t="s">
+      <c r="N4" s="120" t="s">
         <v>203</v>
       </c>
-      <c r="O4" s="121">
+      <c r="O4" s="120">
         <v>10</v>
       </c>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="122"/>
-    </row>
-    <row r="5" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120" t="s">
+      <c r="P4" s="120"/>
+      <c r="Q4" s="121"/>
+    </row>
+    <row r="5" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B5" s="46" t="s">
@@ -11258,19 +11252,19 @@
       <c r="M5" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="128" t="s">
+      <c r="N5" s="127" t="s">
         <v>216</v>
       </c>
-      <c r="O5" s="128">
+      <c r="O5" s="127">
         <v>10</v>
       </c>
-      <c r="P5" s="138">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="122"/>
-    </row>
-    <row r="6" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+      <c r="P5" s="137">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="121"/>
+    </row>
+    <row r="6" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B6" s="46" t="s">
@@ -11300,19 +11294,19 @@
       <c r="M6" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="121" t="s">
+      <c r="N6" s="120" t="s">
         <v>254</v>
       </c>
-      <c r="O6" s="121">
+      <c r="O6" s="120">
         <v>8</v>
       </c>
       <c r="P6" s="46">
         <v>2</v>
       </c>
-      <c r="Q6" s="122"/>
-    </row>
-    <row r="7" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="120" t="s">
+      <c r="Q6" s="121"/>
+    </row>
+    <row r="7" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B7" s="46" t="s">
@@ -11346,57 +11340,57 @@
       <c r="M7" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="121" t="s">
+      <c r="N7" s="120" t="s">
         <v>219</v>
       </c>
-      <c r="O7" s="121">
+      <c r="O7" s="120">
         <v>8</v>
       </c>
       <c r="P7" s="46">
         <v>2</v>
       </c>
-      <c r="Q7" s="122"/>
-    </row>
-    <row r="8" spans="1:17" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113" t="s">
+      <c r="Q7" s="121"/>
+    </row>
+    <row r="8" spans="1:17" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114">
-        <v>6</v>
-      </c>
-      <c r="E8" s="114">
-        <v>4</v>
-      </c>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114">
-        <v>6</v>
-      </c>
-      <c r="H8" s="114">
+      <c r="C8" s="113"/>
+      <c r="D8" s="113">
+        <v>6</v>
+      </c>
+      <c r="E8" s="113">
+        <v>4</v>
+      </c>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113">
+        <v>6</v>
+      </c>
+      <c r="H8" s="113">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114">
+      <c r="I8" s="113"/>
+      <c r="J8" s="113">
         <v>3</v>
       </c>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114">
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N8" s="100" t="s">
+      <c r="N8" s="99" t="s">
         <v>340</v>
       </c>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="110"/>
-    </row>
-    <row r="9" spans="1:17" s="133" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="120" t="s">
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="109"/>
+    </row>
+    <row r="9" spans="1:17" s="132" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B9" s="46" t="s">
@@ -11426,14 +11420,14 @@
       <c r="M9" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N9" s="128" t="s">
+      <c r="N9" s="127" t="s">
         <v>215</v>
       </c>
-      <c r="O9" s="128">
-        <v>6</v>
-      </c>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="122"/>
+      <c r="O9" s="127">
+        <v>6</v>
+      </c>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="121"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
@@ -11475,48 +11469,48 @@
       <c r="P10" s="54"/>
       <c r="Q10" s="55"/>
     </row>
-    <row r="11" spans="1:17" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+    <row r="11" spans="1:17" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83">
-        <v>6</v>
-      </c>
-      <c r="E11" s="83">
-        <v>6</v>
-      </c>
-      <c r="F11" s="83">
-        <v>2</v>
-      </c>
-      <c r="G11" s="83">
-        <v>6</v>
-      </c>
-      <c r="H11" s="83">
+      <c r="C11" s="82"/>
+      <c r="D11" s="82">
+        <v>6</v>
+      </c>
+      <c r="E11" s="82">
+        <v>6</v>
+      </c>
+      <c r="F11" s="82">
+        <v>2</v>
+      </c>
+      <c r="G11" s="82">
+        <v>6</v>
+      </c>
+      <c r="H11" s="82">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83">
-        <v>4</v>
-      </c>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83">
+      <c r="I11" s="82"/>
+      <c r="J11" s="82">
+        <v>4</v>
+      </c>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N11" s="84" t="s">
+      <c r="N11" s="83" t="s">
         <v>284</v>
       </c>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="85"/>
-    </row>
-    <row r="12" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120" t="s">
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="84"/>
+    </row>
+    <row r="12" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B12" s="46" t="s">
@@ -11550,17 +11544,17 @@
       <c r="M12" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N12" s="128" t="s">
+      <c r="N12" s="127" t="s">
         <v>215</v>
       </c>
-      <c r="O12" s="128">
+      <c r="O12" s="127">
         <v>16</v>
       </c>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="122"/>
-    </row>
-    <row r="13" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="P12" s="120"/>
+      <c r="Q12" s="121"/>
+    </row>
+    <row r="13" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B13" s="46" t="s">
@@ -11590,15 +11584,15 @@
       <c r="M13" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N13" s="128" t="s">
+      <c r="N13" s="127" t="s">
         <v>224</v>
       </c>
-      <c r="O13" s="121"/>
-      <c r="P13" s="121"/>
-      <c r="Q13" s="122"/>
-    </row>
-    <row r="14" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="120" t="s">
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="121"/>
+    </row>
+    <row r="14" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B14" s="46" t="s">
@@ -11628,15 +11622,15 @@
       <c r="M14" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N14" s="128" t="s">
+      <c r="N14" s="127" t="s">
         <v>215</v>
       </c>
-      <c r="O14" s="121"/>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="122"/>
-    </row>
-    <row r="15" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="120" t="s">
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="121"/>
+    </row>
+    <row r="15" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="119" t="s">
         <v>194</v>
       </c>
       <c r="B15" s="46" t="s">
@@ -11666,15 +11660,15 @@
       <c r="M15" s="46">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N15" s="128" t="s">
+      <c r="N15" s="127" t="s">
         <v>225</v>
       </c>
-      <c r="O15" s="121"/>
-      <c r="P15" s="121"/>
-      <c r="Q15" s="122"/>
-    </row>
-    <row r="16" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="120" t="s">
+      <c r="O15" s="120"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="121"/>
+    </row>
+    <row r="16" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="46" t="s">
@@ -11708,19 +11702,19 @@
       <c r="M16" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N16" s="128" t="s">
+      <c r="N16" s="127" t="s">
         <v>226</v>
       </c>
-      <c r="O16" s="128">
+      <c r="O16" s="127">
         <v>12</v>
       </c>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="151">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="120" t="s">
+      <c r="P16" s="127"/>
+      <c r="Q16" s="150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="46" t="s">
@@ -11750,15 +11744,15 @@
       <c r="M17" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N17" s="128" t="s">
+      <c r="N17" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="122"/>
-    </row>
-    <row r="18" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="120" t="s">
+      <c r="O17" s="120"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="121"/>
+    </row>
+    <row r="18" spans="1:18" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="46" t="s">
@@ -11790,15 +11784,15 @@
       <c r="M18" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N18" s="121" t="s">
+      <c r="N18" s="120" t="s">
         <v>285</v>
       </c>
-      <c r="O18" s="121"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="122"/>
-    </row>
-    <row r="19" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="120" t="s">
+      <c r="O18" s="120"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="121"/>
+    </row>
+    <row r="19" spans="1:18" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="46" t="s">
@@ -11830,19 +11824,19 @@
       <c r="M19" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N19" s="128" t="s">
+      <c r="N19" s="127" t="s">
         <v>251</v>
       </c>
-      <c r="O19" s="128">
-        <v>8</v>
-      </c>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="151">
+      <c r="O19" s="127">
+        <v>8</v>
+      </c>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="150">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="120" t="s">
+    <row r="20" spans="1:18" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="46" t="s">
@@ -11872,15 +11866,15 @@
       <c r="M20" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N20" s="128" t="s">
+      <c r="N20" s="127" t="s">
         <v>249</v>
       </c>
-      <c r="O20" s="121"/>
-      <c r="P20" s="121"/>
-      <c r="Q20" s="122"/>
-    </row>
-    <row r="21" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="120" t="s">
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="121"/>
+    </row>
+    <row r="21" spans="1:18" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="46" t="s">
@@ -11910,19 +11904,19 @@
       <c r="M21" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N21" s="128" t="s">
+      <c r="N21" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="O21" s="121">
+      <c r="O21" s="120">
         <v>10</v>
       </c>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="122">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120" t="s">
+      <c r="P21" s="120"/>
+      <c r="Q21" s="121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="46" t="s">
@@ -11952,19 +11946,19 @@
       <c r="M22" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N22" s="128" t="s">
+      <c r="N22" s="127" t="s">
         <v>272</v>
       </c>
-      <c r="O22" s="121">
+      <c r="O22" s="120">
         <v>8</v>
       </c>
       <c r="P22" s="46">
         <v>2</v>
       </c>
-      <c r="Q22" s="122"/>
-    </row>
-    <row r="23" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="120" t="s">
+      <c r="Q22" s="121"/>
+    </row>
+    <row r="23" spans="1:18" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="46" t="s">
@@ -11994,19 +11988,19 @@
       <c r="M23" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N23" s="128" t="s">
+      <c r="N23" s="127" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="128">
-        <v>8</v>
-      </c>
-      <c r="P23" s="128">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="122"/>
-    </row>
-    <row r="24" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="120" t="s">
+      <c r="O23" s="127">
+        <v>8</v>
+      </c>
+      <c r="P23" s="127">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="121"/>
+    </row>
+    <row r="24" spans="1:18" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="46" t="s">
@@ -12036,14 +12030,14 @@
       <c r="M24" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N24" s="121" t="s">
+      <c r="N24" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="O24" s="121">
-        <v>8</v>
-      </c>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="122">
+      <c r="O24" s="120">
+        <v>8</v>
+      </c>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="121">
         <v>2</v>
       </c>
     </row>
@@ -12084,8 +12078,8 @@
       <c r="Q25" s="61"/>
       <c r="R25" s="28"/>
     </row>
-    <row r="26" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="120" t="s">
+    <row r="26" spans="1:18" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="46" t="s">
@@ -12119,19 +12113,19 @@
       <c r="M26" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N26" s="128" t="s">
+      <c r="N26" s="127" t="s">
         <v>212</v>
       </c>
-      <c r="O26" s="128"/>
-      <c r="P26" s="128">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="151">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="120" t="s">
+      <c r="O26" s="127"/>
+      <c r="P26" s="127">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="46" t="s">
@@ -12161,55 +12155,55 @@
       <c r="M27" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N27" s="128" t="s">
+      <c r="N27" s="127" t="s">
         <v>212</v>
       </c>
-      <c r="O27" s="121"/>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="122"/>
-    </row>
-    <row r="28" spans="1:18" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="82" t="s">
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="121"/>
+    </row>
+    <row r="28" spans="1:18" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83">
-        <v>6</v>
-      </c>
-      <c r="E28" s="83">
-        <v>6</v>
-      </c>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83">
-        <v>6</v>
-      </c>
-      <c r="H28" s="83">
+      <c r="C28" s="82"/>
+      <c r="D28" s="82">
+        <v>6</v>
+      </c>
+      <c r="E28" s="82">
+        <v>6</v>
+      </c>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82">
+        <v>6</v>
+      </c>
+      <c r="H28" s="82">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83">
+      <c r="I28" s="82"/>
+      <c r="J28" s="82">
         <v>3</v>
       </c>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83">
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82">
         <v>6.080101</v>
       </c>
-      <c r="N28" s="99" t="s">
+      <c r="N28" s="98" t="s">
         <v>274</v>
       </c>
-      <c r="O28" s="99">
-        <v>6</v>
-      </c>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="85"/>
-    </row>
-    <row r="29" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="120" t="s">
+      <c r="O28" s="98">
+        <v>6</v>
+      </c>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="84"/>
+    </row>
+    <row r="29" spans="1:18" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="46" t="s">
@@ -12239,89 +12233,89 @@
       <c r="M29" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N29" s="121" t="s">
+      <c r="N29" s="120" t="s">
         <v>330</v>
       </c>
-      <c r="O29" s="121"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="122"/>
-    </row>
-    <row r="30" spans="1:18" s="112" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="82" t="s">
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="121"/>
+    </row>
+    <row r="30" spans="1:18" s="111" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83">
-        <v>4</v>
-      </c>
-      <c r="E30" s="83">
-        <v>4</v>
-      </c>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83">
-        <v>4</v>
-      </c>
-      <c r="H30" s="83">
+      <c r="C30" s="82"/>
+      <c r="D30" s="82">
+        <v>4</v>
+      </c>
+      <c r="E30" s="82">
+        <v>4</v>
+      </c>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82">
+        <v>4</v>
+      </c>
+      <c r="H30" s="82">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83">
+      <c r="I30" s="82"/>
+      <c r="J30" s="82">
         <v>3</v>
       </c>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83" t="s">
+      <c r="K30" s="82"/>
+      <c r="L30" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="M30" s="83"/>
-      <c r="N30" s="84" t="s">
+      <c r="M30" s="82"/>
+      <c r="N30" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="85"/>
-    </row>
-    <row r="31" spans="1:18" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="82" t="s">
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="84"/>
+    </row>
+    <row r="31" spans="1:18" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="83">
-        <v>4</v>
-      </c>
-      <c r="D31" s="83">
-        <v>4</v>
-      </c>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83">
-        <v>4</v>
-      </c>
-      <c r="H31" s="83">
+      <c r="C31" s="82">
+        <v>4</v>
+      </c>
+      <c r="D31" s="82">
+        <v>4</v>
+      </c>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82">
+        <v>4</v>
+      </c>
+      <c r="H31" s="82">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83">
-        <v>2</v>
-      </c>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="84" t="s">
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82">
+        <v>2</v>
+      </c>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="83" t="s">
         <v>327</v>
       </c>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="85"/>
-    </row>
-    <row r="32" spans="1:18" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="120" t="s">
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="84"/>
+    </row>
+    <row r="32" spans="1:18" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="46" t="s">
@@ -12353,19 +12347,19 @@
       <c r="M32" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N32" s="128" t="s">
+      <c r="N32" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="O32" s="128">
-        <v>6</v>
-      </c>
-      <c r="P32" s="128">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="122"/>
-    </row>
-    <row r="33" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="120" t="s">
+      <c r="O32" s="127">
+        <v>6</v>
+      </c>
+      <c r="P32" s="127">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="121"/>
+    </row>
+    <row r="33" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="46" t="s">
@@ -12399,19 +12393,19 @@
       <c r="M33" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N33" s="127" t="s">
+      <c r="N33" s="126" t="s">
         <v>250</v>
       </c>
-      <c r="O33" s="127">
+      <c r="O33" s="126">
         <v>10</v>
       </c>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="132">
+      <c r="P33" s="126"/>
+      <c r="Q33" s="131">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="120" t="s">
+    <row r="34" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -12445,63 +12439,63 @@
       <c r="M34" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N34" s="121" t="s">
+      <c r="N34" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="O34" s="121">
+      <c r="O34" s="120">
         <v>12</v>
       </c>
       <c r="P34" s="46">
         <v>2</v>
       </c>
-      <c r="Q34" s="122"/>
-    </row>
-    <row r="35" spans="1:17" s="162" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="163" t="s">
+      <c r="Q34" s="121"/>
+    </row>
+    <row r="35" spans="1:17" s="161" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="164" t="s">
+      <c r="B35" s="163" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="164">
-        <v>4</v>
-      </c>
-      <c r="D35" s="164">
-        <v>4</v>
-      </c>
-      <c r="E35" s="164">
-        <v>4</v>
-      </c>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164">
-        <v>4</v>
-      </c>
-      <c r="H35" s="164">
+      <c r="C35" s="163">
+        <v>4</v>
+      </c>
+      <c r="D35" s="163">
+        <v>4</v>
+      </c>
+      <c r="E35" s="163">
+        <v>4</v>
+      </c>
+      <c r="F35" s="163"/>
+      <c r="G35" s="163">
+        <v>4</v>
+      </c>
+      <c r="H35" s="163">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I35" s="164"/>
-      <c r="J35" s="164">
+      <c r="I35" s="163"/>
+      <c r="J35" s="163">
         <v>3</v>
       </c>
-      <c r="K35" s="164"/>
-      <c r="L35" s="164"/>
-      <c r="M35" s="164">
+      <c r="K35" s="163"/>
+      <c r="L35" s="163"/>
+      <c r="M35" s="163">
         <v>6.090103</v>
       </c>
-      <c r="N35" s="165" t="s">
+      <c r="N35" s="164" t="s">
         <v>214</v>
       </c>
-      <c r="O35" s="165">
-        <v>6</v>
-      </c>
-      <c r="P35" s="165">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="166"/>
-    </row>
-    <row r="36" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="120" t="s">
+      <c r="O35" s="164">
+        <v>6</v>
+      </c>
+      <c r="P35" s="164">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="165"/>
+    </row>
+    <row r="36" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="46" t="s">
@@ -12533,17 +12527,17 @@
       <c r="M36" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N36" s="121" t="s">
+      <c r="N36" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="O36" s="121">
-        <v>8</v>
-      </c>
-      <c r="P36" s="121"/>
-      <c r="Q36" s="122"/>
-    </row>
-    <row r="37" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="120" t="s">
+      <c r="O36" s="120">
+        <v>8</v>
+      </c>
+      <c r="P36" s="120"/>
+      <c r="Q36" s="121"/>
+    </row>
+    <row r="37" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="46" t="s">
@@ -12577,103 +12571,103 @@
       <c r="M37" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N37" s="127" t="s">
+      <c r="N37" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="O37" s="127">
-        <v>6</v>
-      </c>
-      <c r="P37" s="127">
+      <c r="O37" s="126">
+        <v>6</v>
+      </c>
+      <c r="P37" s="126">
         <v>0</v>
       </c>
-      <c r="Q37" s="122"/>
-    </row>
-    <row r="38" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="130" t="s">
+      <c r="Q37" s="121"/>
+    </row>
+    <row r="38" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="131" t="s">
+      <c r="B38" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="131">
-        <v>4</v>
-      </c>
-      <c r="D38" s="131">
-        <v>6</v>
-      </c>
-      <c r="E38" s="131">
-        <v>2</v>
-      </c>
-      <c r="F38" s="131"/>
-      <c r="G38" s="131">
-        <v>6</v>
-      </c>
-      <c r="H38" s="131">
+      <c r="C38" s="130">
+        <v>4</v>
+      </c>
+      <c r="D38" s="130">
+        <v>6</v>
+      </c>
+      <c r="E38" s="130">
+        <v>2</v>
+      </c>
+      <c r="F38" s="130"/>
+      <c r="G38" s="130">
+        <v>6</v>
+      </c>
+      <c r="H38" s="130">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="I38" s="131"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="131">
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="130">
         <v>3</v>
       </c>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131">
+      <c r="L38" s="130"/>
+      <c r="M38" s="130">
         <v>6.090103</v>
       </c>
-      <c r="N38" s="127" t="s">
+      <c r="N38" s="126" t="s">
         <v>283</v>
       </c>
-      <c r="O38" s="127"/>
-      <c r="P38" s="127"/>
-      <c r="Q38" s="132"/>
-    </row>
-    <row r="39" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="130" t="s">
+      <c r="O38" s="126"/>
+      <c r="P38" s="126"/>
+      <c r="Q38" s="131"/>
+    </row>
+    <row r="39" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="131" t="s">
+      <c r="B39" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="131">
-        <v>4</v>
-      </c>
-      <c r="D39" s="131">
-        <v>2</v>
-      </c>
-      <c r="E39" s="131">
-        <v>4</v>
-      </c>
-      <c r="F39" s="131"/>
-      <c r="G39" s="131">
-        <v>2</v>
-      </c>
-      <c r="H39" s="131">
+      <c r="C39" s="130">
+        <v>4</v>
+      </c>
+      <c r="D39" s="130">
+        <v>2</v>
+      </c>
+      <c r="E39" s="130">
+        <v>4</v>
+      </c>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130">
+        <v>2</v>
+      </c>
+      <c r="H39" s="130">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I39" s="131"/>
-      <c r="J39" s="131">
-        <v>4</v>
-      </c>
-      <c r="K39" s="131"/>
-      <c r="L39" s="131"/>
-      <c r="M39" s="131">
+      <c r="I39" s="130"/>
+      <c r="J39" s="130">
+        <v>4</v>
+      </c>
+      <c r="K39" s="130"/>
+      <c r="L39" s="130"/>
+      <c r="M39" s="130">
         <v>6.090103</v>
       </c>
-      <c r="N39" s="127" t="s">
+      <c r="N39" s="126" t="s">
         <v>213</v>
       </c>
-      <c r="O39" s="127">
-        <v>6</v>
-      </c>
-      <c r="P39" s="127">
+      <c r="O39" s="126">
+        <v>6</v>
+      </c>
+      <c r="P39" s="126">
         <v>0</v>
       </c>
-      <c r="Q39" s="132"/>
-    </row>
-    <row r="40" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="120" t="s">
+      <c r="Q39" s="131"/>
+    </row>
+    <row r="40" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="46" t="s">
@@ -12707,17 +12701,17 @@
       <c r="M40" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N40" s="127" t="s">
+      <c r="N40" s="126" t="s">
         <v>250</v>
       </c>
-      <c r="O40" s="127">
-        <v>6</v>
-      </c>
-      <c r="P40" s="127"/>
-      <c r="Q40" s="122"/>
-    </row>
-    <row r="41" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="120" t="s">
+      <c r="O40" s="126">
+        <v>6</v>
+      </c>
+      <c r="P40" s="126"/>
+      <c r="Q40" s="121"/>
+    </row>
+    <row r="41" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B41" s="46" t="s">
@@ -12749,60 +12743,60 @@
       <c r="M41" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N41" s="128" t="s">
+      <c r="N41" s="127" t="s">
         <v>250</v>
       </c>
-      <c r="O41" s="128">
-        <v>8</v>
-      </c>
-      <c r="P41" s="128">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="122"/>
-    </row>
-    <row r="42" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="144" t="s">
+      <c r="O41" s="127">
+        <v>8</v>
+      </c>
+      <c r="P41" s="127">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="121"/>
+    </row>
+    <row r="42" spans="1:17" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="145" t="s">
+      <c r="B42" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="145">
-        <v>4</v>
-      </c>
-      <c r="D42" s="145">
-        <v>6</v>
-      </c>
-      <c r="E42" s="145">
-        <v>4</v>
-      </c>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145">
-        <v>6</v>
-      </c>
-      <c r="H42" s="145">
+      <c r="C42" s="144">
+        <v>4</v>
+      </c>
+      <c r="D42" s="144">
+        <v>6</v>
+      </c>
+      <c r="E42" s="144">
+        <v>4</v>
+      </c>
+      <c r="F42" s="144"/>
+      <c r="G42" s="144">
+        <v>6</v>
+      </c>
+      <c r="H42" s="144">
         <f>Таблица4[[#This Row],[Годин 2 заїзд]]-Таблица4[[#This Row],[Використано годин]]+Таблица4[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="I42" s="145"/>
-      <c r="J42" s="145"/>
-      <c r="K42" s="145">
+      <c r="I42" s="144"/>
+      <c r="J42" s="144"/>
+      <c r="K42" s="144">
         <v>3</v>
       </c>
-      <c r="L42" s="145"/>
-      <c r="M42" s="145">
+      <c r="L42" s="144"/>
+      <c r="M42" s="144">
         <v>6.090103</v>
       </c>
-      <c r="N42" s="154" t="s">
+      <c r="N42" s="153" t="s">
         <v>213</v>
       </c>
-      <c r="O42" s="154">
-        <v>8</v>
-      </c>
-      <c r="P42" s="154">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="156"/>
+      <c r="O42" s="153">
+        <v>8</v>
+      </c>
+      <c r="P42" s="153">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="155"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12897,526 +12891,526 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:17" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="70">
-        <v>4</v>
-      </c>
-      <c r="D2" s="70">
-        <v>4</v>
-      </c>
-      <c r="E2" s="70">
-        <v>2</v>
-      </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70">
-        <v>4</v>
-      </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70">
+      <c r="C2" s="69">
+        <v>4</v>
+      </c>
+      <c r="D2" s="69">
+        <v>4</v>
+      </c>
+      <c r="E2" s="69">
+        <v>2</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69">
+        <v>4</v>
+      </c>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69">
         <v>3</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70">
+      <c r="J2" s="69"/>
+      <c r="K2" s="69">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70">
+      <c r="L2" s="69"/>
+      <c r="M2" s="69">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N2" s="71" t="s">
+      <c r="N2" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="O2" s="71">
-        <v>8</v>
-      </c>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="73"/>
-    </row>
-    <row r="3" spans="1:17" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="O2" s="70">
+        <v>8</v>
+      </c>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="72"/>
+    </row>
+    <row r="3" spans="1:17" s="78" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="76">
-        <v>8</v>
-      </c>
-      <c r="D3" s="76">
-        <v>6</v>
-      </c>
-      <c r="E3" s="76">
-        <v>2</v>
-      </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76">
-        <v>6</v>
-      </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76">
+      <c r="C3" s="75">
+        <v>8</v>
+      </c>
+      <c r="D3" s="75">
+        <v>6</v>
+      </c>
+      <c r="E3" s="75">
+        <v>2</v>
+      </c>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75">
+        <v>6</v>
+      </c>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75">
         <v>3</v>
       </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76">
+      <c r="J3" s="75"/>
+      <c r="K3" s="75">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76">
+      <c r="L3" s="75"/>
+      <c r="M3" s="75">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N3" s="77" t="s">
+      <c r="N3" s="76" t="s">
         <v>215</v>
       </c>
-      <c r="O3" s="77">
+      <c r="O3" s="76">
         <v>12</v>
       </c>
-      <c r="P3" s="77">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="78"/>
-    </row>
-    <row r="4" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="P3" s="76">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="77"/>
+    </row>
+    <row r="4" spans="1:17" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="70">
-        <v>6</v>
-      </c>
-      <c r="D4" s="70">
-        <v>8</v>
-      </c>
-      <c r="E4" s="70">
-        <v>2</v>
-      </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70">
-        <v>8</v>
-      </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70">
+      <c r="C4" s="69">
+        <v>6</v>
+      </c>
+      <c r="D4" s="69">
+        <v>8</v>
+      </c>
+      <c r="E4" s="69">
+        <v>2</v>
+      </c>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69">
+        <v>8</v>
+      </c>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69">
         <v>3</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70">
+      <c r="J4" s="69"/>
+      <c r="K4" s="69">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70">
+      <c r="L4" s="69"/>
+      <c r="M4" s="69">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="O4" s="71">
+      <c r="O4" s="70">
         <v>12</v>
       </c>
-      <c r="P4" s="71">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="80"/>
-    </row>
-    <row r="5" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="P4" s="70">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="79"/>
+    </row>
+    <row r="5" spans="1:17" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="70">
-        <v>8</v>
-      </c>
-      <c r="D5" s="70">
-        <v>6</v>
-      </c>
-      <c r="E5" s="70">
-        <v>2</v>
-      </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70">
-        <v>6</v>
-      </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70">
+      <c r="C5" s="69">
+        <v>8</v>
+      </c>
+      <c r="D5" s="69">
+        <v>6</v>
+      </c>
+      <c r="E5" s="69">
+        <v>2</v>
+      </c>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69">
+        <v>6</v>
+      </c>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69">
         <v>3</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70">
+      <c r="J5" s="69"/>
+      <c r="K5" s="69">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70">
+      <c r="L5" s="69"/>
+      <c r="M5" s="69">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N5" s="71" t="s">
+      <c r="N5" s="70" t="s">
         <v>228</v>
       </c>
-      <c r="O5" s="71">
+      <c r="O5" s="70">
         <v>12</v>
       </c>
-      <c r="P5" s="71">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="80"/>
-    </row>
-    <row r="6" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="P5" s="70">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="79"/>
+    </row>
+    <row r="6" spans="1:17" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="70">
-        <v>8</v>
-      </c>
-      <c r="D6" s="70">
-        <v>8</v>
-      </c>
-      <c r="E6" s="70">
-        <v>2</v>
-      </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70">
-        <v>8</v>
-      </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70">
+      <c r="C6" s="69">
+        <v>8</v>
+      </c>
+      <c r="D6" s="69">
+        <v>8</v>
+      </c>
+      <c r="E6" s="69">
+        <v>2</v>
+      </c>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69">
+        <v>8</v>
+      </c>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69">
         <v>3</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70">
+      <c r="J6" s="69"/>
+      <c r="K6" s="69">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70">
+      <c r="L6" s="69"/>
+      <c r="M6" s="69">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N6" s="71" t="s">
+      <c r="N6" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="O6" s="71">
+      <c r="O6" s="70">
         <v>12</v>
       </c>
-      <c r="P6" s="71">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="80"/>
-    </row>
-    <row r="7" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="P6" s="70">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="79"/>
+    </row>
+    <row r="7" spans="1:17" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="70">
-        <v>4</v>
-      </c>
-      <c r="D7" s="70">
-        <v>4</v>
-      </c>
-      <c r="E7" s="70">
-        <v>2</v>
-      </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70">
-        <v>4</v>
-      </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70">
+      <c r="C7" s="69">
+        <v>4</v>
+      </c>
+      <c r="D7" s="69">
+        <v>4</v>
+      </c>
+      <c r="E7" s="69">
+        <v>2</v>
+      </c>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69">
+        <v>4</v>
+      </c>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69">
         <v>3</v>
       </c>
-      <c r="K7" s="70">
+      <c r="K7" s="69">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70">
+      <c r="L7" s="69"/>
+      <c r="M7" s="69">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N7" s="71" t="s">
+      <c r="N7" s="70" t="s">
         <v>254</v>
       </c>
-      <c r="O7" s="71">
-        <v>8</v>
-      </c>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="80"/>
-    </row>
-    <row r="8" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="O7" s="70">
+        <v>8</v>
+      </c>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="79"/>
+    </row>
+    <row r="8" spans="1:17" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="70">
-        <v>4</v>
-      </c>
-      <c r="D8" s="70">
-        <v>4</v>
-      </c>
-      <c r="E8" s="70">
-        <v>2</v>
-      </c>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70">
-        <v>4</v>
-      </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70">
+      <c r="C8" s="69">
+        <v>4</v>
+      </c>
+      <c r="D8" s="69">
+        <v>4</v>
+      </c>
+      <c r="E8" s="69">
+        <v>2</v>
+      </c>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69">
+        <v>4</v>
+      </c>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69">
         <v>3</v>
       </c>
-      <c r="K8" s="70">
+      <c r="K8" s="69">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70">
+      <c r="L8" s="69"/>
+      <c r="M8" s="69">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N8" s="71" t="s">
+      <c r="N8" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="O8" s="71">
-        <v>8</v>
-      </c>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="80"/>
-    </row>
-    <row r="9" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="O8" s="70">
+        <v>8</v>
+      </c>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="79"/>
+    </row>
+    <row r="9" spans="1:17" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="70">
-        <v>6</v>
-      </c>
-      <c r="D9" s="70">
-        <v>8</v>
-      </c>
-      <c r="E9" s="70">
-        <v>2</v>
-      </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70">
-        <v>8</v>
-      </c>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70">
+      <c r="C9" s="69">
+        <v>6</v>
+      </c>
+      <c r="D9" s="69">
+        <v>8</v>
+      </c>
+      <c r="E9" s="69">
+        <v>2</v>
+      </c>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69">
+        <v>8</v>
+      </c>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69">
         <v>3</v>
       </c>
-      <c r="K9" s="70">
+      <c r="K9" s="69">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70">
+      <c r="L9" s="69"/>
+      <c r="M9" s="69">
         <v>6.0401040000000004</v>
       </c>
-      <c r="N9" s="71" t="s">
+      <c r="N9" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="O9" s="71">
+      <c r="O9" s="70">
         <v>12</v>
       </c>
-      <c r="P9" s="71">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="80"/>
+      <c r="P9" s="70">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="79"/>
     </row>
     <row r="10" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="172" t="s">
+      <c r="B10" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="131">
+      <c r="C10" s="130">
         <v>10</v>
       </c>
-      <c r="D10" s="131">
+      <c r="D10" s="130">
         <v>10</v>
       </c>
-      <c r="E10" s="131">
-        <v>2</v>
-      </c>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131">
+      <c r="E10" s="130">
+        <v>2</v>
+      </c>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130">
         <v>10</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131">
+      <c r="H10" s="130"/>
+      <c r="I10" s="130">
         <v>3</v>
       </c>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131">
+      <c r="J10" s="130"/>
+      <c r="K10" s="130">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>2</v>
       </c>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131">
+      <c r="L10" s="130"/>
+      <c r="M10" s="130">
         <v>6.080101</v>
       </c>
-      <c r="N10" s="127" t="s">
+      <c r="N10" s="126" t="s">
         <v>221</v>
       </c>
-      <c r="O10" s="127">
+      <c r="O10" s="126">
         <v>18</v>
       </c>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="132">
+      <c r="P10" s="126"/>
+      <c r="Q10" s="131">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="131">
-        <v>8</v>
-      </c>
-      <c r="D11" s="131">
-        <v>8</v>
-      </c>
-      <c r="E11" s="131">
-        <v>4</v>
-      </c>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131">
-        <v>8</v>
-      </c>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131">
+      <c r="C11" s="130">
+        <v>8</v>
+      </c>
+      <c r="D11" s="130">
+        <v>8</v>
+      </c>
+      <c r="E11" s="130">
+        <v>4</v>
+      </c>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130">
+        <v>8</v>
+      </c>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130">
         <v>3</v>
       </c>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131">
+      <c r="J11" s="130"/>
+      <c r="K11" s="130">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131">
+      <c r="L11" s="130"/>
+      <c r="M11" s="130">
         <v>6.080101</v>
       </c>
-      <c r="N11" s="127" t="s">
+      <c r="N11" s="126" t="s">
         <v>229</v>
       </c>
-      <c r="O11" s="127">
+      <c r="O11" s="126">
         <v>12</v>
       </c>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="132">
+      <c r="P11" s="126"/>
+      <c r="Q11" s="131">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="131" t="s">
+      <c r="B12" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="131">
+      <c r="C12" s="130">
         <v>10</v>
       </c>
-      <c r="D12" s="131">
+      <c r="D12" s="130">
         <v>10</v>
       </c>
-      <c r="E12" s="131">
-        <v>4</v>
-      </c>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131">
+      <c r="E12" s="130">
+        <v>4</v>
+      </c>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130">
         <v>10</v>
       </c>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131">
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130">
         <v>3</v>
       </c>
-      <c r="K12" s="131">
+      <c r="K12" s="130">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>4</v>
       </c>
-      <c r="L12" s="131"/>
-      <c r="M12" s="131">
+      <c r="L12" s="130"/>
+      <c r="M12" s="130">
         <v>6.080101</v>
       </c>
-      <c r="N12" s="127" t="s">
+      <c r="N12" s="126" t="s">
         <v>229</v>
       </c>
-      <c r="O12" s="127">
+      <c r="O12" s="126">
         <v>16</v>
       </c>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="132">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
+      <c r="P12" s="126"/>
+      <c r="Q12" s="131">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="83">
-        <v>4</v>
-      </c>
-      <c r="D13" s="83">
-        <v>4</v>
-      </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83">
-        <v>4</v>
-      </c>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83">
-        <v>2</v>
-      </c>
-      <c r="K13" s="83">
+      <c r="C13" s="82">
+        <v>4</v>
+      </c>
+      <c r="D13" s="82">
+        <v>4</v>
+      </c>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82">
+        <v>4</v>
+      </c>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82">
+        <v>2</v>
+      </c>
+      <c r="K13" s="82">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83">
+      <c r="L13" s="82"/>
+      <c r="M13" s="82">
         <v>6.080101</v>
       </c>
-      <c r="N13" s="84" t="s">
+      <c r="N13" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="O13" s="84">
-        <v>8</v>
-      </c>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="85"/>
+      <c r="O13" s="83">
+        <v>8</v>
+      </c>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="84"/>
     </row>
     <row r="14" spans="1:17" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="46" t="s">
@@ -13449,12 +13443,12 @@
       <c r="N14" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="O14" s="121"/>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="122"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="121"/>
     </row>
     <row r="15" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="119" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="46" t="s">
@@ -13484,101 +13478,101 @@
       <c r="M15" s="46">
         <v>6.080101</v>
       </c>
-      <c r="N15" s="128" t="s">
+      <c r="N15" s="127" t="s">
         <v>252</v>
       </c>
-      <c r="O15" s="127">
-        <v>8</v>
-      </c>
-      <c r="P15" s="127">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="122"/>
-    </row>
-    <row r="16" spans="1:17" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="82" t="s">
+      <c r="O15" s="126">
+        <v>8</v>
+      </c>
+      <c r="P15" s="126">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="121"/>
+    </row>
+    <row r="16" spans="1:17" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="83">
-        <v>8</v>
-      </c>
-      <c r="D16" s="83">
-        <v>4</v>
-      </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83">
-        <v>4</v>
-      </c>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83">
-        <v>2</v>
-      </c>
-      <c r="K16" s="83">
+      <c r="C16" s="82">
+        <v>8</v>
+      </c>
+      <c r="D16" s="82">
+        <v>4</v>
+      </c>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82">
+        <v>4</v>
+      </c>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82">
+        <v>2</v>
+      </c>
+      <c r="K16" s="82">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83">
+      <c r="L16" s="82"/>
+      <c r="M16" s="82">
         <v>6.080101</v>
       </c>
-      <c r="N16" s="99" t="s">
+      <c r="N16" s="98" t="s">
         <v>248</v>
       </c>
-      <c r="O16" s="99">
-        <v>8</v>
-      </c>
-      <c r="P16" s="99">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="85"/>
+      <c r="O16" s="98">
+        <v>8</v>
+      </c>
+      <c r="P16" s="98">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="84"/>
     </row>
     <row r="17" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="174" t="s">
+      <c r="A17" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="174" t="s">
+      <c r="B17" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="174">
-        <v>6</v>
-      </c>
-      <c r="D17" s="174">
-        <v>6</v>
-      </c>
-      <c r="E17" s="174">
-        <v>6</v>
-      </c>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174">
-        <v>6</v>
-      </c>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174">
+      <c r="C17" s="173">
+        <v>6</v>
+      </c>
+      <c r="D17" s="173">
+        <v>6</v>
+      </c>
+      <c r="E17" s="173">
+        <v>6</v>
+      </c>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173">
+        <v>6</v>
+      </c>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173">
         <v>3</v>
       </c>
-      <c r="J17" s="174"/>
-      <c r="K17" s="174">
+      <c r="J17" s="173"/>
+      <c r="K17" s="173">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>6</v>
       </c>
-      <c r="L17" s="174"/>
-      <c r="M17" s="174">
+      <c r="L17" s="173"/>
+      <c r="M17" s="173">
         <v>6.090103</v>
       </c>
-      <c r="N17" s="175" t="s">
+      <c r="N17" s="174" t="s">
         <v>243</v>
       </c>
-      <c r="O17" s="175"/>
-      <c r="P17" s="175"/>
-      <c r="Q17" s="125"/>
+      <c r="O17" s="174"/>
+      <c r="P17" s="174"/>
+      <c r="Q17" s="124"/>
     </row>
     <row r="18" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="46" t="s">
@@ -13610,19 +13604,19 @@
       <c r="M18" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N18" s="128" t="s">
+      <c r="N18" s="127" t="s">
         <v>213</v>
       </c>
-      <c r="O18" s="128">
-        <v>4</v>
-      </c>
-      <c r="P18" s="128">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="122"/>
+      <c r="O18" s="127">
+        <v>4</v>
+      </c>
+      <c r="P18" s="127">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="121"/>
     </row>
     <row r="19" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="46" t="s">
@@ -13654,19 +13648,19 @@
       <c r="M19" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N19" s="128" t="s">
+      <c r="N19" s="127" t="s">
         <v>250</v>
       </c>
-      <c r="O19" s="128">
+      <c r="O19" s="127">
         <v>10</v>
       </c>
-      <c r="P19" s="128">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="122"/>
+      <c r="P19" s="127">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="121"/>
     </row>
     <row r="20" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="46" t="s">
@@ -13678,7 +13672,7 @@
       <c r="D20" s="46">
         <v>2</v>
       </c>
-      <c r="E20" s="131" t="s">
+      <c r="E20" s="130" t="s">
         <v>338</v>
       </c>
       <c r="F20" s="46"/>
@@ -13698,19 +13692,19 @@
       <c r="M20" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N20" s="128" t="s">
+      <c r="N20" s="127" t="s">
         <v>250</v>
       </c>
-      <c r="O20" s="127">
-        <v>6</v>
-      </c>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="132">
+      <c r="O20" s="126">
+        <v>6</v>
+      </c>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="131">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="46" t="s">
@@ -13740,15 +13734,15 @@
       <c r="M21" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N21" s="121" t="s">
+      <c r="N21" s="120" t="s">
         <v>285</v>
       </c>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="122"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="121"/>
     </row>
     <row r="22" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="46" t="s">
@@ -13780,19 +13774,19 @@
       <c r="M22" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N22" s="128" t="s">
+      <c r="N22" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="O22" s="128">
-        <v>8</v>
-      </c>
-      <c r="P22" s="128">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="122"/>
+      <c r="O22" s="127">
+        <v>8</v>
+      </c>
+      <c r="P22" s="127">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="121"/>
     </row>
     <row r="23" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="120" t="s">
+      <c r="A23" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="46" t="s">
@@ -13824,17 +13818,17 @@
       <c r="M23" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N23" s="128" t="s">
+      <c r="N23" s="127" t="s">
         <v>230</v>
       </c>
-      <c r="O23" s="128">
-        <v>8</v>
-      </c>
-      <c r="P23" s="128"/>
-      <c r="Q23" s="132"/>
+      <c r="O23" s="127">
+        <v>8</v>
+      </c>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="131"/>
     </row>
     <row r="24" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="120" t="s">
+      <c r="A24" s="119" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="46" t="s">
@@ -13864,94 +13858,94 @@
       <c r="M24" s="46">
         <v>6.090103</v>
       </c>
-      <c r="N24" s="128" t="s">
+      <c r="N24" s="127" t="s">
         <v>250</v>
       </c>
-      <c r="O24" s="128">
-        <v>8</v>
-      </c>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="122"/>
-    </row>
-    <row r="25" spans="1:17" s="90" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="82" t="s">
+      <c r="O24" s="127">
+        <v>8</v>
+      </c>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="121"/>
+    </row>
+    <row r="25" spans="1:17" s="89" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="83">
-        <v>6</v>
-      </c>
-      <c r="D25" s="83">
-        <v>2</v>
-      </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83">
-        <v>2</v>
-      </c>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83">
-        <v>2</v>
-      </c>
-      <c r="K25" s="83">
+      <c r="C25" s="82">
+        <v>6</v>
+      </c>
+      <c r="D25" s="82">
+        <v>2</v>
+      </c>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82">
+        <v>2</v>
+      </c>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82">
+        <v>2</v>
+      </c>
+      <c r="K25" s="82">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="L25" s="83" t="s">
+      <c r="L25" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="M25" s="83"/>
-      <c r="N25" s="84" t="s">
+      <c r="M25" s="82"/>
+      <c r="N25" s="83" t="s">
         <v>280</v>
       </c>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="85"/>
-    </row>
-    <row r="26" spans="1:17" s="171" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="167" t="s">
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="84"/>
+    </row>
+    <row r="26" spans="1:17" s="170" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="166" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="168" t="s">
+      <c r="B26" s="167" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="168">
-        <v>4</v>
-      </c>
-      <c r="D26" s="168">
-        <v>4</v>
-      </c>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168">
-        <v>4</v>
-      </c>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="168">
-        <v>2</v>
-      </c>
-      <c r="K26" s="168">
+      <c r="C26" s="167">
+        <v>4</v>
+      </c>
+      <c r="D26" s="167">
+        <v>4</v>
+      </c>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167">
+        <v>4</v>
+      </c>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167">
+        <v>2</v>
+      </c>
+      <c r="K26" s="167">
         <f>Таблица5[[#This Row],[Годин 2 заїзд]]-Таблица5[[#This Row],[Використано годин]]+Таблица5[[#This Row],[Годин 3 заїзд]]</f>
         <v>0</v>
       </c>
-      <c r="L26" s="168"/>
-      <c r="M26" s="168">
+      <c r="L26" s="167"/>
+      <c r="M26" s="167">
         <v>6.090103</v>
       </c>
-      <c r="N26" s="169" t="s">
+      <c r="N26" s="168" t="s">
         <v>241</v>
       </c>
-      <c r="O26" s="169">
-        <v>4</v>
-      </c>
-      <c r="P26" s="169">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="170"/>
+      <c r="O26" s="168">
+        <v>4</v>
+      </c>
+      <c r="P26" s="168">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="169"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13967,8 +13961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K16" sqref="K11:K16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14075,16 +14069,16 @@
       <c r="K2" s="46"/>
       <c r="L2" s="46"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="121" t="s">
+      <c r="N2" s="120" t="s">
         <v>253</v>
       </c>
-      <c r="O2" s="121">
+      <c r="O2" s="120">
         <v>16</v>
       </c>
-      <c r="P2" s="121">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="123"/>
+      <c r="P2" s="120">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="122"/>
     </row>
     <row r="3" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
@@ -14117,92 +14111,92 @@
       <c r="K3" s="46"/>
       <c r="L3" s="46"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="121" t="s">
+      <c r="N3" s="120" t="s">
         <v>231</v>
       </c>
-      <c r="O3" s="121">
+      <c r="O3" s="120">
         <v>16</v>
       </c>
-      <c r="P3" s="121">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="123"/>
-    </row>
-    <row r="4" spans="1:17" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="P3" s="120">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="122"/>
+    </row>
+    <row r="4" spans="1:17" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="82" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4">
         <v>8</v>
       </c>
-      <c r="D4" s="83">
-        <v>2</v>
-      </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83">
-        <v>2</v>
-      </c>
-      <c r="H4" s="83">
+      <c r="D4" s="82">
+        <v>2</v>
+      </c>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82">
+        <v>2</v>
+      </c>
+      <c r="H4" s="82">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83">
-        <v>2</v>
-      </c>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82">
+        <v>2</v>
+      </c>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
       <c r="M4" s="46"/>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>286</v>
       </c>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="115"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="114"/>
     </row>
     <row r="5" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="123" t="s">
         <v>120</v>
       </c>
       <c r="C5" s="56">
         <v>4</v>
       </c>
-      <c r="D5" s="124">
-        <v>6</v>
-      </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124">
-        <v>6</v>
-      </c>
-      <c r="H5" s="124">
+      <c r="D5" s="123">
+        <v>6</v>
+      </c>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123">
+        <v>6</v>
+      </c>
+      <c r="H5" s="123">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124">
-        <v>2</v>
-      </c>
-      <c r="L5" s="124"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123">
+        <v>2</v>
+      </c>
+      <c r="L5" s="123"/>
       <c r="M5" s="44">
         <v>7.0140000000000002</v>
       </c>
-      <c r="N5" s="125" t="s">
+      <c r="N5" s="124" t="s">
         <v>210</v>
       </c>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125">
+      <c r="O5" s="124"/>
+      <c r="P5" s="124">
         <v>10</v>
       </c>
-      <c r="Q5" s="126"/>
+      <c r="Q5" s="125"/>
     </row>
     <row r="6" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
@@ -14235,96 +14229,96 @@
       <c r="M6" s="4">
         <v>7.0140000000000002</v>
       </c>
-      <c r="N6" s="127" t="s">
+      <c r="N6" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="O6" s="127">
+      <c r="O6" s="126">
         <v>12</v>
       </c>
-      <c r="P6" s="127">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="123"/>
+      <c r="P6" s="126">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="122"/>
     </row>
     <row r="7" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="46" t="s">
         <v>160</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
-        <v>4</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="D7" s="46">
+        <v>4</v>
+      </c>
+      <c r="E7" s="46">
+        <v>6</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46">
+        <v>4</v>
+      </c>
+      <c r="H7" s="46">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4">
+      <c r="I7" s="46"/>
+      <c r="J7" s="46">
         <v>3</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="127" t="s">
         <v>224</v>
       </c>
-      <c r="O7" s="10">
-        <v>4</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="37"/>
+      <c r="O7" s="127">
+        <v>4</v>
+      </c>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="122"/>
     </row>
     <row r="8" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="46" t="s">
         <v>161</v>
       </c>
       <c r="C8" s="4">
         <v>8</v>
       </c>
-      <c r="D8" s="4">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4">
-        <v>6</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>6</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="D8" s="46">
+        <v>6</v>
+      </c>
+      <c r="E8" s="46">
+        <v>6</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46">
+        <v>6</v>
+      </c>
+      <c r="H8" s="46">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4">
+      <c r="I8" s="46"/>
+      <c r="J8" s="46">
         <v>3</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="120">
         <v>14</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="37"/>
-    </row>
-    <row r="9" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="120"/>
+      <c r="Q8" s="122"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>170</v>
       </c>
@@ -14363,86 +14357,86 @@
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="46" t="s">
         <v>163</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4">
-        <v>4</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
-        <v>6</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="D10" s="46">
+        <v>6</v>
+      </c>
+      <c r="E10" s="46">
+        <v>4</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46">
+        <v>6</v>
+      </c>
+      <c r="H10" s="46">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46">
         <v>3</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="4">
         <v>7.0140000000000002</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="127" t="s">
         <v>219</v>
       </c>
-      <c r="O10" s="10">
-        <v>6</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="37"/>
+      <c r="O10" s="127">
+        <v>6</v>
+      </c>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="122"/>
     </row>
     <row r="11" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="130" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="130" t="s">
         <v>164</v>
       </c>
       <c r="C11" s="26"/>
-      <c r="D11" s="26">
-        <v>8</v>
-      </c>
-      <c r="E11" s="26">
-        <v>6</v>
-      </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26">
-        <v>8</v>
-      </c>
-      <c r="H11" s="26">
+      <c r="D11" s="130">
+        <v>8</v>
+      </c>
+      <c r="E11" s="130">
+        <v>6</v>
+      </c>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130">
+        <v>8</v>
+      </c>
+      <c r="H11" s="130">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>6</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26">
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130">
         <v>3</v>
       </c>
-      <c r="L11" s="26"/>
+      <c r="L11" s="130"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="126" t="s">
         <v>219</v>
       </c>
-      <c r="O11" s="15">
-        <v>8</v>
-      </c>
-      <c r="P11" s="15">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="68"/>
-    </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="126">
+        <v>8</v>
+      </c>
+      <c r="P11" s="126">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="175"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>170</v>
       </c>
@@ -14480,7 +14474,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="37"/>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>170</v>
       </c>
@@ -14516,7 +14510,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="37"/>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>170</v>
       </c>
@@ -14546,45 +14540,47 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="10" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="37"/>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:17" s="177" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
-        <v>4</v>
-      </c>
-      <c r="F15" s="4">
-        <v>6</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52">
+        <v>4</v>
+      </c>
+      <c r="F15" s="52">
+        <v>6</v>
+      </c>
+      <c r="G15" s="52">
         <v>0</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="52">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4">
-        <v>4</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="37"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52">
+        <v>4</v>
+      </c>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="176"/>
     </row>
     <row r="16" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
@@ -14615,16 +14611,16 @@
       </c>
       <c r="L16" s="46"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="128" t="s">
+      <c r="N16" s="127" t="s">
         <v>272</v>
       </c>
-      <c r="O16" s="128">
-        <v>8</v>
-      </c>
-      <c r="P16" s="128">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="123"/>
+      <c r="O16" s="127">
+        <v>8</v>
+      </c>
+      <c r="P16" s="127">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="122"/>
     </row>
     <row r="17" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
@@ -14655,16 +14651,16 @@
       </c>
       <c r="L17" s="46"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="128" t="s">
+      <c r="N17" s="127" t="s">
         <v>257</v>
       </c>
-      <c r="O17" s="128">
-        <v>8</v>
-      </c>
-      <c r="P17" s="128">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="123"/>
+      <c r="O17" s="127">
+        <v>8</v>
+      </c>
+      <c r="P17" s="127">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="122"/>
     </row>
     <row r="18" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -14737,58 +14733,58 @@
       <c r="K19" s="46"/>
       <c r="L19" s="46"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="121" t="s">
+      <c r="N19" s="120" t="s">
         <v>229</v>
       </c>
-      <c r="O19" s="121">
-        <v>8</v>
-      </c>
-      <c r="P19" s="121">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="123"/>
+      <c r="O19" s="120">
+        <v>8</v>
+      </c>
+      <c r="P19" s="120">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="122"/>
     </row>
     <row r="20" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="46" t="s">
         <v>174</v>
       </c>
       <c r="C20" s="4">
         <v>6</v>
       </c>
-      <c r="D20" s="4">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
-        <v>8</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="D20" s="46">
+        <v>8</v>
+      </c>
+      <c r="E20" s="46">
+        <v>2</v>
+      </c>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46">
+        <v>8</v>
+      </c>
+      <c r="H20" s="46">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4">
+      <c r="I20" s="46"/>
+      <c r="J20" s="46">
         <v>3</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="10" t="s">
+      <c r="N20" s="127" t="s">
         <v>270</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="126">
         <v>10</v>
       </c>
-      <c r="P20" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="37"/>
+      <c r="P20" s="126">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="122"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -14836,7 +14832,7 @@
       <c r="A22" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="129" t="s">
+      <c r="B22" s="128" t="s">
         <v>260</v>
       </c>
       <c r="C22" s="4">
@@ -14861,16 +14857,16 @@
       </c>
       <c r="L22" s="46"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="128" t="s">
+      <c r="N22" s="127" t="s">
         <v>258</v>
       </c>
-      <c r="O22" s="128">
-        <v>8</v>
-      </c>
-      <c r="P22" s="128">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="123"/>
+      <c r="O22" s="127">
+        <v>8</v>
+      </c>
+      <c r="P22" s="127">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="122"/>
     </row>
     <row r="23" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -14979,14 +14975,14 @@
       </c>
       <c r="L25" s="46"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="128" t="s">
+      <c r="N25" s="127" t="s">
         <v>259</v>
       </c>
-      <c r="O25" s="128">
-        <v>6</v>
-      </c>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="123"/>
+      <c r="O25" s="127">
+        <v>6</v>
+      </c>
+      <c r="P25" s="120"/>
+      <c r="Q25" s="122"/>
     </row>
     <row r="26" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
@@ -15017,14 +15013,14 @@
       </c>
       <c r="L26" s="46"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="128" t="s">
+      <c r="N26" s="127" t="s">
         <v>258</v>
       </c>
-      <c r="O26" s="128">
-        <v>8</v>
-      </c>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="123"/>
+      <c r="O26" s="127">
+        <v>8</v>
+      </c>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="122"/>
     </row>
     <row r="27" spans="1:17" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -15093,16 +15089,16 @@
       </c>
       <c r="L28" s="46"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="128" t="s">
+      <c r="N28" s="127" t="s">
         <v>252</v>
       </c>
-      <c r="O28" s="127">
-        <v>8</v>
-      </c>
-      <c r="P28" s="127">
-        <v>4</v>
-      </c>
-      <c r="Q28" s="123"/>
+      <c r="O28" s="126">
+        <v>8</v>
+      </c>
+      <c r="P28" s="126">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="122"/>
     </row>
     <row r="29" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="46" t="s">
@@ -15133,12 +15129,12 @@
       <c r="K29" s="46"/>
       <c r="L29" s="46"/>
       <c r="M29" s="46"/>
-      <c r="N29" s="121" t="s">
+      <c r="N29" s="120" t="s">
         <v>287</v>
       </c>
-      <c r="O29" s="121"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="123"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="122"/>
     </row>
     <row r="30" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
@@ -15171,56 +15167,56 @@
       <c r="M30" s="4">
         <v>8.0139999999999993</v>
       </c>
-      <c r="N30" s="128" t="s">
+      <c r="N30" s="127" t="s">
         <v>215</v>
       </c>
-      <c r="O30" s="128"/>
-      <c r="P30" s="128">
+      <c r="O30" s="127"/>
+      <c r="P30" s="127">
         <v>10</v>
       </c>
-      <c r="Q30" s="123"/>
+      <c r="Q30" s="122"/>
     </row>
     <row r="31" spans="1:17" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="46" t="s">
         <v>180</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="4">
-        <v>6</v>
-      </c>
-      <c r="E31" s="4">
-        <v>4</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4">
-        <v>6</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="D31" s="46">
+        <v>6</v>
+      </c>
+      <c r="E31" s="46">
+        <v>4</v>
+      </c>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46">
+        <v>6</v>
+      </c>
+      <c r="H31" s="46">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4">
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46">
         <v>3</v>
       </c>
-      <c r="L31" s="4"/>
+      <c r="L31" s="46"/>
       <c r="M31" s="4">
         <v>8.0139999999999993</v>
       </c>
-      <c r="N31" s="10" t="s">
+      <c r="N31" s="127" t="s">
         <v>223</v>
       </c>
-      <c r="O31" s="10">
-        <v>6</v>
-      </c>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="37"/>
-    </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O31" s="127">
+        <v>6</v>
+      </c>
+      <c r="P31" s="120"/>
+      <c r="Q31" s="122"/>
+    </row>
+    <row r="32" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>182</v>
       </c>
@@ -15375,12 +15371,12 @@
       <c r="M35" s="43">
         <v>20.204999999999998</v>
       </c>
-      <c r="N35" s="160" t="s">
+      <c r="N35" s="159" t="s">
         <v>326</v>
       </c>
-      <c r="O35" s="161"/>
-      <c r="P35" s="160"/>
-      <c r="Q35" s="161"/>
+      <c r="O35" s="160"/>
+      <c r="P35" s="159"/>
+      <c r="Q35" s="160"/>
     </row>
     <row r="36" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -15432,13 +15428,13 @@
         <v>304</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="157">
-        <v>6</v>
-      </c>
-      <c r="E37" s="157">
-        <v>4</v>
-      </c>
-      <c r="F37" s="157">
+      <c r="D37" s="156">
+        <v>6</v>
+      </c>
+      <c r="E37" s="156">
+        <v>4</v>
+      </c>
+      <c r="F37" s="156">
         <v>4</v>
       </c>
       <c r="G37" s="46">
@@ -15459,14 +15455,14 @@
       <c r="M37" s="4">
         <v>20.204999999999998</v>
       </c>
-      <c r="N37" s="158" t="s">
+      <c r="N37" s="157" t="s">
         <v>316</v>
       </c>
-      <c r="O37" s="159">
-        <v>6</v>
-      </c>
-      <c r="P37" s="121"/>
-      <c r="Q37" s="159"/>
+      <c r="O37" s="158">
+        <v>6</v>
+      </c>
+      <c r="P37" s="120"/>
+      <c r="Q37" s="158"/>
     </row>
     <row r="38" spans="1:17" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -15676,45 +15672,45 @@
       </c>
       <c r="Q42" s="66"/>
     </row>
-    <row r="43" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="107" t="s">
+    <row r="43" spans="1:17" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="106" t="s">
         <v>301</v>
       </c>
-      <c r="B43" s="107" t="s">
+      <c r="B43" s="106" t="s">
         <v>309</v>
       </c>
       <c r="C43" s="63"/>
-      <c r="D43" s="107">
-        <v>6</v>
-      </c>
-      <c r="E43" s="107">
-        <v>4</v>
-      </c>
-      <c r="F43" s="107">
-        <v>4</v>
-      </c>
-      <c r="G43" s="107">
-        <v>6</v>
-      </c>
-      <c r="H43" s="107">
+      <c r="D43" s="106">
+        <v>6</v>
+      </c>
+      <c r="E43" s="106">
+        <v>4</v>
+      </c>
+      <c r="F43" s="106">
+        <v>4</v>
+      </c>
+      <c r="G43" s="106">
+        <v>6</v>
+      </c>
+      <c r="H43" s="106">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>4</v>
       </c>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107">
-        <v>4</v>
-      </c>
-      <c r="K43" s="107"/>
-      <c r="L43" s="107"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="106">
+        <v>4</v>
+      </c>
+      <c r="K43" s="106"/>
+      <c r="L43" s="106"/>
       <c r="M43" s="43">
         <v>20.204999999999998</v>
       </c>
-      <c r="N43" s="108" t="s">
+      <c r="N43" s="107" t="s">
         <v>328</v>
       </c>
-      <c r="O43" s="109"/>
-      <c r="P43" s="108"/>
-      <c r="Q43" s="109"/>
+      <c r="O43" s="108"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="108"/>
     </row>
     <row r="44" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
@@ -15749,50 +15745,50 @@
       <c r="M44" s="43">
         <v>20.204999999999998</v>
       </c>
-      <c r="N44" s="160" t="s">
+      <c r="N44" s="159" t="s">
         <v>331</v>
       </c>
-      <c r="O44" s="173"/>
-      <c r="P44" s="160"/>
-      <c r="Q44" s="173"/>
-    </row>
-    <row r="45" spans="1:17" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="117" t="s">
+      <c r="O44" s="172"/>
+      <c r="P44" s="159"/>
+      <c r="Q44" s="172"/>
+    </row>
+    <row r="45" spans="1:17" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="116" t="s">
         <v>301</v>
       </c>
-      <c r="B45" s="117" t="s">
+      <c r="B45" s="116" t="s">
         <v>311</v>
       </c>
       <c r="C45" s="63"/>
-      <c r="D45" s="117">
-        <v>6</v>
-      </c>
-      <c r="E45" s="117">
-        <v>2</v>
-      </c>
-      <c r="F45" s="117">
-        <v>4</v>
-      </c>
-      <c r="G45" s="117">
-        <v>6</v>
-      </c>
-      <c r="H45" s="117">
+      <c r="D45" s="116">
+        <v>6</v>
+      </c>
+      <c r="E45" s="116">
+        <v>2</v>
+      </c>
+      <c r="F45" s="116">
+        <v>4</v>
+      </c>
+      <c r="G45" s="116">
+        <v>6</v>
+      </c>
+      <c r="H45" s="116">
         <f>Таблица6[[#This Row],[Годин 2 заїзд]]+Таблица6[[#This Row],[Годин 3 заїзд]]-Таблица6[[#This Row],[Використано годин]]</f>
         <v>2</v>
       </c>
-      <c r="I45" s="117"/>
-      <c r="J45" s="117"/>
-      <c r="K45" s="117">
-        <v>4</v>
-      </c>
-      <c r="L45" s="117"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="116">
+        <v>4</v>
+      </c>
+      <c r="L45" s="116"/>
       <c r="M45" s="48">
         <v>20.204999999999998</v>
       </c>
-      <c r="N45" s="118"/>
-      <c r="O45" s="119"/>
-      <c r="P45" s="118"/>
-      <c r="Q45" s="119"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="118"/>
+      <c r="P45" s="117"/>
+      <c r="Q45" s="118"/>
     </row>
     <row r="46" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
